--- a/informeFebrero2023.xlsx
+++ b/informeFebrero2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\COORD_INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4363C735-EE61-4E39-BDD8-F7D18687C375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D5A7BE-5467-4D35-8A45-A34A78924E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUISHPE" sheetId="4" r:id="rId1"/>
@@ -51,6 +51,160 @@
     <author>Manuel</author>
   </authors>
   <commentList>
+    <comment ref="F23" authorId="0" shapeId="0" xr:uid="{D82AE07E-E64E-4172-A87A-16FBD4BC386A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Solamente hay un video porque el miércoles 15/02 fue aniversario de la FCE.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F28" authorId="0" shapeId="0" xr:uid="{6B03A4BD-6B76-4D98-9B0E-038351F4DA0F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F30" authorId="0" shapeId="0" xr:uid="{417CFB07-4148-4B8C-AA07-6CAB77721492}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F31" authorId="0" shapeId="0" xr:uid="{B8ABF49E-7096-46A3-8E9A-41E8BF38968E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{BCB7886F-639D-460F-9774-C4D8CBBDDAA6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{173DFFC0-2F2D-4886-8CC4-8BEE0DC6EBF2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Manuel</author>
+  </authors>
+  <commentList>
     <comment ref="F13" authorId="0" shapeId="0" xr:uid="{821CD1A7-6F3A-47A4-A42E-4C7FD3CF0E38}">
       <text>
         <r>
@@ -75,11 +229,155 @@
         </r>
       </text>
     </comment>
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{E7004DB9-3521-4833-95EE-A900A7161104}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Solamente hay un video porque el 13/02 los estudiantes participaron en la casa abierta de la facultad por el aniversario.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{ACBC08B6-96BF-4B4C-AB10-933E9AC216D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{1980B03F-6D59-41B0-B16C-28F6A8EB168E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F31" authorId="0" shapeId="0" xr:uid="{C5BE7DB5-714E-4E2A-9065-5B9A9CA70648}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{B8EF8E69-14B3-424A-85AE-CFAD474B6209}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{60FD719A-472A-4B6A-AB97-E88A49C3B600}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Manuel</author>
@@ -325,11 +623,237 @@
         </r>
       </text>
     </comment>
+    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{EA8F530E-D00E-4171-8EE0-F01E55DC8728}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F30" authorId="0" shapeId="0" xr:uid="{A47C3981-72DB-4534-A364-46D18DE15294}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL. Este curso tiene horario de clases lunes y martes. Por ello el docente ha subido un video que contiene los trabajos de exposición de cuatro grupos de estudiantes.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{C0DD11D7-5F8A-4433-B025-CD3C6FC6BB86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{F93D8458-B340-4EB4-9F0B-0DD4F4652DD2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Manuel</author>
+  </authors>
+  <commentList>
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{FBDBBC71-A64D-451F-9A0A-CCBC09620925}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hay dos videos y no cuatro porque en uno de los dias de clase cayó en feriado de carnaval.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F25" authorId="0" shapeId="0" xr:uid="{905AE085-A27A-4CB9-88A6-3D83E2AAD7F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hay dos videos y no cuatro porque en uno de los dias de clase cayó en feriado de carnaval.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="0" shapeId="0" xr:uid="{A68B053F-AB19-47CB-8060-52C58DB52AD2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hay dos videos y no cuatro porque en uno de los dias de clase cayó en feriado de carnaval.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F28" authorId="0" shapeId="0" xr:uid="{42B71682-C443-4810-9B8C-0A4A89EB35D5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hay dos videos y no cuatro porque en uno de los dias de clase cayó en feriado de carnaval.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F29" authorId="0" shapeId="0" xr:uid="{DCBACBAB-8D06-4830-A100-483798B03978}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Hay un video asíncrono porque el único día de clases de la semana cayó en feriado de carnaval.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Manuel</author>
@@ -376,6 +900,78 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve"> Video subido.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="0" shapeId="0" xr:uid="{AB70F0C6-91A8-4BF1-B574-18120D571522}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F32" authorId="0" shapeId="0" xr:uid="{DAC74BF1-B283-41EA-8A21-03D9BE1D996C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F33" authorId="0" shapeId="0" xr:uid="{2D24FAC4-496A-4ED2-B1B5-9485C7B634B5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Manuel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+FERIADO DE CARNAVAL</t>
         </r>
       </text>
     </comment>
@@ -1001,7 +1597,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,6 +1637,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1113,7 +1715,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -1321,16 +1923,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="22" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1339,23 +1980,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1366,37 +2001,13 @@
     <xf numFmtId="10" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1505,6 +2116,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1764,12 +2379,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC52136-72AA-4346-91F4-7CF5ABA02F60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAC52136-72AA-4346-91F4-7CF5ABA02F60}">
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L15" sqref="L15"/>
+      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1791,11 +2406,11 @@
       <c r="J3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="83">
+      <c r="K3" s="86">
         <f ca="1">NOW()</f>
-        <v>44974.739132060182</v>
-      </c>
-      <c r="L3" s="84"/>
+        <v>44985.695302662039</v>
+      </c>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="29"/>
@@ -2284,12 +2899,20 @@
       <c r="D20" s="39">
         <v>1</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="57"/>
+      <c r="E20" s="16">
+        <v>4</v>
+      </c>
+      <c r="F20" s="57">
+        <v>2</v>
+      </c>
       <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="H20" s="16">
+        <v>1</v>
+      </c>
       <c r="I20" s="41"/>
-      <c r="J20" s="80"/>
+      <c r="J20" s="80">
+        <v>1</v>
+      </c>
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2307,12 +2930,20 @@
       <c r="D21" s="39">
         <v>1</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="57"/>
+      <c r="E21" s="16">
+        <v>4</v>
+      </c>
+      <c r="F21" s="57">
+        <v>2</v>
+      </c>
       <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="H21" s="16">
+        <v>1</v>
+      </c>
       <c r="I21" s="41"/>
-      <c r="J21" s="80"/>
+      <c r="J21" s="80">
+        <v>1</v>
+      </c>
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2330,12 +2961,20 @@
       <c r="D22" s="39">
         <v>1</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="57"/>
+      <c r="E22" s="16">
+        <v>4</v>
+      </c>
+      <c r="F22" s="57">
+        <v>2</v>
+      </c>
       <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="H22" s="16">
+        <v>1</v>
+      </c>
       <c r="I22" s="41"/>
-      <c r="J22" s="80"/>
+      <c r="J22" s="80">
+        <v>1</v>
+      </c>
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2353,12 +2992,20 @@
       <c r="D23" s="39">
         <v>1</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="57"/>
+      <c r="E23" s="16">
+        <v>4</v>
+      </c>
+      <c r="F23" s="110">
+        <v>1</v>
+      </c>
       <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="H23" s="16">
+        <v>1</v>
+      </c>
       <c r="I23" s="41"/>
-      <c r="J23" s="80"/>
+      <c r="J23" s="80">
+        <v>1</v>
+      </c>
       <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2376,12 +3023,20 @@
       <c r="D24" s="39">
         <v>1</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="57"/>
+      <c r="E24" s="16">
+        <v>4</v>
+      </c>
+      <c r="F24" s="57">
+        <v>2</v>
+      </c>
       <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="16">
+        <v>1</v>
+      </c>
       <c r="I24" s="41"/>
-      <c r="J24" s="80"/>
+      <c r="J24" s="80">
+        <v>1</v>
+      </c>
       <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2399,12 +3054,20 @@
       <c r="D25" s="39">
         <v>1</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="57"/>
+      <c r="E25" s="16">
+        <v>4</v>
+      </c>
+      <c r="F25" s="57">
+        <v>2</v>
+      </c>
       <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="H25" s="16">
+        <v>1</v>
+      </c>
       <c r="I25" s="41"/>
-      <c r="J25" s="80"/>
+      <c r="J25" s="80">
+        <v>1</v>
+      </c>
       <c r="K25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2422,12 +3085,20 @@
       <c r="D26" s="39">
         <v>1</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="57"/>
+      <c r="E26" s="16">
+        <v>4</v>
+      </c>
+      <c r="F26" s="57">
+        <v>2</v>
+      </c>
       <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
       <c r="I26" s="41"/>
-      <c r="J26" s="80"/>
+      <c r="J26" s="80">
+        <v>1</v>
+      </c>
       <c r="K26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2445,13 +3116,19 @@
       <c r="D27" s="18">
         <v>1</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="32"/>
+      <c r="E27" s="17">
+        <v>4</v>
+      </c>
+      <c r="F27" s="32">
+        <v>2</v>
+      </c>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="32"/>
       <c r="J27" s="81"/>
-      <c r="K27" s="17"/>
+      <c r="K27" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
@@ -2468,13 +3145,19 @@
       <c r="D28" s="18">
         <v>1</v>
       </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="32"/>
+      <c r="E28" s="17">
+        <v>4</v>
+      </c>
+      <c r="F28" s="109">
+        <v>1</v>
+      </c>
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="32"/>
       <c r="J28" s="81"/>
-      <c r="K28" s="17"/>
+      <c r="K28" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
@@ -2491,13 +3174,19 @@
       <c r="D29" s="18">
         <v>1</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="32"/>
+      <c r="E29" s="17">
+        <v>4</v>
+      </c>
+      <c r="F29" s="32">
+        <v>2</v>
+      </c>
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="32"/>
       <c r="J29" s="81"/>
-      <c r="K29" s="17"/>
+      <c r="K29" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -2514,13 +3203,19 @@
       <c r="D30" s="18">
         <v>1</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="32"/>
+      <c r="E30" s="17">
+        <v>4</v>
+      </c>
+      <c r="F30" s="109">
+        <v>1</v>
+      </c>
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="32"/>
       <c r="J30" s="81"/>
-      <c r="K30" s="17"/>
+      <c r="K30" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
@@ -2537,13 +3232,19 @@
       <c r="D31" s="18">
         <v>1</v>
       </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="32"/>
+      <c r="E31" s="17">
+        <v>4</v>
+      </c>
+      <c r="F31" s="109">
+        <v>1</v>
+      </c>
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="32"/>
       <c r="J31" s="81"/>
-      <c r="K31" s="17"/>
+      <c r="K31" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
@@ -2560,13 +3261,19 @@
       <c r="D32" s="18">
         <v>1</v>
       </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="32"/>
+      <c r="E32" s="17">
+        <v>4</v>
+      </c>
+      <c r="F32" s="109">
+        <v>1</v>
+      </c>
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="32"/>
       <c r="J32" s="81"/>
-      <c r="K32" s="17"/>
+      <c r="K32" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
@@ -2583,13 +3290,19 @@
       <c r="D33" s="18">
         <v>1</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="32"/>
+      <c r="E33" s="17">
+        <v>4</v>
+      </c>
+      <c r="F33" s="109">
+        <v>1</v>
+      </c>
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="32"/>
       <c r="J33" s="81"/>
-      <c r="K33" s="17"/>
+      <c r="K33" s="17">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
@@ -2759,6 +3472,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2767,8 +3481,8 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19:J19"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2791,11 +3505,11 @@
       <c r="J3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="83">
+      <c r="K3" s="86">
         <f ca="1">NOW()</f>
-        <v>44974.739132060182</v>
-      </c>
-      <c r="L3" s="84"/>
+        <v>44985.695302662039</v>
+      </c>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="29"/>
@@ -2882,7 +3596,7 @@
       <c r="E7" s="16">
         <v>2</v>
       </c>
-      <c r="F7" s="107">
+      <c r="F7" s="84">
         <v>2</v>
       </c>
       <c r="G7" s="16"/>
@@ -2911,7 +3625,7 @@
       <c r="E8" s="16">
         <v>2</v>
       </c>
-      <c r="F8" s="107">
+      <c r="F8" s="84">
         <v>2</v>
       </c>
       <c r="G8" s="16"/>
@@ -2940,7 +3654,7 @@
       <c r="E9" s="16">
         <v>2</v>
       </c>
-      <c r="F9" s="107">
+      <c r="F9" s="84">
         <v>2</v>
       </c>
       <c r="G9" s="16"/>
@@ -2969,7 +3683,7 @@
       <c r="E10" s="16">
         <v>2</v>
       </c>
-      <c r="F10" s="107">
+      <c r="F10" s="84">
         <v>2</v>
       </c>
       <c r="G10" s="16"/>
@@ -3056,7 +3770,7 @@
       <c r="E13" s="24">
         <v>2</v>
       </c>
-      <c r="F13" s="108">
+      <c r="F13" s="85">
         <v>1</v>
       </c>
       <c r="G13" s="24">
@@ -3118,7 +3832,7 @@
       <c r="E15" s="24">
         <v>2</v>
       </c>
-      <c r="F15" s="108">
+      <c r="F15" s="85">
         <v>1</v>
       </c>
       <c r="G15" s="24">
@@ -3211,7 +3925,7 @@
       <c r="E18" s="24">
         <v>2</v>
       </c>
-      <c r="F18" s="108">
+      <c r="F18" s="85">
         <v>1</v>
       </c>
       <c r="G18" s="24">
@@ -3242,7 +3956,7 @@
       <c r="E19" s="24">
         <v>2</v>
       </c>
-      <c r="F19" s="108">
+      <c r="F19" s="85">
         <v>1</v>
       </c>
       <c r="G19" s="24">
@@ -3270,10 +3984,16 @@
       <c r="D20" s="39">
         <v>1</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="41"/>
+      <c r="E20" s="16">
+        <v>3</v>
+      </c>
+      <c r="F20" s="41">
+        <v>2</v>
+      </c>
       <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="H20" s="16">
+        <v>1</v>
+      </c>
       <c r="I20" s="41"/>
       <c r="J20" s="16"/>
       <c r="K20" s="16"/>
@@ -3293,10 +4013,16 @@
       <c r="D21" s="39">
         <v>1</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="41"/>
+      <c r="E21" s="16">
+        <v>4</v>
+      </c>
+      <c r="F21" s="41">
+        <v>2</v>
+      </c>
       <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="H21" s="16">
+        <v>1</v>
+      </c>
       <c r="I21" s="41"/>
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
@@ -3316,10 +4042,16 @@
       <c r="D22" s="39">
         <v>1</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="41"/>
+      <c r="E22" s="16">
+        <v>3</v>
+      </c>
+      <c r="F22" s="41">
+        <v>2</v>
+      </c>
       <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="H22" s="16">
+        <v>1</v>
+      </c>
       <c r="I22" s="41"/>
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
@@ -3339,10 +4071,16 @@
       <c r="D23" s="39">
         <v>1</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="41"/>
+      <c r="E23" s="16">
+        <v>3</v>
+      </c>
+      <c r="F23" s="41">
+        <v>2</v>
+      </c>
       <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="H23" s="16">
+        <v>1</v>
+      </c>
       <c r="I23" s="41"/>
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
@@ -3362,10 +4100,16 @@
       <c r="D24" s="39">
         <v>1</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="41"/>
+      <c r="E24" s="16">
+        <v>3</v>
+      </c>
+      <c r="F24" s="41">
+        <v>2</v>
+      </c>
       <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="16">
+        <v>1</v>
+      </c>
       <c r="I24" s="41"/>
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
@@ -3385,10 +4129,16 @@
       <c r="D25" s="39">
         <v>1</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="41"/>
+      <c r="E25" s="16">
+        <v>3</v>
+      </c>
+      <c r="F25" s="41">
+        <v>2</v>
+      </c>
       <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="H25" s="16">
+        <v>1</v>
+      </c>
       <c r="I25" s="41"/>
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
@@ -3408,10 +4158,16 @@
       <c r="D26" s="39">
         <v>1</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="41"/>
+      <c r="E26" s="16">
+        <v>3</v>
+      </c>
+      <c r="F26" s="111">
+        <v>1</v>
+      </c>
       <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
       <c r="I26" s="41"/>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
@@ -3431,13 +4187,19 @@
       <c r="D27" s="25">
         <v>1</v>
       </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="43"/>
+      <c r="E27" s="24">
+        <v>2</v>
+      </c>
+      <c r="F27" s="109">
+        <v>1</v>
+      </c>
       <c r="G27" s="24"/>
       <c r="H27" s="24"/>
       <c r="I27" s="43"/>
       <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
+      <c r="K27" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -3454,13 +4216,19 @@
       <c r="D28" s="25">
         <v>1</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="43"/>
+      <c r="E28" s="24">
+        <v>2</v>
+      </c>
+      <c r="F28" s="43">
+        <v>2</v>
+      </c>
       <c r="G28" s="24"/>
       <c r="H28" s="24"/>
       <c r="I28" s="43"/>
       <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
+      <c r="K28" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -3477,13 +4245,19 @@
       <c r="D29" s="25">
         <v>1</v>
       </c>
-      <c r="E29" s="24"/>
-      <c r="F29" s="43"/>
+      <c r="E29" s="24">
+        <v>2</v>
+      </c>
+      <c r="F29" s="109">
+        <v>1</v>
+      </c>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
       <c r="I29" s="43"/>
       <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="K29" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -3500,13 +4274,19 @@
       <c r="D30" s="25">
         <v>1</v>
       </c>
-      <c r="E30" s="24"/>
-      <c r="F30" s="43"/>
+      <c r="E30" s="24">
+        <v>2</v>
+      </c>
+      <c r="F30" s="43">
+        <v>2</v>
+      </c>
       <c r="G30" s="24"/>
       <c r="H30" s="24"/>
       <c r="I30" s="43"/>
       <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
+      <c r="K30" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -3523,13 +4303,19 @@
       <c r="D31" s="25">
         <v>1</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="43"/>
+      <c r="E31" s="24">
+        <v>2</v>
+      </c>
+      <c r="F31" s="109">
+        <v>1</v>
+      </c>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
       <c r="I31" s="43"/>
       <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
+      <c r="K31" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -3546,13 +4332,19 @@
       <c r="D32" s="25">
         <v>1</v>
       </c>
-      <c r="E32" s="24"/>
-      <c r="F32" s="43"/>
+      <c r="E32" s="24">
+        <v>2</v>
+      </c>
+      <c r="F32" s="109">
+        <v>1</v>
+      </c>
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
       <c r="I32" s="43"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
+      <c r="K32" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -3569,13 +4361,19 @@
       <c r="D33" s="25">
         <v>1</v>
       </c>
-      <c r="E33" s="24"/>
-      <c r="F33" s="43"/>
+      <c r="E33" s="24">
+        <v>2</v>
+      </c>
+      <c r="F33" s="109">
+        <v>1</v>
+      </c>
       <c r="G33" s="24"/>
       <c r="H33" s="24"/>
       <c r="I33" s="43"/>
       <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
+      <c r="K33" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -3754,8 +4552,8 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3778,11 +4576,11 @@
       <c r="J3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="83">
+      <c r="K3" s="86">
         <f ca="1">NOW()</f>
-        <v>44974.739132060182</v>
-      </c>
-      <c r="L3" s="84"/>
+        <v>44985.695302662039</v>
+      </c>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="29"/>
@@ -4255,12 +5053,20 @@
       <c r="D20" s="39">
         <v>1</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="41"/>
+      <c r="E20" s="16">
+        <v>4</v>
+      </c>
+      <c r="F20" s="41">
+        <v>2</v>
+      </c>
       <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="H20" s="16">
+        <v>1</v>
+      </c>
       <c r="I20" s="41"/>
-      <c r="J20" s="16"/>
+      <c r="J20" s="16">
+        <v>1</v>
+      </c>
       <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4278,12 +5084,20 @@
       <c r="D21" s="39">
         <v>1</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="41"/>
+      <c r="E21" s="16">
+        <v>4</v>
+      </c>
+      <c r="F21" s="41">
+        <v>2</v>
+      </c>
       <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="H21" s="16">
+        <v>1</v>
+      </c>
       <c r="I21" s="41"/>
-      <c r="J21" s="16"/>
+      <c r="J21" s="16">
+        <v>1</v>
+      </c>
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4301,12 +5115,20 @@
       <c r="D22" s="39">
         <v>1</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="41"/>
+      <c r="E22" s="16">
+        <v>4</v>
+      </c>
+      <c r="F22" s="41">
+        <v>2</v>
+      </c>
       <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="H22" s="16">
+        <v>1</v>
+      </c>
       <c r="I22" s="41"/>
-      <c r="J22" s="16"/>
+      <c r="J22" s="16">
+        <v>1</v>
+      </c>
       <c r="K22" s="16"/>
     </row>
     <row r="23" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4324,12 +5146,20 @@
       <c r="D23" s="39">
         <v>1</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="41"/>
+      <c r="E23" s="16">
+        <v>4</v>
+      </c>
+      <c r="F23" s="41">
+        <v>2</v>
+      </c>
       <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="H23" s="16">
+        <v>1</v>
+      </c>
       <c r="I23" s="41"/>
-      <c r="J23" s="16"/>
+      <c r="J23" s="16">
+        <v>1</v>
+      </c>
       <c r="K23" s="16"/>
     </row>
     <row r="24" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4347,12 +5177,20 @@
       <c r="D24" s="39">
         <v>1</v>
       </c>
-      <c r="E24" s="16"/>
-      <c r="F24" s="41"/>
+      <c r="E24" s="16">
+        <v>4</v>
+      </c>
+      <c r="F24" s="41">
+        <v>2</v>
+      </c>
       <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="H24" s="16">
+        <v>1</v>
+      </c>
       <c r="I24" s="41"/>
-      <c r="J24" s="16"/>
+      <c r="J24" s="16">
+        <v>1</v>
+      </c>
       <c r="K24" s="16"/>
     </row>
     <row r="25" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4370,12 +5208,20 @@
       <c r="D25" s="39">
         <v>1</v>
       </c>
-      <c r="E25" s="16"/>
-      <c r="F25" s="41"/>
+      <c r="E25" s="16">
+        <v>4</v>
+      </c>
+      <c r="F25" s="41">
+        <v>2</v>
+      </c>
       <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="H25" s="16">
+        <v>1</v>
+      </c>
       <c r="I25" s="41"/>
-      <c r="J25" s="16"/>
+      <c r="J25" s="16">
+        <v>1</v>
+      </c>
       <c r="K25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4393,12 +5239,20 @@
       <c r="D26" s="39">
         <v>1</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="41"/>
+      <c r="E26" s="16">
+        <v>4</v>
+      </c>
+      <c r="F26" s="41">
+        <v>2</v>
+      </c>
       <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
       <c r="I26" s="41"/>
-      <c r="J26" s="16"/>
+      <c r="J26" s="16">
+        <v>1</v>
+      </c>
       <c r="K26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -4416,13 +5270,19 @@
       <c r="D27" s="45">
         <v>1</v>
       </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="47"/>
+      <c r="E27" s="44">
+        <v>4</v>
+      </c>
+      <c r="F27" s="47">
+        <v>2</v>
+      </c>
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
       <c r="I27" s="47"/>
       <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
+      <c r="K27" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
@@ -4439,13 +5299,19 @@
       <c r="D28" s="45">
         <v>1</v>
       </c>
-      <c r="E28" s="44"/>
-      <c r="F28" s="47"/>
+      <c r="E28" s="44">
+        <v>4</v>
+      </c>
+      <c r="F28" s="47">
+        <v>2</v>
+      </c>
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
       <c r="I28" s="47"/>
       <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
+      <c r="K28" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
@@ -4462,13 +5328,19 @@
       <c r="D29" s="45">
         <v>1</v>
       </c>
-      <c r="E29" s="44"/>
-      <c r="F29" s="47"/>
+      <c r="E29" s="44">
+        <v>4</v>
+      </c>
+      <c r="F29" s="109">
+        <v>1</v>
+      </c>
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
       <c r="I29" s="47"/>
       <c r="J29" s="44"/>
-      <c r="K29" s="44"/>
+      <c r="K29" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -4485,13 +5357,19 @@
       <c r="D30" s="45">
         <v>1</v>
       </c>
-      <c r="E30" s="44"/>
-      <c r="F30" s="47"/>
+      <c r="E30" s="44">
+        <v>4</v>
+      </c>
+      <c r="F30" s="109">
+        <v>1</v>
+      </c>
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
       <c r="I30" s="47"/>
       <c r="J30" s="44"/>
-      <c r="K30" s="44"/>
+      <c r="K30" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -4508,13 +5386,19 @@
       <c r="D31" s="45">
         <v>1</v>
       </c>
-      <c r="E31" s="44"/>
-      <c r="F31" s="47"/>
+      <c r="E31" s="44">
+        <v>4</v>
+      </c>
+      <c r="F31" s="47">
+        <v>2</v>
+      </c>
       <c r="G31" s="44"/>
       <c r="H31" s="44"/>
       <c r="I31" s="47"/>
       <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
+      <c r="K31" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -4531,13 +5415,19 @@
       <c r="D32" s="45">
         <v>1</v>
       </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="47"/>
+      <c r="E32" s="44">
+        <v>4</v>
+      </c>
+      <c r="F32" s="109">
+        <v>1</v>
+      </c>
       <c r="G32" s="44"/>
       <c r="H32" s="44"/>
       <c r="I32" s="47"/>
       <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
+      <c r="K32" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
@@ -4554,13 +5444,19 @@
       <c r="D33" s="45">
         <v>1</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="47"/>
+      <c r="E33" s="44">
+        <v>4</v>
+      </c>
+      <c r="F33" s="109">
+        <v>1</v>
+      </c>
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
       <c r="I33" s="47"/>
       <c r="J33" s="44"/>
-      <c r="K33" s="44"/>
+      <c r="K33" s="44">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
@@ -4735,12 +5631,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3C2417-2AB0-432E-AB08-B8A89ADD7E83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3C2417-2AB0-432E-AB08-B8A89ADD7E83}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4763,11 +5659,11 @@
       <c r="J3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="83">
+      <c r="K3" s="86">
         <f ca="1">NOW()</f>
-        <v>44974.739132060182</v>
-      </c>
-      <c r="L3" s="84"/>
+        <v>44985.695302662039</v>
+      </c>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="29"/>
@@ -5194,13 +6090,19 @@
       <c r="D18" s="39">
         <v>1</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="41"/>
+      <c r="E18" s="16">
+        <v>1</v>
+      </c>
+      <c r="F18" s="41">
+        <v>6</v>
+      </c>
       <c r="G18" s="16"/>
       <c r="H18" s="16"/>
       <c r="I18" s="41"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
+      <c r="K18" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
@@ -5217,13 +6119,19 @@
       <c r="D19" s="39">
         <v>1</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="41"/>
+      <c r="E19" s="16">
+        <v>1</v>
+      </c>
+      <c r="F19" s="41">
+        <v>4</v>
+      </c>
       <c r="G19" s="16"/>
       <c r="H19" s="16"/>
       <c r="I19" s="41"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
+      <c r="K19" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
@@ -5240,13 +6148,19 @@
       <c r="D20" s="39">
         <v>1</v>
       </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="41"/>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
+      <c r="F20" s="41">
+        <v>4</v>
+      </c>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="41"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="K20" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
@@ -5263,13 +6177,19 @@
       <c r="D21" s="39">
         <v>1</v>
       </c>
-      <c r="E21" s="16"/>
-      <c r="F21" s="41"/>
+      <c r="E21" s="16">
+        <v>1</v>
+      </c>
+      <c r="F21" s="41">
+        <v>4</v>
+      </c>
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="41"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
+      <c r="K21" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
@@ -5286,13 +6206,19 @@
       <c r="D22" s="39">
         <v>1</v>
       </c>
-      <c r="E22" s="16"/>
-      <c r="F22" s="41"/>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="41">
+        <v>4</v>
+      </c>
       <c r="G22" s="16"/>
       <c r="H22" s="16"/>
       <c r="I22" s="41"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+      <c r="K22" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="55" t="s">
@@ -5309,8 +6235,12 @@
       <c r="D23" s="39">
         <v>1</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="41"/>
+      <c r="E23" s="16">
+        <v>3</v>
+      </c>
+      <c r="F23" s="41">
+        <v>2</v>
+      </c>
       <c r="G23" s="16"/>
       <c r="H23" s="16"/>
       <c r="I23" s="41"/>
@@ -5332,8 +6262,12 @@
       <c r="D24" s="49">
         <v>1</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="51"/>
+      <c r="E24" s="48">
+        <v>1</v>
+      </c>
+      <c r="F24" s="109">
+        <v>2</v>
+      </c>
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
       <c r="I24" s="51"/>
@@ -5355,8 +6289,12 @@
       <c r="D25" s="49">
         <v>1</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="51"/>
+      <c r="E25" s="48">
+        <v>1</v>
+      </c>
+      <c r="F25" s="109">
+        <v>2</v>
+      </c>
       <c r="G25" s="48"/>
       <c r="H25" s="48"/>
       <c r="I25" s="51"/>
@@ -5378,8 +6316,12 @@
       <c r="D26" s="49">
         <v>1</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="51"/>
+      <c r="E26" s="48">
+        <v>1</v>
+      </c>
+      <c r="F26" s="109">
+        <v>2</v>
+      </c>
       <c r="G26" s="48"/>
       <c r="H26" s="48"/>
       <c r="I26" s="51"/>
@@ -5401,8 +6343,12 @@
       <c r="D27" s="49">
         <v>1</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="51"/>
+      <c r="E27" s="48">
+        <v>1</v>
+      </c>
+      <c r="F27" s="51">
+        <v>4</v>
+      </c>
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
       <c r="I27" s="51"/>
@@ -5424,8 +6370,12 @@
       <c r="D28" s="49">
         <v>1</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="51"/>
+      <c r="E28" s="48">
+        <v>1</v>
+      </c>
+      <c r="F28" s="109">
+        <v>2</v>
+      </c>
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
       <c r="I28" s="51"/>
@@ -5447,8 +6397,12 @@
       <c r="D29" s="49">
         <v>1</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="51"/>
+      <c r="E29" s="48">
+        <v>1</v>
+      </c>
+      <c r="F29" s="109">
+        <v>1</v>
+      </c>
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
       <c r="I29" s="51"/>
@@ -5470,8 +6424,12 @@
       <c r="D30" s="39">
         <v>1</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="42"/>
+      <c r="E30" s="16">
+        <v>1</v>
+      </c>
+      <c r="F30" s="42">
+        <v>2</v>
+      </c>
       <c r="G30" s="16"/>
       <c r="H30" s="16"/>
       <c r="I30" s="42"/>
@@ -5493,8 +6451,12 @@
       <c r="D31" s="39">
         <v>1</v>
       </c>
-      <c r="E31" s="16"/>
-      <c r="F31" s="42"/>
+      <c r="E31" s="16">
+        <v>1</v>
+      </c>
+      <c r="F31" s="42">
+        <v>2</v>
+      </c>
       <c r="G31" s="16"/>
       <c r="H31" s="16"/>
       <c r="I31" s="42"/>
@@ -5516,8 +6478,12 @@
       <c r="D32" s="39">
         <v>1</v>
       </c>
-      <c r="E32" s="16"/>
-      <c r="F32" s="42"/>
+      <c r="E32" s="16">
+        <v>1</v>
+      </c>
+      <c r="F32" s="42">
+        <v>2</v>
+      </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
       <c r="I32" s="42"/>
@@ -5562,8 +6528,12 @@
       <c r="D34" s="39">
         <v>1</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="42"/>
+      <c r="E34" s="16">
+        <v>1</v>
+      </c>
+      <c r="F34" s="42">
+        <v>2</v>
+      </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="42"/>
@@ -5585,8 +6555,12 @@
       <c r="D35" s="39">
         <v>1</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="42"/>
+      <c r="E35" s="16">
+        <v>1</v>
+      </c>
+      <c r="F35" s="42">
+        <v>2</v>
+      </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="42"/>
@@ -5600,6 +6574,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5608,8 +6583,8 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5633,11 +6608,11 @@
       <c r="J3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="83">
+      <c r="K3" s="86">
         <f ca="1">NOW()</f>
-        <v>44974.739132060182</v>
-      </c>
-      <c r="L3" s="84"/>
+        <v>44985.695302662039</v>
+      </c>
+      <c r="L3" s="87"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="62"/>
@@ -5791,7 +6766,7 @@
       <c r="E9" s="67">
         <v>3</v>
       </c>
-      <c r="F9" s="106">
+      <c r="F9" s="83">
         <v>1</v>
       </c>
       <c r="G9" s="67">
@@ -6133,10 +7108,18 @@
       <c r="D20" s="70">
         <v>1</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
+      <c r="E20" s="67">
+        <v>4</v>
+      </c>
+      <c r="F20" s="67">
+        <v>2</v>
+      </c>
+      <c r="G20" s="67">
+        <v>1</v>
+      </c>
+      <c r="H20" s="67">
+        <v>2</v>
+      </c>
       <c r="I20" s="67"/>
       <c r="J20" s="67"/>
       <c r="K20" s="67"/>
@@ -6156,10 +7139,18 @@
       <c r="D21" s="70">
         <v>1</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
+      <c r="E21" s="67">
+        <v>4</v>
+      </c>
+      <c r="F21" s="67">
+        <v>3</v>
+      </c>
+      <c r="G21" s="67">
+        <v>1</v>
+      </c>
+      <c r="H21" s="67">
+        <v>2</v>
+      </c>
       <c r="I21" s="67"/>
       <c r="J21" s="67"/>
       <c r="K21" s="67"/>
@@ -6179,10 +7170,18 @@
       <c r="D22" s="70">
         <v>1</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
+      <c r="E22" s="67">
+        <v>4</v>
+      </c>
+      <c r="F22" s="67">
+        <v>2</v>
+      </c>
+      <c r="G22" s="67">
+        <v>1</v>
+      </c>
+      <c r="H22" s="67">
+        <v>2</v>
+      </c>
       <c r="I22" s="67"/>
       <c r="J22" s="67"/>
       <c r="K22" s="67"/>
@@ -6202,10 +7201,18 @@
       <c r="D23" s="70">
         <v>1</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="E23" s="67">
+        <v>4</v>
+      </c>
+      <c r="F23" s="67">
+        <v>2</v>
+      </c>
+      <c r="G23" s="67">
+        <v>1</v>
+      </c>
+      <c r="H23" s="67">
+        <v>2</v>
+      </c>
       <c r="I23" s="67"/>
       <c r="J23" s="67"/>
       <c r="K23" s="67"/>
@@ -6225,10 +7232,18 @@
       <c r="D24" s="70">
         <v>1</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="E24" s="67">
+        <v>4</v>
+      </c>
+      <c r="F24" s="67">
+        <v>2</v>
+      </c>
+      <c r="G24" s="67">
+        <v>1</v>
+      </c>
+      <c r="H24" s="67">
+        <v>2</v>
+      </c>
       <c r="I24" s="67"/>
       <c r="J24" s="67"/>
       <c r="K24" s="67"/>
@@ -6248,10 +7263,18 @@
       <c r="D25" s="70">
         <v>1</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="E25" s="67">
+        <v>4</v>
+      </c>
+      <c r="F25" s="67">
+        <v>2</v>
+      </c>
+      <c r="G25" s="67">
+        <v>1</v>
+      </c>
+      <c r="H25" s="67">
+        <v>2</v>
+      </c>
       <c r="I25" s="67"/>
       <c r="J25" s="67"/>
       <c r="K25" s="67"/>
@@ -6271,10 +7294,18 @@
       <c r="D26" s="70">
         <v>1</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="E26" s="67">
+        <v>4</v>
+      </c>
+      <c r="F26" s="67">
+        <v>2</v>
+      </c>
+      <c r="G26" s="67">
+        <v>1</v>
+      </c>
+      <c r="H26" s="67">
+        <v>2</v>
+      </c>
       <c r="I26" s="67"/>
       <c r="J26" s="67"/>
       <c r="K26" s="67"/>
@@ -6294,13 +7325,21 @@
       <c r="D27" s="72">
         <v>1</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
+      <c r="E27" s="71">
+        <v>2</v>
+      </c>
+      <c r="F27" s="109">
+        <v>1</v>
+      </c>
       <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
+      <c r="H27" s="71">
+        <v>1</v>
+      </c>
       <c r="I27" s="71"/>
       <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
+      <c r="K27" s="71">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="66" t="s">
@@ -6317,13 +7356,23 @@
       <c r="D28" s="72">
         <v>1</v>
       </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
+      <c r="E28" s="71">
+        <v>2</v>
+      </c>
+      <c r="F28" s="71">
+        <v>2</v>
+      </c>
+      <c r="G28" s="71">
+        <v>1</v>
+      </c>
+      <c r="H28" s="71">
+        <v>1</v>
+      </c>
       <c r="I28" s="71"/>
       <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
+      <c r="K28" s="71">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="69" t="s">
@@ -6340,13 +7389,23 @@
       <c r="D29" s="72">
         <v>1</v>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
+      <c r="E29" s="71">
+        <v>2</v>
+      </c>
+      <c r="F29" s="71">
+        <v>2</v>
+      </c>
+      <c r="G29" s="71">
+        <v>1</v>
+      </c>
+      <c r="H29" s="71">
+        <v>1</v>
+      </c>
       <c r="I29" s="71"/>
       <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
+      <c r="K29" s="71">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="66" t="s">
@@ -6363,13 +7422,23 @@
       <c r="D30" s="72">
         <v>1</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
+      <c r="E30" s="71">
+        <v>2</v>
+      </c>
+      <c r="F30" s="71">
+        <v>2</v>
+      </c>
+      <c r="G30" s="71">
+        <v>1</v>
+      </c>
+      <c r="H30" s="71">
+        <v>1</v>
+      </c>
       <c r="I30" s="71"/>
       <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
+      <c r="K30" s="71">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="66" t="s">
@@ -6386,13 +7455,23 @@
       <c r="D31" s="72">
         <v>1</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
+      <c r="E31" s="71">
+        <v>2</v>
+      </c>
+      <c r="F31" s="71">
+        <v>2</v>
+      </c>
+      <c r="G31" s="71">
+        <v>1</v>
+      </c>
+      <c r="H31" s="71">
+        <v>1</v>
+      </c>
       <c r="I31" s="71"/>
       <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
+      <c r="K31" s="71">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="66" t="s">
@@ -6409,13 +7488,21 @@
       <c r="D32" s="72">
         <v>1</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
+      <c r="E32" s="71">
+        <v>2</v>
+      </c>
+      <c r="F32" s="109">
+        <v>1</v>
+      </c>
       <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
+      <c r="H32" s="71">
+        <v>1</v>
+      </c>
       <c r="I32" s="71"/>
       <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
+      <c r="K32" s="71">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="69" t="s">
@@ -6432,13 +7519,21 @@
       <c r="D33" s="72">
         <v>1</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
+      <c r="E33" s="71">
+        <v>2</v>
+      </c>
+      <c r="F33" s="109">
+        <v>1</v>
+      </c>
       <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
+      <c r="H33" s="71">
+        <v>1</v>
+      </c>
       <c r="I33" s="71"/>
       <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
+      <c r="K33" s="71">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="66" t="s">
@@ -6619,7 +7714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T213"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A188" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A173" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="O96" sqref="O96"/>
     </sheetView>
   </sheetViews>
@@ -6714,37 +7809,37 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="101">
-        <v>1</v>
-      </c>
-      <c r="G9" s="103" t="s">
+      <c r="F9" s="97">
+        <v>1</v>
+      </c>
+      <c r="G9" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="103" t="s">
+      <c r="J9" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="103" t="s">
+      <c r="K9" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="85" t="s">
+      <c r="L9" s="92" t="s">
         <v>39</v>
       </c>
       <c r="M9" s="5">
@@ -6765,17 +7860,17 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
-      <c r="L10" s="86"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="93"/>
       <c r="M10" s="12">
         <v>2</v>
       </c>
@@ -6794,27 +7889,27 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="86"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
+      <c r="L11" s="93"/>
       <c r="M11" s="12">
         <v>3</v>
       </c>
-      <c r="N11" s="12" t="str">
+      <c r="N11" s="12">
         <f>IF(QUISHPE!E20="","",QUISHPE!E20)</f>
-        <v/>
-      </c>
-      <c r="O11" s="75" t="str">
+        <v>4</v>
+      </c>
+      <c r="O11" s="75">
         <f>IF(N11="","",QUISHPE!F20)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -6823,27 +7918,27 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="86"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="89"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="89"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="89"/>
+      <c r="L12" s="93"/>
       <c r="M12" s="12">
         <v>4</v>
       </c>
-      <c r="N12" s="12" t="str">
+      <c r="N12" s="12">
         <f>IF(QUISHPE!E27="","",QUISHPE!E27)</f>
-        <v/>
-      </c>
-      <c r="O12" s="75" t="str">
+        <v>4</v>
+      </c>
+      <c r="O12" s="75">
         <f>IF(N12="","",QUISHPE!F27)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -6852,17 +7947,17 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
-      <c r="L13" s="86"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="93"/>
       <c r="M13" s="12">
         <v>5</v>
       </c>
@@ -6881,17 +7976,17 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
-      <c r="L14" s="87" t="s">
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="100" t="s">
         <v>40</v>
       </c>
       <c r="M14" s="52">
@@ -6912,17 +8007,17 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="100"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="100"/>
-      <c r="L15" s="88"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="89"/>
+      <c r="J15" s="89"/>
+      <c r="K15" s="89"/>
+      <c r="L15" s="101"/>
       <c r="M15" s="19">
         <v>2</v>
       </c>
@@ -6941,27 +8036,27 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="100"/>
-      <c r="J16" s="100"/>
-      <c r="K16" s="100"/>
-      <c r="L16" s="88"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="101"/>
       <c r="M16" s="19">
         <v>3</v>
       </c>
-      <c r="N16" s="19" t="str">
+      <c r="N16" s="19">
         <f>IF(QUISHPE!E21="","",QUISHPE!E21)</f>
-        <v/>
-      </c>
-      <c r="O16" s="76" t="str">
+        <v>4</v>
+      </c>
+      <c r="O16" s="76">
         <f>IF(N16="","",QUISHPE!F21)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -6970,27 +8065,27 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="100"/>
-      <c r="J17" s="100"/>
-      <c r="K17" s="100"/>
-      <c r="L17" s="88"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89"/>
+      <c r="L17" s="101"/>
       <c r="M17" s="19">
         <v>4</v>
       </c>
-      <c r="N17" s="19" t="str">
+      <c r="N17" s="19">
         <f>IF(QUISHPE!E28="","",QUISHPE!E28)</f>
-        <v/>
-      </c>
-      <c r="O17" s="76" t="str">
+        <v>4</v>
+      </c>
+      <c r="O17" s="76">
         <f>IF(N17="","",QUISHPE!F28)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -6999,17 +8094,17 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="100"/>
-      <c r="L18" s="88"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
+      <c r="L18" s="101"/>
       <c r="M18" s="19">
         <v>5</v>
       </c>
@@ -7028,17 +8123,17 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="85" t="s">
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="89"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="92" t="s">
         <v>41</v>
       </c>
       <c r="M19" s="5">
@@ -7059,17 +8154,17 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="86"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="89"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="89"/>
+      <c r="L20" s="93"/>
       <c r="M20" s="12">
         <v>2</v>
       </c>
@@ -7088,27 +8183,27 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="86"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="89"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="89"/>
+      <c r="L21" s="93"/>
       <c r="M21" s="12">
         <v>3</v>
       </c>
-      <c r="N21" s="19" t="str">
+      <c r="N21" s="19">
         <f>IF(QUISHPE!E22="","",QUISHPE!E22)</f>
-        <v/>
-      </c>
-      <c r="O21" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O21" s="73">
         <f>IF(N21="","",QUISHPE!F22)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -7117,27 +8212,27 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
-      <c r="L22" s="86"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
+      <c r="L22" s="93"/>
       <c r="M22" s="12">
         <v>4</v>
       </c>
-      <c r="N22" s="19" t="str">
+      <c r="N22" s="19">
         <f>IF(QUISHPE!E29="","",QUISHPE!E29)</f>
-        <v/>
-      </c>
-      <c r="O22" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O22" s="73">
         <f>IF(N22="","",QUISHPE!F29)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
@@ -7146,17 +8241,17 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
-      <c r="L23" s="86"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="89"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="89"/>
+      <c r="L23" s="93"/>
       <c r="M23" s="12">
         <v>5</v>
       </c>
@@ -7175,17 +8270,17 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="98"/>
-      <c r="C24" s="98"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="100"/>
-      <c r="L24" s="85" t="s">
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="89"/>
+      <c r="L24" s="92" t="s">
         <v>42</v>
       </c>
       <c r="M24" s="5">
@@ -7206,17 +8301,17 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="98"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="100"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="100"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="100"/>
-      <c r="L25" s="86"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="93"/>
       <c r="M25" s="12">
         <v>2</v>
       </c>
@@ -7235,27 +8330,27 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="100"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="100"/>
-      <c r="L26" s="86"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="93"/>
       <c r="M26" s="12">
         <v>3</v>
       </c>
-      <c r="N26" s="19" t="str">
+      <c r="N26" s="19">
         <f>IF(QUISHPE!E23="","",QUISHPE!E23)</f>
-        <v/>
-      </c>
-      <c r="O26" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O26" s="73">
         <f>IF(N26="","",QUISHPE!F23)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -7264,27 +8359,27 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="100"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="100"/>
-      <c r="L27" s="86"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="93"/>
       <c r="M27" s="12">
         <v>4</v>
       </c>
-      <c r="N27" s="19" t="str">
+      <c r="N27" s="19">
         <f>IF(QUISHPE!E30="","",QUISHPE!E30)</f>
-        <v/>
-      </c>
-      <c r="O27" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O27" s="73">
         <f>IF(N27="","",QUISHPE!F30)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -7293,17 +8388,17 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="98"/>
-      <c r="C28" s="98"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="100"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="100"/>
-      <c r="J28" s="100"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="86"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="93"/>
       <c r="M28" s="12">
         <v>5</v>
       </c>
@@ -7322,17 +8417,17 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="98"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="100"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="100"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="100"/>
-      <c r="K29" s="100"/>
-      <c r="L29" s="85" t="s">
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="89"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="92" t="s">
         <v>43</v>
       </c>
       <c r="M29" s="5">
@@ -7353,17 +8448,17 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="98"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="100"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="100"/>
-      <c r="J30" s="100"/>
-      <c r="K30" s="100"/>
-      <c r="L30" s="86"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="89"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="98"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="89"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="93"/>
       <c r="M30" s="12">
         <v>2</v>
       </c>
@@ -7382,27 +8477,27 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="100"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="86"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="98"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="93"/>
       <c r="M31" s="12">
         <v>3</v>
       </c>
-      <c r="N31" s="19" t="str">
+      <c r="N31" s="19">
         <f>IF(QUISHPE!E24="","",QUISHPE!E24)</f>
-        <v/>
-      </c>
-      <c r="O31" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O31" s="73">
         <f>IF(N31="","",QUISHPE!F24)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -7411,27 +8506,27 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="100"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="86"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="93"/>
       <c r="M32" s="12">
         <v>4</v>
       </c>
-      <c r="N32" s="19" t="str">
+      <c r="N32" s="19">
         <f>IF(QUISHPE!E31="","",QUISHPE!E31)</f>
-        <v/>
-      </c>
-      <c r="O32" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O32" s="73">
         <f>IF(N32="","",QUISHPE!F31)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -7440,17 +8535,17 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="86"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="93"/>
       <c r="M33" s="12">
         <v>5</v>
       </c>
@@ -7469,17 +8564,17 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="85" t="s">
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="89"/>
+      <c r="L34" s="92" t="s">
         <v>44</v>
       </c>
       <c r="M34" s="5">
@@ -7500,17 +8595,17 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="86"/>
+      <c r="B35" s="95"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="89"/>
+      <c r="E35" s="89"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="89"/>
+      <c r="H35" s="89"/>
+      <c r="I35" s="89"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="89"/>
+      <c r="L35" s="93"/>
       <c r="M35" s="12">
         <v>2</v>
       </c>
@@ -7529,27 +8624,27 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="86"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="89"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="89"/>
+      <c r="L36" s="93"/>
       <c r="M36" s="12">
         <v>3</v>
       </c>
-      <c r="N36" s="19" t="str">
+      <c r="N36" s="19">
         <f>IF(QUISHPE!E25="","",QUISHPE!E25)</f>
-        <v/>
-      </c>
-      <c r="O36" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O36" s="73">
         <f>IF(N36="","",QUISHPE!F25)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -7558,27 +8653,27 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="98"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="86"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="93"/>
       <c r="M37" s="12">
         <v>4</v>
       </c>
-      <c r="N37" s="19" t="str">
+      <c r="N37" s="19">
         <f>IF(QUISHPE!E32="","",QUISHPE!E32)</f>
-        <v/>
-      </c>
-      <c r="O37" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O37" s="73">
         <f>IF(N37="","",QUISHPE!F32)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -7587,17 +8682,17 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="98"/>
-      <c r="C38" s="98"/>
-      <c r="D38" s="100"/>
-      <c r="E38" s="100"/>
-      <c r="F38" s="102"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="86"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="98"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="89"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="93"/>
       <c r="M38" s="12">
         <v>5</v>
       </c>
@@ -7616,17 +8711,17 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="85" t="s">
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="92" t="s">
         <v>45</v>
       </c>
       <c r="M39" s="5">
@@ -7647,17 +8742,17 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="98"/>
-      <c r="C40" s="98"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
-      <c r="F40" s="102"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="86"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="98"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="93"/>
       <c r="M40" s="12">
         <v>2</v>
       </c>
@@ -7676,27 +8771,27 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="86"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="93"/>
       <c r="M41" s="12">
         <v>3</v>
       </c>
-      <c r="N41" s="19" t="str">
+      <c r="N41" s="19">
         <f>IF(QUISHPE!E26="","",QUISHPE!E26)</f>
-        <v/>
-      </c>
-      <c r="O41" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O41" s="73">
         <f>IF(N41="","",QUISHPE!F26)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -7705,27 +8800,27 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="100"/>
-      <c r="E42" s="100"/>
-      <c r="F42" s="102"/>
-      <c r="G42" s="100"/>
-      <c r="H42" s="100"/>
-      <c r="I42" s="100"/>
-      <c r="J42" s="100"/>
-      <c r="K42" s="100"/>
-      <c r="L42" s="86"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="98"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="89"/>
+      <c r="J42" s="89"/>
+      <c r="K42" s="89"/>
+      <c r="L42" s="93"/>
       <c r="M42" s="12">
         <v>4</v>
       </c>
-      <c r="N42" s="19" t="str">
+      <c r="N42" s="19">
         <f>IF(QUISHPE!E33="","",QUISHPE!E33)</f>
-        <v/>
-      </c>
-      <c r="O42" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O42" s="73">
         <f>IF(N42="","",QUISHPE!F33)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -7734,17 +8829,17 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="100"/>
-      <c r="E43" s="100"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="100"/>
-      <c r="H43" s="100"/>
-      <c r="I43" s="100"/>
-      <c r="J43" s="100"/>
-      <c r="K43" s="100"/>
-      <c r="L43" s="86"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="89"/>
+      <c r="J43" s="89"/>
+      <c r="K43" s="89"/>
+      <c r="L43" s="93"/>
       <c r="M43" s="12">
         <v>5</v>
       </c>
@@ -7763,38 +8858,38 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="94" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="92" t="s">
+      <c r="C44" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="89" t="s">
+      <c r="D44" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="89" t="str">
+      <c r="E44" s="88" t="str">
         <f>E9</f>
         <v>FEBRERO</v>
       </c>
-      <c r="F44" s="101">
-        <v>1</v>
-      </c>
-      <c r="G44" s="103" t="s">
+      <c r="F44" s="97">
+        <v>1</v>
+      </c>
+      <c r="G44" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="103" t="s">
+      <c r="H44" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="103" t="s">
+      <c r="I44" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="103" t="s">
+      <c r="J44" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="K44" s="103" t="s">
+      <c r="K44" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="85" t="s">
+      <c r="L44" s="92" t="s">
         <v>46</v>
       </c>
       <c r="M44" s="5">
@@ -7810,17 +8905,17 @@
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="100"/>
-      <c r="E45" s="100"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="100"/>
-      <c r="H45" s="100"/>
-      <c r="I45" s="100"/>
-      <c r="J45" s="100"/>
-      <c r="K45" s="100"/>
-      <c r="L45" s="86"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
+      <c r="L45" s="93"/>
       <c r="M45" s="12">
         <v>2</v>
       </c>
@@ -7834,65 +8929,65 @@
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="98"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
-      <c r="L46" s="86"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="98"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="89"/>
+      <c r="L46" s="93"/>
       <c r="M46" s="12">
         <v>3</v>
       </c>
-      <c r="N46" s="12" t="str">
+      <c r="N46" s="12">
         <f>IF(RIVAS!E20="","",RIVAS!E20)</f>
-        <v/>
-      </c>
-      <c r="O46" s="75" t="str">
+        <v>3</v>
+      </c>
+      <c r="O46" s="75">
         <f>IF(N46="","",RIVAS!F20)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="100"/>
-      <c r="K47" s="100"/>
-      <c r="L47" s="86"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="89"/>
+      <c r="J47" s="89"/>
+      <c r="K47" s="89"/>
+      <c r="L47" s="93"/>
       <c r="M47" s="12">
         <v>4</v>
       </c>
-      <c r="N47" s="12" t="str">
+      <c r="N47" s="12">
         <f>IF(RIVAS!E27="","",RIVAS!E27)</f>
-        <v/>
-      </c>
-      <c r="O47" s="75" t="str">
+        <v>2</v>
+      </c>
+      <c r="O47" s="75">
         <f>IF(N47="","",RIVAS!F27)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="100"/>
-      <c r="E48" s="100"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="100"/>
-      <c r="J48" s="100"/>
-      <c r="K48" s="100"/>
-      <c r="L48" s="86"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="98"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="89"/>
+      <c r="J48" s="89"/>
+      <c r="K48" s="89"/>
+      <c r="L48" s="93"/>
       <c r="M48" s="12">
         <v>5</v>
       </c>
@@ -7906,17 +9001,17 @@
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="98"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="100"/>
-      <c r="K49" s="100"/>
-      <c r="L49" s="87" t="s">
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="89"/>
+      <c r="J49" s="89"/>
+      <c r="K49" s="89"/>
+      <c r="L49" s="100" t="s">
         <v>47</v>
       </c>
       <c r="M49" s="52">
@@ -7932,17 +9027,17 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="98"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="100"/>
-      <c r="H50" s="100"/>
-      <c r="I50" s="100"/>
-      <c r="J50" s="100"/>
-      <c r="K50" s="100"/>
-      <c r="L50" s="88"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="98"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="101"/>
       <c r="M50" s="19">
         <v>2</v>
       </c>
@@ -7956,65 +9051,65 @@
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="100"/>
-      <c r="E51" s="100"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="100"/>
-      <c r="H51" s="100"/>
-      <c r="I51" s="100"/>
-      <c r="J51" s="100"/>
-      <c r="K51" s="100"/>
-      <c r="L51" s="88"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="98"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="89"/>
+      <c r="J51" s="89"/>
+      <c r="K51" s="89"/>
+      <c r="L51" s="101"/>
       <c r="M51" s="19">
         <v>3</v>
       </c>
-      <c r="N51" s="19" t="str">
+      <c r="N51" s="19">
         <f>IF(RIVAS!E21="","",RIVAS!E21)</f>
-        <v/>
-      </c>
-      <c r="O51" s="76" t="str">
+        <v>4</v>
+      </c>
+      <c r="O51" s="76">
         <f>IF(N51="","",RIVAS!F21)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="100"/>
-      <c r="E52" s="100"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="100"/>
-      <c r="I52" s="100"/>
-      <c r="J52" s="100"/>
-      <c r="K52" s="100"/>
-      <c r="L52" s="88"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="89"/>
+      <c r="J52" s="89"/>
+      <c r="K52" s="89"/>
+      <c r="L52" s="101"/>
       <c r="M52" s="19">
         <v>4</v>
       </c>
-      <c r="N52" s="19" t="str">
+      <c r="N52" s="19">
         <f>IF(RIVAS!E28="","",RIVAS!E28)</f>
-        <v/>
-      </c>
-      <c r="O52" s="76" t="str">
+        <v>2</v>
+      </c>
+      <c r="O52" s="76">
         <f>IF(N52="","",RIVAS!F28)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="98"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="100"/>
-      <c r="E53" s="100"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="100"/>
-      <c r="H53" s="100"/>
-      <c r="I53" s="100"/>
-      <c r="J53" s="100"/>
-      <c r="K53" s="100"/>
-      <c r="L53" s="88"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="89"/>
+      <c r="J53" s="89"/>
+      <c r="K53" s="89"/>
+      <c r="L53" s="101"/>
       <c r="M53" s="19">
         <v>5</v>
       </c>
@@ -8028,17 +9123,17 @@
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="98"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="100"/>
-      <c r="E54" s="100"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="100"/>
-      <c r="H54" s="100"/>
-      <c r="I54" s="100"/>
-      <c r="J54" s="100"/>
-      <c r="K54" s="100"/>
-      <c r="L54" s="85" t="s">
+      <c r="B54" s="95"/>
+      <c r="C54" s="95"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="89"/>
+      <c r="J54" s="89"/>
+      <c r="K54" s="89"/>
+      <c r="L54" s="92" t="s">
         <v>48</v>
       </c>
       <c r="M54" s="5">
@@ -8054,17 +9149,17 @@
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="98"/>
-      <c r="C55" s="98"/>
-      <c r="D55" s="100"/>
-      <c r="E55" s="100"/>
-      <c r="F55" s="102"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="100"/>
-      <c r="L55" s="86"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="95"/>
+      <c r="D55" s="89"/>
+      <c r="E55" s="89"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="89"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
+      <c r="J55" s="89"/>
+      <c r="K55" s="89"/>
+      <c r="L55" s="93"/>
       <c r="M55" s="12">
         <v>2</v>
       </c>
@@ -8078,65 +9173,65 @@
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="98"/>
-      <c r="C56" s="98"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
-      <c r="L56" s="86"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="89"/>
+      <c r="L56" s="93"/>
       <c r="M56" s="12">
         <v>3</v>
       </c>
-      <c r="N56" s="19" t="str">
+      <c r="N56" s="19">
         <f>IF(RIVAS!E22="","",RIVAS!E22)</f>
-        <v/>
-      </c>
-      <c r="O56" s="73" t="str">
+        <v>3</v>
+      </c>
+      <c r="O56" s="73">
         <f>IF(N56="","",RIVAS!F22)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="98"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="86"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="89"/>
+      <c r="E57" s="89"/>
+      <c r="F57" s="98"/>
+      <c r="G57" s="89"/>
+      <c r="H57" s="89"/>
+      <c r="I57" s="89"/>
+      <c r="J57" s="89"/>
+      <c r="K57" s="89"/>
+      <c r="L57" s="93"/>
       <c r="M57" s="12">
         <v>4</v>
       </c>
-      <c r="N57" s="19" t="str">
+      <c r="N57" s="19">
         <f>IF(RIVAS!E29="","",RIVAS!E29)</f>
-        <v/>
-      </c>
-      <c r="O57" s="73" t="str">
+        <v>2</v>
+      </c>
+      <c r="O57" s="73">
         <f>IF(N57="","",RIVAS!F29)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="98"/>
-      <c r="C58" s="98"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="102"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
-      <c r="L58" s="86"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="98"/>
+      <c r="G58" s="89"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="89"/>
+      <c r="K58" s="89"/>
+      <c r="L58" s="93"/>
       <c r="M58" s="12">
         <v>5</v>
       </c>
@@ -8150,17 +9245,17 @@
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="98"/>
-      <c r="C59" s="98"/>
-      <c r="D59" s="100"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="100"/>
-      <c r="J59" s="100"/>
-      <c r="K59" s="100"/>
-      <c r="L59" s="85" t="s">
+      <c r="B59" s="95"/>
+      <c r="C59" s="95"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="98"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="89"/>
+      <c r="J59" s="89"/>
+      <c r="K59" s="89"/>
+      <c r="L59" s="92" t="s">
         <v>49</v>
       </c>
       <c r="M59" s="5">
@@ -8176,17 +9271,17 @@
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="98"/>
-      <c r="C60" s="98"/>
-      <c r="D60" s="100"/>
-      <c r="E60" s="100"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="100"/>
-      <c r="H60" s="100"/>
-      <c r="I60" s="100"/>
-      <c r="J60" s="100"/>
-      <c r="K60" s="100"/>
-      <c r="L60" s="86"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="95"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="89"/>
+      <c r="F60" s="98"/>
+      <c r="G60" s="89"/>
+      <c r="H60" s="89"/>
+      <c r="I60" s="89"/>
+      <c r="J60" s="89"/>
+      <c r="K60" s="89"/>
+      <c r="L60" s="93"/>
       <c r="M60" s="12">
         <v>2</v>
       </c>
@@ -8200,65 +9295,65 @@
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="98"/>
-      <c r="C61" s="98"/>
-      <c r="D61" s="100"/>
-      <c r="E61" s="100"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="100"/>
-      <c r="H61" s="100"/>
-      <c r="I61" s="100"/>
-      <c r="J61" s="100"/>
-      <c r="K61" s="100"/>
-      <c r="L61" s="86"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="95"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="98"/>
+      <c r="G61" s="89"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="89"/>
+      <c r="K61" s="89"/>
+      <c r="L61" s="93"/>
       <c r="M61" s="12">
         <v>3</v>
       </c>
-      <c r="N61" s="19" t="str">
+      <c r="N61" s="19">
         <f>IF(RIVAS!E23="","",RIVAS!E23)</f>
-        <v/>
-      </c>
-      <c r="O61" s="73" t="str">
+        <v>3</v>
+      </c>
+      <c r="O61" s="73">
         <f>IF(N61="","",RIVAS!F23)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="98"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="100"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="102"/>
-      <c r="G62" s="100"/>
-      <c r="H62" s="100"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="100"/>
-      <c r="K62" s="100"/>
-      <c r="L62" s="86"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="95"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="89"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="89"/>
+      <c r="K62" s="89"/>
+      <c r="L62" s="93"/>
       <c r="M62" s="12">
         <v>4</v>
       </c>
-      <c r="N62" s="19" t="str">
+      <c r="N62" s="19">
         <f>IF(RIVAS!E30="","",RIVAS!E30)</f>
-        <v/>
-      </c>
-      <c r="O62" s="73" t="str">
+        <v>2</v>
+      </c>
+      <c r="O62" s="73">
         <f>IF(N62="","",RIVAS!F30)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="98"/>
-      <c r="C63" s="98"/>
-      <c r="D63" s="100"/>
-      <c r="E63" s="100"/>
-      <c r="F63" s="102"/>
-      <c r="G63" s="100"/>
-      <c r="H63" s="100"/>
-      <c r="I63" s="100"/>
-      <c r="J63" s="100"/>
-      <c r="K63" s="100"/>
-      <c r="L63" s="86"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="89"/>
+      <c r="H63" s="89"/>
+      <c r="I63" s="89"/>
+      <c r="J63" s="89"/>
+      <c r="K63" s="89"/>
+      <c r="L63" s="93"/>
       <c r="M63" s="12">
         <v>5</v>
       </c>
@@ -8272,17 +9367,17 @@
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="98"/>
-      <c r="C64" s="98"/>
-      <c r="D64" s="100"/>
-      <c r="E64" s="100"/>
-      <c r="F64" s="102"/>
-      <c r="G64" s="100"/>
-      <c r="H64" s="100"/>
-      <c r="I64" s="100"/>
-      <c r="J64" s="100"/>
-      <c r="K64" s="100"/>
-      <c r="L64" s="85" t="s">
+      <c r="B64" s="95"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="89"/>
+      <c r="L64" s="92" t="s">
         <v>50</v>
       </c>
       <c r="M64" s="5">
@@ -8298,17 +9393,17 @@
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="98"/>
-      <c r="C65" s="98"/>
-      <c r="D65" s="100"/>
-      <c r="E65" s="100"/>
-      <c r="F65" s="102"/>
-      <c r="G65" s="100"/>
-      <c r="H65" s="100"/>
-      <c r="I65" s="100"/>
-      <c r="J65" s="100"/>
-      <c r="K65" s="100"/>
-      <c r="L65" s="86"/>
+      <c r="B65" s="95"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="89"/>
+      <c r="F65" s="98"/>
+      <c r="G65" s="89"/>
+      <c r="H65" s="89"/>
+      <c r="I65" s="89"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="89"/>
+      <c r="L65" s="93"/>
       <c r="M65" s="12">
         <v>2</v>
       </c>
@@ -8322,65 +9417,65 @@
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="98"/>
-      <c r="C66" s="98"/>
-      <c r="D66" s="100"/>
-      <c r="E66" s="100"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="100"/>
-      <c r="H66" s="100"/>
-      <c r="I66" s="100"/>
-      <c r="J66" s="100"/>
-      <c r="K66" s="100"/>
-      <c r="L66" s="86"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="95"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="89"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="89"/>
+      <c r="L66" s="93"/>
       <c r="M66" s="12">
         <v>3</v>
       </c>
-      <c r="N66" s="19" t="str">
+      <c r="N66" s="19">
         <f>IF(RIVAS!E24="","",RIVAS!E24)</f>
-        <v/>
-      </c>
-      <c r="O66" s="73" t="str">
+        <v>3</v>
+      </c>
+      <c r="O66" s="73">
         <f>IF(N66="","",RIVAS!F24)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="98"/>
-      <c r="C67" s="98"/>
-      <c r="D67" s="100"/>
-      <c r="E67" s="100"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="100"/>
-      <c r="H67" s="100"/>
-      <c r="I67" s="100"/>
-      <c r="J67" s="100"/>
-      <c r="K67" s="100"/>
-      <c r="L67" s="86"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="89"/>
+      <c r="L67" s="93"/>
       <c r="M67" s="12">
         <v>4</v>
       </c>
-      <c r="N67" s="19" t="str">
+      <c r="N67" s="19">
         <f>IF(RIVAS!E31="","",RIVAS!E31)</f>
-        <v/>
-      </c>
-      <c r="O67" s="73" t="str">
+        <v>2</v>
+      </c>
+      <c r="O67" s="73">
         <f>IF(N67="","",RIVAS!F31)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="98"/>
-      <c r="C68" s="98"/>
-      <c r="D68" s="100"/>
-      <c r="E68" s="100"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="100"/>
-      <c r="I68" s="100"/>
-      <c r="J68" s="100"/>
-      <c r="K68" s="100"/>
-      <c r="L68" s="86"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="98"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="89"/>
+      <c r="J68" s="89"/>
+      <c r="K68" s="89"/>
+      <c r="L68" s="93"/>
       <c r="M68" s="12">
         <v>5</v>
       </c>
@@ -8394,17 +9489,17 @@
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="98"/>
-      <c r="C69" s="98"/>
-      <c r="D69" s="100"/>
-      <c r="E69" s="100"/>
-      <c r="F69" s="102"/>
-      <c r="G69" s="100"/>
-      <c r="H69" s="100"/>
-      <c r="I69" s="100"/>
-      <c r="J69" s="100"/>
-      <c r="K69" s="100"/>
-      <c r="L69" s="85" t="s">
+      <c r="B69" s="95"/>
+      <c r="C69" s="95"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="98"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="89"/>
+      <c r="J69" s="89"/>
+      <c r="K69" s="89"/>
+      <c r="L69" s="92" t="s">
         <v>51</v>
       </c>
       <c r="M69" s="5">
@@ -8420,17 +9515,17 @@
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="98"/>
-      <c r="C70" s="98"/>
-      <c r="D70" s="100"/>
-      <c r="E70" s="100"/>
-      <c r="F70" s="102"/>
-      <c r="G70" s="100"/>
-      <c r="H70" s="100"/>
-      <c r="I70" s="100"/>
-      <c r="J70" s="100"/>
-      <c r="K70" s="100"/>
-      <c r="L70" s="86"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="95"/>
+      <c r="D70" s="89"/>
+      <c r="E70" s="89"/>
+      <c r="F70" s="98"/>
+      <c r="G70" s="89"/>
+      <c r="H70" s="89"/>
+      <c r="I70" s="89"/>
+      <c r="J70" s="89"/>
+      <c r="K70" s="89"/>
+      <c r="L70" s="93"/>
       <c r="M70" s="12">
         <v>2</v>
       </c>
@@ -8444,65 +9539,65 @@
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="98"/>
-      <c r="C71" s="98"/>
-      <c r="D71" s="100"/>
-      <c r="E71" s="100"/>
-      <c r="F71" s="102"/>
-      <c r="G71" s="100"/>
-      <c r="H71" s="100"/>
-      <c r="I71" s="100"/>
-      <c r="J71" s="100"/>
-      <c r="K71" s="100"/>
-      <c r="L71" s="86"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="95"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="98"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="89"/>
+      <c r="J71" s="89"/>
+      <c r="K71" s="89"/>
+      <c r="L71" s="93"/>
       <c r="M71" s="12">
         <v>3</v>
       </c>
-      <c r="N71" s="19" t="str">
+      <c r="N71" s="19">
         <f>IF(RIVAS!E25="","",RIVAS!E25)</f>
-        <v/>
-      </c>
-      <c r="O71" s="73" t="str">
+        <v>3</v>
+      </c>
+      <c r="O71" s="73">
         <f>IF(N71="","",RIVAS!F25)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="98"/>
-      <c r="C72" s="98"/>
-      <c r="D72" s="100"/>
-      <c r="E72" s="100"/>
-      <c r="F72" s="102"/>
-      <c r="G72" s="100"/>
-      <c r="H72" s="100"/>
-      <c r="I72" s="100"/>
-      <c r="J72" s="100"/>
-      <c r="K72" s="100"/>
-      <c r="L72" s="86"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="95"/>
+      <c r="D72" s="89"/>
+      <c r="E72" s="89"/>
+      <c r="F72" s="98"/>
+      <c r="G72" s="89"/>
+      <c r="H72" s="89"/>
+      <c r="I72" s="89"/>
+      <c r="J72" s="89"/>
+      <c r="K72" s="89"/>
+      <c r="L72" s="93"/>
       <c r="M72" s="12">
         <v>4</v>
       </c>
-      <c r="N72" s="19" t="str">
+      <c r="N72" s="19">
         <f>IF(RIVAS!E32="","",RIVAS!E32)</f>
-        <v/>
-      </c>
-      <c r="O72" s="73" t="str">
+        <v>2</v>
+      </c>
+      <c r="O72" s="73">
         <f>IF(N72="","",RIVAS!F32)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="98"/>
-      <c r="C73" s="98"/>
-      <c r="D73" s="100"/>
-      <c r="E73" s="100"/>
-      <c r="F73" s="102"/>
-      <c r="G73" s="100"/>
-      <c r="H73" s="100"/>
-      <c r="I73" s="100"/>
-      <c r="J73" s="100"/>
-      <c r="K73" s="100"/>
-      <c r="L73" s="86"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="95"/>
+      <c r="D73" s="89"/>
+      <c r="E73" s="89"/>
+      <c r="F73" s="98"/>
+      <c r="G73" s="89"/>
+      <c r="H73" s="89"/>
+      <c r="I73" s="89"/>
+      <c r="J73" s="89"/>
+      <c r="K73" s="89"/>
+      <c r="L73" s="93"/>
       <c r="M73" s="12">
         <v>5</v>
       </c>
@@ -8516,17 +9611,17 @@
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B74" s="98"/>
-      <c r="C74" s="98"/>
-      <c r="D74" s="100"/>
-      <c r="E74" s="100"/>
-      <c r="F74" s="102"/>
-      <c r="G74" s="100"/>
-      <c r="H74" s="100"/>
-      <c r="I74" s="100"/>
-      <c r="J74" s="100"/>
-      <c r="K74" s="100"/>
-      <c r="L74" s="85" t="s">
+      <c r="B74" s="95"/>
+      <c r="C74" s="95"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="98"/>
+      <c r="G74" s="89"/>
+      <c r="H74" s="89"/>
+      <c r="I74" s="89"/>
+      <c r="J74" s="89"/>
+      <c r="K74" s="89"/>
+      <c r="L74" s="92" t="s">
         <v>52</v>
       </c>
       <c r="M74" s="5">
@@ -8542,17 +9637,17 @@
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B75" s="98"/>
-      <c r="C75" s="98"/>
-      <c r="D75" s="100"/>
-      <c r="E75" s="100"/>
-      <c r="F75" s="102"/>
-      <c r="G75" s="100"/>
-      <c r="H75" s="100"/>
-      <c r="I75" s="100"/>
-      <c r="J75" s="100"/>
-      <c r="K75" s="100"/>
-      <c r="L75" s="86"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="95"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="98"/>
+      <c r="G75" s="89"/>
+      <c r="H75" s="89"/>
+      <c r="I75" s="89"/>
+      <c r="J75" s="89"/>
+      <c r="K75" s="89"/>
+      <c r="L75" s="93"/>
       <c r="M75" s="12">
         <v>2</v>
       </c>
@@ -8566,65 +9661,65 @@
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B76" s="98"/>
-      <c r="C76" s="98"/>
-      <c r="D76" s="100"/>
-      <c r="E76" s="100"/>
-      <c r="F76" s="102"/>
-      <c r="G76" s="100"/>
-      <c r="H76" s="100"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="100"/>
-      <c r="K76" s="100"/>
-      <c r="L76" s="86"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="95"/>
+      <c r="D76" s="89"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="98"/>
+      <c r="G76" s="89"/>
+      <c r="H76" s="89"/>
+      <c r="I76" s="89"/>
+      <c r="J76" s="89"/>
+      <c r="K76" s="89"/>
+      <c r="L76" s="93"/>
       <c r="M76" s="12">
         <v>3</v>
       </c>
-      <c r="N76" s="19" t="str">
+      <c r="N76" s="19">
         <f>IF(RIVAS!E26="","",RIVAS!E26)</f>
-        <v/>
-      </c>
-      <c r="O76" s="73" t="str">
+        <v>3</v>
+      </c>
+      <c r="O76" s="73">
         <f>IF(N76="","",RIVAS!F26)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="100"/>
-      <c r="F77" s="102"/>
-      <c r="G77" s="100"/>
-      <c r="H77" s="100"/>
-      <c r="I77" s="100"/>
-      <c r="J77" s="100"/>
-      <c r="K77" s="100"/>
-      <c r="L77" s="86"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="95"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="98"/>
+      <c r="G77" s="89"/>
+      <c r="H77" s="89"/>
+      <c r="I77" s="89"/>
+      <c r="J77" s="89"/>
+      <c r="K77" s="89"/>
+      <c r="L77" s="93"/>
       <c r="M77" s="12">
         <v>4</v>
       </c>
-      <c r="N77" s="19" t="str">
+      <c r="N77" s="19">
         <f>IF(RIVAS!E33="","",RIVAS!E33)</f>
-        <v/>
-      </c>
-      <c r="O77" s="73" t="str">
+        <v>2</v>
+      </c>
+      <c r="O77" s="73">
         <f>IF(N77="","",RIVAS!F33)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B78" s="98"/>
-      <c r="C78" s="98"/>
-      <c r="D78" s="100"/>
-      <c r="E78" s="100"/>
-      <c r="F78" s="102"/>
-      <c r="G78" s="100"/>
-      <c r="H78" s="100"/>
-      <c r="I78" s="100"/>
-      <c r="J78" s="100"/>
-      <c r="K78" s="100"/>
-      <c r="L78" s="86"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="95"/>
+      <c r="D78" s="89"/>
+      <c r="E78" s="89"/>
+      <c r="F78" s="98"/>
+      <c r="G78" s="89"/>
+      <c r="H78" s="89"/>
+      <c r="I78" s="89"/>
+      <c r="J78" s="89"/>
+      <c r="K78" s="89"/>
+      <c r="L78" s="93"/>
       <c r="M78" s="12">
         <v>5</v>
       </c>
@@ -8638,38 +9733,38 @@
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B79" s="92" t="s">
+      <c r="B79" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="92" t="s">
+      <c r="C79" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="89" t="s">
+      <c r="D79" s="88" t="s">
         <v>68</v>
       </c>
-      <c r="E79" s="89" t="str">
+      <c r="E79" s="88" t="str">
         <f>E44</f>
         <v>FEBRERO</v>
       </c>
-      <c r="F79" s="101">
-        <v>1</v>
-      </c>
-      <c r="G79" s="103" t="s">
+      <c r="F79" s="97">
+        <v>1</v>
+      </c>
+      <c r="G79" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="H79" s="103" t="s">
+      <c r="H79" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="I79" s="103" t="s">
+      <c r="I79" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="J79" s="103" t="s">
+      <c r="J79" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="K79" s="103" t="s">
+      <c r="K79" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="L79" s="85" t="s">
+      <c r="L79" s="92" t="s">
         <v>69</v>
       </c>
       <c r="M79" s="5">
@@ -8685,17 +9780,17 @@
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B80" s="98"/>
-      <c r="C80" s="98"/>
-      <c r="D80" s="100"/>
-      <c r="E80" s="100"/>
-      <c r="F80" s="102"/>
-      <c r="G80" s="100"/>
-      <c r="H80" s="100"/>
-      <c r="I80" s="100"/>
-      <c r="J80" s="100"/>
-      <c r="K80" s="100"/>
-      <c r="L80" s="86"/>
+      <c r="B80" s="95"/>
+      <c r="C80" s="95"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
+      <c r="F80" s="98"/>
+      <c r="G80" s="89"/>
+      <c r="H80" s="89"/>
+      <c r="I80" s="89"/>
+      <c r="J80" s="89"/>
+      <c r="K80" s="89"/>
+      <c r="L80" s="93"/>
       <c r="M80" s="12">
         <v>2</v>
       </c>
@@ -8709,65 +9804,65 @@
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="98"/>
-      <c r="C81" s="98"/>
-      <c r="D81" s="100"/>
-      <c r="E81" s="100"/>
-      <c r="F81" s="102"/>
-      <c r="G81" s="100"/>
-      <c r="H81" s="100"/>
-      <c r="I81" s="100"/>
-      <c r="J81" s="100"/>
-      <c r="K81" s="100"/>
-      <c r="L81" s="86"/>
+      <c r="B81" s="95"/>
+      <c r="C81" s="95"/>
+      <c r="D81" s="89"/>
+      <c r="E81" s="89"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="89"/>
+      <c r="H81" s="89"/>
+      <c r="I81" s="89"/>
+      <c r="J81" s="89"/>
+      <c r="K81" s="89"/>
+      <c r="L81" s="93"/>
       <c r="M81" s="12">
         <v>3</v>
       </c>
-      <c r="N81" s="12" t="str">
+      <c r="N81" s="12">
         <f>IF(VELEZ!E20="","",VELEZ!E20)</f>
-        <v/>
-      </c>
-      <c r="O81" s="75" t="str">
+        <v>4</v>
+      </c>
+      <c r="O81" s="75">
         <f>IF(N81="","",VELEZ!F20)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="98"/>
-      <c r="C82" s="98"/>
-      <c r="D82" s="100"/>
-      <c r="E82" s="100"/>
-      <c r="F82" s="102"/>
-      <c r="G82" s="100"/>
-      <c r="H82" s="100"/>
-      <c r="I82" s="100"/>
-      <c r="J82" s="100"/>
-      <c r="K82" s="100"/>
-      <c r="L82" s="86"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="98"/>
+      <c r="G82" s="89"/>
+      <c r="H82" s="89"/>
+      <c r="I82" s="89"/>
+      <c r="J82" s="89"/>
+      <c r="K82" s="89"/>
+      <c r="L82" s="93"/>
       <c r="M82" s="12">
         <v>4</v>
       </c>
-      <c r="N82" s="12" t="str">
+      <c r="N82" s="12">
         <f>IF(VELEZ!E27="","",VELEZ!E27)</f>
-        <v/>
-      </c>
-      <c r="O82" s="75" t="str">
+        <v>4</v>
+      </c>
+      <c r="O82" s="75">
         <f>IF(N82="","",VELEZ!F27)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="98"/>
-      <c r="C83" s="98"/>
-      <c r="D83" s="100"/>
-      <c r="E83" s="100"/>
-      <c r="F83" s="102"/>
-      <c r="G83" s="100"/>
-      <c r="H83" s="100"/>
-      <c r="I83" s="100"/>
-      <c r="J83" s="100"/>
-      <c r="K83" s="100"/>
-      <c r="L83" s="86"/>
+      <c r="B83" s="95"/>
+      <c r="C83" s="95"/>
+      <c r="D83" s="89"/>
+      <c r="E83" s="89"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="89"/>
+      <c r="H83" s="89"/>
+      <c r="I83" s="89"/>
+      <c r="J83" s="89"/>
+      <c r="K83" s="89"/>
+      <c r="L83" s="93"/>
       <c r="M83" s="12">
         <v>5</v>
       </c>
@@ -8781,17 +9876,17 @@
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="98"/>
-      <c r="C84" s="98"/>
-      <c r="D84" s="100"/>
-      <c r="E84" s="100"/>
-      <c r="F84" s="102"/>
-      <c r="G84" s="100"/>
-      <c r="H84" s="100"/>
-      <c r="I84" s="100"/>
-      <c r="J84" s="100"/>
-      <c r="K84" s="100"/>
-      <c r="L84" s="87" t="s">
+      <c r="B84" s="95"/>
+      <c r="C84" s="95"/>
+      <c r="D84" s="89"/>
+      <c r="E84" s="89"/>
+      <c r="F84" s="98"/>
+      <c r="G84" s="89"/>
+      <c r="H84" s="89"/>
+      <c r="I84" s="89"/>
+      <c r="J84" s="89"/>
+      <c r="K84" s="89"/>
+      <c r="L84" s="100" t="s">
         <v>70</v>
       </c>
       <c r="M84" s="52">
@@ -8807,17 +9902,17 @@
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="98"/>
-      <c r="C85" s="98"/>
-      <c r="D85" s="100"/>
-      <c r="E85" s="100"/>
-      <c r="F85" s="102"/>
-      <c r="G85" s="100"/>
-      <c r="H85" s="100"/>
-      <c r="I85" s="100"/>
-      <c r="J85" s="100"/>
-      <c r="K85" s="100"/>
-      <c r="L85" s="88"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="95"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="89"/>
+      <c r="F85" s="98"/>
+      <c r="G85" s="89"/>
+      <c r="H85" s="89"/>
+      <c r="I85" s="89"/>
+      <c r="J85" s="89"/>
+      <c r="K85" s="89"/>
+      <c r="L85" s="101"/>
       <c r="M85" s="19">
         <v>2</v>
       </c>
@@ -8831,65 +9926,65 @@
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="98"/>
-      <c r="C86" s="98"/>
-      <c r="D86" s="100"/>
-      <c r="E86" s="100"/>
-      <c r="F86" s="102"/>
-      <c r="G86" s="100"/>
-      <c r="H86" s="100"/>
-      <c r="I86" s="100"/>
-      <c r="J86" s="100"/>
-      <c r="K86" s="100"/>
-      <c r="L86" s="88"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="95"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="98"/>
+      <c r="G86" s="89"/>
+      <c r="H86" s="89"/>
+      <c r="I86" s="89"/>
+      <c r="J86" s="89"/>
+      <c r="K86" s="89"/>
+      <c r="L86" s="101"/>
       <c r="M86" s="19">
         <v>3</v>
       </c>
-      <c r="N86" s="19" t="str">
+      <c r="N86" s="19">
         <f>IF(VELEZ!E21="","",VELEZ!E21)</f>
-        <v/>
-      </c>
-      <c r="O86" s="76" t="str">
+        <v>4</v>
+      </c>
+      <c r="O86" s="76">
         <f>IF(N86="","",VELEZ!F21)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="98"/>
-      <c r="C87" s="98"/>
-      <c r="D87" s="100"/>
-      <c r="E87" s="100"/>
-      <c r="F87" s="102"/>
-      <c r="G87" s="100"/>
-      <c r="H87" s="100"/>
-      <c r="I87" s="100"/>
-      <c r="J87" s="100"/>
-      <c r="K87" s="100"/>
-      <c r="L87" s="88"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="95"/>
+      <c r="D87" s="89"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="89"/>
+      <c r="H87" s="89"/>
+      <c r="I87" s="89"/>
+      <c r="J87" s="89"/>
+      <c r="K87" s="89"/>
+      <c r="L87" s="101"/>
       <c r="M87" s="19">
         <v>4</v>
       </c>
-      <c r="N87" s="19" t="str">
+      <c r="N87" s="19">
         <f>IF(VELEZ!E28="","",VELEZ!E28)</f>
-        <v/>
-      </c>
-      <c r="O87" s="76" t="str">
+        <v>4</v>
+      </c>
+      <c r="O87" s="76">
         <f>IF(N87="","",VELEZ!F28)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="98"/>
-      <c r="C88" s="98"/>
-      <c r="D88" s="100"/>
-      <c r="E88" s="100"/>
-      <c r="F88" s="102"/>
-      <c r="G88" s="100"/>
-      <c r="H88" s="100"/>
-      <c r="I88" s="100"/>
-      <c r="J88" s="100"/>
-      <c r="K88" s="100"/>
-      <c r="L88" s="88"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="95"/>
+      <c r="D88" s="89"/>
+      <c r="E88" s="89"/>
+      <c r="F88" s="98"/>
+      <c r="G88" s="89"/>
+      <c r="H88" s="89"/>
+      <c r="I88" s="89"/>
+      <c r="J88" s="89"/>
+      <c r="K88" s="89"/>
+      <c r="L88" s="101"/>
       <c r="M88" s="19">
         <v>5</v>
       </c>
@@ -8903,17 +9998,17 @@
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="98"/>
-      <c r="C89" s="98"/>
-      <c r="D89" s="100"/>
-      <c r="E89" s="100"/>
-      <c r="F89" s="102"/>
-      <c r="G89" s="100"/>
-      <c r="H89" s="100"/>
-      <c r="I89" s="100"/>
-      <c r="J89" s="100"/>
-      <c r="K89" s="100"/>
-      <c r="L89" s="85" t="s">
+      <c r="B89" s="95"/>
+      <c r="C89" s="95"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="98"/>
+      <c r="G89" s="89"/>
+      <c r="H89" s="89"/>
+      <c r="I89" s="89"/>
+      <c r="J89" s="89"/>
+      <c r="K89" s="89"/>
+      <c r="L89" s="92" t="s">
         <v>75</v>
       </c>
       <c r="M89" s="5">
@@ -8929,17 +10024,17 @@
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="98"/>
-      <c r="C90" s="98"/>
-      <c r="D90" s="100"/>
-      <c r="E90" s="100"/>
-      <c r="F90" s="102"/>
-      <c r="G90" s="100"/>
-      <c r="H90" s="100"/>
-      <c r="I90" s="100"/>
-      <c r="J90" s="100"/>
-      <c r="K90" s="100"/>
-      <c r="L90" s="86"/>
+      <c r="B90" s="95"/>
+      <c r="C90" s="95"/>
+      <c r="D90" s="89"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="98"/>
+      <c r="G90" s="89"/>
+      <c r="H90" s="89"/>
+      <c r="I90" s="89"/>
+      <c r="J90" s="89"/>
+      <c r="K90" s="89"/>
+      <c r="L90" s="93"/>
       <c r="M90" s="12">
         <v>2</v>
       </c>
@@ -8953,65 +10048,65 @@
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="98"/>
-      <c r="C91" s="98"/>
-      <c r="D91" s="100"/>
-      <c r="E91" s="100"/>
-      <c r="F91" s="102"/>
-      <c r="G91" s="100"/>
-      <c r="H91" s="100"/>
-      <c r="I91" s="100"/>
-      <c r="J91" s="100"/>
-      <c r="K91" s="100"/>
-      <c r="L91" s="86"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="95"/>
+      <c r="D91" s="89"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="98"/>
+      <c r="G91" s="89"/>
+      <c r="H91" s="89"/>
+      <c r="I91" s="89"/>
+      <c r="J91" s="89"/>
+      <c r="K91" s="89"/>
+      <c r="L91" s="93"/>
       <c r="M91" s="12">
         <v>3</v>
       </c>
-      <c r="N91" s="19" t="str">
+      <c r="N91" s="19">
         <f>IF(VELEZ!E22="","",VELEZ!E22)</f>
-        <v/>
-      </c>
-      <c r="O91" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O91" s="73">
         <f>IF(N91="","",VELEZ!F22)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="98"/>
-      <c r="C92" s="98"/>
-      <c r="D92" s="100"/>
-      <c r="E92" s="100"/>
-      <c r="F92" s="102"/>
-      <c r="G92" s="100"/>
-      <c r="H92" s="100"/>
-      <c r="I92" s="100"/>
-      <c r="J92" s="100"/>
-      <c r="K92" s="100"/>
-      <c r="L92" s="86"/>
+      <c r="B92" s="95"/>
+      <c r="C92" s="95"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="89"/>
+      <c r="F92" s="98"/>
+      <c r="G92" s="89"/>
+      <c r="H92" s="89"/>
+      <c r="I92" s="89"/>
+      <c r="J92" s="89"/>
+      <c r="K92" s="89"/>
+      <c r="L92" s="93"/>
       <c r="M92" s="12">
         <v>4</v>
       </c>
-      <c r="N92" s="19" t="str">
+      <c r="N92" s="19">
         <f>IF(VELEZ!E29="","",VELEZ!E29)</f>
-        <v/>
-      </c>
-      <c r="O92" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O92" s="73">
         <f>IF(N92="","",VELEZ!F29)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B93" s="98"/>
-      <c r="C93" s="98"/>
-      <c r="D93" s="100"/>
-      <c r="E93" s="100"/>
-      <c r="F93" s="102"/>
-      <c r="G93" s="100"/>
-      <c r="H93" s="100"/>
-      <c r="I93" s="100"/>
-      <c r="J93" s="100"/>
-      <c r="K93" s="100"/>
-      <c r="L93" s="86"/>
+      <c r="B93" s="95"/>
+      <c r="C93" s="95"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="89"/>
+      <c r="F93" s="98"/>
+      <c r="G93" s="89"/>
+      <c r="H93" s="89"/>
+      <c r="I93" s="89"/>
+      <c r="J93" s="89"/>
+      <c r="K93" s="89"/>
+      <c r="L93" s="93"/>
       <c r="M93" s="12">
         <v>5</v>
       </c>
@@ -9025,17 +10120,17 @@
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B94" s="98"/>
-      <c r="C94" s="98"/>
-      <c r="D94" s="100"/>
-      <c r="E94" s="100"/>
-      <c r="F94" s="102"/>
-      <c r="G94" s="100"/>
-      <c r="H94" s="100"/>
-      <c r="I94" s="100"/>
-      <c r="J94" s="100"/>
-      <c r="K94" s="100"/>
-      <c r="L94" s="85" t="s">
+      <c r="B94" s="95"/>
+      <c r="C94" s="95"/>
+      <c r="D94" s="89"/>
+      <c r="E94" s="89"/>
+      <c r="F94" s="98"/>
+      <c r="G94" s="89"/>
+      <c r="H94" s="89"/>
+      <c r="I94" s="89"/>
+      <c r="J94" s="89"/>
+      <c r="K94" s="89"/>
+      <c r="L94" s="92" t="s">
         <v>76</v>
       </c>
       <c r="M94" s="5">
@@ -9051,17 +10146,17 @@
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B95" s="98"/>
-      <c r="C95" s="98"/>
-      <c r="D95" s="100"/>
-      <c r="E95" s="100"/>
-      <c r="F95" s="102"/>
-      <c r="G95" s="100"/>
-      <c r="H95" s="100"/>
-      <c r="I95" s="100"/>
-      <c r="J95" s="100"/>
-      <c r="K95" s="100"/>
-      <c r="L95" s="86"/>
+      <c r="B95" s="95"/>
+      <c r="C95" s="95"/>
+      <c r="D95" s="89"/>
+      <c r="E95" s="89"/>
+      <c r="F95" s="98"/>
+      <c r="G95" s="89"/>
+      <c r="H95" s="89"/>
+      <c r="I95" s="89"/>
+      <c r="J95" s="89"/>
+      <c r="K95" s="89"/>
+      <c r="L95" s="93"/>
       <c r="M95" s="12">
         <v>2</v>
       </c>
@@ -9075,65 +10170,65 @@
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B96" s="98"/>
-      <c r="C96" s="98"/>
-      <c r="D96" s="100"/>
-      <c r="E96" s="100"/>
-      <c r="F96" s="102"/>
-      <c r="G96" s="100"/>
-      <c r="H96" s="100"/>
-      <c r="I96" s="100"/>
-      <c r="J96" s="100"/>
-      <c r="K96" s="100"/>
-      <c r="L96" s="86"/>
+      <c r="B96" s="95"/>
+      <c r="C96" s="95"/>
+      <c r="D96" s="89"/>
+      <c r="E96" s="89"/>
+      <c r="F96" s="98"/>
+      <c r="G96" s="89"/>
+      <c r="H96" s="89"/>
+      <c r="I96" s="89"/>
+      <c r="J96" s="89"/>
+      <c r="K96" s="89"/>
+      <c r="L96" s="93"/>
       <c r="M96" s="12">
         <v>3</v>
       </c>
-      <c r="N96" s="19" t="str">
+      <c r="N96" s="19">
         <f>IF(VELEZ!E23="","",VELEZ!E23)</f>
-        <v/>
-      </c>
-      <c r="O96" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O96" s="73">
         <f>IF(N96="","",VELEZ!F23)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" s="98"/>
-      <c r="C97" s="98"/>
-      <c r="D97" s="100"/>
-      <c r="E97" s="100"/>
-      <c r="F97" s="102"/>
-      <c r="G97" s="100"/>
-      <c r="H97" s="100"/>
-      <c r="I97" s="100"/>
-      <c r="J97" s="100"/>
-      <c r="K97" s="100"/>
-      <c r="L97" s="86"/>
+      <c r="B97" s="95"/>
+      <c r="C97" s="95"/>
+      <c r="D97" s="89"/>
+      <c r="E97" s="89"/>
+      <c r="F97" s="98"/>
+      <c r="G97" s="89"/>
+      <c r="H97" s="89"/>
+      <c r="I97" s="89"/>
+      <c r="J97" s="89"/>
+      <c r="K97" s="89"/>
+      <c r="L97" s="93"/>
       <c r="M97" s="12">
         <v>4</v>
       </c>
-      <c r="N97" s="19" t="str">
+      <c r="N97" s="19">
         <f>IF(VELEZ!E30="","",VELEZ!E30)</f>
-        <v/>
-      </c>
-      <c r="O97" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O97" s="73">
         <f>IF(N97="","",VELEZ!F30)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B98" s="98"/>
-      <c r="C98" s="98"/>
-      <c r="D98" s="100"/>
-      <c r="E98" s="100"/>
-      <c r="F98" s="102"/>
-      <c r="G98" s="100"/>
-      <c r="H98" s="100"/>
-      <c r="I98" s="100"/>
-      <c r="J98" s="100"/>
-      <c r="K98" s="100"/>
-      <c r="L98" s="86"/>
+      <c r="B98" s="95"/>
+      <c r="C98" s="95"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="89"/>
+      <c r="F98" s="98"/>
+      <c r="G98" s="89"/>
+      <c r="H98" s="89"/>
+      <c r="I98" s="89"/>
+      <c r="J98" s="89"/>
+      <c r="K98" s="89"/>
+      <c r="L98" s="93"/>
       <c r="M98" s="12">
         <v>5</v>
       </c>
@@ -9147,17 +10242,17 @@
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" s="98"/>
-      <c r="C99" s="98"/>
-      <c r="D99" s="100"/>
-      <c r="E99" s="100"/>
-      <c r="F99" s="102"/>
-      <c r="G99" s="100"/>
-      <c r="H99" s="100"/>
-      <c r="I99" s="100"/>
-      <c r="J99" s="100"/>
-      <c r="K99" s="100"/>
-      <c r="L99" s="85" t="s">
+      <c r="B99" s="95"/>
+      <c r="C99" s="95"/>
+      <c r="D99" s="89"/>
+      <c r="E99" s="89"/>
+      <c r="F99" s="98"/>
+      <c r="G99" s="89"/>
+      <c r="H99" s="89"/>
+      <c r="I99" s="89"/>
+      <c r="J99" s="89"/>
+      <c r="K99" s="89"/>
+      <c r="L99" s="92" t="s">
         <v>16</v>
       </c>
       <c r="M99" s="5">
@@ -9173,17 +10268,17 @@
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B100" s="98"/>
-      <c r="C100" s="98"/>
-      <c r="D100" s="100"/>
-      <c r="E100" s="100"/>
-      <c r="F100" s="102"/>
-      <c r="G100" s="100"/>
-      <c r="H100" s="100"/>
-      <c r="I100" s="100"/>
-      <c r="J100" s="100"/>
-      <c r="K100" s="100"/>
-      <c r="L100" s="86"/>
+      <c r="B100" s="95"/>
+      <c r="C100" s="95"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="89"/>
+      <c r="F100" s="98"/>
+      <c r="G100" s="89"/>
+      <c r="H100" s="89"/>
+      <c r="I100" s="89"/>
+      <c r="J100" s="89"/>
+      <c r="K100" s="89"/>
+      <c r="L100" s="93"/>
       <c r="M100" s="12">
         <v>2</v>
       </c>
@@ -9197,65 +10292,65 @@
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B101" s="98"/>
-      <c r="C101" s="98"/>
-      <c r="D101" s="100"/>
-      <c r="E101" s="100"/>
-      <c r="F101" s="102"/>
-      <c r="G101" s="100"/>
-      <c r="H101" s="100"/>
-      <c r="I101" s="100"/>
-      <c r="J101" s="100"/>
-      <c r="K101" s="100"/>
-      <c r="L101" s="86"/>
+      <c r="B101" s="95"/>
+      <c r="C101" s="95"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="98"/>
+      <c r="G101" s="89"/>
+      <c r="H101" s="89"/>
+      <c r="I101" s="89"/>
+      <c r="J101" s="89"/>
+      <c r="K101" s="89"/>
+      <c r="L101" s="93"/>
       <c r="M101" s="12">
         <v>3</v>
       </c>
-      <c r="N101" s="19" t="str">
+      <c r="N101" s="19">
         <f>IF(VELEZ!E24="","",VELEZ!E24)</f>
-        <v/>
-      </c>
-      <c r="O101" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O101" s="73">
         <f>IF(N101="","",VELEZ!F24)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B102" s="98"/>
-      <c r="C102" s="98"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="102"/>
-      <c r="G102" s="100"/>
-      <c r="H102" s="100"/>
-      <c r="I102" s="100"/>
-      <c r="J102" s="100"/>
-      <c r="K102" s="100"/>
-      <c r="L102" s="86"/>
+      <c r="B102" s="95"/>
+      <c r="C102" s="95"/>
+      <c r="D102" s="89"/>
+      <c r="E102" s="89"/>
+      <c r="F102" s="98"/>
+      <c r="G102" s="89"/>
+      <c r="H102" s="89"/>
+      <c r="I102" s="89"/>
+      <c r="J102" s="89"/>
+      <c r="K102" s="89"/>
+      <c r="L102" s="93"/>
       <c r="M102" s="12">
         <v>4</v>
       </c>
-      <c r="N102" s="19" t="str">
+      <c r="N102" s="19">
         <f>IF(VELEZ!E31="","",VELEZ!E31)</f>
-        <v/>
-      </c>
-      <c r="O102" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O102" s="73">
         <f>IF(N102="","",VELEZ!F31)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B103" s="98"/>
-      <c r="C103" s="98"/>
-      <c r="D103" s="100"/>
-      <c r="E103" s="100"/>
-      <c r="F103" s="102"/>
-      <c r="G103" s="100"/>
-      <c r="H103" s="100"/>
-      <c r="I103" s="100"/>
-      <c r="J103" s="100"/>
-      <c r="K103" s="100"/>
-      <c r="L103" s="86"/>
+      <c r="B103" s="95"/>
+      <c r="C103" s="95"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="89"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="89"/>
+      <c r="H103" s="89"/>
+      <c r="I103" s="89"/>
+      <c r="J103" s="89"/>
+      <c r="K103" s="89"/>
+      <c r="L103" s="93"/>
       <c r="M103" s="12">
         <v>5</v>
       </c>
@@ -9269,17 +10364,17 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B104" s="98"/>
-      <c r="C104" s="98"/>
-      <c r="D104" s="100"/>
-      <c r="E104" s="100"/>
-      <c r="F104" s="102"/>
-      <c r="G104" s="100"/>
-      <c r="H104" s="100"/>
-      <c r="I104" s="100"/>
-      <c r="J104" s="100"/>
-      <c r="K104" s="100"/>
-      <c r="L104" s="85" t="s">
+      <c r="B104" s="95"/>
+      <c r="C104" s="95"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="98"/>
+      <c r="G104" s="89"/>
+      <c r="H104" s="89"/>
+      <c r="I104" s="89"/>
+      <c r="J104" s="89"/>
+      <c r="K104" s="89"/>
+      <c r="L104" s="92" t="s">
         <v>17</v>
       </c>
       <c r="M104" s="5">
@@ -9295,17 +10390,17 @@
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B105" s="98"/>
-      <c r="C105" s="98"/>
-      <c r="D105" s="100"/>
-      <c r="E105" s="100"/>
-      <c r="F105" s="102"/>
-      <c r="G105" s="100"/>
-      <c r="H105" s="100"/>
-      <c r="I105" s="100"/>
-      <c r="J105" s="100"/>
-      <c r="K105" s="100"/>
-      <c r="L105" s="86"/>
+      <c r="B105" s="95"/>
+      <c r="C105" s="95"/>
+      <c r="D105" s="89"/>
+      <c r="E105" s="89"/>
+      <c r="F105" s="98"/>
+      <c r="G105" s="89"/>
+      <c r="H105" s="89"/>
+      <c r="I105" s="89"/>
+      <c r="J105" s="89"/>
+      <c r="K105" s="89"/>
+      <c r="L105" s="93"/>
       <c r="M105" s="12">
         <v>2</v>
       </c>
@@ -9319,65 +10414,65 @@
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B106" s="98"/>
-      <c r="C106" s="98"/>
-      <c r="D106" s="100"/>
-      <c r="E106" s="100"/>
-      <c r="F106" s="102"/>
-      <c r="G106" s="100"/>
-      <c r="H106" s="100"/>
-      <c r="I106" s="100"/>
-      <c r="J106" s="100"/>
-      <c r="K106" s="100"/>
-      <c r="L106" s="86"/>
+      <c r="B106" s="95"/>
+      <c r="C106" s="95"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="89"/>
+      <c r="F106" s="98"/>
+      <c r="G106" s="89"/>
+      <c r="H106" s="89"/>
+      <c r="I106" s="89"/>
+      <c r="J106" s="89"/>
+      <c r="K106" s="89"/>
+      <c r="L106" s="93"/>
       <c r="M106" s="12">
         <v>3</v>
       </c>
-      <c r="N106" s="19" t="str">
+      <c r="N106" s="19">
         <f>IF(VELEZ!E25="","",VELEZ!E25)</f>
-        <v/>
-      </c>
-      <c r="O106" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O106" s="73">
         <f>IF(N106="","",VELEZ!F25)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B107" s="98"/>
-      <c r="C107" s="98"/>
-      <c r="D107" s="100"/>
-      <c r="E107" s="100"/>
-      <c r="F107" s="102"/>
-      <c r="G107" s="100"/>
-      <c r="H107" s="100"/>
-      <c r="I107" s="100"/>
-      <c r="J107" s="100"/>
-      <c r="K107" s="100"/>
-      <c r="L107" s="86"/>
+      <c r="B107" s="95"/>
+      <c r="C107" s="95"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="89"/>
+      <c r="F107" s="98"/>
+      <c r="G107" s="89"/>
+      <c r="H107" s="89"/>
+      <c r="I107" s="89"/>
+      <c r="J107" s="89"/>
+      <c r="K107" s="89"/>
+      <c r="L107" s="93"/>
       <c r="M107" s="12">
         <v>4</v>
       </c>
-      <c r="N107" s="19" t="str">
+      <c r="N107" s="19">
         <f>IF(VELEZ!E32="","",VELEZ!E32)</f>
-        <v/>
-      </c>
-      <c r="O107" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O107" s="73">
         <f>IF(N107="","",VELEZ!F32)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" s="98"/>
-      <c r="C108" s="98"/>
-      <c r="D108" s="100"/>
-      <c r="E108" s="100"/>
-      <c r="F108" s="102"/>
-      <c r="G108" s="100"/>
-      <c r="H108" s="100"/>
-      <c r="I108" s="100"/>
-      <c r="J108" s="100"/>
-      <c r="K108" s="100"/>
-      <c r="L108" s="86"/>
+      <c r="B108" s="95"/>
+      <c r="C108" s="95"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="89"/>
+      <c r="F108" s="98"/>
+      <c r="G108" s="89"/>
+      <c r="H108" s="89"/>
+      <c r="I108" s="89"/>
+      <c r="J108" s="89"/>
+      <c r="K108" s="89"/>
+      <c r="L108" s="93"/>
       <c r="M108" s="12">
         <v>5</v>
       </c>
@@ -9391,17 +10486,17 @@
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="98"/>
-      <c r="C109" s="98"/>
-      <c r="D109" s="100"/>
-      <c r="E109" s="100"/>
-      <c r="F109" s="102"/>
-      <c r="G109" s="100"/>
-      <c r="H109" s="100"/>
-      <c r="I109" s="100"/>
-      <c r="J109" s="100"/>
-      <c r="K109" s="100"/>
-      <c r="L109" s="85" t="s">
+      <c r="B109" s="95"/>
+      <c r="C109" s="95"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="89"/>
+      <c r="F109" s="98"/>
+      <c r="G109" s="89"/>
+      <c r="H109" s="89"/>
+      <c r="I109" s="89"/>
+      <c r="J109" s="89"/>
+      <c r="K109" s="89"/>
+      <c r="L109" s="92" t="s">
         <v>73</v>
       </c>
       <c r="M109" s="5">
@@ -9417,17 +10512,17 @@
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" s="98"/>
-      <c r="C110" s="98"/>
-      <c r="D110" s="100"/>
-      <c r="E110" s="100"/>
-      <c r="F110" s="102"/>
-      <c r="G110" s="100"/>
-      <c r="H110" s="100"/>
-      <c r="I110" s="100"/>
-      <c r="J110" s="100"/>
-      <c r="K110" s="100"/>
-      <c r="L110" s="86"/>
+      <c r="B110" s="95"/>
+      <c r="C110" s="95"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="98"/>
+      <c r="G110" s="89"/>
+      <c r="H110" s="89"/>
+      <c r="I110" s="89"/>
+      <c r="J110" s="89"/>
+      <c r="K110" s="89"/>
+      <c r="L110" s="93"/>
       <c r="M110" s="12">
         <v>2</v>
       </c>
@@ -9441,65 +10536,65 @@
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B111" s="98"/>
-      <c r="C111" s="98"/>
-      <c r="D111" s="100"/>
-      <c r="E111" s="100"/>
-      <c r="F111" s="102"/>
-      <c r="G111" s="100"/>
-      <c r="H111" s="100"/>
-      <c r="I111" s="100"/>
-      <c r="J111" s="100"/>
-      <c r="K111" s="100"/>
-      <c r="L111" s="86"/>
+      <c r="B111" s="95"/>
+      <c r="C111" s="95"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="89"/>
+      <c r="F111" s="98"/>
+      <c r="G111" s="89"/>
+      <c r="H111" s="89"/>
+      <c r="I111" s="89"/>
+      <c r="J111" s="89"/>
+      <c r="K111" s="89"/>
+      <c r="L111" s="93"/>
       <c r="M111" s="12">
         <v>3</v>
       </c>
-      <c r="N111" s="19" t="str">
+      <c r="N111" s="19">
         <f>IF(VELEZ!E26="","",VELEZ!E26)</f>
-        <v/>
-      </c>
-      <c r="O111" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O111" s="73">
         <f>IF(N111="","",VELEZ!F26)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B112" s="98"/>
-      <c r="C112" s="98"/>
-      <c r="D112" s="100"/>
-      <c r="E112" s="100"/>
-      <c r="F112" s="102"/>
-      <c r="G112" s="100"/>
-      <c r="H112" s="100"/>
-      <c r="I112" s="100"/>
-      <c r="J112" s="100"/>
-      <c r="K112" s="100"/>
-      <c r="L112" s="86"/>
+      <c r="B112" s="95"/>
+      <c r="C112" s="95"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="89"/>
+      <c r="F112" s="98"/>
+      <c r="G112" s="89"/>
+      <c r="H112" s="89"/>
+      <c r="I112" s="89"/>
+      <c r="J112" s="89"/>
+      <c r="K112" s="89"/>
+      <c r="L112" s="93"/>
       <c r="M112" s="12">
         <v>4</v>
       </c>
-      <c r="N112" s="19" t="str">
+      <c r="N112" s="19">
         <f>IF(VELEZ!E33="","",VELEZ!E33)</f>
-        <v/>
-      </c>
-      <c r="O112" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O112" s="73">
         <f>IF(N112="","",VELEZ!F33)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B113" s="98"/>
-      <c r="C113" s="98"/>
-      <c r="D113" s="100"/>
-      <c r="E113" s="100"/>
-      <c r="F113" s="102"/>
-      <c r="G113" s="100"/>
-      <c r="H113" s="100"/>
-      <c r="I113" s="100"/>
-      <c r="J113" s="100"/>
-      <c r="K113" s="100"/>
-      <c r="L113" s="86"/>
+      <c r="B113" s="95"/>
+      <c r="C113" s="95"/>
+      <c r="D113" s="89"/>
+      <c r="E113" s="89"/>
+      <c r="F113" s="98"/>
+      <c r="G113" s="89"/>
+      <c r="H113" s="89"/>
+      <c r="I113" s="89"/>
+      <c r="J113" s="89"/>
+      <c r="K113" s="89"/>
+      <c r="L113" s="93"/>
       <c r="M113" s="12">
         <v>5</v>
       </c>
@@ -9513,35 +10608,35 @@
       </c>
     </row>
     <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="92"/>
-      <c r="C114" s="92" t="s">
+      <c r="B114" s="94"/>
+      <c r="C114" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="D114" s="89" t="s">
+      <c r="D114" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="E114" s="89" t="s">
+      <c r="E114" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="F114" s="101">
-        <v>1</v>
-      </c>
-      <c r="G114" s="89" t="s">
+      <c r="F114" s="97">
+        <v>1</v>
+      </c>
+      <c r="G114" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="H114" s="89" t="s">
+      <c r="H114" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="I114" s="89" t="s">
+      <c r="I114" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="J114" s="103" t="s">
+      <c r="J114" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="K114" s="103" t="s">
+      <c r="K114" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="L114" s="85" t="s">
+      <c r="L114" s="92" t="s">
         <v>59</v>
       </c>
       <c r="M114" s="5">
@@ -9557,17 +10652,17 @@
       </c>
     </row>
     <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="98"/>
-      <c r="C115" s="98"/>
-      <c r="D115" s="100"/>
-      <c r="E115" s="100"/>
-      <c r="F115" s="102"/>
-      <c r="G115" s="100"/>
-      <c r="H115" s="100"/>
-      <c r="I115" s="100"/>
-      <c r="J115" s="100"/>
-      <c r="K115" s="100"/>
-      <c r="L115" s="86"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="89"/>
+      <c r="E115" s="89"/>
+      <c r="F115" s="98"/>
+      <c r="G115" s="89"/>
+      <c r="H115" s="89"/>
+      <c r="I115" s="89"/>
+      <c r="J115" s="89"/>
+      <c r="K115" s="89"/>
+      <c r="L115" s="93"/>
       <c r="M115" s="12">
         <v>2</v>
       </c>
@@ -9581,17 +10676,17 @@
       </c>
     </row>
     <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="98"/>
-      <c r="C116" s="98"/>
-      <c r="D116" s="100"/>
-      <c r="E116" s="100"/>
-      <c r="F116" s="102"/>
-      <c r="G116" s="100"/>
-      <c r="H116" s="100"/>
-      <c r="I116" s="100"/>
-      <c r="J116" s="100"/>
-      <c r="K116" s="100"/>
-      <c r="L116" s="86"/>
+      <c r="B116" s="95"/>
+      <c r="C116" s="95"/>
+      <c r="D116" s="89"/>
+      <c r="E116" s="89"/>
+      <c r="F116" s="98"/>
+      <c r="G116" s="89"/>
+      <c r="H116" s="89"/>
+      <c r="I116" s="89"/>
+      <c r="J116" s="89"/>
+      <c r="K116" s="89"/>
+      <c r="L116" s="93"/>
       <c r="M116" s="12">
         <v>3</v>
       </c>
@@ -9605,17 +10700,17 @@
       </c>
     </row>
     <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="98"/>
-      <c r="C117" s="98"/>
-      <c r="D117" s="100"/>
-      <c r="E117" s="100"/>
-      <c r="F117" s="102"/>
-      <c r="G117" s="100"/>
-      <c r="H117" s="100"/>
-      <c r="I117" s="100"/>
-      <c r="J117" s="100"/>
-      <c r="K117" s="100"/>
-      <c r="L117" s="86"/>
+      <c r="B117" s="95"/>
+      <c r="C117" s="95"/>
+      <c r="D117" s="89"/>
+      <c r="E117" s="89"/>
+      <c r="F117" s="98"/>
+      <c r="G117" s="89"/>
+      <c r="H117" s="89"/>
+      <c r="I117" s="89"/>
+      <c r="J117" s="89"/>
+      <c r="K117" s="89"/>
+      <c r="L117" s="93"/>
       <c r="M117" s="12">
         <v>4</v>
       </c>
@@ -9629,17 +10724,17 @@
       </c>
     </row>
     <row r="118" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="98"/>
-      <c r="C118" s="98"/>
-      <c r="D118" s="100"/>
-      <c r="E118" s="100"/>
-      <c r="F118" s="102"/>
-      <c r="G118" s="100"/>
-      <c r="H118" s="100"/>
-      <c r="I118" s="100"/>
-      <c r="J118" s="100"/>
-      <c r="K118" s="100"/>
-      <c r="L118" s="86"/>
+      <c r="B118" s="95"/>
+      <c r="C118" s="95"/>
+      <c r="D118" s="89"/>
+      <c r="E118" s="89"/>
+      <c r="F118" s="98"/>
+      <c r="G118" s="89"/>
+      <c r="H118" s="89"/>
+      <c r="I118" s="89"/>
+      <c r="J118" s="89"/>
+      <c r="K118" s="89"/>
+      <c r="L118" s="93"/>
       <c r="M118" s="12">
         <v>5</v>
       </c>
@@ -9653,17 +10748,17 @@
       </c>
     </row>
     <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="98"/>
-      <c r="C119" s="98"/>
-      <c r="D119" s="100"/>
-      <c r="E119" s="100"/>
-      <c r="F119" s="102"/>
-      <c r="G119" s="100"/>
-      <c r="H119" s="100"/>
-      <c r="I119" s="100"/>
-      <c r="J119" s="100"/>
-      <c r="K119" s="100"/>
-      <c r="L119" s="87" t="s">
+      <c r="B119" s="95"/>
+      <c r="C119" s="95"/>
+      <c r="D119" s="89"/>
+      <c r="E119" s="89"/>
+      <c r="F119" s="98"/>
+      <c r="G119" s="89"/>
+      <c r="H119" s="89"/>
+      <c r="I119" s="89"/>
+      <c r="J119" s="89"/>
+      <c r="K119" s="89"/>
+      <c r="L119" s="100" t="s">
         <v>61</v>
       </c>
       <c r="M119" s="52">
@@ -9676,17 +10771,17 @@
       </c>
     </row>
     <row r="120" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="98"/>
-      <c r="C120" s="98"/>
-      <c r="D120" s="100"/>
-      <c r="E120" s="100"/>
-      <c r="F120" s="102"/>
-      <c r="G120" s="100"/>
-      <c r="H120" s="100"/>
-      <c r="I120" s="100"/>
-      <c r="J120" s="100"/>
-      <c r="K120" s="100"/>
-      <c r="L120" s="88"/>
+      <c r="B120" s="95"/>
+      <c r="C120" s="95"/>
+      <c r="D120" s="89"/>
+      <c r="E120" s="89"/>
+      <c r="F120" s="98"/>
+      <c r="G120" s="89"/>
+      <c r="H120" s="89"/>
+      <c r="I120" s="89"/>
+      <c r="J120" s="89"/>
+      <c r="K120" s="89"/>
+      <c r="L120" s="101"/>
       <c r="M120" s="19">
         <v>2</v>
       </c>
@@ -9697,17 +10792,17 @@
       </c>
     </row>
     <row r="121" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="98"/>
-      <c r="C121" s="98"/>
-      <c r="D121" s="100"/>
-      <c r="E121" s="100"/>
-      <c r="F121" s="102"/>
-      <c r="G121" s="100"/>
-      <c r="H121" s="100"/>
-      <c r="I121" s="100"/>
-      <c r="J121" s="100"/>
-      <c r="K121" s="100"/>
-      <c r="L121" s="88"/>
+      <c r="B121" s="95"/>
+      <c r="C121" s="95"/>
+      <c r="D121" s="89"/>
+      <c r="E121" s="89"/>
+      <c r="F121" s="98"/>
+      <c r="G121" s="89"/>
+      <c r="H121" s="89"/>
+      <c r="I121" s="89"/>
+      <c r="J121" s="89"/>
+      <c r="K121" s="89"/>
+      <c r="L121" s="101"/>
       <c r="M121" s="19">
         <v>3</v>
       </c>
@@ -9718,17 +10813,17 @@
       </c>
     </row>
     <row r="122" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="98"/>
-      <c r="C122" s="98"/>
-      <c r="D122" s="100"/>
-      <c r="E122" s="100"/>
-      <c r="F122" s="102"/>
-      <c r="G122" s="100"/>
-      <c r="H122" s="100"/>
-      <c r="I122" s="100"/>
-      <c r="J122" s="100"/>
-      <c r="K122" s="100"/>
-      <c r="L122" s="88"/>
+      <c r="B122" s="95"/>
+      <c r="C122" s="95"/>
+      <c r="D122" s="89"/>
+      <c r="E122" s="89"/>
+      <c r="F122" s="98"/>
+      <c r="G122" s="89"/>
+      <c r="H122" s="89"/>
+      <c r="I122" s="89"/>
+      <c r="J122" s="89"/>
+      <c r="K122" s="89"/>
+      <c r="L122" s="101"/>
       <c r="M122" s="19">
         <v>4</v>
       </c>
@@ -9739,17 +10834,17 @@
       </c>
     </row>
     <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="98"/>
-      <c r="C123" s="98"/>
-      <c r="D123" s="100"/>
-      <c r="E123" s="100"/>
-      <c r="F123" s="102"/>
-      <c r="G123" s="100"/>
-      <c r="H123" s="100"/>
-      <c r="I123" s="100"/>
-      <c r="J123" s="100"/>
-      <c r="K123" s="100"/>
-      <c r="L123" s="88"/>
+      <c r="B123" s="95"/>
+      <c r="C123" s="95"/>
+      <c r="D123" s="89"/>
+      <c r="E123" s="89"/>
+      <c r="F123" s="98"/>
+      <c r="G123" s="89"/>
+      <c r="H123" s="89"/>
+      <c r="I123" s="89"/>
+      <c r="J123" s="89"/>
+      <c r="K123" s="89"/>
+      <c r="L123" s="101"/>
       <c r="M123" s="19">
         <v>5</v>
       </c>
@@ -9760,17 +10855,17 @@
       </c>
     </row>
     <row r="124" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="98"/>
-      <c r="C124" s="98"/>
-      <c r="D124" s="100"/>
-      <c r="E124" s="100"/>
-      <c r="F124" s="102"/>
-      <c r="G124" s="100"/>
-      <c r="H124" s="100"/>
-      <c r="I124" s="100"/>
-      <c r="J124" s="100"/>
-      <c r="K124" s="100"/>
-      <c r="L124" s="85" t="s">
+      <c r="B124" s="95"/>
+      <c r="C124" s="95"/>
+      <c r="D124" s="89"/>
+      <c r="E124" s="89"/>
+      <c r="F124" s="98"/>
+      <c r="G124" s="89"/>
+      <c r="H124" s="89"/>
+      <c r="I124" s="89"/>
+      <c r="J124" s="89"/>
+      <c r="K124" s="89"/>
+      <c r="L124" s="92" t="s">
         <v>62</v>
       </c>
       <c r="M124" s="5">
@@ -9786,17 +10881,17 @@
       </c>
     </row>
     <row r="125" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="98"/>
-      <c r="C125" s="98"/>
-      <c r="D125" s="100"/>
-      <c r="E125" s="100"/>
-      <c r="F125" s="102"/>
-      <c r="G125" s="100"/>
-      <c r="H125" s="100"/>
-      <c r="I125" s="100"/>
-      <c r="J125" s="100"/>
-      <c r="K125" s="100"/>
-      <c r="L125" s="86"/>
+      <c r="B125" s="95"/>
+      <c r="C125" s="95"/>
+      <c r="D125" s="89"/>
+      <c r="E125" s="89"/>
+      <c r="F125" s="98"/>
+      <c r="G125" s="89"/>
+      <c r="H125" s="89"/>
+      <c r="I125" s="89"/>
+      <c r="J125" s="89"/>
+      <c r="K125" s="89"/>
+      <c r="L125" s="93"/>
       <c r="M125" s="12">
         <v>2</v>
       </c>
@@ -9810,17 +10905,17 @@
       </c>
     </row>
     <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="98"/>
-      <c r="C126" s="98"/>
-      <c r="D126" s="100"/>
-      <c r="E126" s="100"/>
-      <c r="F126" s="102"/>
-      <c r="G126" s="100"/>
-      <c r="H126" s="100"/>
-      <c r="I126" s="100"/>
-      <c r="J126" s="100"/>
-      <c r="K126" s="100"/>
-      <c r="L126" s="86"/>
+      <c r="B126" s="95"/>
+      <c r="C126" s="95"/>
+      <c r="D126" s="89"/>
+      <c r="E126" s="89"/>
+      <c r="F126" s="98"/>
+      <c r="G126" s="89"/>
+      <c r="H126" s="89"/>
+      <c r="I126" s="89"/>
+      <c r="J126" s="89"/>
+      <c r="K126" s="89"/>
+      <c r="L126" s="93"/>
       <c r="M126" s="12">
         <v>3</v>
       </c>
@@ -9834,17 +10929,17 @@
       </c>
     </row>
     <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="98"/>
-      <c r="C127" s="98"/>
-      <c r="D127" s="100"/>
-      <c r="E127" s="100"/>
-      <c r="F127" s="102"/>
-      <c r="G127" s="100"/>
-      <c r="H127" s="100"/>
-      <c r="I127" s="100"/>
-      <c r="J127" s="100"/>
-      <c r="K127" s="100"/>
-      <c r="L127" s="86"/>
+      <c r="B127" s="95"/>
+      <c r="C127" s="95"/>
+      <c r="D127" s="89"/>
+      <c r="E127" s="89"/>
+      <c r="F127" s="98"/>
+      <c r="G127" s="89"/>
+      <c r="H127" s="89"/>
+      <c r="I127" s="89"/>
+      <c r="J127" s="89"/>
+      <c r="K127" s="89"/>
+      <c r="L127" s="93"/>
       <c r="M127" s="12">
         <v>4</v>
       </c>
@@ -9858,17 +10953,17 @@
       </c>
     </row>
     <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="98"/>
-      <c r="C128" s="98"/>
-      <c r="D128" s="100"/>
-      <c r="E128" s="100"/>
-      <c r="F128" s="102"/>
-      <c r="G128" s="100"/>
-      <c r="H128" s="100"/>
-      <c r="I128" s="100"/>
-      <c r="J128" s="100"/>
-      <c r="K128" s="100"/>
-      <c r="L128" s="86"/>
+      <c r="B128" s="95"/>
+      <c r="C128" s="95"/>
+      <c r="D128" s="89"/>
+      <c r="E128" s="89"/>
+      <c r="F128" s="98"/>
+      <c r="G128" s="89"/>
+      <c r="H128" s="89"/>
+      <c r="I128" s="89"/>
+      <c r="J128" s="89"/>
+      <c r="K128" s="89"/>
+      <c r="L128" s="93"/>
       <c r="M128" s="12">
         <v>5</v>
       </c>
@@ -9882,17 +10977,17 @@
       </c>
     </row>
     <row r="129" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="98"/>
-      <c r="C129" s="98"/>
-      <c r="D129" s="100"/>
-      <c r="E129" s="100"/>
-      <c r="F129" s="102"/>
-      <c r="G129" s="100"/>
-      <c r="H129" s="100"/>
-      <c r="I129" s="100"/>
-      <c r="J129" s="100"/>
-      <c r="K129" s="100"/>
-      <c r="L129" s="85" t="s">
+      <c r="B129" s="95"/>
+      <c r="C129" s="95"/>
+      <c r="D129" s="89"/>
+      <c r="E129" s="89"/>
+      <c r="F129" s="98"/>
+      <c r="G129" s="89"/>
+      <c r="H129" s="89"/>
+      <c r="I129" s="89"/>
+      <c r="J129" s="89"/>
+      <c r="K129" s="89"/>
+      <c r="L129" s="92" t="s">
         <v>60</v>
       </c>
       <c r="M129" s="5">
@@ -9908,17 +11003,17 @@
       </c>
     </row>
     <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="98"/>
-      <c r="C130" s="98"/>
-      <c r="D130" s="100"/>
-      <c r="E130" s="100"/>
-      <c r="F130" s="102"/>
-      <c r="G130" s="100"/>
-      <c r="H130" s="100"/>
-      <c r="I130" s="100"/>
-      <c r="J130" s="100"/>
-      <c r="K130" s="100"/>
-      <c r="L130" s="86"/>
+      <c r="B130" s="95"/>
+      <c r="C130" s="95"/>
+      <c r="D130" s="89"/>
+      <c r="E130" s="89"/>
+      <c r="F130" s="98"/>
+      <c r="G130" s="89"/>
+      <c r="H130" s="89"/>
+      <c r="I130" s="89"/>
+      <c r="J130" s="89"/>
+      <c r="K130" s="89"/>
+      <c r="L130" s="93"/>
       <c r="M130" s="12">
         <v>2</v>
       </c>
@@ -9932,17 +11027,17 @@
       </c>
     </row>
     <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="98"/>
-      <c r="C131" s="98"/>
-      <c r="D131" s="100"/>
-      <c r="E131" s="100"/>
-      <c r="F131" s="102"/>
-      <c r="G131" s="100"/>
-      <c r="H131" s="100"/>
-      <c r="I131" s="100"/>
-      <c r="J131" s="100"/>
-      <c r="K131" s="100"/>
-      <c r="L131" s="86"/>
+      <c r="B131" s="95"/>
+      <c r="C131" s="95"/>
+      <c r="D131" s="89"/>
+      <c r="E131" s="89"/>
+      <c r="F131" s="98"/>
+      <c r="G131" s="89"/>
+      <c r="H131" s="89"/>
+      <c r="I131" s="89"/>
+      <c r="J131" s="89"/>
+      <c r="K131" s="89"/>
+      <c r="L131" s="93"/>
       <c r="M131" s="12">
         <v>3</v>
       </c>
@@ -9956,17 +11051,17 @@
       </c>
     </row>
     <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="98"/>
-      <c r="C132" s="98"/>
-      <c r="D132" s="100"/>
-      <c r="E132" s="100"/>
-      <c r="F132" s="102"/>
-      <c r="G132" s="100"/>
-      <c r="H132" s="100"/>
-      <c r="I132" s="100"/>
-      <c r="J132" s="100"/>
-      <c r="K132" s="100"/>
-      <c r="L132" s="86"/>
+      <c r="B132" s="95"/>
+      <c r="C132" s="95"/>
+      <c r="D132" s="89"/>
+      <c r="E132" s="89"/>
+      <c r="F132" s="98"/>
+      <c r="G132" s="89"/>
+      <c r="H132" s="89"/>
+      <c r="I132" s="89"/>
+      <c r="J132" s="89"/>
+      <c r="K132" s="89"/>
+      <c r="L132" s="93"/>
       <c r="M132" s="12">
         <v>4</v>
       </c>
@@ -9980,17 +11075,17 @@
       </c>
     </row>
     <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="98"/>
-      <c r="C133" s="98"/>
-      <c r="D133" s="100"/>
-      <c r="E133" s="100"/>
-      <c r="F133" s="102"/>
-      <c r="G133" s="100"/>
-      <c r="H133" s="100"/>
-      <c r="I133" s="100"/>
-      <c r="J133" s="100"/>
-      <c r="K133" s="100"/>
-      <c r="L133" s="86"/>
+      <c r="B133" s="95"/>
+      <c r="C133" s="95"/>
+      <c r="D133" s="89"/>
+      <c r="E133" s="89"/>
+      <c r="F133" s="98"/>
+      <c r="G133" s="89"/>
+      <c r="H133" s="89"/>
+      <c r="I133" s="89"/>
+      <c r="J133" s="89"/>
+      <c r="K133" s="89"/>
+      <c r="L133" s="93"/>
       <c r="M133" s="12">
         <v>5</v>
       </c>
@@ -10004,17 +11099,17 @@
       </c>
     </row>
     <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="98"/>
-      <c r="C134" s="98"/>
-      <c r="D134" s="100"/>
-      <c r="E134" s="100"/>
-      <c r="F134" s="102"/>
-      <c r="G134" s="100"/>
-      <c r="H134" s="100"/>
-      <c r="I134" s="100"/>
-      <c r="J134" s="100"/>
-      <c r="K134" s="100"/>
-      <c r="L134" s="85" t="s">
+      <c r="B134" s="95"/>
+      <c r="C134" s="95"/>
+      <c r="D134" s="89"/>
+      <c r="E134" s="89"/>
+      <c r="F134" s="98"/>
+      <c r="G134" s="89"/>
+      <c r="H134" s="89"/>
+      <c r="I134" s="89"/>
+      <c r="J134" s="89"/>
+      <c r="K134" s="89"/>
+      <c r="L134" s="92" t="s">
         <v>63</v>
       </c>
       <c r="M134" s="5">
@@ -10030,17 +11125,17 @@
       </c>
     </row>
     <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="98"/>
-      <c r="C135" s="98"/>
-      <c r="D135" s="100"/>
-      <c r="E135" s="100"/>
-      <c r="F135" s="102"/>
-      <c r="G135" s="100"/>
-      <c r="H135" s="100"/>
-      <c r="I135" s="100"/>
-      <c r="J135" s="100"/>
-      <c r="K135" s="100"/>
-      <c r="L135" s="86"/>
+      <c r="B135" s="95"/>
+      <c r="C135" s="95"/>
+      <c r="D135" s="89"/>
+      <c r="E135" s="89"/>
+      <c r="F135" s="98"/>
+      <c r="G135" s="89"/>
+      <c r="H135" s="89"/>
+      <c r="I135" s="89"/>
+      <c r="J135" s="89"/>
+      <c r="K135" s="89"/>
+      <c r="L135" s="93"/>
       <c r="M135" s="12">
         <v>2</v>
       </c>
@@ -10054,17 +11149,17 @@
       </c>
     </row>
     <row r="136" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="98"/>
-      <c r="C136" s="98"/>
-      <c r="D136" s="100"/>
-      <c r="E136" s="100"/>
-      <c r="F136" s="102"/>
-      <c r="G136" s="100"/>
-      <c r="H136" s="100"/>
-      <c r="I136" s="100"/>
-      <c r="J136" s="100"/>
-      <c r="K136" s="100"/>
-      <c r="L136" s="86"/>
+      <c r="B136" s="95"/>
+      <c r="C136" s="95"/>
+      <c r="D136" s="89"/>
+      <c r="E136" s="89"/>
+      <c r="F136" s="98"/>
+      <c r="G136" s="89"/>
+      <c r="H136" s="89"/>
+      <c r="I136" s="89"/>
+      <c r="J136" s="89"/>
+      <c r="K136" s="89"/>
+      <c r="L136" s="93"/>
       <c r="M136" s="12">
         <v>3</v>
       </c>
@@ -10078,17 +11173,17 @@
       </c>
     </row>
     <row r="137" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="98"/>
-      <c r="C137" s="98"/>
-      <c r="D137" s="100"/>
-      <c r="E137" s="100"/>
-      <c r="F137" s="102"/>
-      <c r="G137" s="100"/>
-      <c r="H137" s="100"/>
-      <c r="I137" s="100"/>
-      <c r="J137" s="100"/>
-      <c r="K137" s="100"/>
-      <c r="L137" s="86"/>
+      <c r="B137" s="95"/>
+      <c r="C137" s="95"/>
+      <c r="D137" s="89"/>
+      <c r="E137" s="89"/>
+      <c r="F137" s="98"/>
+      <c r="G137" s="89"/>
+      <c r="H137" s="89"/>
+      <c r="I137" s="89"/>
+      <c r="J137" s="89"/>
+      <c r="K137" s="89"/>
+      <c r="L137" s="93"/>
       <c r="M137" s="12">
         <v>4</v>
       </c>
@@ -10102,17 +11197,17 @@
       </c>
     </row>
     <row r="138" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="98"/>
-      <c r="C138" s="98"/>
-      <c r="D138" s="100"/>
-      <c r="E138" s="100"/>
-      <c r="F138" s="102"/>
-      <c r="G138" s="100"/>
-      <c r="H138" s="100"/>
-      <c r="I138" s="100"/>
-      <c r="J138" s="100"/>
-      <c r="K138" s="100"/>
-      <c r="L138" s="86"/>
+      <c r="B138" s="95"/>
+      <c r="C138" s="95"/>
+      <c r="D138" s="89"/>
+      <c r="E138" s="89"/>
+      <c r="F138" s="98"/>
+      <c r="G138" s="89"/>
+      <c r="H138" s="89"/>
+      <c r="I138" s="89"/>
+      <c r="J138" s="89"/>
+      <c r="K138" s="89"/>
+      <c r="L138" s="93"/>
       <c r="M138" s="12">
         <v>5</v>
       </c>
@@ -10126,17 +11221,17 @@
       </c>
     </row>
     <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="98"/>
-      <c r="C139" s="98"/>
-      <c r="D139" s="100"/>
-      <c r="E139" s="100"/>
-      <c r="F139" s="102"/>
-      <c r="G139" s="100"/>
-      <c r="H139" s="100"/>
-      <c r="I139" s="100"/>
-      <c r="J139" s="100"/>
-      <c r="K139" s="100"/>
-      <c r="L139" s="85" t="s">
+      <c r="B139" s="95"/>
+      <c r="C139" s="95"/>
+      <c r="D139" s="89"/>
+      <c r="E139" s="89"/>
+      <c r="F139" s="98"/>
+      <c r="G139" s="89"/>
+      <c r="H139" s="89"/>
+      <c r="I139" s="89"/>
+      <c r="J139" s="89"/>
+      <c r="K139" s="89"/>
+      <c r="L139" s="92" t="s">
         <v>79</v>
       </c>
       <c r="M139" s="5">
@@ -10152,17 +11247,17 @@
       </c>
     </row>
     <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="98"/>
-      <c r="C140" s="98"/>
-      <c r="D140" s="100"/>
-      <c r="E140" s="100"/>
-      <c r="F140" s="102"/>
-      <c r="G140" s="100"/>
-      <c r="H140" s="100"/>
-      <c r="I140" s="100"/>
-      <c r="J140" s="100"/>
-      <c r="K140" s="100"/>
-      <c r="L140" s="86"/>
+      <c r="B140" s="95"/>
+      <c r="C140" s="95"/>
+      <c r="D140" s="89"/>
+      <c r="E140" s="89"/>
+      <c r="F140" s="98"/>
+      <c r="G140" s="89"/>
+      <c r="H140" s="89"/>
+      <c r="I140" s="89"/>
+      <c r="J140" s="89"/>
+      <c r="K140" s="89"/>
+      <c r="L140" s="93"/>
       <c r="M140" s="12">
         <v>2</v>
       </c>
@@ -10176,17 +11271,17 @@
       </c>
     </row>
     <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="98"/>
-      <c r="C141" s="98"/>
-      <c r="D141" s="100"/>
-      <c r="E141" s="100"/>
-      <c r="F141" s="102"/>
-      <c r="G141" s="100"/>
-      <c r="H141" s="100"/>
-      <c r="I141" s="100"/>
-      <c r="J141" s="100"/>
-      <c r="K141" s="100"/>
-      <c r="L141" s="86"/>
+      <c r="B141" s="95"/>
+      <c r="C141" s="95"/>
+      <c r="D141" s="89"/>
+      <c r="E141" s="89"/>
+      <c r="F141" s="98"/>
+      <c r="G141" s="89"/>
+      <c r="H141" s="89"/>
+      <c r="I141" s="89"/>
+      <c r="J141" s="89"/>
+      <c r="K141" s="89"/>
+      <c r="L141" s="93"/>
       <c r="M141" s="12">
         <v>3</v>
       </c>
@@ -10200,17 +11295,17 @@
       </c>
     </row>
     <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="98"/>
-      <c r="C142" s="98"/>
-      <c r="D142" s="100"/>
-      <c r="E142" s="100"/>
-      <c r="F142" s="102"/>
-      <c r="G142" s="100"/>
-      <c r="H142" s="100"/>
-      <c r="I142" s="100"/>
-      <c r="J142" s="100"/>
-      <c r="K142" s="100"/>
-      <c r="L142" s="86"/>
+      <c r="B142" s="95"/>
+      <c r="C142" s="95"/>
+      <c r="D142" s="89"/>
+      <c r="E142" s="89"/>
+      <c r="F142" s="98"/>
+      <c r="G142" s="89"/>
+      <c r="H142" s="89"/>
+      <c r="I142" s="89"/>
+      <c r="J142" s="89"/>
+      <c r="K142" s="89"/>
+      <c r="L142" s="93"/>
       <c r="M142" s="12">
         <v>4</v>
       </c>
@@ -10224,17 +11319,17 @@
       </c>
     </row>
     <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="98"/>
-      <c r="C143" s="98"/>
-      <c r="D143" s="100"/>
-      <c r="E143" s="100"/>
-      <c r="F143" s="102"/>
-      <c r="G143" s="100"/>
-      <c r="H143" s="100"/>
-      <c r="I143" s="100"/>
-      <c r="J143" s="100"/>
-      <c r="K143" s="100"/>
-      <c r="L143" s="86"/>
+      <c r="B143" s="95"/>
+      <c r="C143" s="95"/>
+      <c r="D143" s="89"/>
+      <c r="E143" s="89"/>
+      <c r="F143" s="98"/>
+      <c r="G143" s="89"/>
+      <c r="H143" s="89"/>
+      <c r="I143" s="89"/>
+      <c r="J143" s="89"/>
+      <c r="K143" s="89"/>
+      <c r="L143" s="93"/>
       <c r="M143" s="12">
         <v>5</v>
       </c>
@@ -10248,17 +11343,17 @@
       </c>
     </row>
     <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="98"/>
-      <c r="C144" s="98"/>
-      <c r="D144" s="100"/>
-      <c r="E144" s="100"/>
-      <c r="F144" s="102"/>
-      <c r="G144" s="100"/>
-      <c r="H144" s="100"/>
-      <c r="I144" s="100"/>
-      <c r="J144" s="100"/>
-      <c r="K144" s="100"/>
-      <c r="L144" s="85" t="s">
+      <c r="B144" s="95"/>
+      <c r="C144" s="95"/>
+      <c r="D144" s="89"/>
+      <c r="E144" s="89"/>
+      <c r="F144" s="98"/>
+      <c r="G144" s="89"/>
+      <c r="H144" s="89"/>
+      <c r="I144" s="89"/>
+      <c r="J144" s="89"/>
+      <c r="K144" s="89"/>
+      <c r="L144" s="92" t="s">
         <v>15</v>
       </c>
       <c r="M144" s="5">
@@ -10274,17 +11369,17 @@
       </c>
     </row>
     <row r="145" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="98"/>
-      <c r="C145" s="98"/>
-      <c r="D145" s="100"/>
-      <c r="E145" s="100"/>
-      <c r="F145" s="102"/>
-      <c r="G145" s="100"/>
-      <c r="H145" s="100"/>
-      <c r="I145" s="100"/>
-      <c r="J145" s="100"/>
-      <c r="K145" s="100"/>
-      <c r="L145" s="86"/>
+      <c r="B145" s="95"/>
+      <c r="C145" s="95"/>
+      <c r="D145" s="89"/>
+      <c r="E145" s="89"/>
+      <c r="F145" s="98"/>
+      <c r="G145" s="89"/>
+      <c r="H145" s="89"/>
+      <c r="I145" s="89"/>
+      <c r="J145" s="89"/>
+      <c r="K145" s="89"/>
+      <c r="L145" s="93"/>
       <c r="M145" s="12">
         <v>2</v>
       </c>
@@ -10298,17 +11393,17 @@
       </c>
     </row>
     <row r="146" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="98"/>
-      <c r="C146" s="98"/>
-      <c r="D146" s="100"/>
-      <c r="E146" s="100"/>
-      <c r="F146" s="102"/>
-      <c r="G146" s="100"/>
-      <c r="H146" s="100"/>
-      <c r="I146" s="100"/>
-      <c r="J146" s="100"/>
-      <c r="K146" s="100"/>
-      <c r="L146" s="86"/>
+      <c r="B146" s="95"/>
+      <c r="C146" s="95"/>
+      <c r="D146" s="89"/>
+      <c r="E146" s="89"/>
+      <c r="F146" s="98"/>
+      <c r="G146" s="89"/>
+      <c r="H146" s="89"/>
+      <c r="I146" s="89"/>
+      <c r="J146" s="89"/>
+      <c r="K146" s="89"/>
+      <c r="L146" s="93"/>
       <c r="M146" s="12">
         <v>3</v>
       </c>
@@ -10322,17 +11417,17 @@
       </c>
     </row>
     <row r="147" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="98"/>
-      <c r="C147" s="98"/>
-      <c r="D147" s="100"/>
-      <c r="E147" s="100"/>
-      <c r="F147" s="102"/>
-      <c r="G147" s="100"/>
-      <c r="H147" s="100"/>
-      <c r="I147" s="100"/>
-      <c r="J147" s="100"/>
-      <c r="K147" s="100"/>
-      <c r="L147" s="86"/>
+      <c r="B147" s="95"/>
+      <c r="C147" s="95"/>
+      <c r="D147" s="89"/>
+      <c r="E147" s="89"/>
+      <c r="F147" s="98"/>
+      <c r="G147" s="89"/>
+      <c r="H147" s="89"/>
+      <c r="I147" s="89"/>
+      <c r="J147" s="89"/>
+      <c r="K147" s="89"/>
+      <c r="L147" s="93"/>
       <c r="M147" s="12">
         <v>4</v>
       </c>
@@ -10346,17 +11441,17 @@
       </c>
     </row>
     <row r="148" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="98"/>
-      <c r="C148" s="98"/>
-      <c r="D148" s="100"/>
-      <c r="E148" s="100"/>
-      <c r="F148" s="102"/>
-      <c r="G148" s="100"/>
-      <c r="H148" s="100"/>
-      <c r="I148" s="100"/>
-      <c r="J148" s="100"/>
-      <c r="K148" s="100"/>
-      <c r="L148" s="86"/>
+      <c r="B148" s="95"/>
+      <c r="C148" s="95"/>
+      <c r="D148" s="89"/>
+      <c r="E148" s="89"/>
+      <c r="F148" s="98"/>
+      <c r="G148" s="89"/>
+      <c r="H148" s="89"/>
+      <c r="I148" s="89"/>
+      <c r="J148" s="89"/>
+      <c r="K148" s="89"/>
+      <c r="L148" s="93"/>
       <c r="M148" s="12">
         <v>5</v>
       </c>
@@ -10370,38 +11465,38 @@
       </c>
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B149" s="92" t="s">
+      <c r="B149" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="C149" s="92" t="s">
+      <c r="C149" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="D149" s="89" t="s">
+      <c r="D149" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="E149" s="89" t="str">
+      <c r="E149" s="88" t="str">
         <f>E79</f>
         <v>FEBRERO</v>
       </c>
-      <c r="F149" s="101">
-        <v>1</v>
-      </c>
-      <c r="G149" s="103" t="s">
+      <c r="F149" s="97">
+        <v>1</v>
+      </c>
+      <c r="G149" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="H149" s="103" t="s">
+      <c r="H149" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="I149" s="103" t="s">
+      <c r="I149" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="J149" s="103" t="s">
+      <c r="J149" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="K149" s="103" t="s">
+      <c r="K149" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="L149" s="85" t="s">
+      <c r="L149" s="92" t="s">
         <v>80</v>
       </c>
       <c r="M149" s="5">
@@ -10417,17 +11512,17 @@
       </c>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B150" s="98"/>
-      <c r="C150" s="98"/>
-      <c r="D150" s="100"/>
-      <c r="E150" s="100"/>
-      <c r="F150" s="102"/>
-      <c r="G150" s="100"/>
-      <c r="H150" s="100"/>
-      <c r="I150" s="100"/>
-      <c r="J150" s="100"/>
-      <c r="K150" s="100"/>
-      <c r="L150" s="86"/>
+      <c r="B150" s="95"/>
+      <c r="C150" s="95"/>
+      <c r="D150" s="89"/>
+      <c r="E150" s="89"/>
+      <c r="F150" s="98"/>
+      <c r="G150" s="89"/>
+      <c r="H150" s="89"/>
+      <c r="I150" s="89"/>
+      <c r="J150" s="89"/>
+      <c r="K150" s="89"/>
+      <c r="L150" s="93"/>
       <c r="M150" s="12">
         <v>2</v>
       </c>
@@ -10441,89 +11536,89 @@
       </c>
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B151" s="98"/>
-      <c r="C151" s="98"/>
-      <c r="D151" s="100"/>
-      <c r="E151" s="100"/>
-      <c r="F151" s="102"/>
-      <c r="G151" s="100"/>
-      <c r="H151" s="100"/>
-      <c r="I151" s="100"/>
-      <c r="J151" s="100"/>
-      <c r="K151" s="100"/>
-      <c r="L151" s="86"/>
+      <c r="B151" s="95"/>
+      <c r="C151" s="95"/>
+      <c r="D151" s="89"/>
+      <c r="E151" s="89"/>
+      <c r="F151" s="98"/>
+      <c r="G151" s="89"/>
+      <c r="H151" s="89"/>
+      <c r="I151" s="89"/>
+      <c r="J151" s="89"/>
+      <c r="K151" s="89"/>
+      <c r="L151" s="93"/>
       <c r="M151" s="12">
         <v>3</v>
       </c>
-      <c r="N151" s="12" t="str">
+      <c r="N151" s="12">
         <f>IF(MORALES!E18="","",MORALES!E18)</f>
-        <v/>
-      </c>
-      <c r="O151" s="75" t="str">
+        <v>1</v>
+      </c>
+      <c r="O151" s="75">
         <f>IF(N151="","",MORALES!F18)</f>
-        <v/>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B152" s="98"/>
-      <c r="C152" s="98"/>
-      <c r="D152" s="100"/>
-      <c r="E152" s="100"/>
-      <c r="F152" s="102"/>
-      <c r="G152" s="100"/>
-      <c r="H152" s="100"/>
-      <c r="I152" s="100"/>
-      <c r="J152" s="100"/>
-      <c r="K152" s="100"/>
-      <c r="L152" s="86"/>
+      <c r="B152" s="95"/>
+      <c r="C152" s="95"/>
+      <c r="D152" s="89"/>
+      <c r="E152" s="89"/>
+      <c r="F152" s="98"/>
+      <c r="G152" s="89"/>
+      <c r="H152" s="89"/>
+      <c r="I152" s="89"/>
+      <c r="J152" s="89"/>
+      <c r="K152" s="89"/>
+      <c r="L152" s="93"/>
       <c r="M152" s="12">
         <v>4</v>
       </c>
-      <c r="N152" s="12" t="str">
+      <c r="N152" s="12">
         <f>IF(MORALES!E24="","",MORALES!E24)</f>
-        <v/>
-      </c>
-      <c r="O152" s="75" t="str">
+        <v>1</v>
+      </c>
+      <c r="O152" s="75">
         <f>IF(N152="","",MORALES!F24)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B153" s="98"/>
-      <c r="C153" s="98"/>
-      <c r="D153" s="100"/>
-      <c r="E153" s="100"/>
-      <c r="F153" s="102"/>
-      <c r="G153" s="100"/>
-      <c r="H153" s="100"/>
-      <c r="I153" s="100"/>
-      <c r="J153" s="100"/>
-      <c r="K153" s="100"/>
-      <c r="L153" s="86"/>
+      <c r="B153" s="95"/>
+      <c r="C153" s="95"/>
+      <c r="D153" s="89"/>
+      <c r="E153" s="89"/>
+      <c r="F153" s="98"/>
+      <c r="G153" s="89"/>
+      <c r="H153" s="89"/>
+      <c r="I153" s="89"/>
+      <c r="J153" s="89"/>
+      <c r="K153" s="89"/>
+      <c r="L153" s="93"/>
       <c r="M153" s="12">
         <v>5</v>
       </c>
-      <c r="N153" s="12" t="str">
+      <c r="N153" s="12">
         <f>IF(MORALES!E30="","",MORALES!E30)</f>
-        <v/>
-      </c>
-      <c r="O153" s="75" t="str">
+        <v>1</v>
+      </c>
+      <c r="O153" s="75">
         <f>IF(N153="","Día de mes siguiente",MORALES!F30)</f>
-        <v>Día de mes siguiente</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B154" s="98"/>
-      <c r="C154" s="98"/>
-      <c r="D154" s="100"/>
-      <c r="E154" s="100"/>
-      <c r="F154" s="102"/>
-      <c r="G154" s="100"/>
-      <c r="H154" s="100"/>
-      <c r="I154" s="100"/>
-      <c r="J154" s="100"/>
-      <c r="K154" s="100"/>
-      <c r="L154" s="87" t="s">
+      <c r="B154" s="95"/>
+      <c r="C154" s="95"/>
+      <c r="D154" s="89"/>
+      <c r="E154" s="89"/>
+      <c r="F154" s="98"/>
+      <c r="G154" s="89"/>
+      <c r="H154" s="89"/>
+      <c r="I154" s="89"/>
+      <c r="J154" s="89"/>
+      <c r="K154" s="89"/>
+      <c r="L154" s="100" t="s">
         <v>81</v>
       </c>
       <c r="M154" s="52">
@@ -10539,17 +11634,17 @@
       </c>
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B155" s="98"/>
-      <c r="C155" s="98"/>
-      <c r="D155" s="100"/>
-      <c r="E155" s="100"/>
-      <c r="F155" s="102"/>
-      <c r="G155" s="100"/>
-      <c r="H155" s="100"/>
-      <c r="I155" s="100"/>
-      <c r="J155" s="100"/>
-      <c r="K155" s="100"/>
-      <c r="L155" s="88"/>
+      <c r="B155" s="95"/>
+      <c r="C155" s="95"/>
+      <c r="D155" s="89"/>
+      <c r="E155" s="89"/>
+      <c r="F155" s="98"/>
+      <c r="G155" s="89"/>
+      <c r="H155" s="89"/>
+      <c r="I155" s="89"/>
+      <c r="J155" s="89"/>
+      <c r="K155" s="89"/>
+      <c r="L155" s="101"/>
       <c r="M155" s="19">
         <v>2</v>
       </c>
@@ -10563,89 +11658,89 @@
       </c>
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B156" s="98"/>
-      <c r="C156" s="98"/>
-      <c r="D156" s="100"/>
-      <c r="E156" s="100"/>
-      <c r="F156" s="102"/>
-      <c r="G156" s="100"/>
-      <c r="H156" s="100"/>
-      <c r="I156" s="100"/>
-      <c r="J156" s="100"/>
-      <c r="K156" s="100"/>
-      <c r="L156" s="88"/>
+      <c r="B156" s="95"/>
+      <c r="C156" s="95"/>
+      <c r="D156" s="89"/>
+      <c r="E156" s="89"/>
+      <c r="F156" s="98"/>
+      <c r="G156" s="89"/>
+      <c r="H156" s="89"/>
+      <c r="I156" s="89"/>
+      <c r="J156" s="89"/>
+      <c r="K156" s="89"/>
+      <c r="L156" s="101"/>
       <c r="M156" s="19">
         <v>3</v>
       </c>
-      <c r="N156" s="19" t="str">
+      <c r="N156" s="19">
         <f>IF(MORALES!E19="","",MORALES!E19)</f>
-        <v/>
-      </c>
-      <c r="O156" s="76" t="str">
+        <v>1</v>
+      </c>
+      <c r="O156" s="76">
         <f>IF(N156="","",MORALES!F19)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B157" s="98"/>
-      <c r="C157" s="98"/>
-      <c r="D157" s="100"/>
-      <c r="E157" s="100"/>
-      <c r="F157" s="102"/>
-      <c r="G157" s="100"/>
-      <c r="H157" s="100"/>
-      <c r="I157" s="100"/>
-      <c r="J157" s="100"/>
-      <c r="K157" s="100"/>
-      <c r="L157" s="88"/>
+      <c r="B157" s="95"/>
+      <c r="C157" s="95"/>
+      <c r="D157" s="89"/>
+      <c r="E157" s="89"/>
+      <c r="F157" s="98"/>
+      <c r="G157" s="89"/>
+      <c r="H157" s="89"/>
+      <c r="I157" s="89"/>
+      <c r="J157" s="89"/>
+      <c r="K157" s="89"/>
+      <c r="L157" s="101"/>
       <c r="M157" s="19">
         <v>4</v>
       </c>
-      <c r="N157" s="19" t="str">
+      <c r="N157" s="19">
         <f>IF(MORALES!E25="","",MORALES!E25)</f>
-        <v/>
-      </c>
-      <c r="O157" s="76" t="str">
+        <v>1</v>
+      </c>
+      <c r="O157" s="76">
         <f>IF(N157="","",MORALES!F25)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B158" s="98"/>
-      <c r="C158" s="98"/>
-      <c r="D158" s="100"/>
-      <c r="E158" s="100"/>
-      <c r="F158" s="102"/>
-      <c r="G158" s="100"/>
-      <c r="H158" s="100"/>
-      <c r="I158" s="100"/>
-      <c r="J158" s="100"/>
-      <c r="K158" s="100"/>
-      <c r="L158" s="88"/>
+      <c r="B158" s="95"/>
+      <c r="C158" s="95"/>
+      <c r="D158" s="89"/>
+      <c r="E158" s="89"/>
+      <c r="F158" s="98"/>
+      <c r="G158" s="89"/>
+      <c r="H158" s="89"/>
+      <c r="I158" s="89"/>
+      <c r="J158" s="89"/>
+      <c r="K158" s="89"/>
+      <c r="L158" s="101"/>
       <c r="M158" s="19">
         <v>5</v>
       </c>
-      <c r="N158" s="19" t="str">
+      <c r="N158" s="19">
         <f>IF(MORALES!E31="","",MORALES!E31)</f>
-        <v/>
-      </c>
-      <c r="O158" s="76" t="str">
+        <v>1</v>
+      </c>
+      <c r="O158" s="76">
         <f>IF(N158="","Día de mes siguiente",MORALES!F31)</f>
-        <v>Día de mes siguiente</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B159" s="98"/>
-      <c r="C159" s="98"/>
-      <c r="D159" s="100"/>
-      <c r="E159" s="100"/>
-      <c r="F159" s="102"/>
-      <c r="G159" s="100"/>
-      <c r="H159" s="100"/>
-      <c r="I159" s="100"/>
-      <c r="J159" s="100"/>
-      <c r="K159" s="100"/>
-      <c r="L159" s="85" t="s">
+      <c r="B159" s="95"/>
+      <c r="C159" s="95"/>
+      <c r="D159" s="89"/>
+      <c r="E159" s="89"/>
+      <c r="F159" s="98"/>
+      <c r="G159" s="89"/>
+      <c r="H159" s="89"/>
+      <c r="I159" s="89"/>
+      <c r="J159" s="89"/>
+      <c r="K159" s="89"/>
+      <c r="L159" s="92" t="s">
         <v>82</v>
       </c>
       <c r="M159" s="5">
@@ -10661,17 +11756,17 @@
       </c>
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B160" s="98"/>
-      <c r="C160" s="98"/>
-      <c r="D160" s="100"/>
-      <c r="E160" s="100"/>
-      <c r="F160" s="102"/>
-      <c r="G160" s="100"/>
-      <c r="H160" s="100"/>
-      <c r="I160" s="100"/>
-      <c r="J160" s="100"/>
-      <c r="K160" s="100"/>
-      <c r="L160" s="86"/>
+      <c r="B160" s="95"/>
+      <c r="C160" s="95"/>
+      <c r="D160" s="89"/>
+      <c r="E160" s="89"/>
+      <c r="F160" s="98"/>
+      <c r="G160" s="89"/>
+      <c r="H160" s="89"/>
+      <c r="I160" s="89"/>
+      <c r="J160" s="89"/>
+      <c r="K160" s="89"/>
+      <c r="L160" s="93"/>
       <c r="M160" s="12">
         <v>2</v>
       </c>
@@ -10685,89 +11780,89 @@
       </c>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B161" s="98"/>
-      <c r="C161" s="98"/>
-      <c r="D161" s="100"/>
-      <c r="E161" s="100"/>
-      <c r="F161" s="102"/>
-      <c r="G161" s="100"/>
-      <c r="H161" s="100"/>
-      <c r="I161" s="100"/>
-      <c r="J161" s="100"/>
-      <c r="K161" s="100"/>
-      <c r="L161" s="86"/>
+      <c r="B161" s="95"/>
+      <c r="C161" s="95"/>
+      <c r="D161" s="89"/>
+      <c r="E161" s="89"/>
+      <c r="F161" s="98"/>
+      <c r="G161" s="89"/>
+      <c r="H161" s="89"/>
+      <c r="I161" s="89"/>
+      <c r="J161" s="89"/>
+      <c r="K161" s="89"/>
+      <c r="L161" s="93"/>
       <c r="M161" s="12">
         <v>3</v>
       </c>
-      <c r="N161" s="19" t="str">
+      <c r="N161" s="19">
         <f>IF(MORALES!E20="","",MORALES!E20)</f>
-        <v/>
-      </c>
-      <c r="O161" s="73" t="str">
+        <v>1</v>
+      </c>
+      <c r="O161" s="73">
         <f>IF(N161="","",MORALES!F20)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B162" s="98"/>
-      <c r="C162" s="98"/>
-      <c r="D162" s="100"/>
-      <c r="E162" s="100"/>
-      <c r="F162" s="102"/>
-      <c r="G162" s="100"/>
-      <c r="H162" s="100"/>
-      <c r="I162" s="100"/>
-      <c r="J162" s="100"/>
-      <c r="K162" s="100"/>
-      <c r="L162" s="86"/>
+      <c r="B162" s="95"/>
+      <c r="C162" s="95"/>
+      <c r="D162" s="89"/>
+      <c r="E162" s="89"/>
+      <c r="F162" s="98"/>
+      <c r="G162" s="89"/>
+      <c r="H162" s="89"/>
+      <c r="I162" s="89"/>
+      <c r="J162" s="89"/>
+      <c r="K162" s="89"/>
+      <c r="L162" s="93"/>
       <c r="M162" s="12">
         <v>4</v>
       </c>
-      <c r="N162" s="19" t="str">
+      <c r="N162" s="19">
         <f>IF(MORALES!E26="","",MORALES!E26)</f>
-        <v/>
-      </c>
-      <c r="O162" s="73" t="str">
+        <v>1</v>
+      </c>
+      <c r="O162" s="73">
         <f>IF(N162="","",MORALES!F26)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B163" s="98"/>
-      <c r="C163" s="98"/>
-      <c r="D163" s="100"/>
-      <c r="E163" s="100"/>
-      <c r="F163" s="102"/>
-      <c r="G163" s="100"/>
-      <c r="H163" s="100"/>
-      <c r="I163" s="100"/>
-      <c r="J163" s="100"/>
-      <c r="K163" s="100"/>
-      <c r="L163" s="86"/>
+      <c r="B163" s="95"/>
+      <c r="C163" s="95"/>
+      <c r="D163" s="89"/>
+      <c r="E163" s="89"/>
+      <c r="F163" s="98"/>
+      <c r="G163" s="89"/>
+      <c r="H163" s="89"/>
+      <c r="I163" s="89"/>
+      <c r="J163" s="89"/>
+      <c r="K163" s="89"/>
+      <c r="L163" s="93"/>
       <c r="M163" s="12">
         <v>5</v>
       </c>
-      <c r="N163" s="19" t="str">
+      <c r="N163" s="19">
         <f>IF(MORALES!E32="","",MORALES!E32)</f>
-        <v/>
-      </c>
-      <c r="O163" s="73" t="str">
+        <v>1</v>
+      </c>
+      <c r="O163" s="73">
         <f>IF(N163="","Día de mes siguiente",MORALES!F32)</f>
-        <v>Día de mes siguiente</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B164" s="98"/>
-      <c r="C164" s="98"/>
-      <c r="D164" s="100"/>
-      <c r="E164" s="100"/>
-      <c r="F164" s="102"/>
-      <c r="G164" s="100"/>
-      <c r="H164" s="100"/>
-      <c r="I164" s="100"/>
-      <c r="J164" s="100"/>
-      <c r="K164" s="100"/>
-      <c r="L164" s="85" t="s">
+      <c r="B164" s="95"/>
+      <c r="C164" s="95"/>
+      <c r="D164" s="89"/>
+      <c r="E164" s="89"/>
+      <c r="F164" s="98"/>
+      <c r="G164" s="89"/>
+      <c r="H164" s="89"/>
+      <c r="I164" s="89"/>
+      <c r="J164" s="89"/>
+      <c r="K164" s="89"/>
+      <c r="L164" s="92" t="s">
         <v>83</v>
       </c>
       <c r="M164" s="5">
@@ -10783,17 +11878,17 @@
       </c>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B165" s="98"/>
-      <c r="C165" s="98"/>
-      <c r="D165" s="100"/>
-      <c r="E165" s="100"/>
-      <c r="F165" s="102"/>
-      <c r="G165" s="100"/>
-      <c r="H165" s="100"/>
-      <c r="I165" s="100"/>
-      <c r="J165" s="100"/>
-      <c r="K165" s="100"/>
-      <c r="L165" s="86"/>
+      <c r="B165" s="95"/>
+      <c r="C165" s="95"/>
+      <c r="D165" s="89"/>
+      <c r="E165" s="89"/>
+      <c r="F165" s="98"/>
+      <c r="G165" s="89"/>
+      <c r="H165" s="89"/>
+      <c r="I165" s="89"/>
+      <c r="J165" s="89"/>
+      <c r="K165" s="89"/>
+      <c r="L165" s="93"/>
       <c r="M165" s="12">
         <v>2</v>
       </c>
@@ -10807,65 +11902,65 @@
       </c>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B166" s="98"/>
-      <c r="C166" s="98"/>
-      <c r="D166" s="100"/>
-      <c r="E166" s="100"/>
-      <c r="F166" s="102"/>
-      <c r="G166" s="100"/>
-      <c r="H166" s="100"/>
-      <c r="I166" s="100"/>
-      <c r="J166" s="100"/>
-      <c r="K166" s="100"/>
-      <c r="L166" s="86"/>
+      <c r="B166" s="95"/>
+      <c r="C166" s="95"/>
+      <c r="D166" s="89"/>
+      <c r="E166" s="89"/>
+      <c r="F166" s="98"/>
+      <c r="G166" s="89"/>
+      <c r="H166" s="89"/>
+      <c r="I166" s="89"/>
+      <c r="J166" s="89"/>
+      <c r="K166" s="89"/>
+      <c r="L166" s="93"/>
       <c r="M166" s="12">
         <v>3</v>
       </c>
-      <c r="N166" s="19" t="str">
+      <c r="N166" s="19">
         <f>IF(MORALES!E21="","",MORALES!E21)</f>
-        <v/>
-      </c>
-      <c r="O166" s="73" t="str">
+        <v>1</v>
+      </c>
+      <c r="O166" s="73">
         <f>IF(N166="","",MORALES!F21)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B167" s="98"/>
-      <c r="C167" s="98"/>
-      <c r="D167" s="100"/>
-      <c r="E167" s="100"/>
-      <c r="F167" s="102"/>
-      <c r="G167" s="100"/>
-      <c r="H167" s="100"/>
-      <c r="I167" s="100"/>
-      <c r="J167" s="100"/>
-      <c r="K167" s="100"/>
-      <c r="L167" s="86"/>
+      <c r="B167" s="95"/>
+      <c r="C167" s="95"/>
+      <c r="D167" s="89"/>
+      <c r="E167" s="89"/>
+      <c r="F167" s="98"/>
+      <c r="G167" s="89"/>
+      <c r="H167" s="89"/>
+      <c r="I167" s="89"/>
+      <c r="J167" s="89"/>
+      <c r="K167" s="89"/>
+      <c r="L167" s="93"/>
       <c r="M167" s="12">
         <v>4</v>
       </c>
-      <c r="N167" s="19" t="str">
+      <c r="N167" s="19">
         <f>IF(MORALES!E27="","",MORALES!E27)</f>
-        <v/>
-      </c>
-      <c r="O167" s="73" t="str">
+        <v>1</v>
+      </c>
+      <c r="O167" s="73">
         <f>IF(N167="","",MORALES!F27)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B168" s="98"/>
-      <c r="C168" s="98"/>
-      <c r="D168" s="100"/>
-      <c r="E168" s="100"/>
-      <c r="F168" s="102"/>
-      <c r="G168" s="100"/>
-      <c r="H168" s="100"/>
-      <c r="I168" s="100"/>
-      <c r="J168" s="100"/>
-      <c r="K168" s="100"/>
-      <c r="L168" s="86"/>
+      <c r="B168" s="95"/>
+      <c r="C168" s="95"/>
+      <c r="D168" s="89"/>
+      <c r="E168" s="89"/>
+      <c r="F168" s="98"/>
+      <c r="G168" s="89"/>
+      <c r="H168" s="89"/>
+      <c r="I168" s="89"/>
+      <c r="J168" s="89"/>
+      <c r="K168" s="89"/>
+      <c r="L168" s="93"/>
       <c r="M168" s="12">
         <v>5</v>
       </c>
@@ -10879,17 +11974,17 @@
       </c>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B169" s="98"/>
-      <c r="C169" s="98"/>
-      <c r="D169" s="100"/>
-      <c r="E169" s="100"/>
-      <c r="F169" s="102"/>
-      <c r="G169" s="100"/>
-      <c r="H169" s="100"/>
-      <c r="I169" s="100"/>
-      <c r="J169" s="100"/>
-      <c r="K169" s="100"/>
-      <c r="L169" s="85" t="s">
+      <c r="B169" s="95"/>
+      <c r="C169" s="95"/>
+      <c r="D169" s="89"/>
+      <c r="E169" s="89"/>
+      <c r="F169" s="98"/>
+      <c r="G169" s="89"/>
+      <c r="H169" s="89"/>
+      <c r="I169" s="89"/>
+      <c r="J169" s="89"/>
+      <c r="K169" s="89"/>
+      <c r="L169" s="92" t="s">
         <v>84</v>
       </c>
       <c r="M169" s="5">
@@ -10905,17 +12000,17 @@
       </c>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B170" s="98"/>
-      <c r="C170" s="98"/>
-      <c r="D170" s="100"/>
-      <c r="E170" s="100"/>
-      <c r="F170" s="102"/>
-      <c r="G170" s="100"/>
-      <c r="H170" s="100"/>
-      <c r="I170" s="100"/>
-      <c r="J170" s="100"/>
-      <c r="K170" s="100"/>
-      <c r="L170" s="86"/>
+      <c r="B170" s="95"/>
+      <c r="C170" s="95"/>
+      <c r="D170" s="89"/>
+      <c r="E170" s="89"/>
+      <c r="F170" s="98"/>
+      <c r="G170" s="89"/>
+      <c r="H170" s="89"/>
+      <c r="I170" s="89"/>
+      <c r="J170" s="89"/>
+      <c r="K170" s="89"/>
+      <c r="L170" s="93"/>
       <c r="M170" s="12">
         <v>2</v>
       </c>
@@ -10929,89 +12024,89 @@
       </c>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B171" s="98"/>
-      <c r="C171" s="98"/>
-      <c r="D171" s="100"/>
-      <c r="E171" s="100"/>
-      <c r="F171" s="102"/>
-      <c r="G171" s="100"/>
-      <c r="H171" s="100"/>
-      <c r="I171" s="100"/>
-      <c r="J171" s="100"/>
-      <c r="K171" s="100"/>
-      <c r="L171" s="86"/>
+      <c r="B171" s="95"/>
+      <c r="C171" s="95"/>
+      <c r="D171" s="89"/>
+      <c r="E171" s="89"/>
+      <c r="F171" s="98"/>
+      <c r="G171" s="89"/>
+      <c r="H171" s="89"/>
+      <c r="I171" s="89"/>
+      <c r="J171" s="89"/>
+      <c r="K171" s="89"/>
+      <c r="L171" s="93"/>
       <c r="M171" s="12">
         <v>3</v>
       </c>
-      <c r="N171" s="19" t="str">
+      <c r="N171" s="19">
         <f>IF(MORALES!E22="","",MORALES!E22)</f>
-        <v/>
-      </c>
-      <c r="O171" s="73" t="str">
+        <v>1</v>
+      </c>
+      <c r="O171" s="73">
         <f>IF(N171="","",MORALES!F22)</f>
-        <v/>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B172" s="98"/>
-      <c r="C172" s="98"/>
-      <c r="D172" s="100"/>
-      <c r="E172" s="100"/>
-      <c r="F172" s="102"/>
-      <c r="G172" s="100"/>
-      <c r="H172" s="100"/>
-      <c r="I172" s="100"/>
-      <c r="J172" s="100"/>
-      <c r="K172" s="100"/>
-      <c r="L172" s="86"/>
+      <c r="B172" s="95"/>
+      <c r="C172" s="95"/>
+      <c r="D172" s="89"/>
+      <c r="E172" s="89"/>
+      <c r="F172" s="98"/>
+      <c r="G172" s="89"/>
+      <c r="H172" s="89"/>
+      <c r="I172" s="89"/>
+      <c r="J172" s="89"/>
+      <c r="K172" s="89"/>
+      <c r="L172" s="93"/>
       <c r="M172" s="12">
         <v>4</v>
       </c>
-      <c r="N172" s="19" t="str">
+      <c r="N172" s="19">
         <f>IF(MORALES!E28="","",MORALES!E28)</f>
-        <v/>
-      </c>
-      <c r="O172" s="73" t="str">
+        <v>1</v>
+      </c>
+      <c r="O172" s="73">
         <f>IF(N172="","",MORALES!F28)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B173" s="98"/>
-      <c r="C173" s="98"/>
-      <c r="D173" s="100"/>
-      <c r="E173" s="100"/>
-      <c r="F173" s="102"/>
-      <c r="G173" s="100"/>
-      <c r="H173" s="100"/>
-      <c r="I173" s="100"/>
-      <c r="J173" s="100"/>
-      <c r="K173" s="100"/>
-      <c r="L173" s="86"/>
+      <c r="B173" s="95"/>
+      <c r="C173" s="95"/>
+      <c r="D173" s="89"/>
+      <c r="E173" s="89"/>
+      <c r="F173" s="98"/>
+      <c r="G173" s="89"/>
+      <c r="H173" s="89"/>
+      <c r="I173" s="89"/>
+      <c r="J173" s="89"/>
+      <c r="K173" s="89"/>
+      <c r="L173" s="93"/>
       <c r="M173" s="12">
         <v>5</v>
       </c>
-      <c r="N173" s="19" t="str">
+      <c r="N173" s="19">
         <f>IF(MORALES!E34="","",MORALES!E34)</f>
-        <v/>
-      </c>
-      <c r="O173" s="73" t="str">
+        <v>1</v>
+      </c>
+      <c r="O173" s="73">
         <f>IF(N173="","Día de mes siguiente",MORALES!F34)</f>
-        <v>Día de mes siguiente</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B174" s="98"/>
-      <c r="C174" s="98"/>
-      <c r="D174" s="100"/>
-      <c r="E174" s="100"/>
-      <c r="F174" s="102"/>
-      <c r="G174" s="100"/>
-      <c r="H174" s="100"/>
-      <c r="I174" s="100"/>
-      <c r="J174" s="100"/>
-      <c r="K174" s="100"/>
-      <c r="L174" s="85" t="s">
+      <c r="B174" s="95"/>
+      <c r="C174" s="95"/>
+      <c r="D174" s="89"/>
+      <c r="E174" s="89"/>
+      <c r="F174" s="98"/>
+      <c r="G174" s="89"/>
+      <c r="H174" s="89"/>
+      <c r="I174" s="89"/>
+      <c r="J174" s="89"/>
+      <c r="K174" s="89"/>
+      <c r="L174" s="92" t="s">
         <v>85</v>
       </c>
       <c r="M174" s="5">
@@ -11027,17 +12122,17 @@
       </c>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B175" s="98"/>
-      <c r="C175" s="98"/>
-      <c r="D175" s="100"/>
-      <c r="E175" s="100"/>
-      <c r="F175" s="102"/>
-      <c r="G175" s="100"/>
-      <c r="H175" s="100"/>
-      <c r="I175" s="100"/>
-      <c r="J175" s="100"/>
-      <c r="K175" s="100"/>
-      <c r="L175" s="86"/>
+      <c r="B175" s="95"/>
+      <c r="C175" s="95"/>
+      <c r="D175" s="89"/>
+      <c r="E175" s="89"/>
+      <c r="F175" s="98"/>
+      <c r="G175" s="89"/>
+      <c r="H175" s="89"/>
+      <c r="I175" s="89"/>
+      <c r="J175" s="89"/>
+      <c r="K175" s="89"/>
+      <c r="L175" s="93"/>
       <c r="M175" s="12">
         <v>2</v>
       </c>
@@ -11051,110 +12146,110 @@
       </c>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B176" s="98"/>
-      <c r="C176" s="98"/>
-      <c r="D176" s="100"/>
-      <c r="E176" s="100"/>
-      <c r="F176" s="102"/>
-      <c r="G176" s="100"/>
-      <c r="H176" s="100"/>
-      <c r="I176" s="100"/>
-      <c r="J176" s="100"/>
-      <c r="K176" s="100"/>
-      <c r="L176" s="86"/>
+      <c r="B176" s="95"/>
+      <c r="C176" s="95"/>
+      <c r="D176" s="89"/>
+      <c r="E176" s="89"/>
+      <c r="F176" s="98"/>
+      <c r="G176" s="89"/>
+      <c r="H176" s="89"/>
+      <c r="I176" s="89"/>
+      <c r="J176" s="89"/>
+      <c r="K176" s="89"/>
+      <c r="L176" s="93"/>
       <c r="M176" s="12">
         <v>3</v>
       </c>
-      <c r="N176" s="19" t="str">
+      <c r="N176" s="19">
         <f>IF(MORALES!E23="","",MORALES!E23)</f>
-        <v/>
-      </c>
-      <c r="O176" s="73" t="str">
+        <v>3</v>
+      </c>
+      <c r="O176" s="73">
         <f>IF(N176="","",MORALES!F23)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B177" s="98"/>
-      <c r="C177" s="98"/>
-      <c r="D177" s="100"/>
-      <c r="E177" s="100"/>
-      <c r="F177" s="102"/>
-      <c r="G177" s="100"/>
-      <c r="H177" s="100"/>
-      <c r="I177" s="100"/>
-      <c r="J177" s="100"/>
-      <c r="K177" s="100"/>
-      <c r="L177" s="86"/>
+      <c r="B177" s="95"/>
+      <c r="C177" s="95"/>
+      <c r="D177" s="89"/>
+      <c r="E177" s="89"/>
+      <c r="F177" s="98"/>
+      <c r="G177" s="89"/>
+      <c r="H177" s="89"/>
+      <c r="I177" s="89"/>
+      <c r="J177" s="89"/>
+      <c r="K177" s="89"/>
+      <c r="L177" s="93"/>
       <c r="M177" s="12">
         <v>4</v>
       </c>
-      <c r="N177" s="19" t="str">
+      <c r="N177" s="19">
         <f>IF(MORALES!E29="","",MORALES!E29)</f>
-        <v/>
-      </c>
-      <c r="O177" s="73" t="str">
+        <v>1</v>
+      </c>
+      <c r="O177" s="73">
         <f>IF(N177="","",MORALES!F29)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B178" s="99"/>
-      <c r="C178" s="99"/>
-      <c r="D178" s="104"/>
-      <c r="E178" s="104"/>
-      <c r="F178" s="105"/>
-      <c r="G178" s="104"/>
-      <c r="H178" s="104"/>
-      <c r="I178" s="104"/>
-      <c r="J178" s="104"/>
-      <c r="K178" s="104"/>
-      <c r="L178" s="86"/>
+      <c r="B178" s="96"/>
+      <c r="C178" s="96"/>
+      <c r="D178" s="91"/>
+      <c r="E178" s="91"/>
+      <c r="F178" s="99"/>
+      <c r="G178" s="91"/>
+      <c r="H178" s="91"/>
+      <c r="I178" s="91"/>
+      <c r="J178" s="91"/>
+      <c r="K178" s="91"/>
+      <c r="L178" s="93"/>
       <c r="M178" s="12">
         <v>5</v>
       </c>
-      <c r="N178" s="19" t="str">
+      <c r="N178" s="19">
         <f>IF(MORALES!E35="","",MORALES!E35)</f>
-        <v/>
-      </c>
-      <c r="O178" s="73" t="str">
+        <v>1</v>
+      </c>
+      <c r="O178" s="73">
         <f>IF(N178="","Día de mes siguiente",MORALES!F35)</f>
-        <v>Día de mes siguiente</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B179" s="92" t="s">
+      <c r="B179" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="92" t="s">
+      <c r="C179" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="D179" s="89" t="s">
+      <c r="D179" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="E179" s="89" t="str">
+      <c r="E179" s="88" t="str">
         <f>E149</f>
         <v>FEBRERO</v>
       </c>
-      <c r="F179" s="95">
-        <v>1</v>
-      </c>
-      <c r="G179" s="89" t="s">
+      <c r="F179" s="106">
+        <v>1</v>
+      </c>
+      <c r="G179" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="H179" s="89" t="s">
+      <c r="H179" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="I179" s="89" t="s">
+      <c r="I179" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="J179" s="89" t="s">
+      <c r="J179" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="K179" s="89" t="s">
+      <c r="K179" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="L179" s="85" t="s">
+      <c r="L179" s="92" t="s">
         <v>96</v>
       </c>
       <c r="M179" s="13">
@@ -11170,17 +12265,17 @@
       </c>
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B180" s="93"/>
-      <c r="C180" s="93"/>
-      <c r="D180" s="90"/>
-      <c r="E180" s="90"/>
-      <c r="F180" s="96"/>
-      <c r="G180" s="90"/>
-      <c r="H180" s="90"/>
-      <c r="I180" s="90"/>
-      <c r="J180" s="90"/>
-      <c r="K180" s="90"/>
-      <c r="L180" s="86"/>
+      <c r="B180" s="102"/>
+      <c r="C180" s="102"/>
+      <c r="D180" s="104"/>
+      <c r="E180" s="104"/>
+      <c r="F180" s="107"/>
+      <c r="G180" s="104"/>
+      <c r="H180" s="104"/>
+      <c r="I180" s="104"/>
+      <c r="J180" s="104"/>
+      <c r="K180" s="104"/>
+      <c r="L180" s="93"/>
       <c r="M180" s="12">
         <v>2</v>
       </c>
@@ -11194,65 +12289,65 @@
       </c>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B181" s="93"/>
-      <c r="C181" s="93"/>
-      <c r="D181" s="90"/>
-      <c r="E181" s="90"/>
-      <c r="F181" s="96"/>
-      <c r="G181" s="90"/>
-      <c r="H181" s="90"/>
-      <c r="I181" s="90"/>
-      <c r="J181" s="90"/>
-      <c r="K181" s="90"/>
-      <c r="L181" s="86"/>
+      <c r="B181" s="102"/>
+      <c r="C181" s="102"/>
+      <c r="D181" s="104"/>
+      <c r="E181" s="104"/>
+      <c r="F181" s="107"/>
+      <c r="G181" s="104"/>
+      <c r="H181" s="104"/>
+      <c r="I181" s="104"/>
+      <c r="J181" s="104"/>
+      <c r="K181" s="104"/>
+      <c r="L181" s="93"/>
       <c r="M181" s="12">
         <v>3</v>
       </c>
-      <c r="N181" s="12" t="str">
+      <c r="N181" s="12">
         <f>IF(CASTRO!E20="","",CASTRO!E20)</f>
-        <v/>
-      </c>
-      <c r="O181" s="75" t="str">
+        <v>4</v>
+      </c>
+      <c r="O181" s="75">
         <f>IF(N181="","",CASTRO!F20)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B182" s="93"/>
-      <c r="C182" s="93"/>
-      <c r="D182" s="90"/>
-      <c r="E182" s="90"/>
-      <c r="F182" s="96"/>
-      <c r="G182" s="90"/>
-      <c r="H182" s="90"/>
-      <c r="I182" s="90"/>
-      <c r="J182" s="90"/>
-      <c r="K182" s="90"/>
-      <c r="L182" s="86"/>
+      <c r="B182" s="102"/>
+      <c r="C182" s="102"/>
+      <c r="D182" s="104"/>
+      <c r="E182" s="104"/>
+      <c r="F182" s="107"/>
+      <c r="G182" s="104"/>
+      <c r="H182" s="104"/>
+      <c r="I182" s="104"/>
+      <c r="J182" s="104"/>
+      <c r="K182" s="104"/>
+      <c r="L182" s="93"/>
       <c r="M182" s="12">
         <v>4</v>
       </c>
-      <c r="N182" s="12" t="str">
+      <c r="N182" s="12">
         <f>IF(CASTRO!E27="","",CASTRO!E27)</f>
-        <v/>
-      </c>
-      <c r="O182" s="75" t="str">
+        <v>2</v>
+      </c>
+      <c r="O182" s="75">
         <f>IF(N182="","",CASTRO!F27)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B183" s="93"/>
-      <c r="C183" s="93"/>
-      <c r="D183" s="90"/>
-      <c r="E183" s="90"/>
-      <c r="F183" s="96"/>
-      <c r="G183" s="90"/>
-      <c r="H183" s="90"/>
-      <c r="I183" s="90"/>
-      <c r="J183" s="90"/>
-      <c r="K183" s="90"/>
-      <c r="L183" s="86"/>
+      <c r="B183" s="102"/>
+      <c r="C183" s="102"/>
+      <c r="D183" s="104"/>
+      <c r="E183" s="104"/>
+      <c r="F183" s="107"/>
+      <c r="G183" s="104"/>
+      <c r="H183" s="104"/>
+      <c r="I183" s="104"/>
+      <c r="J183" s="104"/>
+      <c r="K183" s="104"/>
+      <c r="L183" s="93"/>
       <c r="M183" s="12">
         <v>5</v>
       </c>
@@ -11266,17 +12361,17 @@
       </c>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B184" s="93"/>
-      <c r="C184" s="93"/>
-      <c r="D184" s="90"/>
-      <c r="E184" s="90"/>
-      <c r="F184" s="96"/>
-      <c r="G184" s="90"/>
-      <c r="H184" s="90"/>
-      <c r="I184" s="90"/>
-      <c r="J184" s="90"/>
-      <c r="K184" s="90"/>
-      <c r="L184" s="87" t="s">
+      <c r="B184" s="102"/>
+      <c r="C184" s="102"/>
+      <c r="D184" s="104"/>
+      <c r="E184" s="104"/>
+      <c r="F184" s="107"/>
+      <c r="G184" s="104"/>
+      <c r="H184" s="104"/>
+      <c r="I184" s="104"/>
+      <c r="J184" s="104"/>
+      <c r="K184" s="104"/>
+      <c r="L184" s="100" t="s">
         <v>97</v>
       </c>
       <c r="M184" s="20">
@@ -11292,17 +12387,17 @@
       </c>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B185" s="93"/>
-      <c r="C185" s="93"/>
-      <c r="D185" s="90"/>
-      <c r="E185" s="90"/>
-      <c r="F185" s="96"/>
-      <c r="G185" s="90"/>
-      <c r="H185" s="90"/>
-      <c r="I185" s="90"/>
-      <c r="J185" s="90"/>
-      <c r="K185" s="90"/>
-      <c r="L185" s="88"/>
+      <c r="B185" s="102"/>
+      <c r="C185" s="102"/>
+      <c r="D185" s="104"/>
+      <c r="E185" s="104"/>
+      <c r="F185" s="107"/>
+      <c r="G185" s="104"/>
+      <c r="H185" s="104"/>
+      <c r="I185" s="104"/>
+      <c r="J185" s="104"/>
+      <c r="K185" s="104"/>
+      <c r="L185" s="101"/>
       <c r="M185" s="19">
         <v>2</v>
       </c>
@@ -11316,65 +12411,65 @@
       </c>
     </row>
     <row r="186" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B186" s="93"/>
-      <c r="C186" s="93"/>
-      <c r="D186" s="90"/>
-      <c r="E186" s="90"/>
-      <c r="F186" s="96"/>
-      <c r="G186" s="90"/>
-      <c r="H186" s="90"/>
-      <c r="I186" s="90"/>
-      <c r="J186" s="90"/>
-      <c r="K186" s="90"/>
-      <c r="L186" s="88"/>
+      <c r="B186" s="102"/>
+      <c r="C186" s="102"/>
+      <c r="D186" s="104"/>
+      <c r="E186" s="104"/>
+      <c r="F186" s="107"/>
+      <c r="G186" s="104"/>
+      <c r="H186" s="104"/>
+      <c r="I186" s="104"/>
+      <c r="J186" s="104"/>
+      <c r="K186" s="104"/>
+      <c r="L186" s="101"/>
       <c r="M186" s="19">
         <v>3</v>
       </c>
-      <c r="N186" s="19" t="str">
+      <c r="N186" s="19">
         <f>IF(CASTRO!E21="","",CASTRO!E21)</f>
-        <v/>
-      </c>
-      <c r="O186" s="76" t="str">
+        <v>4</v>
+      </c>
+      <c r="O186" s="76">
         <f>IF(N186="","",CASTRO!F21)</f>
-        <v/>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B187" s="93"/>
-      <c r="C187" s="93"/>
-      <c r="D187" s="90"/>
-      <c r="E187" s="90"/>
-      <c r="F187" s="96"/>
-      <c r="G187" s="90"/>
-      <c r="H187" s="90"/>
-      <c r="I187" s="90"/>
-      <c r="J187" s="90"/>
-      <c r="K187" s="90"/>
-      <c r="L187" s="88"/>
+      <c r="B187" s="102"/>
+      <c r="C187" s="102"/>
+      <c r="D187" s="104"/>
+      <c r="E187" s="104"/>
+      <c r="F187" s="107"/>
+      <c r="G187" s="104"/>
+      <c r="H187" s="104"/>
+      <c r="I187" s="104"/>
+      <c r="J187" s="104"/>
+      <c r="K187" s="104"/>
+      <c r="L187" s="101"/>
       <c r="M187" s="19">
         <v>4</v>
       </c>
-      <c r="N187" s="19" t="str">
+      <c r="N187" s="19">
         <f>IF(CASTRO!E28="","",CASTRO!E28)</f>
-        <v/>
-      </c>
-      <c r="O187" s="76" t="str">
+        <v>2</v>
+      </c>
+      <c r="O187" s="76">
         <f>IF(N187="","",CASTRO!F28)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B188" s="93"/>
-      <c r="C188" s="93"/>
-      <c r="D188" s="90"/>
-      <c r="E188" s="90"/>
-      <c r="F188" s="96"/>
-      <c r="G188" s="90"/>
-      <c r="H188" s="90"/>
-      <c r="I188" s="90"/>
-      <c r="J188" s="90"/>
-      <c r="K188" s="90"/>
-      <c r="L188" s="88"/>
+      <c r="B188" s="102"/>
+      <c r="C188" s="102"/>
+      <c r="D188" s="104"/>
+      <c r="E188" s="104"/>
+      <c r="F188" s="107"/>
+      <c r="G188" s="104"/>
+      <c r="H188" s="104"/>
+      <c r="I188" s="104"/>
+      <c r="J188" s="104"/>
+      <c r="K188" s="104"/>
+      <c r="L188" s="101"/>
       <c r="M188" s="19">
         <v>5</v>
       </c>
@@ -11388,17 +12483,17 @@
       </c>
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B189" s="93"/>
-      <c r="C189" s="93"/>
-      <c r="D189" s="90"/>
-      <c r="E189" s="90"/>
-      <c r="F189" s="96"/>
-      <c r="G189" s="90"/>
-      <c r="H189" s="90"/>
-      <c r="I189" s="90"/>
-      <c r="J189" s="90"/>
-      <c r="K189" s="90"/>
-      <c r="L189" s="85" t="s">
+      <c r="B189" s="102"/>
+      <c r="C189" s="102"/>
+      <c r="D189" s="104"/>
+      <c r="E189" s="104"/>
+      <c r="F189" s="107"/>
+      <c r="G189" s="104"/>
+      <c r="H189" s="104"/>
+      <c r="I189" s="104"/>
+      <c r="J189" s="104"/>
+      <c r="K189" s="104"/>
+      <c r="L189" s="92" t="s">
         <v>98</v>
       </c>
       <c r="M189" s="13">
@@ -11414,17 +12509,17 @@
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B190" s="93"/>
-      <c r="C190" s="93"/>
-      <c r="D190" s="90"/>
-      <c r="E190" s="90"/>
-      <c r="F190" s="96"/>
-      <c r="G190" s="90"/>
-      <c r="H190" s="90"/>
-      <c r="I190" s="90"/>
-      <c r="J190" s="90"/>
-      <c r="K190" s="90"/>
-      <c r="L190" s="86"/>
+      <c r="B190" s="102"/>
+      <c r="C190" s="102"/>
+      <c r="D190" s="104"/>
+      <c r="E190" s="104"/>
+      <c r="F190" s="107"/>
+      <c r="G190" s="104"/>
+      <c r="H190" s="104"/>
+      <c r="I190" s="104"/>
+      <c r="J190" s="104"/>
+      <c r="K190" s="104"/>
+      <c r="L190" s="93"/>
       <c r="M190" s="12">
         <v>2</v>
       </c>
@@ -11438,65 +12533,65 @@
       </c>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B191" s="93"/>
-      <c r="C191" s="93"/>
-      <c r="D191" s="90"/>
-      <c r="E191" s="90"/>
-      <c r="F191" s="96"/>
-      <c r="G191" s="90"/>
-      <c r="H191" s="90"/>
-      <c r="I191" s="90"/>
-      <c r="J191" s="90"/>
-      <c r="K191" s="90"/>
-      <c r="L191" s="86"/>
+      <c r="B191" s="102"/>
+      <c r="C191" s="102"/>
+      <c r="D191" s="104"/>
+      <c r="E191" s="104"/>
+      <c r="F191" s="107"/>
+      <c r="G191" s="104"/>
+      <c r="H191" s="104"/>
+      <c r="I191" s="104"/>
+      <c r="J191" s="104"/>
+      <c r="K191" s="104"/>
+      <c r="L191" s="93"/>
       <c r="M191" s="12">
         <v>3</v>
       </c>
-      <c r="N191" s="19" t="str">
+      <c r="N191" s="19">
         <f>IF(CASTRO!E22="","",CASTRO!E22)</f>
-        <v/>
-      </c>
-      <c r="O191" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O191" s="73">
         <f>IF(N191="","",CASTRO!F22)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B192" s="93"/>
-      <c r="C192" s="93"/>
-      <c r="D192" s="90"/>
-      <c r="E192" s="90"/>
-      <c r="F192" s="96"/>
-      <c r="G192" s="90"/>
-      <c r="H192" s="90"/>
-      <c r="I192" s="90"/>
-      <c r="J192" s="90"/>
-      <c r="K192" s="90"/>
-      <c r="L192" s="86"/>
+      <c r="B192" s="102"/>
+      <c r="C192" s="102"/>
+      <c r="D192" s="104"/>
+      <c r="E192" s="104"/>
+      <c r="F192" s="107"/>
+      <c r="G192" s="104"/>
+      <c r="H192" s="104"/>
+      <c r="I192" s="104"/>
+      <c r="J192" s="104"/>
+      <c r="K192" s="104"/>
+      <c r="L192" s="93"/>
       <c r="M192" s="12">
         <v>4</v>
       </c>
-      <c r="N192" s="19" t="str">
+      <c r="N192" s="19">
         <f>IF(CASTRO!E29="","",CASTRO!E29)</f>
-        <v/>
-      </c>
-      <c r="O192" s="73" t="str">
+        <v>2</v>
+      </c>
+      <c r="O192" s="73">
         <f>IF(N192="","",CASTRO!F29)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B193" s="93"/>
-      <c r="C193" s="93"/>
-      <c r="D193" s="90"/>
-      <c r="E193" s="90"/>
-      <c r="F193" s="96"/>
-      <c r="G193" s="90"/>
-      <c r="H193" s="90"/>
-      <c r="I193" s="90"/>
-      <c r="J193" s="90"/>
-      <c r="K193" s="90"/>
-      <c r="L193" s="86"/>
+      <c r="B193" s="102"/>
+      <c r="C193" s="102"/>
+      <c r="D193" s="104"/>
+      <c r="E193" s="104"/>
+      <c r="F193" s="107"/>
+      <c r="G193" s="104"/>
+      <c r="H193" s="104"/>
+      <c r="I193" s="104"/>
+      <c r="J193" s="104"/>
+      <c r="K193" s="104"/>
+      <c r="L193" s="93"/>
       <c r="M193" s="12">
         <v>5</v>
       </c>
@@ -11510,17 +12605,17 @@
       </c>
     </row>
     <row r="194" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B194" s="93"/>
-      <c r="C194" s="93"/>
-      <c r="D194" s="90"/>
-      <c r="E194" s="90"/>
-      <c r="F194" s="96"/>
-      <c r="G194" s="90"/>
-      <c r="H194" s="90"/>
-      <c r="I194" s="90"/>
-      <c r="J194" s="90"/>
-      <c r="K194" s="90"/>
-      <c r="L194" s="85" t="s">
+      <c r="B194" s="102"/>
+      <c r="C194" s="102"/>
+      <c r="D194" s="104"/>
+      <c r="E194" s="104"/>
+      <c r="F194" s="107"/>
+      <c r="G194" s="104"/>
+      <c r="H194" s="104"/>
+      <c r="I194" s="104"/>
+      <c r="J194" s="104"/>
+      <c r="K194" s="104"/>
+      <c r="L194" s="92" t="s">
         <v>99</v>
       </c>
       <c r="M194" s="13">
@@ -11536,17 +12631,17 @@
       </c>
     </row>
     <row r="195" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B195" s="93"/>
-      <c r="C195" s="93"/>
-      <c r="D195" s="90"/>
-      <c r="E195" s="90"/>
-      <c r="F195" s="96"/>
-      <c r="G195" s="90"/>
-      <c r="H195" s="90"/>
-      <c r="I195" s="90"/>
-      <c r="J195" s="90"/>
-      <c r="K195" s="90"/>
-      <c r="L195" s="86"/>
+      <c r="B195" s="102"/>
+      <c r="C195" s="102"/>
+      <c r="D195" s="104"/>
+      <c r="E195" s="104"/>
+      <c r="F195" s="107"/>
+      <c r="G195" s="104"/>
+      <c r="H195" s="104"/>
+      <c r="I195" s="104"/>
+      <c r="J195" s="104"/>
+      <c r="K195" s="104"/>
+      <c r="L195" s="93"/>
       <c r="M195" s="12">
         <v>2</v>
       </c>
@@ -11560,65 +12655,65 @@
       </c>
     </row>
     <row r="196" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B196" s="93"/>
-      <c r="C196" s="93"/>
-      <c r="D196" s="90"/>
-      <c r="E196" s="90"/>
-      <c r="F196" s="96"/>
-      <c r="G196" s="90"/>
-      <c r="H196" s="90"/>
-      <c r="I196" s="90"/>
-      <c r="J196" s="90"/>
-      <c r="K196" s="90"/>
-      <c r="L196" s="86"/>
+      <c r="B196" s="102"/>
+      <c r="C196" s="102"/>
+      <c r="D196" s="104"/>
+      <c r="E196" s="104"/>
+      <c r="F196" s="107"/>
+      <c r="G196" s="104"/>
+      <c r="H196" s="104"/>
+      <c r="I196" s="104"/>
+      <c r="J196" s="104"/>
+      <c r="K196" s="104"/>
+      <c r="L196" s="93"/>
       <c r="M196" s="12">
         <v>3</v>
       </c>
-      <c r="N196" s="19" t="str">
+      <c r="N196" s="19">
         <f>IF(CASTRO!E23="","",CASTRO!E23)</f>
-        <v/>
-      </c>
-      <c r="O196" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O196" s="73">
         <f>IF(N196="","",CASTRO!F23)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B197" s="93"/>
-      <c r="C197" s="93"/>
-      <c r="D197" s="90"/>
-      <c r="E197" s="90"/>
-      <c r="F197" s="96"/>
-      <c r="G197" s="90"/>
-      <c r="H197" s="90"/>
-      <c r="I197" s="90"/>
-      <c r="J197" s="90"/>
-      <c r="K197" s="90"/>
-      <c r="L197" s="86"/>
+      <c r="B197" s="102"/>
+      <c r="C197" s="102"/>
+      <c r="D197" s="104"/>
+      <c r="E197" s="104"/>
+      <c r="F197" s="107"/>
+      <c r="G197" s="104"/>
+      <c r="H197" s="104"/>
+      <c r="I197" s="104"/>
+      <c r="J197" s="104"/>
+      <c r="K197" s="104"/>
+      <c r="L197" s="93"/>
       <c r="M197" s="12">
         <v>4</v>
       </c>
-      <c r="N197" s="19" t="str">
+      <c r="N197" s="19">
         <f>IF(CASTRO!E30="","",CASTRO!E30)</f>
-        <v/>
-      </c>
-      <c r="O197" s="73" t="str">
+        <v>2</v>
+      </c>
+      <c r="O197" s="73">
         <f>IF(N197="","",CASTRO!F30)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B198" s="93"/>
-      <c r="C198" s="93"/>
-      <c r="D198" s="90"/>
-      <c r="E198" s="90"/>
-      <c r="F198" s="96"/>
-      <c r="G198" s="90"/>
-      <c r="H198" s="90"/>
-      <c r="I198" s="90"/>
-      <c r="J198" s="90"/>
-      <c r="K198" s="90"/>
-      <c r="L198" s="86"/>
+      <c r="B198" s="102"/>
+      <c r="C198" s="102"/>
+      <c r="D198" s="104"/>
+      <c r="E198" s="104"/>
+      <c r="F198" s="107"/>
+      <c r="G198" s="104"/>
+      <c r="H198" s="104"/>
+      <c r="I198" s="104"/>
+      <c r="J198" s="104"/>
+      <c r="K198" s="104"/>
+      <c r="L198" s="93"/>
       <c r="M198" s="12">
         <v>5</v>
       </c>
@@ -11632,17 +12727,17 @@
       </c>
     </row>
     <row r="199" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B199" s="93"/>
-      <c r="C199" s="93"/>
-      <c r="D199" s="90"/>
-      <c r="E199" s="90"/>
-      <c r="F199" s="96"/>
-      <c r="G199" s="90"/>
-      <c r="H199" s="90"/>
-      <c r="I199" s="90"/>
-      <c r="J199" s="90"/>
-      <c r="K199" s="90"/>
-      <c r="L199" s="85" t="s">
+      <c r="B199" s="102"/>
+      <c r="C199" s="102"/>
+      <c r="D199" s="104"/>
+      <c r="E199" s="104"/>
+      <c r="F199" s="107"/>
+      <c r="G199" s="104"/>
+      <c r="H199" s="104"/>
+      <c r="I199" s="104"/>
+      <c r="J199" s="104"/>
+      <c r="K199" s="104"/>
+      <c r="L199" s="92" t="s">
         <v>100</v>
       </c>
       <c r="M199" s="13">
@@ -11658,17 +12753,17 @@
       </c>
     </row>
     <row r="200" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B200" s="93"/>
-      <c r="C200" s="93"/>
-      <c r="D200" s="90"/>
-      <c r="E200" s="90"/>
-      <c r="F200" s="96"/>
-      <c r="G200" s="90"/>
-      <c r="H200" s="90"/>
-      <c r="I200" s="90"/>
-      <c r="J200" s="90"/>
-      <c r="K200" s="90"/>
-      <c r="L200" s="86"/>
+      <c r="B200" s="102"/>
+      <c r="C200" s="102"/>
+      <c r="D200" s="104"/>
+      <c r="E200" s="104"/>
+      <c r="F200" s="107"/>
+      <c r="G200" s="104"/>
+      <c r="H200" s="104"/>
+      <c r="I200" s="104"/>
+      <c r="J200" s="104"/>
+      <c r="K200" s="104"/>
+      <c r="L200" s="93"/>
       <c r="M200" s="12">
         <v>2</v>
       </c>
@@ -11682,65 +12777,65 @@
       </c>
     </row>
     <row r="201" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B201" s="93"/>
-      <c r="C201" s="93"/>
-      <c r="D201" s="90"/>
-      <c r="E201" s="90"/>
-      <c r="F201" s="96"/>
-      <c r="G201" s="90"/>
-      <c r="H201" s="90"/>
-      <c r="I201" s="90"/>
-      <c r="J201" s="90"/>
-      <c r="K201" s="90"/>
-      <c r="L201" s="86"/>
+      <c r="B201" s="102"/>
+      <c r="C201" s="102"/>
+      <c r="D201" s="104"/>
+      <c r="E201" s="104"/>
+      <c r="F201" s="107"/>
+      <c r="G201" s="104"/>
+      <c r="H201" s="104"/>
+      <c r="I201" s="104"/>
+      <c r="J201" s="104"/>
+      <c r="K201" s="104"/>
+      <c r="L201" s="93"/>
       <c r="M201" s="12">
         <v>3</v>
       </c>
-      <c r="N201" s="19" t="str">
+      <c r="N201" s="19">
         <f>IF(CASTRO!E24="","",CASTRO!E24)</f>
-        <v/>
-      </c>
-      <c r="O201" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O201" s="73">
         <f>IF(N201="","",CASTRO!F24)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B202" s="93"/>
-      <c r="C202" s="93"/>
-      <c r="D202" s="90"/>
-      <c r="E202" s="90"/>
-      <c r="F202" s="96"/>
-      <c r="G202" s="90"/>
-      <c r="H202" s="90"/>
-      <c r="I202" s="90"/>
-      <c r="J202" s="90"/>
-      <c r="K202" s="90"/>
-      <c r="L202" s="86"/>
+      <c r="B202" s="102"/>
+      <c r="C202" s="102"/>
+      <c r="D202" s="104"/>
+      <c r="E202" s="104"/>
+      <c r="F202" s="107"/>
+      <c r="G202" s="104"/>
+      <c r="H202" s="104"/>
+      <c r="I202" s="104"/>
+      <c r="J202" s="104"/>
+      <c r="K202" s="104"/>
+      <c r="L202" s="93"/>
       <c r="M202" s="12">
         <v>4</v>
       </c>
-      <c r="N202" s="19" t="str">
+      <c r="N202" s="19">
         <f>IF(CASTRO!E31="","",CASTRO!E31)</f>
-        <v/>
-      </c>
-      <c r="O202" s="73" t="str">
+        <v>2</v>
+      </c>
+      <c r="O202" s="73">
         <f>IF(N202="","",CASTRO!F31)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B203" s="93"/>
-      <c r="C203" s="93"/>
-      <c r="D203" s="90"/>
-      <c r="E203" s="90"/>
-      <c r="F203" s="96"/>
-      <c r="G203" s="90"/>
-      <c r="H203" s="90"/>
-      <c r="I203" s="90"/>
-      <c r="J203" s="90"/>
-      <c r="K203" s="90"/>
-      <c r="L203" s="86"/>
+      <c r="B203" s="102"/>
+      <c r="C203" s="102"/>
+      <c r="D203" s="104"/>
+      <c r="E203" s="104"/>
+      <c r="F203" s="107"/>
+      <c r="G203" s="104"/>
+      <c r="H203" s="104"/>
+      <c r="I203" s="104"/>
+      <c r="J203" s="104"/>
+      <c r="K203" s="104"/>
+      <c r="L203" s="93"/>
       <c r="M203" s="12">
         <v>5</v>
       </c>
@@ -11754,17 +12849,17 @@
       </c>
     </row>
     <row r="204" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B204" s="93"/>
-      <c r="C204" s="93"/>
-      <c r="D204" s="90"/>
-      <c r="E204" s="90"/>
-      <c r="F204" s="96"/>
-      <c r="G204" s="90"/>
-      <c r="H204" s="90"/>
-      <c r="I204" s="90"/>
-      <c r="J204" s="90"/>
-      <c r="K204" s="90"/>
-      <c r="L204" s="85" t="s">
+      <c r="B204" s="102"/>
+      <c r="C204" s="102"/>
+      <c r="D204" s="104"/>
+      <c r="E204" s="104"/>
+      <c r="F204" s="107"/>
+      <c r="G204" s="104"/>
+      <c r="H204" s="104"/>
+      <c r="I204" s="104"/>
+      <c r="J204" s="104"/>
+      <c r="K204" s="104"/>
+      <c r="L204" s="92" t="s">
         <v>79</v>
       </c>
       <c r="M204" s="13">
@@ -11780,17 +12875,17 @@
       </c>
     </row>
     <row r="205" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B205" s="93"/>
-      <c r="C205" s="93"/>
-      <c r="D205" s="90"/>
-      <c r="E205" s="90"/>
-      <c r="F205" s="96"/>
-      <c r="G205" s="90"/>
-      <c r="H205" s="90"/>
-      <c r="I205" s="90"/>
-      <c r="J205" s="90"/>
-      <c r="K205" s="90"/>
-      <c r="L205" s="86"/>
+      <c r="B205" s="102"/>
+      <c r="C205" s="102"/>
+      <c r="D205" s="104"/>
+      <c r="E205" s="104"/>
+      <c r="F205" s="107"/>
+      <c r="G205" s="104"/>
+      <c r="H205" s="104"/>
+      <c r="I205" s="104"/>
+      <c r="J205" s="104"/>
+      <c r="K205" s="104"/>
+      <c r="L205" s="93"/>
       <c r="M205" s="12">
         <v>2</v>
       </c>
@@ -11804,65 +12899,65 @@
       </c>
     </row>
     <row r="206" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B206" s="93"/>
-      <c r="C206" s="93"/>
-      <c r="D206" s="90"/>
-      <c r="E206" s="90"/>
-      <c r="F206" s="96"/>
-      <c r="G206" s="90"/>
-      <c r="H206" s="90"/>
-      <c r="I206" s="90"/>
-      <c r="J206" s="90"/>
-      <c r="K206" s="90"/>
-      <c r="L206" s="86"/>
+      <c r="B206" s="102"/>
+      <c r="C206" s="102"/>
+      <c r="D206" s="104"/>
+      <c r="E206" s="104"/>
+      <c r="F206" s="107"/>
+      <c r="G206" s="104"/>
+      <c r="H206" s="104"/>
+      <c r="I206" s="104"/>
+      <c r="J206" s="104"/>
+      <c r="K206" s="104"/>
+      <c r="L206" s="93"/>
       <c r="M206" s="12">
         <v>3</v>
       </c>
-      <c r="N206" s="19" t="str">
+      <c r="N206" s="19">
         <f>IF(CASTRO!E25="","",CASTRO!E25)</f>
-        <v/>
-      </c>
-      <c r="O206" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O206" s="73">
         <f>IF(N206="","",CASTRO!F25)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B207" s="93"/>
-      <c r="C207" s="93"/>
-      <c r="D207" s="90"/>
-      <c r="E207" s="90"/>
-      <c r="F207" s="96"/>
-      <c r="G207" s="90"/>
-      <c r="H207" s="90"/>
-      <c r="I207" s="90"/>
-      <c r="J207" s="90"/>
-      <c r="K207" s="90"/>
-      <c r="L207" s="86"/>
+      <c r="B207" s="102"/>
+      <c r="C207" s="102"/>
+      <c r="D207" s="104"/>
+      <c r="E207" s="104"/>
+      <c r="F207" s="107"/>
+      <c r="G207" s="104"/>
+      <c r="H207" s="104"/>
+      <c r="I207" s="104"/>
+      <c r="J207" s="104"/>
+      <c r="K207" s="104"/>
+      <c r="L207" s="93"/>
       <c r="M207" s="12">
         <v>4</v>
       </c>
-      <c r="N207" s="19" t="str">
+      <c r="N207" s="19">
         <f>IF(CASTRO!E32="","",CASTRO!E32)</f>
-        <v/>
-      </c>
-      <c r="O207" s="73" t="str">
+        <v>2</v>
+      </c>
+      <c r="O207" s="73">
         <f>IF(N207="","",CASTRO!F32)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B208" s="93"/>
-      <c r="C208" s="93"/>
-      <c r="D208" s="90"/>
-      <c r="E208" s="90"/>
-      <c r="F208" s="96"/>
-      <c r="G208" s="90"/>
-      <c r="H208" s="90"/>
-      <c r="I208" s="90"/>
-      <c r="J208" s="90"/>
-      <c r="K208" s="90"/>
-      <c r="L208" s="86"/>
+      <c r="B208" s="102"/>
+      <c r="C208" s="102"/>
+      <c r="D208" s="104"/>
+      <c r="E208" s="104"/>
+      <c r="F208" s="107"/>
+      <c r="G208" s="104"/>
+      <c r="H208" s="104"/>
+      <c r="I208" s="104"/>
+      <c r="J208" s="104"/>
+      <c r="K208" s="104"/>
+      <c r="L208" s="93"/>
       <c r="M208" s="12">
         <v>5</v>
       </c>
@@ -11876,17 +12971,17 @@
       </c>
     </row>
     <row r="209" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B209" s="93"/>
-      <c r="C209" s="93"/>
-      <c r="D209" s="90"/>
-      <c r="E209" s="90"/>
-      <c r="F209" s="96"/>
-      <c r="G209" s="90"/>
-      <c r="H209" s="90"/>
-      <c r="I209" s="90"/>
-      <c r="J209" s="90"/>
-      <c r="K209" s="90"/>
-      <c r="L209" s="85" t="s">
+      <c r="B209" s="102"/>
+      <c r="C209" s="102"/>
+      <c r="D209" s="104"/>
+      <c r="E209" s="104"/>
+      <c r="F209" s="107"/>
+      <c r="G209" s="104"/>
+      <c r="H209" s="104"/>
+      <c r="I209" s="104"/>
+      <c r="J209" s="104"/>
+      <c r="K209" s="104"/>
+      <c r="L209" s="92" t="s">
         <v>101</v>
       </c>
       <c r="M209" s="13">
@@ -11902,17 +12997,17 @@
       </c>
     </row>
     <row r="210" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B210" s="93"/>
-      <c r="C210" s="93"/>
-      <c r="D210" s="90"/>
-      <c r="E210" s="90"/>
-      <c r="F210" s="96"/>
-      <c r="G210" s="90"/>
-      <c r="H210" s="90"/>
-      <c r="I210" s="90"/>
-      <c r="J210" s="90"/>
-      <c r="K210" s="90"/>
-      <c r="L210" s="86"/>
+      <c r="B210" s="102"/>
+      <c r="C210" s="102"/>
+      <c r="D210" s="104"/>
+      <c r="E210" s="104"/>
+      <c r="F210" s="107"/>
+      <c r="G210" s="104"/>
+      <c r="H210" s="104"/>
+      <c r="I210" s="104"/>
+      <c r="J210" s="104"/>
+      <c r="K210" s="104"/>
+      <c r="L210" s="93"/>
       <c r="M210" s="12">
         <v>2</v>
       </c>
@@ -11926,65 +13021,65 @@
       </c>
     </row>
     <row r="211" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B211" s="93"/>
-      <c r="C211" s="93"/>
-      <c r="D211" s="90"/>
-      <c r="E211" s="90"/>
-      <c r="F211" s="96"/>
-      <c r="G211" s="90"/>
-      <c r="H211" s="90"/>
-      <c r="I211" s="90"/>
-      <c r="J211" s="90"/>
-      <c r="K211" s="90"/>
-      <c r="L211" s="86"/>
+      <c r="B211" s="102"/>
+      <c r="C211" s="102"/>
+      <c r="D211" s="104"/>
+      <c r="E211" s="104"/>
+      <c r="F211" s="107"/>
+      <c r="G211" s="104"/>
+      <c r="H211" s="104"/>
+      <c r="I211" s="104"/>
+      <c r="J211" s="104"/>
+      <c r="K211" s="104"/>
+      <c r="L211" s="93"/>
       <c r="M211" s="12">
         <v>3</v>
       </c>
-      <c r="N211" s="19" t="str">
+      <c r="N211" s="19">
         <f>IF(CASTRO!E26="","",CASTRO!E26)</f>
-        <v/>
-      </c>
-      <c r="O211" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O211" s="73">
         <f>IF(N211="","",CASTRO!F26)</f>
-        <v/>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B212" s="93"/>
-      <c r="C212" s="93"/>
-      <c r="D212" s="90"/>
-      <c r="E212" s="90"/>
-      <c r="F212" s="96"/>
-      <c r="G212" s="90"/>
-      <c r="H212" s="90"/>
-      <c r="I212" s="90"/>
-      <c r="J212" s="90"/>
-      <c r="K212" s="90"/>
-      <c r="L212" s="86"/>
+      <c r="B212" s="102"/>
+      <c r="C212" s="102"/>
+      <c r="D212" s="104"/>
+      <c r="E212" s="104"/>
+      <c r="F212" s="107"/>
+      <c r="G212" s="104"/>
+      <c r="H212" s="104"/>
+      <c r="I212" s="104"/>
+      <c r="J212" s="104"/>
+      <c r="K212" s="104"/>
+      <c r="L212" s="93"/>
       <c r="M212" s="12">
         <v>4</v>
       </c>
-      <c r="N212" s="19" t="str">
+      <c r="N212" s="19">
         <f>IF(CASTRO!E33="","",CASTRO!E33)</f>
-        <v/>
-      </c>
-      <c r="O212" s="73" t="str">
+        <v>2</v>
+      </c>
+      <c r="O212" s="73">
         <f>IF(N212="","",CASTRO!F33)</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B213" s="94"/>
-      <c r="C213" s="94"/>
-      <c r="D213" s="91"/>
-      <c r="E213" s="91"/>
-      <c r="F213" s="97"/>
-      <c r="G213" s="91"/>
-      <c r="H213" s="91"/>
-      <c r="I213" s="91"/>
-      <c r="J213" s="91"/>
-      <c r="K213" s="91"/>
-      <c r="L213" s="86"/>
+      <c r="B213" s="103"/>
+      <c r="C213" s="103"/>
+      <c r="D213" s="105"/>
+      <c r="E213" s="105"/>
+      <c r="F213" s="108"/>
+      <c r="G213" s="105"/>
+      <c r="H213" s="105"/>
+      <c r="I213" s="105"/>
+      <c r="J213" s="105"/>
+      <c r="K213" s="105"/>
+      <c r="L213" s="93"/>
       <c r="M213" s="12">
         <v>5</v>
       </c>
@@ -11999,6 +13094,88 @@
     </row>
   </sheetData>
   <mergeCells count="101">
+    <mergeCell ref="L204:L208"/>
+    <mergeCell ref="L209:L213"/>
+    <mergeCell ref="L179:L183"/>
+    <mergeCell ref="L184:L188"/>
+    <mergeCell ref="L189:L193"/>
+    <mergeCell ref="L194:L198"/>
+    <mergeCell ref="L199:L203"/>
+    <mergeCell ref="H179:H213"/>
+    <mergeCell ref="I179:I213"/>
+    <mergeCell ref="J179:J213"/>
+    <mergeCell ref="K179:K213"/>
+    <mergeCell ref="B179:B213"/>
+    <mergeCell ref="C179:C213"/>
+    <mergeCell ref="D179:D213"/>
+    <mergeCell ref="E179:E213"/>
+    <mergeCell ref="F179:F213"/>
+    <mergeCell ref="B79:B113"/>
+    <mergeCell ref="C79:C113"/>
+    <mergeCell ref="G179:G213"/>
+    <mergeCell ref="B149:B178"/>
+    <mergeCell ref="B114:B148"/>
+    <mergeCell ref="C114:C148"/>
+    <mergeCell ref="D114:D148"/>
+    <mergeCell ref="E114:E148"/>
+    <mergeCell ref="F114:F148"/>
+    <mergeCell ref="G114:G148"/>
+    <mergeCell ref="G44:G78"/>
+    <mergeCell ref="H44:H78"/>
+    <mergeCell ref="G79:G113"/>
+    <mergeCell ref="H79:H113"/>
+    <mergeCell ref="I44:I78"/>
+    <mergeCell ref="J44:J78"/>
+    <mergeCell ref="K44:K78"/>
+    <mergeCell ref="B44:B78"/>
+    <mergeCell ref="C44:C78"/>
+    <mergeCell ref="D44:D78"/>
+    <mergeCell ref="E44:E78"/>
+    <mergeCell ref="F44:F78"/>
+    <mergeCell ref="I79:I113"/>
+    <mergeCell ref="J79:J113"/>
+    <mergeCell ref="K79:K113"/>
+    <mergeCell ref="D79:D113"/>
+    <mergeCell ref="E79:E113"/>
+    <mergeCell ref="F79:F113"/>
+    <mergeCell ref="G9:G43"/>
+    <mergeCell ref="L34:L38"/>
+    <mergeCell ref="B9:B43"/>
+    <mergeCell ref="C9:C43"/>
+    <mergeCell ref="D9:D43"/>
+    <mergeCell ref="E9:E43"/>
+    <mergeCell ref="F9:F43"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="H9:H43"/>
+    <mergeCell ref="I9:I43"/>
+    <mergeCell ref="J9:J43"/>
+    <mergeCell ref="K9:K43"/>
+    <mergeCell ref="L69:L73"/>
+    <mergeCell ref="L74:L78"/>
+    <mergeCell ref="L89:L93"/>
+    <mergeCell ref="L84:L88"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="L49:L53"/>
+    <mergeCell ref="L54:L58"/>
+    <mergeCell ref="L59:L63"/>
+    <mergeCell ref="L64:L68"/>
+    <mergeCell ref="L79:L83"/>
+    <mergeCell ref="L94:L98"/>
+    <mergeCell ref="I114:I148"/>
+    <mergeCell ref="J114:J148"/>
+    <mergeCell ref="K114:K148"/>
+    <mergeCell ref="L119:L123"/>
+    <mergeCell ref="L99:L103"/>
+    <mergeCell ref="L104:L108"/>
+    <mergeCell ref="L109:L113"/>
+    <mergeCell ref="L114:L118"/>
+    <mergeCell ref="L144:L148"/>
+    <mergeCell ref="L124:L128"/>
     <mergeCell ref="H114:H148"/>
     <mergeCell ref="K149:K178"/>
     <mergeCell ref="L129:L133"/>
@@ -12018,88 +13195,6 @@
     <mergeCell ref="L159:L163"/>
     <mergeCell ref="L174:L178"/>
     <mergeCell ref="L169:L173"/>
-    <mergeCell ref="L94:L98"/>
-    <mergeCell ref="I114:I148"/>
-    <mergeCell ref="J114:J148"/>
-    <mergeCell ref="K114:K148"/>
-    <mergeCell ref="L119:L123"/>
-    <mergeCell ref="L99:L103"/>
-    <mergeCell ref="L104:L108"/>
-    <mergeCell ref="L109:L113"/>
-    <mergeCell ref="L114:L118"/>
-    <mergeCell ref="L144:L148"/>
-    <mergeCell ref="L124:L128"/>
-    <mergeCell ref="L69:L73"/>
-    <mergeCell ref="L74:L78"/>
-    <mergeCell ref="L89:L93"/>
-    <mergeCell ref="L84:L88"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="L44:L48"/>
-    <mergeCell ref="L49:L53"/>
-    <mergeCell ref="L54:L58"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="L64:L68"/>
-    <mergeCell ref="L79:L83"/>
-    <mergeCell ref="G9:G43"/>
-    <mergeCell ref="L34:L38"/>
-    <mergeCell ref="B9:B43"/>
-    <mergeCell ref="C9:C43"/>
-    <mergeCell ref="D9:D43"/>
-    <mergeCell ref="E9:E43"/>
-    <mergeCell ref="F9:F43"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="L14:L18"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="L24:L28"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="H9:H43"/>
-    <mergeCell ref="I9:I43"/>
-    <mergeCell ref="J9:J43"/>
-    <mergeCell ref="K9:K43"/>
-    <mergeCell ref="G44:G78"/>
-    <mergeCell ref="H44:H78"/>
-    <mergeCell ref="G79:G113"/>
-    <mergeCell ref="H79:H113"/>
-    <mergeCell ref="I44:I78"/>
-    <mergeCell ref="J44:J78"/>
-    <mergeCell ref="K44:K78"/>
-    <mergeCell ref="B44:B78"/>
-    <mergeCell ref="C44:C78"/>
-    <mergeCell ref="D44:D78"/>
-    <mergeCell ref="E44:E78"/>
-    <mergeCell ref="F44:F78"/>
-    <mergeCell ref="I79:I113"/>
-    <mergeCell ref="J79:J113"/>
-    <mergeCell ref="K79:K113"/>
-    <mergeCell ref="D79:D113"/>
-    <mergeCell ref="E79:E113"/>
-    <mergeCell ref="F79:F113"/>
-    <mergeCell ref="B179:B213"/>
-    <mergeCell ref="C179:C213"/>
-    <mergeCell ref="D179:D213"/>
-    <mergeCell ref="E179:E213"/>
-    <mergeCell ref="F179:F213"/>
-    <mergeCell ref="B79:B113"/>
-    <mergeCell ref="C79:C113"/>
-    <mergeCell ref="G179:G213"/>
-    <mergeCell ref="B149:B178"/>
-    <mergeCell ref="B114:B148"/>
-    <mergeCell ref="C114:C148"/>
-    <mergeCell ref="D114:D148"/>
-    <mergeCell ref="E114:E148"/>
-    <mergeCell ref="F114:F148"/>
-    <mergeCell ref="G114:G148"/>
-    <mergeCell ref="L204:L208"/>
-    <mergeCell ref="L209:L213"/>
-    <mergeCell ref="L179:L183"/>
-    <mergeCell ref="L184:L188"/>
-    <mergeCell ref="L189:L193"/>
-    <mergeCell ref="L194:L198"/>
-    <mergeCell ref="L199:L203"/>
-    <mergeCell ref="H179:H213"/>
-    <mergeCell ref="I179:I213"/>
-    <mergeCell ref="J179:J213"/>
-    <mergeCell ref="K179:K213"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>

--- a/informeFebrero2023.xlsx
+++ b/informeFebrero2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manuel\Desktop\COORD_INGLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D5A7BE-5467-4D35-8A45-A34A78924E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED12E836-3554-43CD-A32A-70C77C821460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUISHPE" sheetId="4" r:id="rId1"/>
@@ -1932,46 +1932,25 @@
     <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="22" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1980,17 +1959,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2001,14 +1986,29 @@
     <xf numFmtId="10" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2116,10 +2116,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2383,8 +2379,8 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M23" sqref="M23"/>
+      <pane ySplit="5" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2406,11 +2402,11 @@
       <c r="J3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="86">
+      <c r="K3" s="89">
         <f ca="1">NOW()</f>
-        <v>44985.695302662039</v>
-      </c>
-      <c r="L3" s="87"/>
+        <v>44986.76923460648</v>
+      </c>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="29"/>
@@ -2995,7 +2991,7 @@
       <c r="E23" s="16">
         <v>4</v>
       </c>
-      <c r="F23" s="110">
+      <c r="F23" s="87">
         <v>1</v>
       </c>
       <c r="G23" s="16"/>
@@ -3148,7 +3144,7 @@
       <c r="E28" s="17">
         <v>4</v>
       </c>
-      <c r="F28" s="109">
+      <c r="F28" s="86">
         <v>1</v>
       </c>
       <c r="G28" s="17"/>
@@ -3206,7 +3202,7 @@
       <c r="E30" s="17">
         <v>4</v>
       </c>
-      <c r="F30" s="109">
+      <c r="F30" s="86">
         <v>1</v>
       </c>
       <c r="G30" s="17"/>
@@ -3235,7 +3231,7 @@
       <c r="E31" s="17">
         <v>4</v>
       </c>
-      <c r="F31" s="109">
+      <c r="F31" s="86">
         <v>1</v>
       </c>
       <c r="G31" s="17"/>
@@ -3264,7 +3260,7 @@
       <c r="E32" s="17">
         <v>4</v>
       </c>
-      <c r="F32" s="109">
+      <c r="F32" s="86">
         <v>1</v>
       </c>
       <c r="G32" s="17"/>
@@ -3293,7 +3289,7 @@
       <c r="E33" s="17">
         <v>4</v>
       </c>
-      <c r="F33" s="109">
+      <c r="F33" s="86">
         <v>1</v>
       </c>
       <c r="G33" s="17"/>
@@ -3342,8 +3338,12 @@
       <c r="D35" s="37">
         <v>1</v>
       </c>
-      <c r="E35" s="16"/>
-      <c r="F35" s="57"/>
+      <c r="E35" s="16">
+        <v>8</v>
+      </c>
+      <c r="F35" s="57">
+        <v>1</v>
+      </c>
       <c r="G35" s="16"/>
       <c r="H35" s="16"/>
       <c r="I35" s="42"/>
@@ -3388,8 +3388,12 @@
       <c r="D37" s="37">
         <v>1</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="57"/>
+      <c r="E37" s="16">
+        <v>8</v>
+      </c>
+      <c r="F37" s="57">
+        <v>1</v>
+      </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="42"/>
@@ -3411,8 +3415,12 @@
       <c r="D38" s="37">
         <v>1</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="57"/>
+      <c r="E38" s="16">
+        <v>8</v>
+      </c>
+      <c r="F38" s="57">
+        <v>1</v>
+      </c>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="42"/>
@@ -3434,8 +3442,12 @@
       <c r="D39" s="37">
         <v>1</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="57"/>
+      <c r="E39" s="16">
+        <v>8</v>
+      </c>
+      <c r="F39" s="57">
+        <v>1</v>
+      </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="42"/>
@@ -3457,8 +3469,12 @@
       <c r="D40" s="37">
         <v>1</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="57"/>
+      <c r="E40" s="16">
+        <v>8</v>
+      </c>
+      <c r="F40" s="57">
+        <v>1</v>
+      </c>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="42"/>
@@ -3481,8 +3497,8 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3505,11 +3521,11 @@
       <c r="J3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="86">
+      <c r="K3" s="89">
         <f ca="1">NOW()</f>
-        <v>44985.695302662039</v>
-      </c>
-      <c r="L3" s="87"/>
+        <v>44986.76923460648</v>
+      </c>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="29"/>
@@ -4161,7 +4177,7 @@
       <c r="E26" s="16">
         <v>3</v>
       </c>
-      <c r="F26" s="111">
+      <c r="F26" s="88">
         <v>1</v>
       </c>
       <c r="G26" s="16"/>
@@ -4190,7 +4206,7 @@
       <c r="E27" s="24">
         <v>2</v>
       </c>
-      <c r="F27" s="109">
+      <c r="F27" s="86">
         <v>1</v>
       </c>
       <c r="G27" s="24"/>
@@ -4248,7 +4264,7 @@
       <c r="E29" s="24">
         <v>2</v>
       </c>
-      <c r="F29" s="109">
+      <c r="F29" s="86">
         <v>1</v>
       </c>
       <c r="G29" s="24"/>
@@ -4306,7 +4322,7 @@
       <c r="E31" s="24">
         <v>2</v>
       </c>
-      <c r="F31" s="109">
+      <c r="F31" s="86">
         <v>1</v>
       </c>
       <c r="G31" s="24"/>
@@ -4335,7 +4351,7 @@
       <c r="E32" s="24">
         <v>2</v>
       </c>
-      <c r="F32" s="109">
+      <c r="F32" s="86">
         <v>1</v>
       </c>
       <c r="G32" s="24"/>
@@ -4364,7 +4380,7 @@
       <c r="E33" s="24">
         <v>2</v>
       </c>
-      <c r="F33" s="109">
+      <c r="F33" s="86">
         <v>1</v>
       </c>
       <c r="G33" s="24"/>
@@ -4390,9 +4406,15 @@
       <c r="D34" s="39">
         <v>1</v>
       </c>
-      <c r="E34" s="16"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="16"/>
+      <c r="E34" s="16">
+        <v>2</v>
+      </c>
+      <c r="F34" s="42">
+        <v>1</v>
+      </c>
+      <c r="G34" s="16">
+        <v>1</v>
+      </c>
       <c r="H34" s="16"/>
       <c r="I34" s="42"/>
       <c r="J34" s="16"/>
@@ -4436,9 +4458,15 @@
       <c r="D36" s="39">
         <v>1</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="16"/>
+      <c r="E36" s="16">
+        <v>2</v>
+      </c>
+      <c r="F36" s="42">
+        <v>1</v>
+      </c>
+      <c r="G36" s="16">
+        <v>1</v>
+      </c>
       <c r="H36" s="16"/>
       <c r="I36" s="42"/>
       <c r="J36" s="16"/>
@@ -4482,9 +4510,15 @@
       <c r="D38" s="39">
         <v>1</v>
       </c>
-      <c r="E38" s="16"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="16"/>
+      <c r="E38" s="16">
+        <v>2</v>
+      </c>
+      <c r="F38" s="42">
+        <v>1</v>
+      </c>
+      <c r="G38" s="16">
+        <v>1</v>
+      </c>
       <c r="H38" s="16"/>
       <c r="I38" s="42"/>
       <c r="J38" s="16"/>
@@ -4505,9 +4539,15 @@
       <c r="D39" s="39">
         <v>1</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="16"/>
+      <c r="E39" s="16">
+        <v>2</v>
+      </c>
+      <c r="F39" s="42">
+        <v>1</v>
+      </c>
+      <c r="G39" s="16">
+        <v>1</v>
+      </c>
       <c r="H39" s="16"/>
       <c r="I39" s="42"/>
       <c r="J39" s="16"/>
@@ -4528,9 +4568,15 @@
       <c r="D40" s="39">
         <v>1</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="16"/>
+      <c r="E40" s="16">
+        <v>2</v>
+      </c>
+      <c r="F40" s="42">
+        <v>2</v>
+      </c>
+      <c r="G40" s="16">
+        <v>1</v>
+      </c>
       <c r="H40" s="16"/>
       <c r="I40" s="42"/>
       <c r="J40" s="16"/>
@@ -4552,8 +4598,8 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I31" sqref="I31"/>
+      <pane ySplit="5" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4576,11 +4622,11 @@
       <c r="J3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="86">
+      <c r="K3" s="89">
         <f ca="1">NOW()</f>
-        <v>44985.695302662039</v>
-      </c>
-      <c r="L3" s="87"/>
+        <v>44986.76923460648</v>
+      </c>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="29"/>
@@ -5331,7 +5377,7 @@
       <c r="E29" s="44">
         <v>4</v>
       </c>
-      <c r="F29" s="109">
+      <c r="F29" s="86">
         <v>1</v>
       </c>
       <c r="G29" s="44"/>
@@ -5360,7 +5406,7 @@
       <c r="E30" s="44">
         <v>4</v>
       </c>
-      <c r="F30" s="109">
+      <c r="F30" s="86">
         <v>1</v>
       </c>
       <c r="G30" s="44"/>
@@ -5418,7 +5464,7 @@
       <c r="E32" s="44">
         <v>4</v>
       </c>
-      <c r="F32" s="109">
+      <c r="F32" s="86">
         <v>1</v>
       </c>
       <c r="G32" s="44"/>
@@ -5447,7 +5493,7 @@
       <c r="E33" s="44">
         <v>4</v>
       </c>
-      <c r="F33" s="109">
+      <c r="F33" s="86">
         <v>1</v>
       </c>
       <c r="G33" s="44"/>
@@ -5519,13 +5565,19 @@
       <c r="D36" s="39">
         <v>1</v>
       </c>
-      <c r="E36" s="16"/>
-      <c r="F36" s="42"/>
+      <c r="E36" s="16">
+        <v>4</v>
+      </c>
+      <c r="F36" s="42">
+        <v>1</v>
+      </c>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="42"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
+      <c r="K36" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
@@ -5542,13 +5594,19 @@
       <c r="D37" s="39">
         <v>1</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="42"/>
+      <c r="E37" s="16">
+        <v>4</v>
+      </c>
+      <c r="F37" s="42">
+        <v>2</v>
+      </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="42"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
+      <c r="K37" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
@@ -5588,13 +5646,19 @@
       <c r="D39" s="39">
         <v>1</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="42"/>
+      <c r="E39" s="16">
+        <v>4</v>
+      </c>
+      <c r="F39" s="42">
+        <v>1</v>
+      </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="42"/>
       <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
+      <c r="K39" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
@@ -5611,13 +5675,19 @@
       <c r="D40" s="39">
         <v>1</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="42"/>
+      <c r="E40" s="16">
+        <v>4</v>
+      </c>
+      <c r="F40" s="42">
+        <v>1</v>
+      </c>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="42"/>
       <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
+      <c r="K40" s="16">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:K40" xr:uid="{EAC52136-72AA-4346-91F4-7CF5ABA02F60}"/>
@@ -5634,8 +5704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3C2417-2AB0-432E-AB08-B8A89ADD7E83}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
@@ -5659,11 +5729,11 @@
       <c r="J3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="86">
+      <c r="K3" s="89">
         <f ca="1">NOW()</f>
-        <v>44985.695302662039</v>
-      </c>
-      <c r="L3" s="87"/>
+        <v>44986.76923460648</v>
+      </c>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="29"/>
@@ -6265,7 +6335,7 @@
       <c r="E24" s="48">
         <v>1</v>
       </c>
-      <c r="F24" s="109">
+      <c r="F24" s="86">
         <v>2</v>
       </c>
       <c r="G24" s="48"/>
@@ -6292,7 +6362,7 @@
       <c r="E25" s="48">
         <v>1</v>
       </c>
-      <c r="F25" s="109">
+      <c r="F25" s="86">
         <v>2</v>
       </c>
       <c r="G25" s="48"/>
@@ -6319,7 +6389,7 @@
       <c r="E26" s="48">
         <v>1</v>
       </c>
-      <c r="F26" s="109">
+      <c r="F26" s="86">
         <v>2</v>
       </c>
       <c r="G26" s="48"/>
@@ -6373,7 +6443,7 @@
       <c r="E28" s="48">
         <v>1</v>
       </c>
-      <c r="F28" s="109">
+      <c r="F28" s="86">
         <v>2</v>
       </c>
       <c r="G28" s="48"/>
@@ -6400,7 +6470,7 @@
       <c r="E29" s="48">
         <v>1</v>
       </c>
-      <c r="F29" s="109">
+      <c r="F29" s="86">
         <v>1</v>
       </c>
       <c r="G29" s="48"/>
@@ -6583,8 +6653,8 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <pane ySplit="5" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6608,11 +6678,11 @@
       <c r="J3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="86">
+      <c r="K3" s="89">
         <f ca="1">NOW()</f>
-        <v>44985.695302662039</v>
-      </c>
-      <c r="L3" s="87"/>
+        <v>44986.76923460648</v>
+      </c>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J4" s="62"/>
@@ -7328,7 +7398,7 @@
       <c r="E27" s="71">
         <v>2</v>
       </c>
-      <c r="F27" s="109">
+      <c r="F27" s="86">
         <v>1</v>
       </c>
       <c r="G27" s="71"/>
@@ -7491,7 +7561,7 @@
       <c r="E32" s="71">
         <v>2</v>
       </c>
-      <c r="F32" s="109">
+      <c r="F32" s="86">
         <v>1</v>
       </c>
       <c r="G32" s="71"/>
@@ -7522,7 +7592,7 @@
       <c r="E33" s="71">
         <v>2</v>
       </c>
-      <c r="F33" s="109">
+      <c r="F33" s="86">
         <v>1</v>
       </c>
       <c r="G33" s="71"/>
@@ -7550,13 +7620,19 @@
       <c r="D34" s="70">
         <v>1</v>
       </c>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
+      <c r="E34" s="67">
+        <v>0</v>
+      </c>
+      <c r="F34" s="67">
+        <v>1</v>
+      </c>
       <c r="G34" s="67"/>
       <c r="H34" s="67"/>
       <c r="I34" s="67"/>
       <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
+      <c r="K34" s="67">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="66" t="s">
@@ -7665,13 +7741,19 @@
       <c r="D39" s="70">
         <v>1</v>
       </c>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
+      <c r="E39" s="67">
+        <v>0</v>
+      </c>
+      <c r="F39" s="67">
+        <v>1</v>
+      </c>
       <c r="G39" s="67"/>
       <c r="H39" s="67"/>
       <c r="I39" s="67"/>
       <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
+      <c r="K39" s="67">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="69" t="s">
@@ -7688,13 +7770,19 @@
       <c r="D40" s="70">
         <v>1</v>
       </c>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
+      <c r="E40" s="67">
+        <v>0</v>
+      </c>
+      <c r="F40" s="67">
+        <v>1</v>
+      </c>
       <c r="G40" s="67"/>
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
+      <c r="K40" s="67">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A5:K40" xr:uid="{EAC52136-72AA-4346-91F4-7CF5ABA02F60}"/>
@@ -7714,8 +7802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T213"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A173" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="O96" sqref="O96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A173" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7809,37 +7897,37 @@
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="95" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="97">
-        <v>1</v>
-      </c>
-      <c r="G9" s="90" t="s">
+      <c r="F9" s="107">
+        <v>1</v>
+      </c>
+      <c r="G9" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="H9" s="90" t="s">
+      <c r="H9" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="90" t="s">
+      <c r="I9" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="90" t="s">
+      <c r="J9" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="90" t="s">
+      <c r="K9" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="92" t="s">
+      <c r="L9" s="91" t="s">
         <v>39</v>
       </c>
       <c r="M9" s="5">
@@ -7860,17 +7948,17 @@
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
-      <c r="L10" s="93"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="92"/>
       <c r="M10" s="12">
         <v>2</v>
       </c>
@@ -7889,17 +7977,17 @@
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
-      <c r="L11" s="93"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="92"/>
       <c r="M11" s="12">
         <v>3</v>
       </c>
@@ -7918,17 +8006,17 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="89"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="93"/>
+      <c r="B12" s="104"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="92"/>
       <c r="M12" s="12">
         <v>4</v>
       </c>
@@ -7947,17 +8035,17 @@
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
-      <c r="I13" s="89"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="89"/>
-      <c r="L13" s="93"/>
+      <c r="B13" s="104"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="106"/>
+      <c r="L13" s="92"/>
       <c r="M13" s="12">
         <v>5</v>
       </c>
@@ -7976,17 +8064,17 @@
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="100" t="s">
+      <c r="B14" s="104"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="93" t="s">
         <v>40</v>
       </c>
       <c r="M14" s="52">
@@ -8007,17 +8095,17 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="89"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="89"/>
-      <c r="H15" s="89"/>
-      <c r="I15" s="89"/>
-      <c r="J15" s="89"/>
-      <c r="K15" s="89"/>
-      <c r="L15" s="101"/>
+      <c r="B15" s="104"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="94"/>
       <c r="M15" s="19">
         <v>2</v>
       </c>
@@ -8036,17 +8124,17 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="101"/>
+      <c r="B16" s="104"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="94"/>
       <c r="M16" s="19">
         <v>3</v>
       </c>
@@ -8065,17 +8153,17 @@
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="89"/>
-      <c r="J17" s="89"/>
-      <c r="K17" s="89"/>
-      <c r="L17" s="101"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="106"/>
+      <c r="K17" s="106"/>
+      <c r="L17" s="94"/>
       <c r="M17" s="19">
         <v>4</v>
       </c>
@@ -8094,27 +8182,27 @@
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="89"/>
-      <c r="J18" s="89"/>
-      <c r="K18" s="89"/>
-      <c r="L18" s="101"/>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="94"/>
       <c r="M18" s="19">
         <v>5</v>
       </c>
-      <c r="N18" s="19" t="str">
+      <c r="N18" s="19">
         <f>IF(QUISHPE!E35="","",QUISHPE!E35)</f>
-        <v/>
-      </c>
-      <c r="O18" s="76" t="str">
+        <v>8</v>
+      </c>
+      <c r="O18" s="76">
         <f>IF(N18="","Día de mes siguiente",QUISHPE!F35)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -8123,17 +8211,17 @@
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="89"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="92" t="s">
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="106"/>
+      <c r="K19" s="106"/>
+      <c r="L19" s="91" t="s">
         <v>41</v>
       </c>
       <c r="M19" s="5">
@@ -8154,17 +8242,17 @@
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="89"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="89"/>
-      <c r="L20" s="93"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="106"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="92"/>
       <c r="M20" s="12">
         <v>2</v>
       </c>
@@ -8183,17 +8271,17 @@
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="89"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="89"/>
-      <c r="L21" s="93"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="92"/>
       <c r="M21" s="12">
         <v>3</v>
       </c>
@@ -8212,17 +8300,17 @@
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
-      <c r="L22" s="93"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="92"/>
       <c r="M22" s="12">
         <v>4</v>
       </c>
@@ -8241,17 +8329,17 @@
       <c r="T22" s="1"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="89"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89"/>
-      <c r="L23" s="93"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
+      <c r="L23" s="92"/>
       <c r="M23" s="12">
         <v>5</v>
       </c>
@@ -8270,17 +8358,17 @@
       <c r="T23" s="1"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="89"/>
-      <c r="L24" s="92" t="s">
+      <c r="B24" s="104"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="106"/>
+      <c r="L24" s="91" t="s">
         <v>42</v>
       </c>
       <c r="M24" s="5">
@@ -8301,17 +8389,17 @@
       <c r="T24" s="1"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="98"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="93"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
+      <c r="L25" s="92"/>
       <c r="M25" s="12">
         <v>2</v>
       </c>
@@ -8330,17 +8418,17 @@
       <c r="T25" s="1"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="93"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="108"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
+      <c r="L26" s="92"/>
       <c r="M26" s="12">
         <v>3</v>
       </c>
@@ -8359,17 +8447,17 @@
       <c r="T26" s="1"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="98"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="93"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="106"/>
+      <c r="E27" s="106"/>
+      <c r="F27" s="108"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="106"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="92"/>
       <c r="M27" s="12">
         <v>4</v>
       </c>
@@ -8388,27 +8476,27 @@
       <c r="T27" s="1"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="98"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="93"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="108"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="92"/>
       <c r="M28" s="12">
         <v>5</v>
       </c>
-      <c r="N28" s="19" t="str">
+      <c r="N28" s="19">
         <f>IF(QUISHPE!E37="","",QUISHPE!E37)</f>
-        <v/>
-      </c>
-      <c r="O28" s="73" t="str">
+        <v>8</v>
+      </c>
+      <c r="O28" s="73">
         <f>IF(N28="","Día de mes siguiente",QUISHPE!F37)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -8417,17 +8505,17 @@
       <c r="T28" s="1"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="92" t="s">
+      <c r="B29" s="104"/>
+      <c r="C29" s="104"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="106"/>
+      <c r="K29" s="106"/>
+      <c r="L29" s="91" t="s">
         <v>43</v>
       </c>
       <c r="M29" s="5">
@@ -8448,17 +8536,17 @@
       <c r="T29" s="1"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="93"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="106"/>
+      <c r="E30" s="106"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="106"/>
+      <c r="L30" s="92"/>
       <c r="M30" s="12">
         <v>2</v>
       </c>
@@ -8477,17 +8565,17 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="89"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="93"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="106"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="108"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
+      <c r="J31" s="106"/>
+      <c r="K31" s="106"/>
+      <c r="L31" s="92"/>
       <c r="M31" s="12">
         <v>3</v>
       </c>
@@ -8506,17 +8594,17 @@
       <c r="T31" s="1"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="93"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="92"/>
       <c r="M32" s="12">
         <v>4</v>
       </c>
@@ -8535,27 +8623,27 @@
       <c r="T32" s="1"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="93"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="104"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="92"/>
       <c r="M33" s="12">
         <v>5</v>
       </c>
-      <c r="N33" s="19" t="str">
+      <c r="N33" s="19">
         <f>IF(QUISHPE!E38="","",QUISHPE!E38)</f>
-        <v/>
-      </c>
-      <c r="O33" s="73" t="str">
+        <v>8</v>
+      </c>
+      <c r="O33" s="73">
         <f>IF(N33="","Día de mes siguiente",QUISHPE!F38)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -8564,17 +8652,17 @@
       <c r="T33" s="1"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="89"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="92" t="s">
+      <c r="B34" s="104"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="91" t="s">
         <v>44</v>
       </c>
       <c r="M34" s="5">
@@ -8595,17 +8683,17 @@
       <c r="T34" s="1"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="89"/>
-      <c r="E35" s="89"/>
-      <c r="F35" s="98"/>
-      <c r="G35" s="89"/>
-      <c r="H35" s="89"/>
-      <c r="I35" s="89"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="89"/>
-      <c r="L35" s="93"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="106"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="92"/>
       <c r="M35" s="12">
         <v>2</v>
       </c>
@@ -8624,17 +8712,17 @@
       <c r="T35" s="1"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="95"/>
-      <c r="C36" s="95"/>
-      <c r="D36" s="89"/>
-      <c r="E36" s="89"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="89"/>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="89"/>
-      <c r="L36" s="93"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="106"/>
+      <c r="E36" s="106"/>
+      <c r="F36" s="108"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
+      <c r="J36" s="106"/>
+      <c r="K36" s="106"/>
+      <c r="L36" s="92"/>
       <c r="M36" s="12">
         <v>3</v>
       </c>
@@ -8653,17 +8741,17 @@
       <c r="T36" s="1"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="89"/>
-      <c r="E37" s="89"/>
-      <c r="F37" s="98"/>
-      <c r="G37" s="89"/>
-      <c r="H37" s="89"/>
-      <c r="I37" s="89"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="89"/>
-      <c r="L37" s="93"/>
+      <c r="B37" s="104"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="106"/>
+      <c r="H37" s="106"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="92"/>
       <c r="M37" s="12">
         <v>4</v>
       </c>
@@ -8682,27 +8770,27 @@
       <c r="T37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="89"/>
-      <c r="E38" s="89"/>
-      <c r="F38" s="98"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="93"/>
+      <c r="B38" s="104"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="108"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="92"/>
       <c r="M38" s="12">
         <v>5</v>
       </c>
-      <c r="N38" s="19" t="str">
+      <c r="N38" s="19">
         <f>IF(QUISHPE!E39="","",QUISHPE!E39)</f>
-        <v/>
-      </c>
-      <c r="O38" s="73" t="str">
+        <v>8</v>
+      </c>
+      <c r="O38" s="73">
         <f>IF(N38="","Día de mes siguiente",QUISHPE!F39)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -8711,17 +8799,17 @@
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="98"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="92" t="s">
+      <c r="B39" s="104"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="106"/>
+      <c r="H39" s="106"/>
+      <c r="I39" s="106"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="91" t="s">
         <v>45</v>
       </c>
       <c r="M39" s="5">
@@ -8742,17 +8830,17 @@
       <c r="T39" s="1"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="89"/>
-      <c r="E40" s="89"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="89"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="89"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="93"/>
+      <c r="B40" s="104"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="106"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="106"/>
+      <c r="H40" s="106"/>
+      <c r="I40" s="106"/>
+      <c r="J40" s="106"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="92"/>
       <c r="M40" s="12">
         <v>2</v>
       </c>
@@ -8771,17 +8859,17 @@
       <c r="T40" s="1"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="98"/>
-      <c r="G41" s="89"/>
-      <c r="H41" s="89"/>
-      <c r="I41" s="89"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="93"/>
+      <c r="B41" s="104"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="108"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="106"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="92"/>
       <c r="M41" s="12">
         <v>3</v>
       </c>
@@ -8800,17 +8888,17 @@
       <c r="T41" s="1"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="98"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="93"/>
+      <c r="B42" s="104"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="108"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="106"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="106"/>
+      <c r="K42" s="106"/>
+      <c r="L42" s="92"/>
       <c r="M42" s="12">
         <v>4</v>
       </c>
@@ -8829,27 +8917,27 @@
       <c r="T42" s="1"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="89"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="89"/>
-      <c r="J43" s="89"/>
-      <c r="K43" s="89"/>
-      <c r="L43" s="93"/>
+      <c r="B43" s="104"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="106"/>
+      <c r="H43" s="106"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="106"/>
+      <c r="K43" s="106"/>
+      <c r="L43" s="92"/>
       <c r="M43" s="12">
         <v>5</v>
       </c>
-      <c r="N43" s="19" t="str">
+      <c r="N43" s="19">
         <f>IF(QUISHPE!E40="","",QUISHPE!E40)</f>
-        <v/>
-      </c>
-      <c r="O43" s="73" t="str">
+        <v>8</v>
+      </c>
+      <c r="O43" s="73">
         <f>IF(N43="","Día de mes siguiente",QUISHPE!F40)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -8858,38 +8946,38 @@
       <c r="T43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="94" t="s">
+      <c r="B44" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="C44" s="94" t="s">
+      <c r="C44" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="88" t="s">
+      <c r="D44" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="E44" s="88" t="str">
+      <c r="E44" s="95" t="str">
         <f>E9</f>
         <v>FEBRERO</v>
       </c>
-      <c r="F44" s="97">
-        <v>1</v>
-      </c>
-      <c r="G44" s="90" t="s">
+      <c r="F44" s="107">
+        <v>1</v>
+      </c>
+      <c r="G44" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="90" t="s">
+      <c r="H44" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="I44" s="90" t="s">
+      <c r="I44" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="90" t="s">
+      <c r="J44" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="K44" s="90" t="s">
+      <c r="K44" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="L44" s="92" t="s">
+      <c r="L44" s="91" t="s">
         <v>46</v>
       </c>
       <c r="M44" s="5">
@@ -8905,17 +8993,17 @@
       </c>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="98"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
-      <c r="L45" s="93"/>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
+      <c r="L45" s="92"/>
       <c r="M45" s="12">
         <v>2</v>
       </c>
@@ -8929,17 +9017,17 @@
       </c>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="98"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="93"/>
+      <c r="B46" s="104"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="106"/>
+      <c r="L46" s="92"/>
       <c r="M46" s="12">
         <v>3</v>
       </c>
@@ -8953,17 +9041,17 @@
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="89"/>
-      <c r="H47" s="89"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="89"/>
-      <c r="K47" s="89"/>
-      <c r="L47" s="93"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
+      <c r="J47" s="106"/>
+      <c r="K47" s="106"/>
+      <c r="L47" s="92"/>
       <c r="M47" s="12">
         <v>4</v>
       </c>
@@ -8977,41 +9065,41 @@
       </c>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="89"/>
-      <c r="E48" s="89"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="89"/>
-      <c r="H48" s="89"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="89"/>
-      <c r="K48" s="89"/>
-      <c r="L48" s="93"/>
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="106"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="106"/>
+      <c r="J48" s="106"/>
+      <c r="K48" s="106"/>
+      <c r="L48" s="92"/>
       <c r="M48" s="12">
         <v>5</v>
       </c>
-      <c r="N48" s="12" t="str">
+      <c r="N48" s="12">
         <f>IF(RIVAS!E34="","",RIVAS!E34)</f>
-        <v/>
-      </c>
-      <c r="O48" s="75" t="str">
+        <v>2</v>
+      </c>
+      <c r="O48" s="75">
         <f>IF(N48="","Día de mes siguiente",RIVAS!F34)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="89"/>
-      <c r="H49" s="89"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="89"/>
-      <c r="K49" s="89"/>
-      <c r="L49" s="100" t="s">
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="106"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="106"/>
+      <c r="K49" s="106"/>
+      <c r="L49" s="93" t="s">
         <v>47</v>
       </c>
       <c r="M49" s="52">
@@ -9027,17 +9115,17 @@
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="101"/>
+      <c r="B50" s="104"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="106"/>
+      <c r="K50" s="106"/>
+      <c r="L50" s="94"/>
       <c r="M50" s="19">
         <v>2</v>
       </c>
@@ -9051,17 +9139,17 @@
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="98"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="101"/>
+      <c r="B51" s="104"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="106"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+      <c r="J51" s="106"/>
+      <c r="K51" s="106"/>
+      <c r="L51" s="94"/>
       <c r="M51" s="19">
         <v>3</v>
       </c>
@@ -9075,17 +9163,17 @@
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="98"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="101"/>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="106"/>
+      <c r="E52" s="106"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
+      <c r="J52" s="106"/>
+      <c r="K52" s="106"/>
+      <c r="L52" s="94"/>
       <c r="M52" s="19">
         <v>4</v>
       </c>
@@ -9099,17 +9187,17 @@
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B53" s="95"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="101"/>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="106"/>
+      <c r="E53" s="106"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="106"/>
+      <c r="K53" s="106"/>
+      <c r="L53" s="94"/>
       <c r="M53" s="19">
         <v>5</v>
       </c>
@@ -9123,17 +9211,17 @@
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B54" s="95"/>
-      <c r="C54" s="95"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="98"/>
-      <c r="G54" s="89"/>
-      <c r="H54" s="89"/>
-      <c r="I54" s="89"/>
-      <c r="J54" s="89"/>
-      <c r="K54" s="89"/>
-      <c r="L54" s="92" t="s">
+      <c r="B54" s="104"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="91" t="s">
         <v>48</v>
       </c>
       <c r="M54" s="5">
@@ -9149,17 +9237,17 @@
       </c>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B55" s="95"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="89"/>
-      <c r="E55" s="89"/>
-      <c r="F55" s="98"/>
-      <c r="G55" s="89"/>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89"/>
-      <c r="J55" s="89"/>
-      <c r="K55" s="89"/>
-      <c r="L55" s="93"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="106"/>
+      <c r="E55" s="106"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
+      <c r="J55" s="106"/>
+      <c r="K55" s="106"/>
+      <c r="L55" s="92"/>
       <c r="M55" s="12">
         <v>2</v>
       </c>
@@ -9173,17 +9261,17 @@
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="89"/>
-      <c r="I56" s="89"/>
-      <c r="J56" s="89"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="93"/>
+      <c r="B56" s="104"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="106"/>
+      <c r="L56" s="92"/>
       <c r="M56" s="12">
         <v>3</v>
       </c>
@@ -9197,17 +9285,17 @@
       </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B57" s="95"/>
-      <c r="C57" s="95"/>
-      <c r="D57" s="89"/>
-      <c r="E57" s="89"/>
-      <c r="F57" s="98"/>
-      <c r="G57" s="89"/>
-      <c r="H57" s="89"/>
-      <c r="I57" s="89"/>
-      <c r="J57" s="89"/>
-      <c r="K57" s="89"/>
-      <c r="L57" s="93"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="108"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="106"/>
+      <c r="L57" s="92"/>
       <c r="M57" s="12">
         <v>4</v>
       </c>
@@ -9221,41 +9309,41 @@
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B58" s="95"/>
-      <c r="C58" s="95"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="98"/>
-      <c r="G58" s="89"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="89"/>
-      <c r="J58" s="89"/>
-      <c r="K58" s="89"/>
-      <c r="L58" s="93"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="106"/>
+      <c r="E58" s="106"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
+      <c r="J58" s="106"/>
+      <c r="K58" s="106"/>
+      <c r="L58" s="92"/>
       <c r="M58" s="12">
         <v>5</v>
       </c>
-      <c r="N58" s="19" t="str">
+      <c r="N58" s="19">
         <f>IF(RIVAS!E36="","",RIVAS!E36)</f>
-        <v/>
-      </c>
-      <c r="O58" s="73" t="str">
+        <v>2</v>
+      </c>
+      <c r="O58" s="73">
         <f>IF(N58="","Día de mes siguiente",RIVAS!F36)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B59" s="95"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="89"/>
-      <c r="H59" s="89"/>
-      <c r="I59" s="89"/>
-      <c r="J59" s="89"/>
-      <c r="K59" s="89"/>
-      <c r="L59" s="92" t="s">
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
+      <c r="J59" s="106"/>
+      <c r="K59" s="106"/>
+      <c r="L59" s="91" t="s">
         <v>49</v>
       </c>
       <c r="M59" s="5">
@@ -9271,17 +9359,17 @@
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B60" s="95"/>
-      <c r="C60" s="95"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="89"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="89"/>
-      <c r="H60" s="89"/>
-      <c r="I60" s="89"/>
-      <c r="J60" s="89"/>
-      <c r="K60" s="89"/>
-      <c r="L60" s="93"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="108"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="106"/>
+      <c r="L60" s="92"/>
       <c r="M60" s="12">
         <v>2</v>
       </c>
@@ -9295,17 +9383,17 @@
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B61" s="95"/>
-      <c r="C61" s="95"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="98"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="89"/>
-      <c r="J61" s="89"/>
-      <c r="K61" s="89"/>
-      <c r="L61" s="93"/>
+      <c r="B61" s="104"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="108"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="106"/>
+      <c r="L61" s="92"/>
       <c r="M61" s="12">
         <v>3</v>
       </c>
@@ -9319,17 +9407,17 @@
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B62" s="95"/>
-      <c r="C62" s="95"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="98"/>
-      <c r="G62" s="89"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="89"/>
-      <c r="K62" s="89"/>
-      <c r="L62" s="93"/>
+      <c r="B62" s="104"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="108"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="106"/>
+      <c r="K62" s="106"/>
+      <c r="L62" s="92"/>
       <c r="M62" s="12">
         <v>4</v>
       </c>
@@ -9343,17 +9431,17 @@
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B63" s="95"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="98"/>
-      <c r="G63" s="89"/>
-      <c r="H63" s="89"/>
-      <c r="I63" s="89"/>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="93"/>
+      <c r="B63" s="104"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="108"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="106"/>
+      <c r="J63" s="106"/>
+      <c r="K63" s="106"/>
+      <c r="L63" s="92"/>
       <c r="M63" s="12">
         <v>5</v>
       </c>
@@ -9367,17 +9455,17 @@
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="98"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="92" t="s">
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="108"/>
+      <c r="G64" s="106"/>
+      <c r="H64" s="106"/>
+      <c r="I64" s="106"/>
+      <c r="J64" s="106"/>
+      <c r="K64" s="106"/>
+      <c r="L64" s="91" t="s">
         <v>50</v>
       </c>
       <c r="M64" s="5">
@@ -9393,17 +9481,17 @@
       </c>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B65" s="95"/>
-      <c r="C65" s="95"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="89"/>
-      <c r="F65" s="98"/>
-      <c r="G65" s="89"/>
-      <c r="H65" s="89"/>
-      <c r="I65" s="89"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="89"/>
-      <c r="L65" s="93"/>
+      <c r="B65" s="104"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="106"/>
+      <c r="I65" s="106"/>
+      <c r="J65" s="106"/>
+      <c r="K65" s="106"/>
+      <c r="L65" s="92"/>
       <c r="M65" s="12">
         <v>2</v>
       </c>
@@ -9417,17 +9505,17 @@
       </c>
     </row>
     <row r="66" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="89"/>
-      <c r="E66" s="89"/>
-      <c r="F66" s="98"/>
-      <c r="G66" s="89"/>
-      <c r="H66" s="89"/>
-      <c r="I66" s="89"/>
-      <c r="J66" s="89"/>
-      <c r="K66" s="89"/>
-      <c r="L66" s="93"/>
+      <c r="B66" s="104"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="108"/>
+      <c r="G66" s="106"/>
+      <c r="H66" s="106"/>
+      <c r="I66" s="106"/>
+      <c r="J66" s="106"/>
+      <c r="K66" s="106"/>
+      <c r="L66" s="92"/>
       <c r="M66" s="12">
         <v>3</v>
       </c>
@@ -9441,17 +9529,17 @@
       </c>
     </row>
     <row r="67" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B67" s="95"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="98"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="89"/>
-      <c r="K67" s="89"/>
-      <c r="L67" s="93"/>
+      <c r="B67" s="104"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="106"/>
+      <c r="J67" s="106"/>
+      <c r="K67" s="106"/>
+      <c r="L67" s="92"/>
       <c r="M67" s="12">
         <v>4</v>
       </c>
@@ -9465,41 +9553,41 @@
       </c>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B68" s="95"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="89"/>
-      <c r="E68" s="89"/>
-      <c r="F68" s="98"/>
-      <c r="G68" s="89"/>
-      <c r="H68" s="89"/>
-      <c r="I68" s="89"/>
-      <c r="J68" s="89"/>
-      <c r="K68" s="89"/>
-      <c r="L68" s="93"/>
+      <c r="B68" s="104"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="108"/>
+      <c r="G68" s="106"/>
+      <c r="H68" s="106"/>
+      <c r="I68" s="106"/>
+      <c r="J68" s="106"/>
+      <c r="K68" s="106"/>
+      <c r="L68" s="92"/>
       <c r="M68" s="12">
         <v>5</v>
       </c>
-      <c r="N68" s="19" t="str">
+      <c r="N68" s="19">
         <f>IF(RIVAS!E38="","",RIVAS!E38)</f>
-        <v/>
-      </c>
-      <c r="O68" s="73" t="str">
+        <v>2</v>
+      </c>
+      <c r="O68" s="73">
         <f>IF(N68="","Día de mes siguiente",RIVAS!F38)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B69" s="95"/>
-      <c r="C69" s="95"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="98"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="89"/>
-      <c r="I69" s="89"/>
-      <c r="J69" s="89"/>
-      <c r="K69" s="89"/>
-      <c r="L69" s="92" t="s">
+      <c r="B69" s="104"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="106"/>
+      <c r="H69" s="106"/>
+      <c r="I69" s="106"/>
+      <c r="J69" s="106"/>
+      <c r="K69" s="106"/>
+      <c r="L69" s="91" t="s">
         <v>51</v>
       </c>
       <c r="M69" s="5">
@@ -9515,17 +9603,17 @@
       </c>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B70" s="95"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="89"/>
-      <c r="F70" s="98"/>
-      <c r="G70" s="89"/>
-      <c r="H70" s="89"/>
-      <c r="I70" s="89"/>
-      <c r="J70" s="89"/>
-      <c r="K70" s="89"/>
-      <c r="L70" s="93"/>
+      <c r="B70" s="104"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="108"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106"/>
+      <c r="I70" s="106"/>
+      <c r="J70" s="106"/>
+      <c r="K70" s="106"/>
+      <c r="L70" s="92"/>
       <c r="M70" s="12">
         <v>2</v>
       </c>
@@ -9539,17 +9627,17 @@
       </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B71" s="95"/>
-      <c r="C71" s="95"/>
-      <c r="D71" s="89"/>
-      <c r="E71" s="89"/>
-      <c r="F71" s="98"/>
-      <c r="G71" s="89"/>
-      <c r="H71" s="89"/>
-      <c r="I71" s="89"/>
-      <c r="J71" s="89"/>
-      <c r="K71" s="89"/>
-      <c r="L71" s="93"/>
+      <c r="B71" s="104"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="106"/>
+      <c r="E71" s="106"/>
+      <c r="F71" s="108"/>
+      <c r="G71" s="106"/>
+      <c r="H71" s="106"/>
+      <c r="I71" s="106"/>
+      <c r="J71" s="106"/>
+      <c r="K71" s="106"/>
+      <c r="L71" s="92"/>
       <c r="M71" s="12">
         <v>3</v>
       </c>
@@ -9563,17 +9651,17 @@
       </c>
     </row>
     <row r="72" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B72" s="95"/>
-      <c r="C72" s="95"/>
-      <c r="D72" s="89"/>
-      <c r="E72" s="89"/>
-      <c r="F72" s="98"/>
-      <c r="G72" s="89"/>
-      <c r="H72" s="89"/>
-      <c r="I72" s="89"/>
-      <c r="J72" s="89"/>
-      <c r="K72" s="89"/>
-      <c r="L72" s="93"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="106"/>
+      <c r="F72" s="108"/>
+      <c r="G72" s="106"/>
+      <c r="H72" s="106"/>
+      <c r="I72" s="106"/>
+      <c r="J72" s="106"/>
+      <c r="K72" s="106"/>
+      <c r="L72" s="92"/>
       <c r="M72" s="12">
         <v>4</v>
       </c>
@@ -9587,41 +9675,41 @@
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B73" s="95"/>
-      <c r="C73" s="95"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89"/>
-      <c r="F73" s="98"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="89"/>
-      <c r="I73" s="89"/>
-      <c r="J73" s="89"/>
-      <c r="K73" s="89"/>
-      <c r="L73" s="93"/>
+      <c r="B73" s="104"/>
+      <c r="C73" s="104"/>
+      <c r="D73" s="106"/>
+      <c r="E73" s="106"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="106"/>
+      <c r="H73" s="106"/>
+      <c r="I73" s="106"/>
+      <c r="J73" s="106"/>
+      <c r="K73" s="106"/>
+      <c r="L73" s="92"/>
       <c r="M73" s="12">
         <v>5</v>
       </c>
-      <c r="N73" s="19" t="str">
+      <c r="N73" s="19">
         <f>IF(RIVAS!E39="","",RIVAS!E39)</f>
-        <v/>
-      </c>
-      <c r="O73" s="73" t="str">
+        <v>2</v>
+      </c>
+      <c r="O73" s="73">
         <f>IF(N73="","Día de mes siguiente",RIVAS!F39)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B74" s="95"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="89"/>
-      <c r="I74" s="89"/>
-      <c r="J74" s="89"/>
-      <c r="K74" s="89"/>
-      <c r="L74" s="92" t="s">
+      <c r="B74" s="104"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="106"/>
+      <c r="E74" s="106"/>
+      <c r="F74" s="108"/>
+      <c r="G74" s="106"/>
+      <c r="H74" s="106"/>
+      <c r="I74" s="106"/>
+      <c r="J74" s="106"/>
+      <c r="K74" s="106"/>
+      <c r="L74" s="91" t="s">
         <v>52</v>
       </c>
       <c r="M74" s="5">
@@ -9637,17 +9725,17 @@
       </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B75" s="95"/>
-      <c r="C75" s="95"/>
-      <c r="D75" s="89"/>
-      <c r="E75" s="89"/>
-      <c r="F75" s="98"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="89"/>
-      <c r="I75" s="89"/>
-      <c r="J75" s="89"/>
-      <c r="K75" s="89"/>
-      <c r="L75" s="93"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="106"/>
+      <c r="F75" s="108"/>
+      <c r="G75" s="106"/>
+      <c r="H75" s="106"/>
+      <c r="I75" s="106"/>
+      <c r="J75" s="106"/>
+      <c r="K75" s="106"/>
+      <c r="L75" s="92"/>
       <c r="M75" s="12">
         <v>2</v>
       </c>
@@ -9661,17 +9749,17 @@
       </c>
     </row>
     <row r="76" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B76" s="95"/>
-      <c r="C76" s="95"/>
-      <c r="D76" s="89"/>
-      <c r="E76" s="89"/>
-      <c r="F76" s="98"/>
-      <c r="G76" s="89"/>
-      <c r="H76" s="89"/>
-      <c r="I76" s="89"/>
-      <c r="J76" s="89"/>
-      <c r="K76" s="89"/>
-      <c r="L76" s="93"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="106"/>
+      <c r="F76" s="108"/>
+      <c r="G76" s="106"/>
+      <c r="H76" s="106"/>
+      <c r="I76" s="106"/>
+      <c r="J76" s="106"/>
+      <c r="K76" s="106"/>
+      <c r="L76" s="92"/>
       <c r="M76" s="12">
         <v>3</v>
       </c>
@@ -9685,17 +9773,17 @@
       </c>
     </row>
     <row r="77" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B77" s="95"/>
-      <c r="C77" s="95"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="98"/>
-      <c r="G77" s="89"/>
-      <c r="H77" s="89"/>
-      <c r="I77" s="89"/>
-      <c r="J77" s="89"/>
-      <c r="K77" s="89"/>
-      <c r="L77" s="93"/>
+      <c r="B77" s="104"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="106"/>
+      <c r="E77" s="106"/>
+      <c r="F77" s="108"/>
+      <c r="G77" s="106"/>
+      <c r="H77" s="106"/>
+      <c r="I77" s="106"/>
+      <c r="J77" s="106"/>
+      <c r="K77" s="106"/>
+      <c r="L77" s="92"/>
       <c r="M77" s="12">
         <v>4</v>
       </c>
@@ -9709,62 +9797,62 @@
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="89"/>
-      <c r="E78" s="89"/>
-      <c r="F78" s="98"/>
-      <c r="G78" s="89"/>
-      <c r="H78" s="89"/>
-      <c r="I78" s="89"/>
-      <c r="J78" s="89"/>
-      <c r="K78" s="89"/>
-      <c r="L78" s="93"/>
+      <c r="B78" s="104"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="106"/>
+      <c r="E78" s="106"/>
+      <c r="F78" s="108"/>
+      <c r="G78" s="106"/>
+      <c r="H78" s="106"/>
+      <c r="I78" s="106"/>
+      <c r="J78" s="106"/>
+      <c r="K78" s="106"/>
+      <c r="L78" s="92"/>
       <c r="M78" s="12">
         <v>5</v>
       </c>
-      <c r="N78" s="19" t="str">
+      <c r="N78" s="19">
         <f>IF(RIVAS!E40="","",RIVAS!E40)</f>
-        <v/>
-      </c>
-      <c r="O78" s="73" t="str">
+        <v>2</v>
+      </c>
+      <c r="O78" s="73">
         <f>IF(N78="","Día de mes siguiente",RIVAS!F40)</f>
-        <v>Día de mes siguiente</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B79" s="94" t="s">
+      <c r="B79" s="98" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="94" t="s">
+      <c r="C79" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="88" t="s">
+      <c r="D79" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="E79" s="88" t="str">
+      <c r="E79" s="95" t="str">
         <f>E44</f>
         <v>FEBRERO</v>
       </c>
-      <c r="F79" s="97">
-        <v>1</v>
-      </c>
-      <c r="G79" s="90" t="s">
+      <c r="F79" s="107">
+        <v>1</v>
+      </c>
+      <c r="G79" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="H79" s="90" t="s">
+      <c r="H79" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="I79" s="90" t="s">
+      <c r="I79" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="J79" s="90" t="s">
+      <c r="J79" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="K79" s="90" t="s">
+      <c r="K79" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="L79" s="92" t="s">
+      <c r="L79" s="91" t="s">
         <v>69</v>
       </c>
       <c r="M79" s="5">
@@ -9780,17 +9868,17 @@
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B80" s="95"/>
-      <c r="C80" s="95"/>
-      <c r="D80" s="89"/>
-      <c r="E80" s="89"/>
-      <c r="F80" s="98"/>
-      <c r="G80" s="89"/>
-      <c r="H80" s="89"/>
-      <c r="I80" s="89"/>
-      <c r="J80" s="89"/>
-      <c r="K80" s="89"/>
-      <c r="L80" s="93"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="106"/>
+      <c r="E80" s="106"/>
+      <c r="F80" s="108"/>
+      <c r="G80" s="106"/>
+      <c r="H80" s="106"/>
+      <c r="I80" s="106"/>
+      <c r="J80" s="106"/>
+      <c r="K80" s="106"/>
+      <c r="L80" s="92"/>
       <c r="M80" s="12">
         <v>2</v>
       </c>
@@ -9804,17 +9892,17 @@
       </c>
     </row>
     <row r="81" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B81" s="95"/>
-      <c r="C81" s="95"/>
-      <c r="D81" s="89"/>
-      <c r="E81" s="89"/>
-      <c r="F81" s="98"/>
-      <c r="G81" s="89"/>
-      <c r="H81" s="89"/>
-      <c r="I81" s="89"/>
-      <c r="J81" s="89"/>
-      <c r="K81" s="89"/>
-      <c r="L81" s="93"/>
+      <c r="B81" s="104"/>
+      <c r="C81" s="104"/>
+      <c r="D81" s="106"/>
+      <c r="E81" s="106"/>
+      <c r="F81" s="108"/>
+      <c r="G81" s="106"/>
+      <c r="H81" s="106"/>
+      <c r="I81" s="106"/>
+      <c r="J81" s="106"/>
+      <c r="K81" s="106"/>
+      <c r="L81" s="92"/>
       <c r="M81" s="12">
         <v>3</v>
       </c>
@@ -9828,17 +9916,17 @@
       </c>
     </row>
     <row r="82" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B82" s="95"/>
-      <c r="C82" s="95"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="89"/>
-      <c r="F82" s="98"/>
-      <c r="G82" s="89"/>
-      <c r="H82" s="89"/>
-      <c r="I82" s="89"/>
-      <c r="J82" s="89"/>
-      <c r="K82" s="89"/>
-      <c r="L82" s="93"/>
+      <c r="B82" s="104"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="106"/>
+      <c r="E82" s="106"/>
+      <c r="F82" s="108"/>
+      <c r="G82" s="106"/>
+      <c r="H82" s="106"/>
+      <c r="I82" s="106"/>
+      <c r="J82" s="106"/>
+      <c r="K82" s="106"/>
+      <c r="L82" s="92"/>
       <c r="M82" s="12">
         <v>4</v>
       </c>
@@ -9852,17 +9940,17 @@
       </c>
     </row>
     <row r="83" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B83" s="95"/>
-      <c r="C83" s="95"/>
-      <c r="D83" s="89"/>
-      <c r="E83" s="89"/>
-      <c r="F83" s="98"/>
-      <c r="G83" s="89"/>
-      <c r="H83" s="89"/>
-      <c r="I83" s="89"/>
-      <c r="J83" s="89"/>
-      <c r="K83" s="89"/>
-      <c r="L83" s="93"/>
+      <c r="B83" s="104"/>
+      <c r="C83" s="104"/>
+      <c r="D83" s="106"/>
+      <c r="E83" s="106"/>
+      <c r="F83" s="108"/>
+      <c r="G83" s="106"/>
+      <c r="H83" s="106"/>
+      <c r="I83" s="106"/>
+      <c r="J83" s="106"/>
+      <c r="K83" s="106"/>
+      <c r="L83" s="92"/>
       <c r="M83" s="12">
         <v>5</v>
       </c>
@@ -9876,17 +9964,17 @@
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B84" s="95"/>
-      <c r="C84" s="95"/>
-      <c r="D84" s="89"/>
-      <c r="E84" s="89"/>
-      <c r="F84" s="98"/>
-      <c r="G84" s="89"/>
-      <c r="H84" s="89"/>
-      <c r="I84" s="89"/>
-      <c r="J84" s="89"/>
-      <c r="K84" s="89"/>
-      <c r="L84" s="100" t="s">
+      <c r="B84" s="104"/>
+      <c r="C84" s="104"/>
+      <c r="D84" s="106"/>
+      <c r="E84" s="106"/>
+      <c r="F84" s="108"/>
+      <c r="G84" s="106"/>
+      <c r="H84" s="106"/>
+      <c r="I84" s="106"/>
+      <c r="J84" s="106"/>
+      <c r="K84" s="106"/>
+      <c r="L84" s="93" t="s">
         <v>70</v>
       </c>
       <c r="M84" s="52">
@@ -9902,17 +9990,17 @@
       </c>
     </row>
     <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="95"/>
-      <c r="C85" s="95"/>
-      <c r="D85" s="89"/>
-      <c r="E85" s="89"/>
-      <c r="F85" s="98"/>
-      <c r="G85" s="89"/>
-      <c r="H85" s="89"/>
-      <c r="I85" s="89"/>
-      <c r="J85" s="89"/>
-      <c r="K85" s="89"/>
-      <c r="L85" s="101"/>
+      <c r="B85" s="104"/>
+      <c r="C85" s="104"/>
+      <c r="D85" s="106"/>
+      <c r="E85" s="106"/>
+      <c r="F85" s="108"/>
+      <c r="G85" s="106"/>
+      <c r="H85" s="106"/>
+      <c r="I85" s="106"/>
+      <c r="J85" s="106"/>
+      <c r="K85" s="106"/>
+      <c r="L85" s="94"/>
       <c r="M85" s="19">
         <v>2</v>
       </c>
@@ -9926,17 +10014,17 @@
       </c>
     </row>
     <row r="86" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B86" s="95"/>
-      <c r="C86" s="95"/>
-      <c r="D86" s="89"/>
-      <c r="E86" s="89"/>
-      <c r="F86" s="98"/>
-      <c r="G86" s="89"/>
-      <c r="H86" s="89"/>
-      <c r="I86" s="89"/>
-      <c r="J86" s="89"/>
-      <c r="K86" s="89"/>
-      <c r="L86" s="101"/>
+      <c r="B86" s="104"/>
+      <c r="C86" s="104"/>
+      <c r="D86" s="106"/>
+      <c r="E86" s="106"/>
+      <c r="F86" s="108"/>
+      <c r="G86" s="106"/>
+      <c r="H86" s="106"/>
+      <c r="I86" s="106"/>
+      <c r="J86" s="106"/>
+      <c r="K86" s="106"/>
+      <c r="L86" s="94"/>
       <c r="M86" s="19">
         <v>3</v>
       </c>
@@ -9950,17 +10038,17 @@
       </c>
     </row>
     <row r="87" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B87" s="95"/>
-      <c r="C87" s="95"/>
-      <c r="D87" s="89"/>
-      <c r="E87" s="89"/>
-      <c r="F87" s="98"/>
-      <c r="G87" s="89"/>
-      <c r="H87" s="89"/>
-      <c r="I87" s="89"/>
-      <c r="J87" s="89"/>
-      <c r="K87" s="89"/>
-      <c r="L87" s="101"/>
+      <c r="B87" s="104"/>
+      <c r="C87" s="104"/>
+      <c r="D87" s="106"/>
+      <c r="E87" s="106"/>
+      <c r="F87" s="108"/>
+      <c r="G87" s="106"/>
+      <c r="H87" s="106"/>
+      <c r="I87" s="106"/>
+      <c r="J87" s="106"/>
+      <c r="K87" s="106"/>
+      <c r="L87" s="94"/>
       <c r="M87" s="19">
         <v>4</v>
       </c>
@@ -9974,17 +10062,17 @@
       </c>
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="95"/>
-      <c r="C88" s="95"/>
-      <c r="D88" s="89"/>
-      <c r="E88" s="89"/>
-      <c r="F88" s="98"/>
-      <c r="G88" s="89"/>
-      <c r="H88" s="89"/>
-      <c r="I88" s="89"/>
-      <c r="J88" s="89"/>
-      <c r="K88" s="89"/>
-      <c r="L88" s="101"/>
+      <c r="B88" s="104"/>
+      <c r="C88" s="104"/>
+      <c r="D88" s="106"/>
+      <c r="E88" s="106"/>
+      <c r="F88" s="108"/>
+      <c r="G88" s="106"/>
+      <c r="H88" s="106"/>
+      <c r="I88" s="106"/>
+      <c r="J88" s="106"/>
+      <c r="K88" s="106"/>
+      <c r="L88" s="94"/>
       <c r="M88" s="19">
         <v>5</v>
       </c>
@@ -9998,17 +10086,17 @@
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="95"/>
-      <c r="C89" s="95"/>
-      <c r="D89" s="89"/>
-      <c r="E89" s="89"/>
-      <c r="F89" s="98"/>
-      <c r="G89" s="89"/>
-      <c r="H89" s="89"/>
-      <c r="I89" s="89"/>
-      <c r="J89" s="89"/>
-      <c r="K89" s="89"/>
-      <c r="L89" s="92" t="s">
+      <c r="B89" s="104"/>
+      <c r="C89" s="104"/>
+      <c r="D89" s="106"/>
+      <c r="E89" s="106"/>
+      <c r="F89" s="108"/>
+      <c r="G89" s="106"/>
+      <c r="H89" s="106"/>
+      <c r="I89" s="106"/>
+      <c r="J89" s="106"/>
+      <c r="K89" s="106"/>
+      <c r="L89" s="91" t="s">
         <v>75</v>
       </c>
       <c r="M89" s="5">
@@ -10024,17 +10112,17 @@
       </c>
     </row>
     <row r="90" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B90" s="95"/>
-      <c r="C90" s="95"/>
-      <c r="D90" s="89"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="98"/>
-      <c r="G90" s="89"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="89"/>
-      <c r="J90" s="89"/>
-      <c r="K90" s="89"/>
-      <c r="L90" s="93"/>
+      <c r="B90" s="104"/>
+      <c r="C90" s="104"/>
+      <c r="D90" s="106"/>
+      <c r="E90" s="106"/>
+      <c r="F90" s="108"/>
+      <c r="G90" s="106"/>
+      <c r="H90" s="106"/>
+      <c r="I90" s="106"/>
+      <c r="J90" s="106"/>
+      <c r="K90" s="106"/>
+      <c r="L90" s="92"/>
       <c r="M90" s="12">
         <v>2</v>
       </c>
@@ -10048,17 +10136,17 @@
       </c>
     </row>
     <row r="91" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B91" s="95"/>
-      <c r="C91" s="95"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="98"/>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89"/>
-      <c r="I91" s="89"/>
-      <c r="J91" s="89"/>
-      <c r="K91" s="89"/>
-      <c r="L91" s="93"/>
+      <c r="B91" s="104"/>
+      <c r="C91" s="104"/>
+      <c r="D91" s="106"/>
+      <c r="E91" s="106"/>
+      <c r="F91" s="108"/>
+      <c r="G91" s="106"/>
+      <c r="H91" s="106"/>
+      <c r="I91" s="106"/>
+      <c r="J91" s="106"/>
+      <c r="K91" s="106"/>
+      <c r="L91" s="92"/>
       <c r="M91" s="12">
         <v>3</v>
       </c>
@@ -10072,17 +10160,17 @@
       </c>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="95"/>
-      <c r="C92" s="95"/>
-      <c r="D92" s="89"/>
-      <c r="E92" s="89"/>
-      <c r="F92" s="98"/>
-      <c r="G92" s="89"/>
-      <c r="H92" s="89"/>
-      <c r="I92" s="89"/>
-      <c r="J92" s="89"/>
-      <c r="K92" s="89"/>
-      <c r="L92" s="93"/>
+      <c r="B92" s="104"/>
+      <c r="C92" s="104"/>
+      <c r="D92" s="106"/>
+      <c r="E92" s="106"/>
+      <c r="F92" s="108"/>
+      <c r="G92" s="106"/>
+      <c r="H92" s="106"/>
+      <c r="I92" s="106"/>
+      <c r="J92" s="106"/>
+      <c r="K92" s="106"/>
+      <c r="L92" s="92"/>
       <c r="M92" s="12">
         <v>4</v>
       </c>
@@ -10096,41 +10184,41 @@
       </c>
     </row>
     <row r="93" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B93" s="95"/>
-      <c r="C93" s="95"/>
-      <c r="D93" s="89"/>
-      <c r="E93" s="89"/>
-      <c r="F93" s="98"/>
-      <c r="G93" s="89"/>
-      <c r="H93" s="89"/>
-      <c r="I93" s="89"/>
-      <c r="J93" s="89"/>
-      <c r="K93" s="89"/>
-      <c r="L93" s="93"/>
+      <c r="B93" s="104"/>
+      <c r="C93" s="104"/>
+      <c r="D93" s="106"/>
+      <c r="E93" s="106"/>
+      <c r="F93" s="108"/>
+      <c r="G93" s="106"/>
+      <c r="H93" s="106"/>
+      <c r="I93" s="106"/>
+      <c r="J93" s="106"/>
+      <c r="K93" s="106"/>
+      <c r="L93" s="92"/>
       <c r="M93" s="12">
         <v>5</v>
       </c>
-      <c r="N93" s="19" t="str">
+      <c r="N93" s="19">
         <f>IF(VELEZ!E36="","",VELEZ!E36)</f>
-        <v/>
-      </c>
-      <c r="O93" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O93" s="73">
         <f>IF(N93="","Día de mes siguiente",VELEZ!F36)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B94" s="95"/>
-      <c r="C94" s="95"/>
-      <c r="D94" s="89"/>
-      <c r="E94" s="89"/>
-      <c r="F94" s="98"/>
-      <c r="G94" s="89"/>
-      <c r="H94" s="89"/>
-      <c r="I94" s="89"/>
-      <c r="J94" s="89"/>
-      <c r="K94" s="89"/>
-      <c r="L94" s="92" t="s">
+      <c r="B94" s="104"/>
+      <c r="C94" s="104"/>
+      <c r="D94" s="106"/>
+      <c r="E94" s="106"/>
+      <c r="F94" s="108"/>
+      <c r="G94" s="106"/>
+      <c r="H94" s="106"/>
+      <c r="I94" s="106"/>
+      <c r="J94" s="106"/>
+      <c r="K94" s="106"/>
+      <c r="L94" s="91" t="s">
         <v>76</v>
       </c>
       <c r="M94" s="5">
@@ -10146,17 +10234,17 @@
       </c>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B95" s="95"/>
-      <c r="C95" s="95"/>
-      <c r="D95" s="89"/>
-      <c r="E95" s="89"/>
-      <c r="F95" s="98"/>
-      <c r="G95" s="89"/>
-      <c r="H95" s="89"/>
-      <c r="I95" s="89"/>
-      <c r="J95" s="89"/>
-      <c r="K95" s="89"/>
-      <c r="L95" s="93"/>
+      <c r="B95" s="104"/>
+      <c r="C95" s="104"/>
+      <c r="D95" s="106"/>
+      <c r="E95" s="106"/>
+      <c r="F95" s="108"/>
+      <c r="G95" s="106"/>
+      <c r="H95" s="106"/>
+      <c r="I95" s="106"/>
+      <c r="J95" s="106"/>
+      <c r="K95" s="106"/>
+      <c r="L95" s="92"/>
       <c r="M95" s="12">
         <v>2</v>
       </c>
@@ -10170,17 +10258,17 @@
       </c>
     </row>
     <row r="96" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B96" s="95"/>
-      <c r="C96" s="95"/>
-      <c r="D96" s="89"/>
-      <c r="E96" s="89"/>
-      <c r="F96" s="98"/>
-      <c r="G96" s="89"/>
-      <c r="H96" s="89"/>
-      <c r="I96" s="89"/>
-      <c r="J96" s="89"/>
-      <c r="K96" s="89"/>
-      <c r="L96" s="93"/>
+      <c r="B96" s="104"/>
+      <c r="C96" s="104"/>
+      <c r="D96" s="106"/>
+      <c r="E96" s="106"/>
+      <c r="F96" s="108"/>
+      <c r="G96" s="106"/>
+      <c r="H96" s="106"/>
+      <c r="I96" s="106"/>
+      <c r="J96" s="106"/>
+      <c r="K96" s="106"/>
+      <c r="L96" s="92"/>
       <c r="M96" s="12">
         <v>3</v>
       </c>
@@ -10194,17 +10282,17 @@
       </c>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" s="95"/>
-      <c r="C97" s="95"/>
-      <c r="D97" s="89"/>
-      <c r="E97" s="89"/>
-      <c r="F97" s="98"/>
-      <c r="G97" s="89"/>
-      <c r="H97" s="89"/>
-      <c r="I97" s="89"/>
-      <c r="J97" s="89"/>
-      <c r="K97" s="89"/>
-      <c r="L97" s="93"/>
+      <c r="B97" s="104"/>
+      <c r="C97" s="104"/>
+      <c r="D97" s="106"/>
+      <c r="E97" s="106"/>
+      <c r="F97" s="108"/>
+      <c r="G97" s="106"/>
+      <c r="H97" s="106"/>
+      <c r="I97" s="106"/>
+      <c r="J97" s="106"/>
+      <c r="K97" s="106"/>
+      <c r="L97" s="92"/>
       <c r="M97" s="12">
         <v>4</v>
       </c>
@@ -10218,41 +10306,41 @@
       </c>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B98" s="95"/>
-      <c r="C98" s="95"/>
-      <c r="D98" s="89"/>
-      <c r="E98" s="89"/>
-      <c r="F98" s="98"/>
-      <c r="G98" s="89"/>
-      <c r="H98" s="89"/>
-      <c r="I98" s="89"/>
-      <c r="J98" s="89"/>
-      <c r="K98" s="89"/>
-      <c r="L98" s="93"/>
+      <c r="B98" s="104"/>
+      <c r="C98" s="104"/>
+      <c r="D98" s="106"/>
+      <c r="E98" s="106"/>
+      <c r="F98" s="108"/>
+      <c r="G98" s="106"/>
+      <c r="H98" s="106"/>
+      <c r="I98" s="106"/>
+      <c r="J98" s="106"/>
+      <c r="K98" s="106"/>
+      <c r="L98" s="92"/>
       <c r="M98" s="12">
         <v>5</v>
       </c>
-      <c r="N98" s="19" t="str">
+      <c r="N98" s="19">
         <f>IF(VELEZ!E37="","",VELEZ!E37)</f>
-        <v/>
-      </c>
-      <c r="O98" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O98" s="73">
         <f>IF(N98="","Día de mes siguiente",VELEZ!F37)</f>
-        <v>Día de mes siguiente</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B99" s="95"/>
-      <c r="C99" s="95"/>
-      <c r="D99" s="89"/>
-      <c r="E99" s="89"/>
-      <c r="F99" s="98"/>
-      <c r="G99" s="89"/>
-      <c r="H99" s="89"/>
-      <c r="I99" s="89"/>
-      <c r="J99" s="89"/>
-      <c r="K99" s="89"/>
-      <c r="L99" s="92" t="s">
+      <c r="B99" s="104"/>
+      <c r="C99" s="104"/>
+      <c r="D99" s="106"/>
+      <c r="E99" s="106"/>
+      <c r="F99" s="108"/>
+      <c r="G99" s="106"/>
+      <c r="H99" s="106"/>
+      <c r="I99" s="106"/>
+      <c r="J99" s="106"/>
+      <c r="K99" s="106"/>
+      <c r="L99" s="91" t="s">
         <v>16</v>
       </c>
       <c r="M99" s="5">
@@ -10268,17 +10356,17 @@
       </c>
     </row>
     <row r="100" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B100" s="95"/>
-      <c r="C100" s="95"/>
-      <c r="D100" s="89"/>
-      <c r="E100" s="89"/>
-      <c r="F100" s="98"/>
-      <c r="G100" s="89"/>
-      <c r="H100" s="89"/>
-      <c r="I100" s="89"/>
-      <c r="J100" s="89"/>
-      <c r="K100" s="89"/>
-      <c r="L100" s="93"/>
+      <c r="B100" s="104"/>
+      <c r="C100" s="104"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="106"/>
+      <c r="F100" s="108"/>
+      <c r="G100" s="106"/>
+      <c r="H100" s="106"/>
+      <c r="I100" s="106"/>
+      <c r="J100" s="106"/>
+      <c r="K100" s="106"/>
+      <c r="L100" s="92"/>
       <c r="M100" s="12">
         <v>2</v>
       </c>
@@ -10292,17 +10380,17 @@
       </c>
     </row>
     <row r="101" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B101" s="95"/>
-      <c r="C101" s="95"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="98"/>
-      <c r="G101" s="89"/>
-      <c r="H101" s="89"/>
-      <c r="I101" s="89"/>
-      <c r="J101" s="89"/>
-      <c r="K101" s="89"/>
-      <c r="L101" s="93"/>
+      <c r="B101" s="104"/>
+      <c r="C101" s="104"/>
+      <c r="D101" s="106"/>
+      <c r="E101" s="106"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="106"/>
+      <c r="H101" s="106"/>
+      <c r="I101" s="106"/>
+      <c r="J101" s="106"/>
+      <c r="K101" s="106"/>
+      <c r="L101" s="92"/>
       <c r="M101" s="12">
         <v>3</v>
       </c>
@@ -10316,17 +10404,17 @@
       </c>
     </row>
     <row r="102" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B102" s="95"/>
-      <c r="C102" s="95"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="89"/>
-      <c r="F102" s="98"/>
-      <c r="G102" s="89"/>
-      <c r="H102" s="89"/>
-      <c r="I102" s="89"/>
-      <c r="J102" s="89"/>
-      <c r="K102" s="89"/>
-      <c r="L102" s="93"/>
+      <c r="B102" s="104"/>
+      <c r="C102" s="104"/>
+      <c r="D102" s="106"/>
+      <c r="E102" s="106"/>
+      <c r="F102" s="108"/>
+      <c r="G102" s="106"/>
+      <c r="H102" s="106"/>
+      <c r="I102" s="106"/>
+      <c r="J102" s="106"/>
+      <c r="K102" s="106"/>
+      <c r="L102" s="92"/>
       <c r="M102" s="12">
         <v>4</v>
       </c>
@@ -10340,17 +10428,17 @@
       </c>
     </row>
     <row r="103" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B103" s="95"/>
-      <c r="C103" s="95"/>
-      <c r="D103" s="89"/>
-      <c r="E103" s="89"/>
-      <c r="F103" s="98"/>
-      <c r="G103" s="89"/>
-      <c r="H103" s="89"/>
-      <c r="I103" s="89"/>
-      <c r="J103" s="89"/>
-      <c r="K103" s="89"/>
-      <c r="L103" s="93"/>
+      <c r="B103" s="104"/>
+      <c r="C103" s="104"/>
+      <c r="D103" s="106"/>
+      <c r="E103" s="106"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="106"/>
+      <c r="H103" s="106"/>
+      <c r="I103" s="106"/>
+      <c r="J103" s="106"/>
+      <c r="K103" s="106"/>
+      <c r="L103" s="92"/>
       <c r="M103" s="12">
         <v>5</v>
       </c>
@@ -10364,17 +10452,17 @@
       </c>
     </row>
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B104" s="95"/>
-      <c r="C104" s="95"/>
-      <c r="D104" s="89"/>
-      <c r="E104" s="89"/>
-      <c r="F104" s="98"/>
-      <c r="G104" s="89"/>
-      <c r="H104" s="89"/>
-      <c r="I104" s="89"/>
-      <c r="J104" s="89"/>
-      <c r="K104" s="89"/>
-      <c r="L104" s="92" t="s">
+      <c r="B104" s="104"/>
+      <c r="C104" s="104"/>
+      <c r="D104" s="106"/>
+      <c r="E104" s="106"/>
+      <c r="F104" s="108"/>
+      <c r="G104" s="106"/>
+      <c r="H104" s="106"/>
+      <c r="I104" s="106"/>
+      <c r="J104" s="106"/>
+      <c r="K104" s="106"/>
+      <c r="L104" s="91" t="s">
         <v>17</v>
       </c>
       <c r="M104" s="5">
@@ -10390,17 +10478,17 @@
       </c>
     </row>
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B105" s="95"/>
-      <c r="C105" s="95"/>
-      <c r="D105" s="89"/>
-      <c r="E105" s="89"/>
-      <c r="F105" s="98"/>
-      <c r="G105" s="89"/>
-      <c r="H105" s="89"/>
-      <c r="I105" s="89"/>
-      <c r="J105" s="89"/>
-      <c r="K105" s="89"/>
-      <c r="L105" s="93"/>
+      <c r="B105" s="104"/>
+      <c r="C105" s="104"/>
+      <c r="D105" s="106"/>
+      <c r="E105" s="106"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="106"/>
+      <c r="H105" s="106"/>
+      <c r="I105" s="106"/>
+      <c r="J105" s="106"/>
+      <c r="K105" s="106"/>
+      <c r="L105" s="92"/>
       <c r="M105" s="12">
         <v>2</v>
       </c>
@@ -10414,17 +10502,17 @@
       </c>
     </row>
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B106" s="95"/>
-      <c r="C106" s="95"/>
-      <c r="D106" s="89"/>
-      <c r="E106" s="89"/>
-      <c r="F106" s="98"/>
-      <c r="G106" s="89"/>
-      <c r="H106" s="89"/>
-      <c r="I106" s="89"/>
-      <c r="J106" s="89"/>
-      <c r="K106" s="89"/>
-      <c r="L106" s="93"/>
+      <c r="B106" s="104"/>
+      <c r="C106" s="104"/>
+      <c r="D106" s="106"/>
+      <c r="E106" s="106"/>
+      <c r="F106" s="108"/>
+      <c r="G106" s="106"/>
+      <c r="H106" s="106"/>
+      <c r="I106" s="106"/>
+      <c r="J106" s="106"/>
+      <c r="K106" s="106"/>
+      <c r="L106" s="92"/>
       <c r="M106" s="12">
         <v>3</v>
       </c>
@@ -10438,17 +10526,17 @@
       </c>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B107" s="95"/>
-      <c r="C107" s="95"/>
-      <c r="D107" s="89"/>
-      <c r="E107" s="89"/>
-      <c r="F107" s="98"/>
-      <c r="G107" s="89"/>
-      <c r="H107" s="89"/>
-      <c r="I107" s="89"/>
-      <c r="J107" s="89"/>
-      <c r="K107" s="89"/>
-      <c r="L107" s="93"/>
+      <c r="B107" s="104"/>
+      <c r="C107" s="104"/>
+      <c r="D107" s="106"/>
+      <c r="E107" s="106"/>
+      <c r="F107" s="108"/>
+      <c r="G107" s="106"/>
+      <c r="H107" s="106"/>
+      <c r="I107" s="106"/>
+      <c r="J107" s="106"/>
+      <c r="K107" s="106"/>
+      <c r="L107" s="92"/>
       <c r="M107" s="12">
         <v>4</v>
       </c>
@@ -10462,41 +10550,41 @@
       </c>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" s="95"/>
-      <c r="C108" s="95"/>
-      <c r="D108" s="89"/>
-      <c r="E108" s="89"/>
-      <c r="F108" s="98"/>
-      <c r="G108" s="89"/>
-      <c r="H108" s="89"/>
-      <c r="I108" s="89"/>
-      <c r="J108" s="89"/>
-      <c r="K108" s="89"/>
-      <c r="L108" s="93"/>
+      <c r="B108" s="104"/>
+      <c r="C108" s="104"/>
+      <c r="D108" s="106"/>
+      <c r="E108" s="106"/>
+      <c r="F108" s="108"/>
+      <c r="G108" s="106"/>
+      <c r="H108" s="106"/>
+      <c r="I108" s="106"/>
+      <c r="J108" s="106"/>
+      <c r="K108" s="106"/>
+      <c r="L108" s="92"/>
       <c r="M108" s="12">
         <v>5</v>
       </c>
-      <c r="N108" s="19" t="str">
+      <c r="N108" s="19">
         <f>IF(VELEZ!E39="","",VELEZ!E39)</f>
-        <v/>
-      </c>
-      <c r="O108" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O108" s="73">
         <f>IF(N108="","Día de mes siguiente",VELEZ!F39)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="95"/>
-      <c r="C109" s="95"/>
-      <c r="D109" s="89"/>
-      <c r="E109" s="89"/>
-      <c r="F109" s="98"/>
-      <c r="G109" s="89"/>
-      <c r="H109" s="89"/>
-      <c r="I109" s="89"/>
-      <c r="J109" s="89"/>
-      <c r="K109" s="89"/>
-      <c r="L109" s="92" t="s">
+      <c r="B109" s="104"/>
+      <c r="C109" s="104"/>
+      <c r="D109" s="106"/>
+      <c r="E109" s="106"/>
+      <c r="F109" s="108"/>
+      <c r="G109" s="106"/>
+      <c r="H109" s="106"/>
+      <c r="I109" s="106"/>
+      <c r="J109" s="106"/>
+      <c r="K109" s="106"/>
+      <c r="L109" s="91" t="s">
         <v>73</v>
       </c>
       <c r="M109" s="5">
@@ -10512,17 +10600,17 @@
       </c>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" s="95"/>
-      <c r="C110" s="95"/>
-      <c r="D110" s="89"/>
-      <c r="E110" s="89"/>
-      <c r="F110" s="98"/>
-      <c r="G110" s="89"/>
-      <c r="H110" s="89"/>
-      <c r="I110" s="89"/>
-      <c r="J110" s="89"/>
-      <c r="K110" s="89"/>
-      <c r="L110" s="93"/>
+      <c r="B110" s="104"/>
+      <c r="C110" s="104"/>
+      <c r="D110" s="106"/>
+      <c r="E110" s="106"/>
+      <c r="F110" s="108"/>
+      <c r="G110" s="106"/>
+      <c r="H110" s="106"/>
+      <c r="I110" s="106"/>
+      <c r="J110" s="106"/>
+      <c r="K110" s="106"/>
+      <c r="L110" s="92"/>
       <c r="M110" s="12">
         <v>2</v>
       </c>
@@ -10536,17 +10624,17 @@
       </c>
     </row>
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B111" s="95"/>
-      <c r="C111" s="95"/>
-      <c r="D111" s="89"/>
-      <c r="E111" s="89"/>
-      <c r="F111" s="98"/>
-      <c r="G111" s="89"/>
-      <c r="H111" s="89"/>
-      <c r="I111" s="89"/>
-      <c r="J111" s="89"/>
-      <c r="K111" s="89"/>
-      <c r="L111" s="93"/>
+      <c r="B111" s="104"/>
+      <c r="C111" s="104"/>
+      <c r="D111" s="106"/>
+      <c r="E111" s="106"/>
+      <c r="F111" s="108"/>
+      <c r="G111" s="106"/>
+      <c r="H111" s="106"/>
+      <c r="I111" s="106"/>
+      <c r="J111" s="106"/>
+      <c r="K111" s="106"/>
+      <c r="L111" s="92"/>
       <c r="M111" s="12">
         <v>3</v>
       </c>
@@ -10560,17 +10648,17 @@
       </c>
     </row>
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B112" s="95"/>
-      <c r="C112" s="95"/>
-      <c r="D112" s="89"/>
-      <c r="E112" s="89"/>
-      <c r="F112" s="98"/>
-      <c r="G112" s="89"/>
-      <c r="H112" s="89"/>
-      <c r="I112" s="89"/>
-      <c r="J112" s="89"/>
-      <c r="K112" s="89"/>
-      <c r="L112" s="93"/>
+      <c r="B112" s="104"/>
+      <c r="C112" s="104"/>
+      <c r="D112" s="106"/>
+      <c r="E112" s="106"/>
+      <c r="F112" s="108"/>
+      <c r="G112" s="106"/>
+      <c r="H112" s="106"/>
+      <c r="I112" s="106"/>
+      <c r="J112" s="106"/>
+      <c r="K112" s="106"/>
+      <c r="L112" s="92"/>
       <c r="M112" s="12">
         <v>4</v>
       </c>
@@ -10584,59 +10672,59 @@
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B113" s="95"/>
-      <c r="C113" s="95"/>
-      <c r="D113" s="89"/>
-      <c r="E113" s="89"/>
-      <c r="F113" s="98"/>
-      <c r="G113" s="89"/>
-      <c r="H113" s="89"/>
-      <c r="I113" s="89"/>
-      <c r="J113" s="89"/>
-      <c r="K113" s="89"/>
-      <c r="L113" s="93"/>
+      <c r="B113" s="104"/>
+      <c r="C113" s="104"/>
+      <c r="D113" s="106"/>
+      <c r="E113" s="106"/>
+      <c r="F113" s="108"/>
+      <c r="G113" s="106"/>
+      <c r="H113" s="106"/>
+      <c r="I113" s="106"/>
+      <c r="J113" s="106"/>
+      <c r="K113" s="106"/>
+      <c r="L113" s="92"/>
       <c r="M113" s="12">
         <v>5</v>
       </c>
-      <c r="N113" s="19" t="str">
+      <c r="N113" s="19">
         <f>IF(VELEZ!E40="","",VELEZ!E40)</f>
-        <v/>
-      </c>
-      <c r="O113" s="73" t="str">
+        <v>4</v>
+      </c>
+      <c r="O113" s="73">
         <f>IF(N113="","Día de mes siguiente",VELEZ!F40)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="94"/>
-      <c r="C114" s="94" t="s">
+      <c r="B114" s="98"/>
+      <c r="C114" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="D114" s="88" t="s">
+      <c r="D114" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="E114" s="88" t="s">
+      <c r="E114" s="95" t="s">
         <v>58</v>
       </c>
-      <c r="F114" s="97">
-        <v>1</v>
-      </c>
-      <c r="G114" s="88" t="s">
+      <c r="F114" s="107">
+        <v>1</v>
+      </c>
+      <c r="G114" s="95" t="s">
         <v>88</v>
       </c>
-      <c r="H114" s="88" t="s">
+      <c r="H114" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="I114" s="88" t="s">
+      <c r="I114" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="J114" s="90" t="s">
+      <c r="J114" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="K114" s="90" t="s">
+      <c r="K114" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="L114" s="92" t="s">
+      <c r="L114" s="91" t="s">
         <v>59</v>
       </c>
       <c r="M114" s="5">
@@ -10652,17 +10740,17 @@
       </c>
     </row>
     <row r="115" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="95"/>
-      <c r="C115" s="95"/>
-      <c r="D115" s="89"/>
-      <c r="E115" s="89"/>
-      <c r="F115" s="98"/>
-      <c r="G115" s="89"/>
-      <c r="H115" s="89"/>
-      <c r="I115" s="89"/>
-      <c r="J115" s="89"/>
-      <c r="K115" s="89"/>
-      <c r="L115" s="93"/>
+      <c r="B115" s="104"/>
+      <c r="C115" s="104"/>
+      <c r="D115" s="106"/>
+      <c r="E115" s="106"/>
+      <c r="F115" s="108"/>
+      <c r="G115" s="106"/>
+      <c r="H115" s="106"/>
+      <c r="I115" s="106"/>
+      <c r="J115" s="106"/>
+      <c r="K115" s="106"/>
+      <c r="L115" s="92"/>
       <c r="M115" s="12">
         <v>2</v>
       </c>
@@ -10676,17 +10764,17 @@
       </c>
     </row>
     <row r="116" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="95"/>
-      <c r="C116" s="95"/>
-      <c r="D116" s="89"/>
-      <c r="E116" s="89"/>
-      <c r="F116" s="98"/>
-      <c r="G116" s="89"/>
-      <c r="H116" s="89"/>
-      <c r="I116" s="89"/>
-      <c r="J116" s="89"/>
-      <c r="K116" s="89"/>
-      <c r="L116" s="93"/>
+      <c r="B116" s="104"/>
+      <c r="C116" s="104"/>
+      <c r="D116" s="106"/>
+      <c r="E116" s="106"/>
+      <c r="F116" s="108"/>
+      <c r="G116" s="106"/>
+      <c r="H116" s="106"/>
+      <c r="I116" s="106"/>
+      <c r="J116" s="106"/>
+      <c r="K116" s="106"/>
+      <c r="L116" s="92"/>
       <c r="M116" s="12">
         <v>3</v>
       </c>
@@ -10700,17 +10788,17 @@
       </c>
     </row>
     <row r="117" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="95"/>
-      <c r="C117" s="95"/>
-      <c r="D117" s="89"/>
-      <c r="E117" s="89"/>
-      <c r="F117" s="98"/>
-      <c r="G117" s="89"/>
-      <c r="H117" s="89"/>
-      <c r="I117" s="89"/>
-      <c r="J117" s="89"/>
-      <c r="K117" s="89"/>
-      <c r="L117" s="93"/>
+      <c r="B117" s="104"/>
+      <c r="C117" s="104"/>
+      <c r="D117" s="106"/>
+      <c r="E117" s="106"/>
+      <c r="F117" s="108"/>
+      <c r="G117" s="106"/>
+      <c r="H117" s="106"/>
+      <c r="I117" s="106"/>
+      <c r="J117" s="106"/>
+      <c r="K117" s="106"/>
+      <c r="L117" s="92"/>
       <c r="M117" s="12">
         <v>4</v>
       </c>
@@ -10724,17 +10812,17 @@
       </c>
     </row>
     <row r="118" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="95"/>
-      <c r="C118" s="95"/>
-      <c r="D118" s="89"/>
-      <c r="E118" s="89"/>
-      <c r="F118" s="98"/>
-      <c r="G118" s="89"/>
-      <c r="H118" s="89"/>
-      <c r="I118" s="89"/>
-      <c r="J118" s="89"/>
-      <c r="K118" s="89"/>
-      <c r="L118" s="93"/>
+      <c r="B118" s="104"/>
+      <c r="C118" s="104"/>
+      <c r="D118" s="106"/>
+      <c r="E118" s="106"/>
+      <c r="F118" s="108"/>
+      <c r="G118" s="106"/>
+      <c r="H118" s="106"/>
+      <c r="I118" s="106"/>
+      <c r="J118" s="106"/>
+      <c r="K118" s="106"/>
+      <c r="L118" s="92"/>
       <c r="M118" s="12">
         <v>5</v>
       </c>
@@ -10748,17 +10836,17 @@
       </c>
     </row>
     <row r="119" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="95"/>
-      <c r="C119" s="95"/>
-      <c r="D119" s="89"/>
-      <c r="E119" s="89"/>
-      <c r="F119" s="98"/>
-      <c r="G119" s="89"/>
-      <c r="H119" s="89"/>
-      <c r="I119" s="89"/>
-      <c r="J119" s="89"/>
-      <c r="K119" s="89"/>
-      <c r="L119" s="100" t="s">
+      <c r="B119" s="104"/>
+      <c r="C119" s="104"/>
+      <c r="D119" s="106"/>
+      <c r="E119" s="106"/>
+      <c r="F119" s="108"/>
+      <c r="G119" s="106"/>
+      <c r="H119" s="106"/>
+      <c r="I119" s="106"/>
+      <c r="J119" s="106"/>
+      <c r="K119" s="106"/>
+      <c r="L119" s="93" t="s">
         <v>61</v>
       </c>
       <c r="M119" s="52">
@@ -10771,17 +10859,17 @@
       </c>
     </row>
     <row r="120" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="95"/>
-      <c r="C120" s="95"/>
-      <c r="D120" s="89"/>
-      <c r="E120" s="89"/>
-      <c r="F120" s="98"/>
-      <c r="G120" s="89"/>
-      <c r="H120" s="89"/>
-      <c r="I120" s="89"/>
-      <c r="J120" s="89"/>
-      <c r="K120" s="89"/>
-      <c r="L120" s="101"/>
+      <c r="B120" s="104"/>
+      <c r="C120" s="104"/>
+      <c r="D120" s="106"/>
+      <c r="E120" s="106"/>
+      <c r="F120" s="108"/>
+      <c r="G120" s="106"/>
+      <c r="H120" s="106"/>
+      <c r="I120" s="106"/>
+      <c r="J120" s="106"/>
+      <c r="K120" s="106"/>
+      <c r="L120" s="94"/>
       <c r="M120" s="19">
         <v>2</v>
       </c>
@@ -10792,17 +10880,17 @@
       </c>
     </row>
     <row r="121" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="95"/>
-      <c r="C121" s="95"/>
-      <c r="D121" s="89"/>
-      <c r="E121" s="89"/>
-      <c r="F121" s="98"/>
-      <c r="G121" s="89"/>
-      <c r="H121" s="89"/>
-      <c r="I121" s="89"/>
-      <c r="J121" s="89"/>
-      <c r="K121" s="89"/>
-      <c r="L121" s="101"/>
+      <c r="B121" s="104"/>
+      <c r="C121" s="104"/>
+      <c r="D121" s="106"/>
+      <c r="E121" s="106"/>
+      <c r="F121" s="108"/>
+      <c r="G121" s="106"/>
+      <c r="H121" s="106"/>
+      <c r="I121" s="106"/>
+      <c r="J121" s="106"/>
+      <c r="K121" s="106"/>
+      <c r="L121" s="94"/>
       <c r="M121" s="19">
         <v>3</v>
       </c>
@@ -10813,17 +10901,17 @@
       </c>
     </row>
     <row r="122" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="95"/>
-      <c r="C122" s="95"/>
-      <c r="D122" s="89"/>
-      <c r="E122" s="89"/>
-      <c r="F122" s="98"/>
-      <c r="G122" s="89"/>
-      <c r="H122" s="89"/>
-      <c r="I122" s="89"/>
-      <c r="J122" s="89"/>
-      <c r="K122" s="89"/>
-      <c r="L122" s="101"/>
+      <c r="B122" s="104"/>
+      <c r="C122" s="104"/>
+      <c r="D122" s="106"/>
+      <c r="E122" s="106"/>
+      <c r="F122" s="108"/>
+      <c r="G122" s="106"/>
+      <c r="H122" s="106"/>
+      <c r="I122" s="106"/>
+      <c r="J122" s="106"/>
+      <c r="K122" s="106"/>
+      <c r="L122" s="94"/>
       <c r="M122" s="19">
         <v>4</v>
       </c>
@@ -10834,17 +10922,17 @@
       </c>
     </row>
     <row r="123" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="95"/>
-      <c r="C123" s="95"/>
-      <c r="D123" s="89"/>
-      <c r="E123" s="89"/>
-      <c r="F123" s="98"/>
-      <c r="G123" s="89"/>
-      <c r="H123" s="89"/>
-      <c r="I123" s="89"/>
-      <c r="J123" s="89"/>
-      <c r="K123" s="89"/>
-      <c r="L123" s="101"/>
+      <c r="B123" s="104"/>
+      <c r="C123" s="104"/>
+      <c r="D123" s="106"/>
+      <c r="E123" s="106"/>
+      <c r="F123" s="108"/>
+      <c r="G123" s="106"/>
+      <c r="H123" s="106"/>
+      <c r="I123" s="106"/>
+      <c r="J123" s="106"/>
+      <c r="K123" s="106"/>
+      <c r="L123" s="94"/>
       <c r="M123" s="19">
         <v>5</v>
       </c>
@@ -10855,17 +10943,17 @@
       </c>
     </row>
     <row r="124" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="95"/>
-      <c r="C124" s="95"/>
-      <c r="D124" s="89"/>
-      <c r="E124" s="89"/>
-      <c r="F124" s="98"/>
-      <c r="G124" s="89"/>
-      <c r="H124" s="89"/>
-      <c r="I124" s="89"/>
-      <c r="J124" s="89"/>
-      <c r="K124" s="89"/>
-      <c r="L124" s="92" t="s">
+      <c r="B124" s="104"/>
+      <c r="C124" s="104"/>
+      <c r="D124" s="106"/>
+      <c r="E124" s="106"/>
+      <c r="F124" s="108"/>
+      <c r="G124" s="106"/>
+      <c r="H124" s="106"/>
+      <c r="I124" s="106"/>
+      <c r="J124" s="106"/>
+      <c r="K124" s="106"/>
+      <c r="L124" s="91" t="s">
         <v>62</v>
       </c>
       <c r="M124" s="5">
@@ -10881,17 +10969,17 @@
       </c>
     </row>
     <row r="125" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="95"/>
-      <c r="C125" s="95"/>
-      <c r="D125" s="89"/>
-      <c r="E125" s="89"/>
-      <c r="F125" s="98"/>
-      <c r="G125" s="89"/>
-      <c r="H125" s="89"/>
-      <c r="I125" s="89"/>
-      <c r="J125" s="89"/>
-      <c r="K125" s="89"/>
-      <c r="L125" s="93"/>
+      <c r="B125" s="104"/>
+      <c r="C125" s="104"/>
+      <c r="D125" s="106"/>
+      <c r="E125" s="106"/>
+      <c r="F125" s="108"/>
+      <c r="G125" s="106"/>
+      <c r="H125" s="106"/>
+      <c r="I125" s="106"/>
+      <c r="J125" s="106"/>
+      <c r="K125" s="106"/>
+      <c r="L125" s="92"/>
       <c r="M125" s="12">
         <v>2</v>
       </c>
@@ -10905,17 +10993,17 @@
       </c>
     </row>
     <row r="126" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="95"/>
-      <c r="C126" s="95"/>
-      <c r="D126" s="89"/>
-      <c r="E126" s="89"/>
-      <c r="F126" s="98"/>
-      <c r="G126" s="89"/>
-      <c r="H126" s="89"/>
-      <c r="I126" s="89"/>
-      <c r="J126" s="89"/>
-      <c r="K126" s="89"/>
-      <c r="L126" s="93"/>
+      <c r="B126" s="104"/>
+      <c r="C126" s="104"/>
+      <c r="D126" s="106"/>
+      <c r="E126" s="106"/>
+      <c r="F126" s="108"/>
+      <c r="G126" s="106"/>
+      <c r="H126" s="106"/>
+      <c r="I126" s="106"/>
+      <c r="J126" s="106"/>
+      <c r="K126" s="106"/>
+      <c r="L126" s="92"/>
       <c r="M126" s="12">
         <v>3</v>
       </c>
@@ -10929,17 +11017,17 @@
       </c>
     </row>
     <row r="127" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="95"/>
-      <c r="C127" s="95"/>
-      <c r="D127" s="89"/>
-      <c r="E127" s="89"/>
-      <c r="F127" s="98"/>
-      <c r="G127" s="89"/>
-      <c r="H127" s="89"/>
-      <c r="I127" s="89"/>
-      <c r="J127" s="89"/>
-      <c r="K127" s="89"/>
-      <c r="L127" s="93"/>
+      <c r="B127" s="104"/>
+      <c r="C127" s="104"/>
+      <c r="D127" s="106"/>
+      <c r="E127" s="106"/>
+      <c r="F127" s="108"/>
+      <c r="G127" s="106"/>
+      <c r="H127" s="106"/>
+      <c r="I127" s="106"/>
+      <c r="J127" s="106"/>
+      <c r="K127" s="106"/>
+      <c r="L127" s="92"/>
       <c r="M127" s="12">
         <v>4</v>
       </c>
@@ -10953,17 +11041,17 @@
       </c>
     </row>
     <row r="128" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="95"/>
-      <c r="C128" s="95"/>
-      <c r="D128" s="89"/>
-      <c r="E128" s="89"/>
-      <c r="F128" s="98"/>
-      <c r="G128" s="89"/>
-      <c r="H128" s="89"/>
-      <c r="I128" s="89"/>
-      <c r="J128" s="89"/>
-      <c r="K128" s="89"/>
-      <c r="L128" s="93"/>
+      <c r="B128" s="104"/>
+      <c r="C128" s="104"/>
+      <c r="D128" s="106"/>
+      <c r="E128" s="106"/>
+      <c r="F128" s="108"/>
+      <c r="G128" s="106"/>
+      <c r="H128" s="106"/>
+      <c r="I128" s="106"/>
+      <c r="J128" s="106"/>
+      <c r="K128" s="106"/>
+      <c r="L128" s="92"/>
       <c r="M128" s="12">
         <v>5</v>
       </c>
@@ -10977,17 +11065,17 @@
       </c>
     </row>
     <row r="129" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="95"/>
-      <c r="C129" s="95"/>
-      <c r="D129" s="89"/>
-      <c r="E129" s="89"/>
-      <c r="F129" s="98"/>
-      <c r="G129" s="89"/>
-      <c r="H129" s="89"/>
-      <c r="I129" s="89"/>
-      <c r="J129" s="89"/>
-      <c r="K129" s="89"/>
-      <c r="L129" s="92" t="s">
+      <c r="B129" s="104"/>
+      <c r="C129" s="104"/>
+      <c r="D129" s="106"/>
+      <c r="E129" s="106"/>
+      <c r="F129" s="108"/>
+      <c r="G129" s="106"/>
+      <c r="H129" s="106"/>
+      <c r="I129" s="106"/>
+      <c r="J129" s="106"/>
+      <c r="K129" s="106"/>
+      <c r="L129" s="91" t="s">
         <v>60</v>
       </c>
       <c r="M129" s="5">
@@ -11003,17 +11091,17 @@
       </c>
     </row>
     <row r="130" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="95"/>
-      <c r="C130" s="95"/>
-      <c r="D130" s="89"/>
-      <c r="E130" s="89"/>
-      <c r="F130" s="98"/>
-      <c r="G130" s="89"/>
-      <c r="H130" s="89"/>
-      <c r="I130" s="89"/>
-      <c r="J130" s="89"/>
-      <c r="K130" s="89"/>
-      <c r="L130" s="93"/>
+      <c r="B130" s="104"/>
+      <c r="C130" s="104"/>
+      <c r="D130" s="106"/>
+      <c r="E130" s="106"/>
+      <c r="F130" s="108"/>
+      <c r="G130" s="106"/>
+      <c r="H130" s="106"/>
+      <c r="I130" s="106"/>
+      <c r="J130" s="106"/>
+      <c r="K130" s="106"/>
+      <c r="L130" s="92"/>
       <c r="M130" s="12">
         <v>2</v>
       </c>
@@ -11027,17 +11115,17 @@
       </c>
     </row>
     <row r="131" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="95"/>
-      <c r="C131" s="95"/>
-      <c r="D131" s="89"/>
-      <c r="E131" s="89"/>
-      <c r="F131" s="98"/>
-      <c r="G131" s="89"/>
-      <c r="H131" s="89"/>
-      <c r="I131" s="89"/>
-      <c r="J131" s="89"/>
-      <c r="K131" s="89"/>
-      <c r="L131" s="93"/>
+      <c r="B131" s="104"/>
+      <c r="C131" s="104"/>
+      <c r="D131" s="106"/>
+      <c r="E131" s="106"/>
+      <c r="F131" s="108"/>
+      <c r="G131" s="106"/>
+      <c r="H131" s="106"/>
+      <c r="I131" s="106"/>
+      <c r="J131" s="106"/>
+      <c r="K131" s="106"/>
+      <c r="L131" s="92"/>
       <c r="M131" s="12">
         <v>3</v>
       </c>
@@ -11051,17 +11139,17 @@
       </c>
     </row>
     <row r="132" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="95"/>
-      <c r="C132" s="95"/>
-      <c r="D132" s="89"/>
-      <c r="E132" s="89"/>
-      <c r="F132" s="98"/>
-      <c r="G132" s="89"/>
-      <c r="H132" s="89"/>
-      <c r="I132" s="89"/>
-      <c r="J132" s="89"/>
-      <c r="K132" s="89"/>
-      <c r="L132" s="93"/>
+      <c r="B132" s="104"/>
+      <c r="C132" s="104"/>
+      <c r="D132" s="106"/>
+      <c r="E132" s="106"/>
+      <c r="F132" s="108"/>
+      <c r="G132" s="106"/>
+      <c r="H132" s="106"/>
+      <c r="I132" s="106"/>
+      <c r="J132" s="106"/>
+      <c r="K132" s="106"/>
+      <c r="L132" s="92"/>
       <c r="M132" s="12">
         <v>4</v>
       </c>
@@ -11075,17 +11163,17 @@
       </c>
     </row>
     <row r="133" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="95"/>
-      <c r="C133" s="95"/>
-      <c r="D133" s="89"/>
-      <c r="E133" s="89"/>
-      <c r="F133" s="98"/>
-      <c r="G133" s="89"/>
-      <c r="H133" s="89"/>
-      <c r="I133" s="89"/>
-      <c r="J133" s="89"/>
-      <c r="K133" s="89"/>
-      <c r="L133" s="93"/>
+      <c r="B133" s="104"/>
+      <c r="C133" s="104"/>
+      <c r="D133" s="106"/>
+      <c r="E133" s="106"/>
+      <c r="F133" s="108"/>
+      <c r="G133" s="106"/>
+      <c r="H133" s="106"/>
+      <c r="I133" s="106"/>
+      <c r="J133" s="106"/>
+      <c r="K133" s="106"/>
+      <c r="L133" s="92"/>
       <c r="M133" s="12">
         <v>5</v>
       </c>
@@ -11099,17 +11187,17 @@
       </c>
     </row>
     <row r="134" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="95"/>
-      <c r="C134" s="95"/>
-      <c r="D134" s="89"/>
-      <c r="E134" s="89"/>
-      <c r="F134" s="98"/>
-      <c r="G134" s="89"/>
-      <c r="H134" s="89"/>
-      <c r="I134" s="89"/>
-      <c r="J134" s="89"/>
-      <c r="K134" s="89"/>
-      <c r="L134" s="92" t="s">
+      <c r="B134" s="104"/>
+      <c r="C134" s="104"/>
+      <c r="D134" s="106"/>
+      <c r="E134" s="106"/>
+      <c r="F134" s="108"/>
+      <c r="G134" s="106"/>
+      <c r="H134" s="106"/>
+      <c r="I134" s="106"/>
+      <c r="J134" s="106"/>
+      <c r="K134" s="106"/>
+      <c r="L134" s="91" t="s">
         <v>63</v>
       </c>
       <c r="M134" s="5">
@@ -11125,17 +11213,17 @@
       </c>
     </row>
     <row r="135" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="95"/>
-      <c r="C135" s="95"/>
-      <c r="D135" s="89"/>
-      <c r="E135" s="89"/>
-      <c r="F135" s="98"/>
-      <c r="G135" s="89"/>
-      <c r="H135" s="89"/>
-      <c r="I135" s="89"/>
-      <c r="J135" s="89"/>
-      <c r="K135" s="89"/>
-      <c r="L135" s="93"/>
+      <c r="B135" s="104"/>
+      <c r="C135" s="104"/>
+      <c r="D135" s="106"/>
+      <c r="E135" s="106"/>
+      <c r="F135" s="108"/>
+      <c r="G135" s="106"/>
+      <c r="H135" s="106"/>
+      <c r="I135" s="106"/>
+      <c r="J135" s="106"/>
+      <c r="K135" s="106"/>
+      <c r="L135" s="92"/>
       <c r="M135" s="12">
         <v>2</v>
       </c>
@@ -11149,17 +11237,17 @@
       </c>
     </row>
     <row r="136" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="95"/>
-      <c r="C136" s="95"/>
-      <c r="D136" s="89"/>
-      <c r="E136" s="89"/>
-      <c r="F136" s="98"/>
-      <c r="G136" s="89"/>
-      <c r="H136" s="89"/>
-      <c r="I136" s="89"/>
-      <c r="J136" s="89"/>
-      <c r="K136" s="89"/>
-      <c r="L136" s="93"/>
+      <c r="B136" s="104"/>
+      <c r="C136" s="104"/>
+      <c r="D136" s="106"/>
+      <c r="E136" s="106"/>
+      <c r="F136" s="108"/>
+      <c r="G136" s="106"/>
+      <c r="H136" s="106"/>
+      <c r="I136" s="106"/>
+      <c r="J136" s="106"/>
+      <c r="K136" s="106"/>
+      <c r="L136" s="92"/>
       <c r="M136" s="12">
         <v>3</v>
       </c>
@@ -11173,17 +11261,17 @@
       </c>
     </row>
     <row r="137" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="95"/>
-      <c r="C137" s="95"/>
-      <c r="D137" s="89"/>
-      <c r="E137" s="89"/>
-      <c r="F137" s="98"/>
-      <c r="G137" s="89"/>
-      <c r="H137" s="89"/>
-      <c r="I137" s="89"/>
-      <c r="J137" s="89"/>
-      <c r="K137" s="89"/>
-      <c r="L137" s="93"/>
+      <c r="B137" s="104"/>
+      <c r="C137" s="104"/>
+      <c r="D137" s="106"/>
+      <c r="E137" s="106"/>
+      <c r="F137" s="108"/>
+      <c r="G137" s="106"/>
+      <c r="H137" s="106"/>
+      <c r="I137" s="106"/>
+      <c r="J137" s="106"/>
+      <c r="K137" s="106"/>
+      <c r="L137" s="92"/>
       <c r="M137" s="12">
         <v>4</v>
       </c>
@@ -11197,17 +11285,17 @@
       </c>
     </row>
     <row r="138" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="95"/>
-      <c r="C138" s="95"/>
-      <c r="D138" s="89"/>
-      <c r="E138" s="89"/>
-      <c r="F138" s="98"/>
-      <c r="G138" s="89"/>
-      <c r="H138" s="89"/>
-      <c r="I138" s="89"/>
-      <c r="J138" s="89"/>
-      <c r="K138" s="89"/>
-      <c r="L138" s="93"/>
+      <c r="B138" s="104"/>
+      <c r="C138" s="104"/>
+      <c r="D138" s="106"/>
+      <c r="E138" s="106"/>
+      <c r="F138" s="108"/>
+      <c r="G138" s="106"/>
+      <c r="H138" s="106"/>
+      <c r="I138" s="106"/>
+      <c r="J138" s="106"/>
+      <c r="K138" s="106"/>
+      <c r="L138" s="92"/>
       <c r="M138" s="12">
         <v>5</v>
       </c>
@@ -11221,17 +11309,17 @@
       </c>
     </row>
     <row r="139" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="95"/>
-      <c r="C139" s="95"/>
-      <c r="D139" s="89"/>
-      <c r="E139" s="89"/>
-      <c r="F139" s="98"/>
-      <c r="G139" s="89"/>
-      <c r="H139" s="89"/>
-      <c r="I139" s="89"/>
-      <c r="J139" s="89"/>
-      <c r="K139" s="89"/>
-      <c r="L139" s="92" t="s">
+      <c r="B139" s="104"/>
+      <c r="C139" s="104"/>
+      <c r="D139" s="106"/>
+      <c r="E139" s="106"/>
+      <c r="F139" s="108"/>
+      <c r="G139" s="106"/>
+      <c r="H139" s="106"/>
+      <c r="I139" s="106"/>
+      <c r="J139" s="106"/>
+      <c r="K139" s="106"/>
+      <c r="L139" s="91" t="s">
         <v>79</v>
       </c>
       <c r="M139" s="5">
@@ -11247,17 +11335,17 @@
       </c>
     </row>
     <row r="140" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="95"/>
-      <c r="C140" s="95"/>
-      <c r="D140" s="89"/>
-      <c r="E140" s="89"/>
-      <c r="F140" s="98"/>
-      <c r="G140" s="89"/>
-      <c r="H140" s="89"/>
-      <c r="I140" s="89"/>
-      <c r="J140" s="89"/>
-      <c r="K140" s="89"/>
-      <c r="L140" s="93"/>
+      <c r="B140" s="104"/>
+      <c r="C140" s="104"/>
+      <c r="D140" s="106"/>
+      <c r="E140" s="106"/>
+      <c r="F140" s="108"/>
+      <c r="G140" s="106"/>
+      <c r="H140" s="106"/>
+      <c r="I140" s="106"/>
+      <c r="J140" s="106"/>
+      <c r="K140" s="106"/>
+      <c r="L140" s="92"/>
       <c r="M140" s="12">
         <v>2</v>
       </c>
@@ -11271,17 +11359,17 @@
       </c>
     </row>
     <row r="141" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="95"/>
-      <c r="C141" s="95"/>
-      <c r="D141" s="89"/>
-      <c r="E141" s="89"/>
-      <c r="F141" s="98"/>
-      <c r="G141" s="89"/>
-      <c r="H141" s="89"/>
-      <c r="I141" s="89"/>
-      <c r="J141" s="89"/>
-      <c r="K141" s="89"/>
-      <c r="L141" s="93"/>
+      <c r="B141" s="104"/>
+      <c r="C141" s="104"/>
+      <c r="D141" s="106"/>
+      <c r="E141" s="106"/>
+      <c r="F141" s="108"/>
+      <c r="G141" s="106"/>
+      <c r="H141" s="106"/>
+      <c r="I141" s="106"/>
+      <c r="J141" s="106"/>
+      <c r="K141" s="106"/>
+      <c r="L141" s="92"/>
       <c r="M141" s="12">
         <v>3</v>
       </c>
@@ -11295,17 +11383,17 @@
       </c>
     </row>
     <row r="142" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="95"/>
-      <c r="C142" s="95"/>
-      <c r="D142" s="89"/>
-      <c r="E142" s="89"/>
-      <c r="F142" s="98"/>
-      <c r="G142" s="89"/>
-      <c r="H142" s="89"/>
-      <c r="I142" s="89"/>
-      <c r="J142" s="89"/>
-      <c r="K142" s="89"/>
-      <c r="L142" s="93"/>
+      <c r="B142" s="104"/>
+      <c r="C142" s="104"/>
+      <c r="D142" s="106"/>
+      <c r="E142" s="106"/>
+      <c r="F142" s="108"/>
+      <c r="G142" s="106"/>
+      <c r="H142" s="106"/>
+      <c r="I142" s="106"/>
+      <c r="J142" s="106"/>
+      <c r="K142" s="106"/>
+      <c r="L142" s="92"/>
       <c r="M142" s="12">
         <v>4</v>
       </c>
@@ -11319,17 +11407,17 @@
       </c>
     </row>
     <row r="143" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="95"/>
-      <c r="C143" s="95"/>
-      <c r="D143" s="89"/>
-      <c r="E143" s="89"/>
-      <c r="F143" s="98"/>
-      <c r="G143" s="89"/>
-      <c r="H143" s="89"/>
-      <c r="I143" s="89"/>
-      <c r="J143" s="89"/>
-      <c r="K143" s="89"/>
-      <c r="L143" s="93"/>
+      <c r="B143" s="104"/>
+      <c r="C143" s="104"/>
+      <c r="D143" s="106"/>
+      <c r="E143" s="106"/>
+      <c r="F143" s="108"/>
+      <c r="G143" s="106"/>
+      <c r="H143" s="106"/>
+      <c r="I143" s="106"/>
+      <c r="J143" s="106"/>
+      <c r="K143" s="106"/>
+      <c r="L143" s="92"/>
       <c r="M143" s="12">
         <v>5</v>
       </c>
@@ -11343,17 +11431,17 @@
       </c>
     </row>
     <row r="144" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="95"/>
-      <c r="C144" s="95"/>
-      <c r="D144" s="89"/>
-      <c r="E144" s="89"/>
-      <c r="F144" s="98"/>
-      <c r="G144" s="89"/>
-      <c r="H144" s="89"/>
-      <c r="I144" s="89"/>
-      <c r="J144" s="89"/>
-      <c r="K144" s="89"/>
-      <c r="L144" s="92" t="s">
+      <c r="B144" s="104"/>
+      <c r="C144" s="104"/>
+      <c r="D144" s="106"/>
+      <c r="E144" s="106"/>
+      <c r="F144" s="108"/>
+      <c r="G144" s="106"/>
+      <c r="H144" s="106"/>
+      <c r="I144" s="106"/>
+      <c r="J144" s="106"/>
+      <c r="K144" s="106"/>
+      <c r="L144" s="91" t="s">
         <v>15</v>
       </c>
       <c r="M144" s="5">
@@ -11369,17 +11457,17 @@
       </c>
     </row>
     <row r="145" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="95"/>
-      <c r="C145" s="95"/>
-      <c r="D145" s="89"/>
-      <c r="E145" s="89"/>
-      <c r="F145" s="98"/>
-      <c r="G145" s="89"/>
-      <c r="H145" s="89"/>
-      <c r="I145" s="89"/>
-      <c r="J145" s="89"/>
-      <c r="K145" s="89"/>
-      <c r="L145" s="93"/>
+      <c r="B145" s="104"/>
+      <c r="C145" s="104"/>
+      <c r="D145" s="106"/>
+      <c r="E145" s="106"/>
+      <c r="F145" s="108"/>
+      <c r="G145" s="106"/>
+      <c r="H145" s="106"/>
+      <c r="I145" s="106"/>
+      <c r="J145" s="106"/>
+      <c r="K145" s="106"/>
+      <c r="L145" s="92"/>
       <c r="M145" s="12">
         <v>2</v>
       </c>
@@ -11393,17 +11481,17 @@
       </c>
     </row>
     <row r="146" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="95"/>
-      <c r="C146" s="95"/>
-      <c r="D146" s="89"/>
-      <c r="E146" s="89"/>
-      <c r="F146" s="98"/>
-      <c r="G146" s="89"/>
-      <c r="H146" s="89"/>
-      <c r="I146" s="89"/>
-      <c r="J146" s="89"/>
-      <c r="K146" s="89"/>
-      <c r="L146" s="93"/>
+      <c r="B146" s="104"/>
+      <c r="C146" s="104"/>
+      <c r="D146" s="106"/>
+      <c r="E146" s="106"/>
+      <c r="F146" s="108"/>
+      <c r="G146" s="106"/>
+      <c r="H146" s="106"/>
+      <c r="I146" s="106"/>
+      <c r="J146" s="106"/>
+      <c r="K146" s="106"/>
+      <c r="L146" s="92"/>
       <c r="M146" s="12">
         <v>3</v>
       </c>
@@ -11417,17 +11505,17 @@
       </c>
     </row>
     <row r="147" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="95"/>
-      <c r="C147" s="95"/>
-      <c r="D147" s="89"/>
-      <c r="E147" s="89"/>
-      <c r="F147" s="98"/>
-      <c r="G147" s="89"/>
-      <c r="H147" s="89"/>
-      <c r="I147" s="89"/>
-      <c r="J147" s="89"/>
-      <c r="K147" s="89"/>
-      <c r="L147" s="93"/>
+      <c r="B147" s="104"/>
+      <c r="C147" s="104"/>
+      <c r="D147" s="106"/>
+      <c r="E147" s="106"/>
+      <c r="F147" s="108"/>
+      <c r="G147" s="106"/>
+      <c r="H147" s="106"/>
+      <c r="I147" s="106"/>
+      <c r="J147" s="106"/>
+      <c r="K147" s="106"/>
+      <c r="L147" s="92"/>
       <c r="M147" s="12">
         <v>4</v>
       </c>
@@ -11441,17 +11529,17 @@
       </c>
     </row>
     <row r="148" spans="2:15" hidden="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="95"/>
-      <c r="C148" s="95"/>
-      <c r="D148" s="89"/>
-      <c r="E148" s="89"/>
-      <c r="F148" s="98"/>
-      <c r="G148" s="89"/>
-      <c r="H148" s="89"/>
-      <c r="I148" s="89"/>
-      <c r="J148" s="89"/>
-      <c r="K148" s="89"/>
-      <c r="L148" s="93"/>
+      <c r="B148" s="104"/>
+      <c r="C148" s="104"/>
+      <c r="D148" s="106"/>
+      <c r="E148" s="106"/>
+      <c r="F148" s="108"/>
+      <c r="G148" s="106"/>
+      <c r="H148" s="106"/>
+      <c r="I148" s="106"/>
+      <c r="J148" s="106"/>
+      <c r="K148" s="106"/>
+      <c r="L148" s="92"/>
       <c r="M148" s="12">
         <v>5</v>
       </c>
@@ -11465,38 +11553,38 @@
       </c>
     </row>
     <row r="149" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B149" s="94" t="s">
+      <c r="B149" s="98" t="s">
         <v>86</v>
       </c>
-      <c r="C149" s="94" t="s">
+      <c r="C149" s="98" t="s">
         <v>87</v>
       </c>
-      <c r="D149" s="88" t="s">
+      <c r="D149" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="E149" s="88" t="str">
+      <c r="E149" s="95" t="str">
         <f>E79</f>
         <v>FEBRERO</v>
       </c>
-      <c r="F149" s="97">
-        <v>1</v>
-      </c>
-      <c r="G149" s="90" t="s">
+      <c r="F149" s="107">
+        <v>1</v>
+      </c>
+      <c r="G149" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="H149" s="90" t="s">
+      <c r="H149" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="I149" s="90" t="s">
+      <c r="I149" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="J149" s="90" t="s">
+      <c r="J149" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="K149" s="90" t="s">
+      <c r="K149" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="L149" s="92" t="s">
+      <c r="L149" s="91" t="s">
         <v>80</v>
       </c>
       <c r="M149" s="5">
@@ -11512,17 +11600,17 @@
       </c>
     </row>
     <row r="150" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B150" s="95"/>
-      <c r="C150" s="95"/>
-      <c r="D150" s="89"/>
-      <c r="E150" s="89"/>
-      <c r="F150" s="98"/>
-      <c r="G150" s="89"/>
-      <c r="H150" s="89"/>
-      <c r="I150" s="89"/>
-      <c r="J150" s="89"/>
-      <c r="K150" s="89"/>
-      <c r="L150" s="93"/>
+      <c r="B150" s="104"/>
+      <c r="C150" s="104"/>
+      <c r="D150" s="106"/>
+      <c r="E150" s="106"/>
+      <c r="F150" s="108"/>
+      <c r="G150" s="106"/>
+      <c r="H150" s="106"/>
+      <c r="I150" s="106"/>
+      <c r="J150" s="106"/>
+      <c r="K150" s="106"/>
+      <c r="L150" s="92"/>
       <c r="M150" s="12">
         <v>2</v>
       </c>
@@ -11536,17 +11624,17 @@
       </c>
     </row>
     <row r="151" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B151" s="95"/>
-      <c r="C151" s="95"/>
-      <c r="D151" s="89"/>
-      <c r="E151" s="89"/>
-      <c r="F151" s="98"/>
-      <c r="G151" s="89"/>
-      <c r="H151" s="89"/>
-      <c r="I151" s="89"/>
-      <c r="J151" s="89"/>
-      <c r="K151" s="89"/>
-      <c r="L151" s="93"/>
+      <c r="B151" s="104"/>
+      <c r="C151" s="104"/>
+      <c r="D151" s="106"/>
+      <c r="E151" s="106"/>
+      <c r="F151" s="108"/>
+      <c r="G151" s="106"/>
+      <c r="H151" s="106"/>
+      <c r="I151" s="106"/>
+      <c r="J151" s="106"/>
+      <c r="K151" s="106"/>
+      <c r="L151" s="92"/>
       <c r="M151" s="12">
         <v>3</v>
       </c>
@@ -11560,17 +11648,17 @@
       </c>
     </row>
     <row r="152" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B152" s="95"/>
-      <c r="C152" s="95"/>
-      <c r="D152" s="89"/>
-      <c r="E152" s="89"/>
-      <c r="F152" s="98"/>
-      <c r="G152" s="89"/>
-      <c r="H152" s="89"/>
-      <c r="I152" s="89"/>
-      <c r="J152" s="89"/>
-      <c r="K152" s="89"/>
-      <c r="L152" s="93"/>
+      <c r="B152" s="104"/>
+      <c r="C152" s="104"/>
+      <c r="D152" s="106"/>
+      <c r="E152" s="106"/>
+      <c r="F152" s="108"/>
+      <c r="G152" s="106"/>
+      <c r="H152" s="106"/>
+      <c r="I152" s="106"/>
+      <c r="J152" s="106"/>
+      <c r="K152" s="106"/>
+      <c r="L152" s="92"/>
       <c r="M152" s="12">
         <v>4</v>
       </c>
@@ -11584,17 +11672,17 @@
       </c>
     </row>
     <row r="153" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B153" s="95"/>
-      <c r="C153" s="95"/>
-      <c r="D153" s="89"/>
-      <c r="E153" s="89"/>
-      <c r="F153" s="98"/>
-      <c r="G153" s="89"/>
-      <c r="H153" s="89"/>
-      <c r="I153" s="89"/>
-      <c r="J153" s="89"/>
-      <c r="K153" s="89"/>
-      <c r="L153" s="93"/>
+      <c r="B153" s="104"/>
+      <c r="C153" s="104"/>
+      <c r="D153" s="106"/>
+      <c r="E153" s="106"/>
+      <c r="F153" s="108"/>
+      <c r="G153" s="106"/>
+      <c r="H153" s="106"/>
+      <c r="I153" s="106"/>
+      <c r="J153" s="106"/>
+      <c r="K153" s="106"/>
+      <c r="L153" s="92"/>
       <c r="M153" s="12">
         <v>5</v>
       </c>
@@ -11608,17 +11696,17 @@
       </c>
     </row>
     <row r="154" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B154" s="95"/>
-      <c r="C154" s="95"/>
-      <c r="D154" s="89"/>
-      <c r="E154" s="89"/>
-      <c r="F154" s="98"/>
-      <c r="G154" s="89"/>
-      <c r="H154" s="89"/>
-      <c r="I154" s="89"/>
-      <c r="J154" s="89"/>
-      <c r="K154" s="89"/>
-      <c r="L154" s="100" t="s">
+      <c r="B154" s="104"/>
+      <c r="C154" s="104"/>
+      <c r="D154" s="106"/>
+      <c r="E154" s="106"/>
+      <c r="F154" s="108"/>
+      <c r="G154" s="106"/>
+      <c r="H154" s="106"/>
+      <c r="I154" s="106"/>
+      <c r="J154" s="106"/>
+      <c r="K154" s="106"/>
+      <c r="L154" s="93" t="s">
         <v>81</v>
       </c>
       <c r="M154" s="52">
@@ -11634,17 +11722,17 @@
       </c>
     </row>
     <row r="155" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B155" s="95"/>
-      <c r="C155" s="95"/>
-      <c r="D155" s="89"/>
-      <c r="E155" s="89"/>
-      <c r="F155" s="98"/>
-      <c r="G155" s="89"/>
-      <c r="H155" s="89"/>
-      <c r="I155" s="89"/>
-      <c r="J155" s="89"/>
-      <c r="K155" s="89"/>
-      <c r="L155" s="101"/>
+      <c r="B155" s="104"/>
+      <c r="C155" s="104"/>
+      <c r="D155" s="106"/>
+      <c r="E155" s="106"/>
+      <c r="F155" s="108"/>
+      <c r="G155" s="106"/>
+      <c r="H155" s="106"/>
+      <c r="I155" s="106"/>
+      <c r="J155" s="106"/>
+      <c r="K155" s="106"/>
+      <c r="L155" s="94"/>
       <c r="M155" s="19">
         <v>2</v>
       </c>
@@ -11658,17 +11746,17 @@
       </c>
     </row>
     <row r="156" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B156" s="95"/>
-      <c r="C156" s="95"/>
-      <c r="D156" s="89"/>
-      <c r="E156" s="89"/>
-      <c r="F156" s="98"/>
-      <c r="G156" s="89"/>
-      <c r="H156" s="89"/>
-      <c r="I156" s="89"/>
-      <c r="J156" s="89"/>
-      <c r="K156" s="89"/>
-      <c r="L156" s="101"/>
+      <c r="B156" s="104"/>
+      <c r="C156" s="104"/>
+      <c r="D156" s="106"/>
+      <c r="E156" s="106"/>
+      <c r="F156" s="108"/>
+      <c r="G156" s="106"/>
+      <c r="H156" s="106"/>
+      <c r="I156" s="106"/>
+      <c r="J156" s="106"/>
+      <c r="K156" s="106"/>
+      <c r="L156" s="94"/>
       <c r="M156" s="19">
         <v>3</v>
       </c>
@@ -11682,17 +11770,17 @@
       </c>
     </row>
     <row r="157" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B157" s="95"/>
-      <c r="C157" s="95"/>
-      <c r="D157" s="89"/>
-      <c r="E157" s="89"/>
-      <c r="F157" s="98"/>
-      <c r="G157" s="89"/>
-      <c r="H157" s="89"/>
-      <c r="I157" s="89"/>
-      <c r="J157" s="89"/>
-      <c r="K157" s="89"/>
-      <c r="L157" s="101"/>
+      <c r="B157" s="104"/>
+      <c r="C157" s="104"/>
+      <c r="D157" s="106"/>
+      <c r="E157" s="106"/>
+      <c r="F157" s="108"/>
+      <c r="G157" s="106"/>
+      <c r="H157" s="106"/>
+      <c r="I157" s="106"/>
+      <c r="J157" s="106"/>
+      <c r="K157" s="106"/>
+      <c r="L157" s="94"/>
       <c r="M157" s="19">
         <v>4</v>
       </c>
@@ -11706,17 +11794,17 @@
       </c>
     </row>
     <row r="158" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B158" s="95"/>
-      <c r="C158" s="95"/>
-      <c r="D158" s="89"/>
-      <c r="E158" s="89"/>
-      <c r="F158" s="98"/>
-      <c r="G158" s="89"/>
-      <c r="H158" s="89"/>
-      <c r="I158" s="89"/>
-      <c r="J158" s="89"/>
-      <c r="K158" s="89"/>
-      <c r="L158" s="101"/>
+      <c r="B158" s="104"/>
+      <c r="C158" s="104"/>
+      <c r="D158" s="106"/>
+      <c r="E158" s="106"/>
+      <c r="F158" s="108"/>
+      <c r="G158" s="106"/>
+      <c r="H158" s="106"/>
+      <c r="I158" s="106"/>
+      <c r="J158" s="106"/>
+      <c r="K158" s="106"/>
+      <c r="L158" s="94"/>
       <c r="M158" s="19">
         <v>5</v>
       </c>
@@ -11730,17 +11818,17 @@
       </c>
     </row>
     <row r="159" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B159" s="95"/>
-      <c r="C159" s="95"/>
-      <c r="D159" s="89"/>
-      <c r="E159" s="89"/>
-      <c r="F159" s="98"/>
-      <c r="G159" s="89"/>
-      <c r="H159" s="89"/>
-      <c r="I159" s="89"/>
-      <c r="J159" s="89"/>
-      <c r="K159" s="89"/>
-      <c r="L159" s="92" t="s">
+      <c r="B159" s="104"/>
+      <c r="C159" s="104"/>
+      <c r="D159" s="106"/>
+      <c r="E159" s="106"/>
+      <c r="F159" s="108"/>
+      <c r="G159" s="106"/>
+      <c r="H159" s="106"/>
+      <c r="I159" s="106"/>
+      <c r="J159" s="106"/>
+      <c r="K159" s="106"/>
+      <c r="L159" s="91" t="s">
         <v>82</v>
       </c>
       <c r="M159" s="5">
@@ -11756,17 +11844,17 @@
       </c>
     </row>
     <row r="160" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B160" s="95"/>
-      <c r="C160" s="95"/>
-      <c r="D160" s="89"/>
-      <c r="E160" s="89"/>
-      <c r="F160" s="98"/>
-      <c r="G160" s="89"/>
-      <c r="H160" s="89"/>
-      <c r="I160" s="89"/>
-      <c r="J160" s="89"/>
-      <c r="K160" s="89"/>
-      <c r="L160" s="93"/>
+      <c r="B160" s="104"/>
+      <c r="C160" s="104"/>
+      <c r="D160" s="106"/>
+      <c r="E160" s="106"/>
+      <c r="F160" s="108"/>
+      <c r="G160" s="106"/>
+      <c r="H160" s="106"/>
+      <c r="I160" s="106"/>
+      <c r="J160" s="106"/>
+      <c r="K160" s="106"/>
+      <c r="L160" s="92"/>
       <c r="M160" s="12">
         <v>2</v>
       </c>
@@ -11780,17 +11868,17 @@
       </c>
     </row>
     <row r="161" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B161" s="95"/>
-      <c r="C161" s="95"/>
-      <c r="D161" s="89"/>
-      <c r="E161" s="89"/>
-      <c r="F161" s="98"/>
-      <c r="G161" s="89"/>
-      <c r="H161" s="89"/>
-      <c r="I161" s="89"/>
-      <c r="J161" s="89"/>
-      <c r="K161" s="89"/>
-      <c r="L161" s="93"/>
+      <c r="B161" s="104"/>
+      <c r="C161" s="104"/>
+      <c r="D161" s="106"/>
+      <c r="E161" s="106"/>
+      <c r="F161" s="108"/>
+      <c r="G161" s="106"/>
+      <c r="H161" s="106"/>
+      <c r="I161" s="106"/>
+      <c r="J161" s="106"/>
+      <c r="K161" s="106"/>
+      <c r="L161" s="92"/>
       <c r="M161" s="12">
         <v>3</v>
       </c>
@@ -11804,17 +11892,17 @@
       </c>
     </row>
     <row r="162" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B162" s="95"/>
-      <c r="C162" s="95"/>
-      <c r="D162" s="89"/>
-      <c r="E162" s="89"/>
-      <c r="F162" s="98"/>
-      <c r="G162" s="89"/>
-      <c r="H162" s="89"/>
-      <c r="I162" s="89"/>
-      <c r="J162" s="89"/>
-      <c r="K162" s="89"/>
-      <c r="L162" s="93"/>
+      <c r="B162" s="104"/>
+      <c r="C162" s="104"/>
+      <c r="D162" s="106"/>
+      <c r="E162" s="106"/>
+      <c r="F162" s="108"/>
+      <c r="G162" s="106"/>
+      <c r="H162" s="106"/>
+      <c r="I162" s="106"/>
+      <c r="J162" s="106"/>
+      <c r="K162" s="106"/>
+      <c r="L162" s="92"/>
       <c r="M162" s="12">
         <v>4</v>
       </c>
@@ -11828,17 +11916,17 @@
       </c>
     </row>
     <row r="163" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B163" s="95"/>
-      <c r="C163" s="95"/>
-      <c r="D163" s="89"/>
-      <c r="E163" s="89"/>
-      <c r="F163" s="98"/>
-      <c r="G163" s="89"/>
-      <c r="H163" s="89"/>
-      <c r="I163" s="89"/>
-      <c r="J163" s="89"/>
-      <c r="K163" s="89"/>
-      <c r="L163" s="93"/>
+      <c r="B163" s="104"/>
+      <c r="C163" s="104"/>
+      <c r="D163" s="106"/>
+      <c r="E163" s="106"/>
+      <c r="F163" s="108"/>
+      <c r="G163" s="106"/>
+      <c r="H163" s="106"/>
+      <c r="I163" s="106"/>
+      <c r="J163" s="106"/>
+      <c r="K163" s="106"/>
+      <c r="L163" s="92"/>
       <c r="M163" s="12">
         <v>5</v>
       </c>
@@ -11852,17 +11940,17 @@
       </c>
     </row>
     <row r="164" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B164" s="95"/>
-      <c r="C164" s="95"/>
-      <c r="D164" s="89"/>
-      <c r="E164" s="89"/>
-      <c r="F164" s="98"/>
-      <c r="G164" s="89"/>
-      <c r="H164" s="89"/>
-      <c r="I164" s="89"/>
-      <c r="J164" s="89"/>
-      <c r="K164" s="89"/>
-      <c r="L164" s="92" t="s">
+      <c r="B164" s="104"/>
+      <c r="C164" s="104"/>
+      <c r="D164" s="106"/>
+      <c r="E164" s="106"/>
+      <c r="F164" s="108"/>
+      <c r="G164" s="106"/>
+      <c r="H164" s="106"/>
+      <c r="I164" s="106"/>
+      <c r="J164" s="106"/>
+      <c r="K164" s="106"/>
+      <c r="L164" s="91" t="s">
         <v>83</v>
       </c>
       <c r="M164" s="5">
@@ -11878,17 +11966,17 @@
       </c>
     </row>
     <row r="165" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B165" s="95"/>
-      <c r="C165" s="95"/>
-      <c r="D165" s="89"/>
-      <c r="E165" s="89"/>
-      <c r="F165" s="98"/>
-      <c r="G165" s="89"/>
-      <c r="H165" s="89"/>
-      <c r="I165" s="89"/>
-      <c r="J165" s="89"/>
-      <c r="K165" s="89"/>
-      <c r="L165" s="93"/>
+      <c r="B165" s="104"/>
+      <c r="C165" s="104"/>
+      <c r="D165" s="106"/>
+      <c r="E165" s="106"/>
+      <c r="F165" s="108"/>
+      <c r="G165" s="106"/>
+      <c r="H165" s="106"/>
+      <c r="I165" s="106"/>
+      <c r="J165" s="106"/>
+      <c r="K165" s="106"/>
+      <c r="L165" s="92"/>
       <c r="M165" s="12">
         <v>2</v>
       </c>
@@ -11902,17 +11990,17 @@
       </c>
     </row>
     <row r="166" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B166" s="95"/>
-      <c r="C166" s="95"/>
-      <c r="D166" s="89"/>
-      <c r="E166" s="89"/>
-      <c r="F166" s="98"/>
-      <c r="G166" s="89"/>
-      <c r="H166" s="89"/>
-      <c r="I166" s="89"/>
-      <c r="J166" s="89"/>
-      <c r="K166" s="89"/>
-      <c r="L166" s="93"/>
+      <c r="B166" s="104"/>
+      <c r="C166" s="104"/>
+      <c r="D166" s="106"/>
+      <c r="E166" s="106"/>
+      <c r="F166" s="108"/>
+      <c r="G166" s="106"/>
+      <c r="H166" s="106"/>
+      <c r="I166" s="106"/>
+      <c r="J166" s="106"/>
+      <c r="K166" s="106"/>
+      <c r="L166" s="92"/>
       <c r="M166" s="12">
         <v>3</v>
       </c>
@@ -11926,17 +12014,17 @@
       </c>
     </row>
     <row r="167" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B167" s="95"/>
-      <c r="C167" s="95"/>
-      <c r="D167" s="89"/>
-      <c r="E167" s="89"/>
-      <c r="F167" s="98"/>
-      <c r="G167" s="89"/>
-      <c r="H167" s="89"/>
-      <c r="I167" s="89"/>
-      <c r="J167" s="89"/>
-      <c r="K167" s="89"/>
-      <c r="L167" s="93"/>
+      <c r="B167" s="104"/>
+      <c r="C167" s="104"/>
+      <c r="D167" s="106"/>
+      <c r="E167" s="106"/>
+      <c r="F167" s="108"/>
+      <c r="G167" s="106"/>
+      <c r="H167" s="106"/>
+      <c r="I167" s="106"/>
+      <c r="J167" s="106"/>
+      <c r="K167" s="106"/>
+      <c r="L167" s="92"/>
       <c r="M167" s="12">
         <v>4</v>
       </c>
@@ -11950,17 +12038,17 @@
       </c>
     </row>
     <row r="168" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B168" s="95"/>
-      <c r="C168" s="95"/>
-      <c r="D168" s="89"/>
-      <c r="E168" s="89"/>
-      <c r="F168" s="98"/>
-      <c r="G168" s="89"/>
-      <c r="H168" s="89"/>
-      <c r="I168" s="89"/>
-      <c r="J168" s="89"/>
-      <c r="K168" s="89"/>
-      <c r="L168" s="93"/>
+      <c r="B168" s="104"/>
+      <c r="C168" s="104"/>
+      <c r="D168" s="106"/>
+      <c r="E168" s="106"/>
+      <c r="F168" s="108"/>
+      <c r="G168" s="106"/>
+      <c r="H168" s="106"/>
+      <c r="I168" s="106"/>
+      <c r="J168" s="106"/>
+      <c r="K168" s="106"/>
+      <c r="L168" s="92"/>
       <c r="M168" s="12">
         <v>5</v>
       </c>
@@ -11974,17 +12062,17 @@
       </c>
     </row>
     <row r="169" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B169" s="95"/>
-      <c r="C169" s="95"/>
-      <c r="D169" s="89"/>
-      <c r="E169" s="89"/>
-      <c r="F169" s="98"/>
-      <c r="G169" s="89"/>
-      <c r="H169" s="89"/>
-      <c r="I169" s="89"/>
-      <c r="J169" s="89"/>
-      <c r="K169" s="89"/>
-      <c r="L169" s="92" t="s">
+      <c r="B169" s="104"/>
+      <c r="C169" s="104"/>
+      <c r="D169" s="106"/>
+      <c r="E169" s="106"/>
+      <c r="F169" s="108"/>
+      <c r="G169" s="106"/>
+      <c r="H169" s="106"/>
+      <c r="I169" s="106"/>
+      <c r="J169" s="106"/>
+      <c r="K169" s="106"/>
+      <c r="L169" s="91" t="s">
         <v>84</v>
       </c>
       <c r="M169" s="5">
@@ -12000,17 +12088,17 @@
       </c>
     </row>
     <row r="170" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B170" s="95"/>
-      <c r="C170" s="95"/>
-      <c r="D170" s="89"/>
-      <c r="E170" s="89"/>
-      <c r="F170" s="98"/>
-      <c r="G170" s="89"/>
-      <c r="H170" s="89"/>
-      <c r="I170" s="89"/>
-      <c r="J170" s="89"/>
-      <c r="K170" s="89"/>
-      <c r="L170" s="93"/>
+      <c r="B170" s="104"/>
+      <c r="C170" s="104"/>
+      <c r="D170" s="106"/>
+      <c r="E170" s="106"/>
+      <c r="F170" s="108"/>
+      <c r="G170" s="106"/>
+      <c r="H170" s="106"/>
+      <c r="I170" s="106"/>
+      <c r="J170" s="106"/>
+      <c r="K170" s="106"/>
+      <c r="L170" s="92"/>
       <c r="M170" s="12">
         <v>2</v>
       </c>
@@ -12024,17 +12112,17 @@
       </c>
     </row>
     <row r="171" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B171" s="95"/>
-      <c r="C171" s="95"/>
-      <c r="D171" s="89"/>
-      <c r="E171" s="89"/>
-      <c r="F171" s="98"/>
-      <c r="G171" s="89"/>
-      <c r="H171" s="89"/>
-      <c r="I171" s="89"/>
-      <c r="J171" s="89"/>
-      <c r="K171" s="89"/>
-      <c r="L171" s="93"/>
+      <c r="B171" s="104"/>
+      <c r="C171" s="104"/>
+      <c r="D171" s="106"/>
+      <c r="E171" s="106"/>
+      <c r="F171" s="108"/>
+      <c r="G171" s="106"/>
+      <c r="H171" s="106"/>
+      <c r="I171" s="106"/>
+      <c r="J171" s="106"/>
+      <c r="K171" s="106"/>
+      <c r="L171" s="92"/>
       <c r="M171" s="12">
         <v>3</v>
       </c>
@@ -12048,17 +12136,17 @@
       </c>
     </row>
     <row r="172" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B172" s="95"/>
-      <c r="C172" s="95"/>
-      <c r="D172" s="89"/>
-      <c r="E172" s="89"/>
-      <c r="F172" s="98"/>
-      <c r="G172" s="89"/>
-      <c r="H172" s="89"/>
-      <c r="I172" s="89"/>
-      <c r="J172" s="89"/>
-      <c r="K172" s="89"/>
-      <c r="L172" s="93"/>
+      <c r="B172" s="104"/>
+      <c r="C172" s="104"/>
+      <c r="D172" s="106"/>
+      <c r="E172" s="106"/>
+      <c r="F172" s="108"/>
+      <c r="G172" s="106"/>
+      <c r="H172" s="106"/>
+      <c r="I172" s="106"/>
+      <c r="J172" s="106"/>
+      <c r="K172" s="106"/>
+      <c r="L172" s="92"/>
       <c r="M172" s="12">
         <v>4</v>
       </c>
@@ -12072,17 +12160,17 @@
       </c>
     </row>
     <row r="173" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B173" s="95"/>
-      <c r="C173" s="95"/>
-      <c r="D173" s="89"/>
-      <c r="E173" s="89"/>
-      <c r="F173" s="98"/>
-      <c r="G173" s="89"/>
-      <c r="H173" s="89"/>
-      <c r="I173" s="89"/>
-      <c r="J173" s="89"/>
-      <c r="K173" s="89"/>
-      <c r="L173" s="93"/>
+      <c r="B173" s="104"/>
+      <c r="C173" s="104"/>
+      <c r="D173" s="106"/>
+      <c r="E173" s="106"/>
+      <c r="F173" s="108"/>
+      <c r="G173" s="106"/>
+      <c r="H173" s="106"/>
+      <c r="I173" s="106"/>
+      <c r="J173" s="106"/>
+      <c r="K173" s="106"/>
+      <c r="L173" s="92"/>
       <c r="M173" s="12">
         <v>5</v>
       </c>
@@ -12096,17 +12184,17 @@
       </c>
     </row>
     <row r="174" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B174" s="95"/>
-      <c r="C174" s="95"/>
-      <c r="D174" s="89"/>
-      <c r="E174" s="89"/>
-      <c r="F174" s="98"/>
-      <c r="G174" s="89"/>
-      <c r="H174" s="89"/>
-      <c r="I174" s="89"/>
-      <c r="J174" s="89"/>
-      <c r="K174" s="89"/>
-      <c r="L174" s="92" t="s">
+      <c r="B174" s="104"/>
+      <c r="C174" s="104"/>
+      <c r="D174" s="106"/>
+      <c r="E174" s="106"/>
+      <c r="F174" s="108"/>
+      <c r="G174" s="106"/>
+      <c r="H174" s="106"/>
+      <c r="I174" s="106"/>
+      <c r="J174" s="106"/>
+      <c r="K174" s="106"/>
+      <c r="L174" s="91" t="s">
         <v>85</v>
       </c>
       <c r="M174" s="5">
@@ -12122,17 +12210,17 @@
       </c>
     </row>
     <row r="175" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B175" s="95"/>
-      <c r="C175" s="95"/>
-      <c r="D175" s="89"/>
-      <c r="E175" s="89"/>
-      <c r="F175" s="98"/>
-      <c r="G175" s="89"/>
-      <c r="H175" s="89"/>
-      <c r="I175" s="89"/>
-      <c r="J175" s="89"/>
-      <c r="K175" s="89"/>
-      <c r="L175" s="93"/>
+      <c r="B175" s="104"/>
+      <c r="C175" s="104"/>
+      <c r="D175" s="106"/>
+      <c r="E175" s="106"/>
+      <c r="F175" s="108"/>
+      <c r="G175" s="106"/>
+      <c r="H175" s="106"/>
+      <c r="I175" s="106"/>
+      <c r="J175" s="106"/>
+      <c r="K175" s="106"/>
+      <c r="L175" s="92"/>
       <c r="M175" s="12">
         <v>2</v>
       </c>
@@ -12146,17 +12234,17 @@
       </c>
     </row>
     <row r="176" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B176" s="95"/>
-      <c r="C176" s="95"/>
-      <c r="D176" s="89"/>
-      <c r="E176" s="89"/>
-      <c r="F176" s="98"/>
-      <c r="G176" s="89"/>
-      <c r="H176" s="89"/>
-      <c r="I176" s="89"/>
-      <c r="J176" s="89"/>
-      <c r="K176" s="89"/>
-      <c r="L176" s="93"/>
+      <c r="B176" s="104"/>
+      <c r="C176" s="104"/>
+      <c r="D176" s="106"/>
+      <c r="E176" s="106"/>
+      <c r="F176" s="108"/>
+      <c r="G176" s="106"/>
+      <c r="H176" s="106"/>
+      <c r="I176" s="106"/>
+      <c r="J176" s="106"/>
+      <c r="K176" s="106"/>
+      <c r="L176" s="92"/>
       <c r="M176" s="12">
         <v>3</v>
       </c>
@@ -12170,17 +12258,17 @@
       </c>
     </row>
     <row r="177" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B177" s="95"/>
-      <c r="C177" s="95"/>
-      <c r="D177" s="89"/>
-      <c r="E177" s="89"/>
-      <c r="F177" s="98"/>
-      <c r="G177" s="89"/>
-      <c r="H177" s="89"/>
-      <c r="I177" s="89"/>
-      <c r="J177" s="89"/>
-      <c r="K177" s="89"/>
-      <c r="L177" s="93"/>
+      <c r="B177" s="104"/>
+      <c r="C177" s="104"/>
+      <c r="D177" s="106"/>
+      <c r="E177" s="106"/>
+      <c r="F177" s="108"/>
+      <c r="G177" s="106"/>
+      <c r="H177" s="106"/>
+      <c r="I177" s="106"/>
+      <c r="J177" s="106"/>
+      <c r="K177" s="106"/>
+      <c r="L177" s="92"/>
       <c r="M177" s="12">
         <v>4</v>
       </c>
@@ -12194,17 +12282,17 @@
       </c>
     </row>
     <row r="178" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B178" s="96"/>
-      <c r="C178" s="96"/>
-      <c r="D178" s="91"/>
-      <c r="E178" s="91"/>
-      <c r="F178" s="99"/>
-      <c r="G178" s="91"/>
-      <c r="H178" s="91"/>
-      <c r="I178" s="91"/>
-      <c r="J178" s="91"/>
-      <c r="K178" s="91"/>
-      <c r="L178" s="93"/>
+      <c r="B178" s="105"/>
+      <c r="C178" s="105"/>
+      <c r="D178" s="110"/>
+      <c r="E178" s="110"/>
+      <c r="F178" s="111"/>
+      <c r="G178" s="110"/>
+      <c r="H178" s="110"/>
+      <c r="I178" s="110"/>
+      <c r="J178" s="110"/>
+      <c r="K178" s="110"/>
+      <c r="L178" s="92"/>
       <c r="M178" s="12">
         <v>5</v>
       </c>
@@ -12218,38 +12306,38 @@
       </c>
     </row>
     <row r="179" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B179" s="94" t="s">
+      <c r="B179" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="C179" s="94" t="s">
+      <c r="C179" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="D179" s="88" t="s">
+      <c r="D179" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="E179" s="88" t="str">
+      <c r="E179" s="95" t="str">
         <f>E149</f>
         <v>FEBRERO</v>
       </c>
-      <c r="F179" s="106">
-        <v>1</v>
-      </c>
-      <c r="G179" s="88" t="s">
+      <c r="F179" s="101">
+        <v>1</v>
+      </c>
+      <c r="G179" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="H179" s="88" t="s">
+      <c r="H179" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="I179" s="88" t="s">
+      <c r="I179" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="J179" s="88" t="s">
+      <c r="J179" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="K179" s="88" t="s">
+      <c r="K179" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="L179" s="92" t="s">
+      <c r="L179" s="91" t="s">
         <v>96</v>
       </c>
       <c r="M179" s="13">
@@ -12265,17 +12353,17 @@
       </c>
     </row>
     <row r="180" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B180" s="102"/>
-      <c r="C180" s="102"/>
-      <c r="D180" s="104"/>
-      <c r="E180" s="104"/>
-      <c r="F180" s="107"/>
-      <c r="G180" s="104"/>
-      <c r="H180" s="104"/>
-      <c r="I180" s="104"/>
-      <c r="J180" s="104"/>
-      <c r="K180" s="104"/>
-      <c r="L180" s="93"/>
+      <c r="B180" s="99"/>
+      <c r="C180" s="99"/>
+      <c r="D180" s="96"/>
+      <c r="E180" s="96"/>
+      <c r="F180" s="102"/>
+      <c r="G180" s="96"/>
+      <c r="H180" s="96"/>
+      <c r="I180" s="96"/>
+      <c r="J180" s="96"/>
+      <c r="K180" s="96"/>
+      <c r="L180" s="92"/>
       <c r="M180" s="12">
         <v>2</v>
       </c>
@@ -12289,17 +12377,17 @@
       </c>
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B181" s="102"/>
-      <c r="C181" s="102"/>
-      <c r="D181" s="104"/>
-      <c r="E181" s="104"/>
-      <c r="F181" s="107"/>
-      <c r="G181" s="104"/>
-      <c r="H181" s="104"/>
-      <c r="I181" s="104"/>
-      <c r="J181" s="104"/>
-      <c r="K181" s="104"/>
-      <c r="L181" s="93"/>
+      <c r="B181" s="99"/>
+      <c r="C181" s="99"/>
+      <c r="D181" s="96"/>
+      <c r="E181" s="96"/>
+      <c r="F181" s="102"/>
+      <c r="G181" s="96"/>
+      <c r="H181" s="96"/>
+      <c r="I181" s="96"/>
+      <c r="J181" s="96"/>
+      <c r="K181" s="96"/>
+      <c r="L181" s="92"/>
       <c r="M181" s="12">
         <v>3</v>
       </c>
@@ -12313,17 +12401,17 @@
       </c>
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B182" s="102"/>
-      <c r="C182" s="102"/>
-      <c r="D182" s="104"/>
-      <c r="E182" s="104"/>
-      <c r="F182" s="107"/>
-      <c r="G182" s="104"/>
-      <c r="H182" s="104"/>
-      <c r="I182" s="104"/>
-      <c r="J182" s="104"/>
-      <c r="K182" s="104"/>
-      <c r="L182" s="93"/>
+      <c r="B182" s="99"/>
+      <c r="C182" s="99"/>
+      <c r="D182" s="96"/>
+      <c r="E182" s="96"/>
+      <c r="F182" s="102"/>
+      <c r="G182" s="96"/>
+      <c r="H182" s="96"/>
+      <c r="I182" s="96"/>
+      <c r="J182" s="96"/>
+      <c r="K182" s="96"/>
+      <c r="L182" s="92"/>
       <c r="M182" s="12">
         <v>4</v>
       </c>
@@ -12337,41 +12425,41 @@
       </c>
     </row>
     <row r="183" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B183" s="102"/>
-      <c r="C183" s="102"/>
-      <c r="D183" s="104"/>
-      <c r="E183" s="104"/>
-      <c r="F183" s="107"/>
-      <c r="G183" s="104"/>
-      <c r="H183" s="104"/>
-      <c r="I183" s="104"/>
-      <c r="J183" s="104"/>
-      <c r="K183" s="104"/>
-      <c r="L183" s="93"/>
+      <c r="B183" s="99"/>
+      <c r="C183" s="99"/>
+      <c r="D183" s="96"/>
+      <c r="E183" s="96"/>
+      <c r="F183" s="102"/>
+      <c r="G183" s="96"/>
+      <c r="H183" s="96"/>
+      <c r="I183" s="96"/>
+      <c r="J183" s="96"/>
+      <c r="K183" s="96"/>
+      <c r="L183" s="92"/>
       <c r="M183" s="12">
         <v>5</v>
       </c>
-      <c r="N183" s="12" t="str">
+      <c r="N183" s="12">
         <f>IF(CASTRO!E34="","",CASTRO!E34)</f>
-        <v/>
-      </c>
-      <c r="O183" s="75" t="str">
+        <v>0</v>
+      </c>
+      <c r="O183" s="75">
         <f>IF(N183="","Día de mes siguiente",CASTRO!F34)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B184" s="102"/>
-      <c r="C184" s="102"/>
-      <c r="D184" s="104"/>
-      <c r="E184" s="104"/>
-      <c r="F184" s="107"/>
-      <c r="G184" s="104"/>
-      <c r="H184" s="104"/>
-      <c r="I184" s="104"/>
-      <c r="J184" s="104"/>
-      <c r="K184" s="104"/>
-      <c r="L184" s="100" t="s">
+      <c r="B184" s="99"/>
+      <c r="C184" s="99"/>
+      <c r="D184" s="96"/>
+      <c r="E184" s="96"/>
+      <c r="F184" s="102"/>
+      <c r="G184" s="96"/>
+      <c r="H184" s="96"/>
+      <c r="I184" s="96"/>
+      <c r="J184" s="96"/>
+      <c r="K184" s="96"/>
+      <c r="L184" s="93" t="s">
         <v>97</v>
       </c>
       <c r="M184" s="20">
@@ -12387,17 +12475,17 @@
       </c>
     </row>
     <row r="185" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B185" s="102"/>
-      <c r="C185" s="102"/>
-      <c r="D185" s="104"/>
-      <c r="E185" s="104"/>
-      <c r="F185" s="107"/>
-      <c r="G185" s="104"/>
-      <c r="H185" s="104"/>
-      <c r="I185" s="104"/>
-      <c r="J185" s="104"/>
-      <c r="K185" s="104"/>
-      <c r="L185" s="101"/>
+      <c r="B185" s="99"/>
+      <c r="C185" s="99"/>
+      <c r="D185" s="96"/>
+      <c r="E185" s="96"/>
+      <c r="F185" s="102"/>
+      <c r="G185" s="96"/>
+      <c r="H185" s="96"/>
+      <c r="I185" s="96"/>
+      <c r="J185" s="96"/>
+      <c r="K185" s="96"/>
+      <c r="L185" s="94"/>
       <c r="M185" s="19">
         <v>2</v>
       </c>
@@ -12411,17 +12499,17 @@
       </c>
     </row>
     <row r="186" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B186" s="102"/>
-      <c r="C186" s="102"/>
-      <c r="D186" s="104"/>
-      <c r="E186" s="104"/>
-      <c r="F186" s="107"/>
-      <c r="G186" s="104"/>
-      <c r="H186" s="104"/>
-      <c r="I186" s="104"/>
-      <c r="J186" s="104"/>
-      <c r="K186" s="104"/>
-      <c r="L186" s="101"/>
+      <c r="B186" s="99"/>
+      <c r="C186" s="99"/>
+      <c r="D186" s="96"/>
+      <c r="E186" s="96"/>
+      <c r="F186" s="102"/>
+      <c r="G186" s="96"/>
+      <c r="H186" s="96"/>
+      <c r="I186" s="96"/>
+      <c r="J186" s="96"/>
+      <c r="K186" s="96"/>
+      <c r="L186" s="94"/>
       <c r="M186" s="19">
         <v>3</v>
       </c>
@@ -12435,17 +12523,17 @@
       </c>
     </row>
     <row r="187" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B187" s="102"/>
-      <c r="C187" s="102"/>
-      <c r="D187" s="104"/>
-      <c r="E187" s="104"/>
-      <c r="F187" s="107"/>
-      <c r="G187" s="104"/>
-      <c r="H187" s="104"/>
-      <c r="I187" s="104"/>
-      <c r="J187" s="104"/>
-      <c r="K187" s="104"/>
-      <c r="L187" s="101"/>
+      <c r="B187" s="99"/>
+      <c r="C187" s="99"/>
+      <c r="D187" s="96"/>
+      <c r="E187" s="96"/>
+      <c r="F187" s="102"/>
+      <c r="G187" s="96"/>
+      <c r="H187" s="96"/>
+      <c r="I187" s="96"/>
+      <c r="J187" s="96"/>
+      <c r="K187" s="96"/>
+      <c r="L187" s="94"/>
       <c r="M187" s="19">
         <v>4</v>
       </c>
@@ -12459,17 +12547,17 @@
       </c>
     </row>
     <row r="188" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B188" s="102"/>
-      <c r="C188" s="102"/>
-      <c r="D188" s="104"/>
-      <c r="E188" s="104"/>
-      <c r="F188" s="107"/>
-      <c r="G188" s="104"/>
-      <c r="H188" s="104"/>
-      <c r="I188" s="104"/>
-      <c r="J188" s="104"/>
-      <c r="K188" s="104"/>
-      <c r="L188" s="101"/>
+      <c r="B188" s="99"/>
+      <c r="C188" s="99"/>
+      <c r="D188" s="96"/>
+      <c r="E188" s="96"/>
+      <c r="F188" s="102"/>
+      <c r="G188" s="96"/>
+      <c r="H188" s="96"/>
+      <c r="I188" s="96"/>
+      <c r="J188" s="96"/>
+      <c r="K188" s="96"/>
+      <c r="L188" s="94"/>
       <c r="M188" s="19">
         <v>5</v>
       </c>
@@ -12483,17 +12571,17 @@
       </c>
     </row>
     <row r="189" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B189" s="102"/>
-      <c r="C189" s="102"/>
-      <c r="D189" s="104"/>
-      <c r="E189" s="104"/>
-      <c r="F189" s="107"/>
-      <c r="G189" s="104"/>
-      <c r="H189" s="104"/>
-      <c r="I189" s="104"/>
-      <c r="J189" s="104"/>
-      <c r="K189" s="104"/>
-      <c r="L189" s="92" t="s">
+      <c r="B189" s="99"/>
+      <c r="C189" s="99"/>
+      <c r="D189" s="96"/>
+      <c r="E189" s="96"/>
+      <c r="F189" s="102"/>
+      <c r="G189" s="96"/>
+      <c r="H189" s="96"/>
+      <c r="I189" s="96"/>
+      <c r="J189" s="96"/>
+      <c r="K189" s="96"/>
+      <c r="L189" s="91" t="s">
         <v>98</v>
       </c>
       <c r="M189" s="13">
@@ -12509,17 +12597,17 @@
       </c>
     </row>
     <row r="190" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B190" s="102"/>
-      <c r="C190" s="102"/>
-      <c r="D190" s="104"/>
-      <c r="E190" s="104"/>
-      <c r="F190" s="107"/>
-      <c r="G190" s="104"/>
-      <c r="H190" s="104"/>
-      <c r="I190" s="104"/>
-      <c r="J190" s="104"/>
-      <c r="K190" s="104"/>
-      <c r="L190" s="93"/>
+      <c r="B190" s="99"/>
+      <c r="C190" s="99"/>
+      <c r="D190" s="96"/>
+      <c r="E190" s="96"/>
+      <c r="F190" s="102"/>
+      <c r="G190" s="96"/>
+      <c r="H190" s="96"/>
+      <c r="I190" s="96"/>
+      <c r="J190" s="96"/>
+      <c r="K190" s="96"/>
+      <c r="L190" s="92"/>
       <c r="M190" s="12">
         <v>2</v>
       </c>
@@ -12533,17 +12621,17 @@
       </c>
     </row>
     <row r="191" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B191" s="102"/>
-      <c r="C191" s="102"/>
-      <c r="D191" s="104"/>
-      <c r="E191" s="104"/>
-      <c r="F191" s="107"/>
-      <c r="G191" s="104"/>
-      <c r="H191" s="104"/>
-      <c r="I191" s="104"/>
-      <c r="J191" s="104"/>
-      <c r="K191" s="104"/>
-      <c r="L191" s="93"/>
+      <c r="B191" s="99"/>
+      <c r="C191" s="99"/>
+      <c r="D191" s="96"/>
+      <c r="E191" s="96"/>
+      <c r="F191" s="102"/>
+      <c r="G191" s="96"/>
+      <c r="H191" s="96"/>
+      <c r="I191" s="96"/>
+      <c r="J191" s="96"/>
+      <c r="K191" s="96"/>
+      <c r="L191" s="92"/>
       <c r="M191" s="12">
         <v>3</v>
       </c>
@@ -12557,17 +12645,17 @@
       </c>
     </row>
     <row r="192" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B192" s="102"/>
-      <c r="C192" s="102"/>
-      <c r="D192" s="104"/>
-      <c r="E192" s="104"/>
-      <c r="F192" s="107"/>
-      <c r="G192" s="104"/>
-      <c r="H192" s="104"/>
-      <c r="I192" s="104"/>
-      <c r="J192" s="104"/>
-      <c r="K192" s="104"/>
-      <c r="L192" s="93"/>
+      <c r="B192" s="99"/>
+      <c r="C192" s="99"/>
+      <c r="D192" s="96"/>
+      <c r="E192" s="96"/>
+      <c r="F192" s="102"/>
+      <c r="G192" s="96"/>
+      <c r="H192" s="96"/>
+      <c r="I192" s="96"/>
+      <c r="J192" s="96"/>
+      <c r="K192" s="96"/>
+      <c r="L192" s="92"/>
       <c r="M192" s="12">
         <v>4</v>
       </c>
@@ -12581,17 +12669,17 @@
       </c>
     </row>
     <row r="193" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B193" s="102"/>
-      <c r="C193" s="102"/>
-      <c r="D193" s="104"/>
-      <c r="E193" s="104"/>
-      <c r="F193" s="107"/>
-      <c r="G193" s="104"/>
-      <c r="H193" s="104"/>
-      <c r="I193" s="104"/>
-      <c r="J193" s="104"/>
-      <c r="K193" s="104"/>
-      <c r="L193" s="93"/>
+      <c r="B193" s="99"/>
+      <c r="C193" s="99"/>
+      <c r="D193" s="96"/>
+      <c r="E193" s="96"/>
+      <c r="F193" s="102"/>
+      <c r="G193" s="96"/>
+      <c r="H193" s="96"/>
+      <c r="I193" s="96"/>
+      <c r="J193" s="96"/>
+      <c r="K193" s="96"/>
+      <c r="L193" s="92"/>
       <c r="M193" s="12">
         <v>5</v>
       </c>
@@ -12605,17 +12693,17 @@
       </c>
     </row>
     <row r="194" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B194" s="102"/>
-      <c r="C194" s="102"/>
-      <c r="D194" s="104"/>
-      <c r="E194" s="104"/>
-      <c r="F194" s="107"/>
-      <c r="G194" s="104"/>
-      <c r="H194" s="104"/>
-      <c r="I194" s="104"/>
-      <c r="J194" s="104"/>
-      <c r="K194" s="104"/>
-      <c r="L194" s="92" t="s">
+      <c r="B194" s="99"/>
+      <c r="C194" s="99"/>
+      <c r="D194" s="96"/>
+      <c r="E194" s="96"/>
+      <c r="F194" s="102"/>
+      <c r="G194" s="96"/>
+      <c r="H194" s="96"/>
+      <c r="I194" s="96"/>
+      <c r="J194" s="96"/>
+      <c r="K194" s="96"/>
+      <c r="L194" s="91" t="s">
         <v>99</v>
       </c>
       <c r="M194" s="13">
@@ -12631,17 +12719,17 @@
       </c>
     </row>
     <row r="195" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B195" s="102"/>
-      <c r="C195" s="102"/>
-      <c r="D195" s="104"/>
-      <c r="E195" s="104"/>
-      <c r="F195" s="107"/>
-      <c r="G195" s="104"/>
-      <c r="H195" s="104"/>
-      <c r="I195" s="104"/>
-      <c r="J195" s="104"/>
-      <c r="K195" s="104"/>
-      <c r="L195" s="93"/>
+      <c r="B195" s="99"/>
+      <c r="C195" s="99"/>
+      <c r="D195" s="96"/>
+      <c r="E195" s="96"/>
+      <c r="F195" s="102"/>
+      <c r="G195" s="96"/>
+      <c r="H195" s="96"/>
+      <c r="I195" s="96"/>
+      <c r="J195" s="96"/>
+      <c r="K195" s="96"/>
+      <c r="L195" s="92"/>
       <c r="M195" s="12">
         <v>2</v>
       </c>
@@ -12655,17 +12743,17 @@
       </c>
     </row>
     <row r="196" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B196" s="102"/>
-      <c r="C196" s="102"/>
-      <c r="D196" s="104"/>
-      <c r="E196" s="104"/>
-      <c r="F196" s="107"/>
-      <c r="G196" s="104"/>
-      <c r="H196" s="104"/>
-      <c r="I196" s="104"/>
-      <c r="J196" s="104"/>
-      <c r="K196" s="104"/>
-      <c r="L196" s="93"/>
+      <c r="B196" s="99"/>
+      <c r="C196" s="99"/>
+      <c r="D196" s="96"/>
+      <c r="E196" s="96"/>
+      <c r="F196" s="102"/>
+      <c r="G196" s="96"/>
+      <c r="H196" s="96"/>
+      <c r="I196" s="96"/>
+      <c r="J196" s="96"/>
+      <c r="K196" s="96"/>
+      <c r="L196" s="92"/>
       <c r="M196" s="12">
         <v>3</v>
       </c>
@@ -12679,17 +12767,17 @@
       </c>
     </row>
     <row r="197" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B197" s="102"/>
-      <c r="C197" s="102"/>
-      <c r="D197" s="104"/>
-      <c r="E197" s="104"/>
-      <c r="F197" s="107"/>
-      <c r="G197" s="104"/>
-      <c r="H197" s="104"/>
-      <c r="I197" s="104"/>
-      <c r="J197" s="104"/>
-      <c r="K197" s="104"/>
-      <c r="L197" s="93"/>
+      <c r="B197" s="99"/>
+      <c r="C197" s="99"/>
+      <c r="D197" s="96"/>
+      <c r="E197" s="96"/>
+      <c r="F197" s="102"/>
+      <c r="G197" s="96"/>
+      <c r="H197" s="96"/>
+      <c r="I197" s="96"/>
+      <c r="J197" s="96"/>
+      <c r="K197" s="96"/>
+      <c r="L197" s="92"/>
       <c r="M197" s="12">
         <v>4</v>
       </c>
@@ -12703,17 +12791,17 @@
       </c>
     </row>
     <row r="198" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B198" s="102"/>
-      <c r="C198" s="102"/>
-      <c r="D198" s="104"/>
-      <c r="E198" s="104"/>
-      <c r="F198" s="107"/>
-      <c r="G198" s="104"/>
-      <c r="H198" s="104"/>
-      <c r="I198" s="104"/>
-      <c r="J198" s="104"/>
-      <c r="K198" s="104"/>
-      <c r="L198" s="93"/>
+      <c r="B198" s="99"/>
+      <c r="C198" s="99"/>
+      <c r="D198" s="96"/>
+      <c r="E198" s="96"/>
+      <c r="F198" s="102"/>
+      <c r="G198" s="96"/>
+      <c r="H198" s="96"/>
+      <c r="I198" s="96"/>
+      <c r="J198" s="96"/>
+      <c r="K198" s="96"/>
+      <c r="L198" s="92"/>
       <c r="M198" s="12">
         <v>5</v>
       </c>
@@ -12727,17 +12815,17 @@
       </c>
     </row>
     <row r="199" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B199" s="102"/>
-      <c r="C199" s="102"/>
-      <c r="D199" s="104"/>
-      <c r="E199" s="104"/>
-      <c r="F199" s="107"/>
-      <c r="G199" s="104"/>
-      <c r="H199" s="104"/>
-      <c r="I199" s="104"/>
-      <c r="J199" s="104"/>
-      <c r="K199" s="104"/>
-      <c r="L199" s="92" t="s">
+      <c r="B199" s="99"/>
+      <c r="C199" s="99"/>
+      <c r="D199" s="96"/>
+      <c r="E199" s="96"/>
+      <c r="F199" s="102"/>
+      <c r="G199" s="96"/>
+      <c r="H199" s="96"/>
+      <c r="I199" s="96"/>
+      <c r="J199" s="96"/>
+      <c r="K199" s="96"/>
+      <c r="L199" s="91" t="s">
         <v>100</v>
       </c>
       <c r="M199" s="13">
@@ -12753,17 +12841,17 @@
       </c>
     </row>
     <row r="200" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B200" s="102"/>
-      <c r="C200" s="102"/>
-      <c r="D200" s="104"/>
-      <c r="E200" s="104"/>
-      <c r="F200" s="107"/>
-      <c r="G200" s="104"/>
-      <c r="H200" s="104"/>
-      <c r="I200" s="104"/>
-      <c r="J200" s="104"/>
-      <c r="K200" s="104"/>
-      <c r="L200" s="93"/>
+      <c r="B200" s="99"/>
+      <c r="C200" s="99"/>
+      <c r="D200" s="96"/>
+      <c r="E200" s="96"/>
+      <c r="F200" s="102"/>
+      <c r="G200" s="96"/>
+      <c r="H200" s="96"/>
+      <c r="I200" s="96"/>
+      <c r="J200" s="96"/>
+      <c r="K200" s="96"/>
+      <c r="L200" s="92"/>
       <c r="M200" s="12">
         <v>2</v>
       </c>
@@ -12777,17 +12865,17 @@
       </c>
     </row>
     <row r="201" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B201" s="102"/>
-      <c r="C201" s="102"/>
-      <c r="D201" s="104"/>
-      <c r="E201" s="104"/>
-      <c r="F201" s="107"/>
-      <c r="G201" s="104"/>
-      <c r="H201" s="104"/>
-      <c r="I201" s="104"/>
-      <c r="J201" s="104"/>
-      <c r="K201" s="104"/>
-      <c r="L201" s="93"/>
+      <c r="B201" s="99"/>
+      <c r="C201" s="99"/>
+      <c r="D201" s="96"/>
+      <c r="E201" s="96"/>
+      <c r="F201" s="102"/>
+      <c r="G201" s="96"/>
+      <c r="H201" s="96"/>
+      <c r="I201" s="96"/>
+      <c r="J201" s="96"/>
+      <c r="K201" s="96"/>
+      <c r="L201" s="92"/>
       <c r="M201" s="12">
         <v>3</v>
       </c>
@@ -12801,17 +12889,17 @@
       </c>
     </row>
     <row r="202" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B202" s="102"/>
-      <c r="C202" s="102"/>
-      <c r="D202" s="104"/>
-      <c r="E202" s="104"/>
-      <c r="F202" s="107"/>
-      <c r="G202" s="104"/>
-      <c r="H202" s="104"/>
-      <c r="I202" s="104"/>
-      <c r="J202" s="104"/>
-      <c r="K202" s="104"/>
-      <c r="L202" s="93"/>
+      <c r="B202" s="99"/>
+      <c r="C202" s="99"/>
+      <c r="D202" s="96"/>
+      <c r="E202" s="96"/>
+      <c r="F202" s="102"/>
+      <c r="G202" s="96"/>
+      <c r="H202" s="96"/>
+      <c r="I202" s="96"/>
+      <c r="J202" s="96"/>
+      <c r="K202" s="96"/>
+      <c r="L202" s="92"/>
       <c r="M202" s="12">
         <v>4</v>
       </c>
@@ -12825,17 +12913,17 @@
       </c>
     </row>
     <row r="203" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B203" s="102"/>
-      <c r="C203" s="102"/>
-      <c r="D203" s="104"/>
-      <c r="E203" s="104"/>
-      <c r="F203" s="107"/>
-      <c r="G203" s="104"/>
-      <c r="H203" s="104"/>
-      <c r="I203" s="104"/>
-      <c r="J203" s="104"/>
-      <c r="K203" s="104"/>
-      <c r="L203" s="93"/>
+      <c r="B203" s="99"/>
+      <c r="C203" s="99"/>
+      <c r="D203" s="96"/>
+      <c r="E203" s="96"/>
+      <c r="F203" s="102"/>
+      <c r="G203" s="96"/>
+      <c r="H203" s="96"/>
+      <c r="I203" s="96"/>
+      <c r="J203" s="96"/>
+      <c r="K203" s="96"/>
+      <c r="L203" s="92"/>
       <c r="M203" s="12">
         <v>5</v>
       </c>
@@ -12849,17 +12937,17 @@
       </c>
     </row>
     <row r="204" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B204" s="102"/>
-      <c r="C204" s="102"/>
-      <c r="D204" s="104"/>
-      <c r="E204" s="104"/>
-      <c r="F204" s="107"/>
-      <c r="G204" s="104"/>
-      <c r="H204" s="104"/>
-      <c r="I204" s="104"/>
-      <c r="J204" s="104"/>
-      <c r="K204" s="104"/>
-      <c r="L204" s="92" t="s">
+      <c r="B204" s="99"/>
+      <c r="C204" s="99"/>
+      <c r="D204" s="96"/>
+      <c r="E204" s="96"/>
+      <c r="F204" s="102"/>
+      <c r="G204" s="96"/>
+      <c r="H204" s="96"/>
+      <c r="I204" s="96"/>
+      <c r="J204" s="96"/>
+      <c r="K204" s="96"/>
+      <c r="L204" s="91" t="s">
         <v>79</v>
       </c>
       <c r="M204" s="13">
@@ -12875,17 +12963,17 @@
       </c>
     </row>
     <row r="205" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B205" s="102"/>
-      <c r="C205" s="102"/>
-      <c r="D205" s="104"/>
-      <c r="E205" s="104"/>
-      <c r="F205" s="107"/>
-      <c r="G205" s="104"/>
-      <c r="H205" s="104"/>
-      <c r="I205" s="104"/>
-      <c r="J205" s="104"/>
-      <c r="K205" s="104"/>
-      <c r="L205" s="93"/>
+      <c r="B205" s="99"/>
+      <c r="C205" s="99"/>
+      <c r="D205" s="96"/>
+      <c r="E205" s="96"/>
+      <c r="F205" s="102"/>
+      <c r="G205" s="96"/>
+      <c r="H205" s="96"/>
+      <c r="I205" s="96"/>
+      <c r="J205" s="96"/>
+      <c r="K205" s="96"/>
+      <c r="L205" s="92"/>
       <c r="M205" s="12">
         <v>2</v>
       </c>
@@ -12899,17 +12987,17 @@
       </c>
     </row>
     <row r="206" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B206" s="102"/>
-      <c r="C206" s="102"/>
-      <c r="D206" s="104"/>
-      <c r="E206" s="104"/>
-      <c r="F206" s="107"/>
-      <c r="G206" s="104"/>
-      <c r="H206" s="104"/>
-      <c r="I206" s="104"/>
-      <c r="J206" s="104"/>
-      <c r="K206" s="104"/>
-      <c r="L206" s="93"/>
+      <c r="B206" s="99"/>
+      <c r="C206" s="99"/>
+      <c r="D206" s="96"/>
+      <c r="E206" s="96"/>
+      <c r="F206" s="102"/>
+      <c r="G206" s="96"/>
+      <c r="H206" s="96"/>
+      <c r="I206" s="96"/>
+      <c r="J206" s="96"/>
+      <c r="K206" s="96"/>
+      <c r="L206" s="92"/>
       <c r="M206" s="12">
         <v>3</v>
       </c>
@@ -12923,17 +13011,17 @@
       </c>
     </row>
     <row r="207" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B207" s="102"/>
-      <c r="C207" s="102"/>
-      <c r="D207" s="104"/>
-      <c r="E207" s="104"/>
-      <c r="F207" s="107"/>
-      <c r="G207" s="104"/>
-      <c r="H207" s="104"/>
-      <c r="I207" s="104"/>
-      <c r="J207" s="104"/>
-      <c r="K207" s="104"/>
-      <c r="L207" s="93"/>
+      <c r="B207" s="99"/>
+      <c r="C207" s="99"/>
+      <c r="D207" s="96"/>
+      <c r="E207" s="96"/>
+      <c r="F207" s="102"/>
+      <c r="G207" s="96"/>
+      <c r="H207" s="96"/>
+      <c r="I207" s="96"/>
+      <c r="J207" s="96"/>
+      <c r="K207" s="96"/>
+      <c r="L207" s="92"/>
       <c r="M207" s="12">
         <v>4</v>
       </c>
@@ -12947,41 +13035,41 @@
       </c>
     </row>
     <row r="208" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B208" s="102"/>
-      <c r="C208" s="102"/>
-      <c r="D208" s="104"/>
-      <c r="E208" s="104"/>
-      <c r="F208" s="107"/>
-      <c r="G208" s="104"/>
-      <c r="H208" s="104"/>
-      <c r="I208" s="104"/>
-      <c r="J208" s="104"/>
-      <c r="K208" s="104"/>
-      <c r="L208" s="93"/>
+      <c r="B208" s="99"/>
+      <c r="C208" s="99"/>
+      <c r="D208" s="96"/>
+      <c r="E208" s="96"/>
+      <c r="F208" s="102"/>
+      <c r="G208" s="96"/>
+      <c r="H208" s="96"/>
+      <c r="I208" s="96"/>
+      <c r="J208" s="96"/>
+      <c r="K208" s="96"/>
+      <c r="L208" s="92"/>
       <c r="M208" s="12">
         <v>5</v>
       </c>
-      <c r="N208" s="19" t="str">
+      <c r="N208" s="19">
         <f>IF(CASTRO!E39="","",CASTRO!E39)</f>
-        <v/>
-      </c>
-      <c r="O208" s="73" t="str">
+        <v>0</v>
+      </c>
+      <c r="O208" s="73">
         <f>IF(N208="","Día de mes siguiente",CASTRO!F39)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B209" s="102"/>
-      <c r="C209" s="102"/>
-      <c r="D209" s="104"/>
-      <c r="E209" s="104"/>
-      <c r="F209" s="107"/>
-      <c r="G209" s="104"/>
-      <c r="H209" s="104"/>
-      <c r="I209" s="104"/>
-      <c r="J209" s="104"/>
-      <c r="K209" s="104"/>
-      <c r="L209" s="92" t="s">
+      <c r="B209" s="99"/>
+      <c r="C209" s="99"/>
+      <c r="D209" s="96"/>
+      <c r="E209" s="96"/>
+      <c r="F209" s="102"/>
+      <c r="G209" s="96"/>
+      <c r="H209" s="96"/>
+      <c r="I209" s="96"/>
+      <c r="J209" s="96"/>
+      <c r="K209" s="96"/>
+      <c r="L209" s="91" t="s">
         <v>101</v>
       </c>
       <c r="M209" s="13">
@@ -12997,17 +13085,17 @@
       </c>
     </row>
     <row r="210" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B210" s="102"/>
-      <c r="C210" s="102"/>
-      <c r="D210" s="104"/>
-      <c r="E210" s="104"/>
-      <c r="F210" s="107"/>
-      <c r="G210" s="104"/>
-      <c r="H210" s="104"/>
-      <c r="I210" s="104"/>
-      <c r="J210" s="104"/>
-      <c r="K210" s="104"/>
-      <c r="L210" s="93"/>
+      <c r="B210" s="99"/>
+      <c r="C210" s="99"/>
+      <c r="D210" s="96"/>
+      <c r="E210" s="96"/>
+      <c r="F210" s="102"/>
+      <c r="G210" s="96"/>
+      <c r="H210" s="96"/>
+      <c r="I210" s="96"/>
+      <c r="J210" s="96"/>
+      <c r="K210" s="96"/>
+      <c r="L210" s="92"/>
       <c r="M210" s="12">
         <v>2</v>
       </c>
@@ -13021,17 +13109,17 @@
       </c>
     </row>
     <row r="211" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B211" s="102"/>
-      <c r="C211" s="102"/>
-      <c r="D211" s="104"/>
-      <c r="E211" s="104"/>
-      <c r="F211" s="107"/>
-      <c r="G211" s="104"/>
-      <c r="H211" s="104"/>
-      <c r="I211" s="104"/>
-      <c r="J211" s="104"/>
-      <c r="K211" s="104"/>
-      <c r="L211" s="93"/>
+      <c r="B211" s="99"/>
+      <c r="C211" s="99"/>
+      <c r="D211" s="96"/>
+      <c r="E211" s="96"/>
+      <c r="F211" s="102"/>
+      <c r="G211" s="96"/>
+      <c r="H211" s="96"/>
+      <c r="I211" s="96"/>
+      <c r="J211" s="96"/>
+      <c r="K211" s="96"/>
+      <c r="L211" s="92"/>
       <c r="M211" s="12">
         <v>3</v>
       </c>
@@ -13045,17 +13133,17 @@
       </c>
     </row>
     <row r="212" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B212" s="102"/>
-      <c r="C212" s="102"/>
-      <c r="D212" s="104"/>
-      <c r="E212" s="104"/>
-      <c r="F212" s="107"/>
-      <c r="G212" s="104"/>
-      <c r="H212" s="104"/>
-      <c r="I212" s="104"/>
-      <c r="J212" s="104"/>
-      <c r="K212" s="104"/>
-      <c r="L212" s="93"/>
+      <c r="B212" s="99"/>
+      <c r="C212" s="99"/>
+      <c r="D212" s="96"/>
+      <c r="E212" s="96"/>
+      <c r="F212" s="102"/>
+      <c r="G212" s="96"/>
+      <c r="H212" s="96"/>
+      <c r="I212" s="96"/>
+      <c r="J212" s="96"/>
+      <c r="K212" s="96"/>
+      <c r="L212" s="92"/>
       <c r="M212" s="12">
         <v>4</v>
       </c>
@@ -13069,113 +13157,31 @@
       </c>
     </row>
     <row r="213" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B213" s="103"/>
-      <c r="C213" s="103"/>
-      <c r="D213" s="105"/>
-      <c r="E213" s="105"/>
-      <c r="F213" s="108"/>
-      <c r="G213" s="105"/>
-      <c r="H213" s="105"/>
-      <c r="I213" s="105"/>
-      <c r="J213" s="105"/>
-      <c r="K213" s="105"/>
-      <c r="L213" s="93"/>
+      <c r="B213" s="100"/>
+      <c r="C213" s="100"/>
+      <c r="D213" s="97"/>
+      <c r="E213" s="97"/>
+      <c r="F213" s="103"/>
+      <c r="G213" s="97"/>
+      <c r="H213" s="97"/>
+      <c r="I213" s="97"/>
+      <c r="J213" s="97"/>
+      <c r="K213" s="97"/>
+      <c r="L213" s="92"/>
       <c r="M213" s="12">
         <v>5</v>
       </c>
-      <c r="N213" s="19" t="str">
+      <c r="N213" s="19">
         <f>IF(CASTRO!E40="","",CASTRO!E40)</f>
-        <v/>
-      </c>
-      <c r="O213" s="73" t="str">
+        <v>0</v>
+      </c>
+      <c r="O213" s="73">
         <f>IF(N213="","Día de mes siguiente",CASTRO!F40)</f>
-        <v>Día de mes siguiente</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="L204:L208"/>
-    <mergeCell ref="L209:L213"/>
-    <mergeCell ref="L179:L183"/>
-    <mergeCell ref="L184:L188"/>
-    <mergeCell ref="L189:L193"/>
-    <mergeCell ref="L194:L198"/>
-    <mergeCell ref="L199:L203"/>
-    <mergeCell ref="H179:H213"/>
-    <mergeCell ref="I179:I213"/>
-    <mergeCell ref="J179:J213"/>
-    <mergeCell ref="K179:K213"/>
-    <mergeCell ref="B179:B213"/>
-    <mergeCell ref="C179:C213"/>
-    <mergeCell ref="D179:D213"/>
-    <mergeCell ref="E179:E213"/>
-    <mergeCell ref="F179:F213"/>
-    <mergeCell ref="B79:B113"/>
-    <mergeCell ref="C79:C113"/>
-    <mergeCell ref="G179:G213"/>
-    <mergeCell ref="B149:B178"/>
-    <mergeCell ref="B114:B148"/>
-    <mergeCell ref="C114:C148"/>
-    <mergeCell ref="D114:D148"/>
-    <mergeCell ref="E114:E148"/>
-    <mergeCell ref="F114:F148"/>
-    <mergeCell ref="G114:G148"/>
-    <mergeCell ref="G44:G78"/>
-    <mergeCell ref="H44:H78"/>
-    <mergeCell ref="G79:G113"/>
-    <mergeCell ref="H79:H113"/>
-    <mergeCell ref="I44:I78"/>
-    <mergeCell ref="J44:J78"/>
-    <mergeCell ref="K44:K78"/>
-    <mergeCell ref="B44:B78"/>
-    <mergeCell ref="C44:C78"/>
-    <mergeCell ref="D44:D78"/>
-    <mergeCell ref="E44:E78"/>
-    <mergeCell ref="F44:F78"/>
-    <mergeCell ref="I79:I113"/>
-    <mergeCell ref="J79:J113"/>
-    <mergeCell ref="K79:K113"/>
-    <mergeCell ref="D79:D113"/>
-    <mergeCell ref="E79:E113"/>
-    <mergeCell ref="F79:F113"/>
-    <mergeCell ref="G9:G43"/>
-    <mergeCell ref="L34:L38"/>
-    <mergeCell ref="B9:B43"/>
-    <mergeCell ref="C9:C43"/>
-    <mergeCell ref="D9:D43"/>
-    <mergeCell ref="E9:E43"/>
-    <mergeCell ref="F9:F43"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="L14:L18"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="L24:L28"/>
-    <mergeCell ref="L29:L33"/>
-    <mergeCell ref="H9:H43"/>
-    <mergeCell ref="I9:I43"/>
-    <mergeCell ref="J9:J43"/>
-    <mergeCell ref="K9:K43"/>
-    <mergeCell ref="L69:L73"/>
-    <mergeCell ref="L74:L78"/>
-    <mergeCell ref="L89:L93"/>
-    <mergeCell ref="L84:L88"/>
-    <mergeCell ref="L39:L43"/>
-    <mergeCell ref="L44:L48"/>
-    <mergeCell ref="L49:L53"/>
-    <mergeCell ref="L54:L58"/>
-    <mergeCell ref="L59:L63"/>
-    <mergeCell ref="L64:L68"/>
-    <mergeCell ref="L79:L83"/>
-    <mergeCell ref="L94:L98"/>
-    <mergeCell ref="I114:I148"/>
-    <mergeCell ref="J114:J148"/>
-    <mergeCell ref="K114:K148"/>
-    <mergeCell ref="L119:L123"/>
-    <mergeCell ref="L99:L103"/>
-    <mergeCell ref="L104:L108"/>
-    <mergeCell ref="L109:L113"/>
-    <mergeCell ref="L114:L118"/>
-    <mergeCell ref="L144:L148"/>
-    <mergeCell ref="L124:L128"/>
     <mergeCell ref="H114:H148"/>
     <mergeCell ref="K149:K178"/>
     <mergeCell ref="L129:L133"/>
@@ -13195,6 +13201,88 @@
     <mergeCell ref="L159:L163"/>
     <mergeCell ref="L174:L178"/>
     <mergeCell ref="L169:L173"/>
+    <mergeCell ref="L94:L98"/>
+    <mergeCell ref="I114:I148"/>
+    <mergeCell ref="J114:J148"/>
+    <mergeCell ref="K114:K148"/>
+    <mergeCell ref="L119:L123"/>
+    <mergeCell ref="L99:L103"/>
+    <mergeCell ref="L104:L108"/>
+    <mergeCell ref="L109:L113"/>
+    <mergeCell ref="L114:L118"/>
+    <mergeCell ref="L144:L148"/>
+    <mergeCell ref="L124:L128"/>
+    <mergeCell ref="L69:L73"/>
+    <mergeCell ref="L74:L78"/>
+    <mergeCell ref="L89:L93"/>
+    <mergeCell ref="L84:L88"/>
+    <mergeCell ref="L39:L43"/>
+    <mergeCell ref="L44:L48"/>
+    <mergeCell ref="L49:L53"/>
+    <mergeCell ref="L54:L58"/>
+    <mergeCell ref="L59:L63"/>
+    <mergeCell ref="L64:L68"/>
+    <mergeCell ref="L79:L83"/>
+    <mergeCell ref="G9:G43"/>
+    <mergeCell ref="L34:L38"/>
+    <mergeCell ref="B9:B43"/>
+    <mergeCell ref="C9:C43"/>
+    <mergeCell ref="D9:D43"/>
+    <mergeCell ref="E9:E43"/>
+    <mergeCell ref="F9:F43"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="L29:L33"/>
+    <mergeCell ref="H9:H43"/>
+    <mergeCell ref="I9:I43"/>
+    <mergeCell ref="J9:J43"/>
+    <mergeCell ref="K9:K43"/>
+    <mergeCell ref="G44:G78"/>
+    <mergeCell ref="H44:H78"/>
+    <mergeCell ref="G79:G113"/>
+    <mergeCell ref="H79:H113"/>
+    <mergeCell ref="I44:I78"/>
+    <mergeCell ref="J44:J78"/>
+    <mergeCell ref="K44:K78"/>
+    <mergeCell ref="B44:B78"/>
+    <mergeCell ref="C44:C78"/>
+    <mergeCell ref="D44:D78"/>
+    <mergeCell ref="E44:E78"/>
+    <mergeCell ref="F44:F78"/>
+    <mergeCell ref="I79:I113"/>
+    <mergeCell ref="J79:J113"/>
+    <mergeCell ref="K79:K113"/>
+    <mergeCell ref="D79:D113"/>
+    <mergeCell ref="E79:E113"/>
+    <mergeCell ref="F79:F113"/>
+    <mergeCell ref="B179:B213"/>
+    <mergeCell ref="C179:C213"/>
+    <mergeCell ref="D179:D213"/>
+    <mergeCell ref="E179:E213"/>
+    <mergeCell ref="F179:F213"/>
+    <mergeCell ref="B79:B113"/>
+    <mergeCell ref="C79:C113"/>
+    <mergeCell ref="G179:G213"/>
+    <mergeCell ref="B149:B178"/>
+    <mergeCell ref="B114:B148"/>
+    <mergeCell ref="C114:C148"/>
+    <mergeCell ref="D114:D148"/>
+    <mergeCell ref="E114:E148"/>
+    <mergeCell ref="F114:F148"/>
+    <mergeCell ref="G114:G148"/>
+    <mergeCell ref="L204:L208"/>
+    <mergeCell ref="L209:L213"/>
+    <mergeCell ref="L179:L183"/>
+    <mergeCell ref="L184:L188"/>
+    <mergeCell ref="L189:L193"/>
+    <mergeCell ref="L194:L198"/>
+    <mergeCell ref="L199:L203"/>
+    <mergeCell ref="H179:H213"/>
+    <mergeCell ref="I179:I213"/>
+    <mergeCell ref="J179:J213"/>
+    <mergeCell ref="K179:K213"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="42" orientation="landscape" r:id="rId1"/>
